--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$556</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$557</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="420">
   <si>
     <t>備考</t>
   </si>
@@ -2909,6 +2909,13 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>タカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2916,7 +2923,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3272,11 +3279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J556"/>
+  <dimension ref="A1:J557"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D555" sqref="D555"/>
+      <pane ySplit="2" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H558" sqref="H558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3302,7 +3309,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44094.589141898148</v>
+        <v>44095.637339236113</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -17424,6 +17431,32 @@
         <v>38</v>
       </c>
       <c r="H556" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" s="5">
+        <v>555</v>
+      </c>
+      <c r="B557" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D557" s="6">
+        <v>44095</v>
+      </c>
+      <c r="E557" s="6">
+        <v>44090</v>
+      </c>
+      <c r="F557" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H557" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$557</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$558</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="422">
   <si>
     <t>備考</t>
   </si>
@@ -2916,6 +2916,20 @@
     <t>香芝市</t>
     <rPh sb="0" eb="3">
       <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3279,11 +3293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J557"/>
+  <dimension ref="A1:J558"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H558" sqref="H558"/>
+      <selection pane="bottomLeft" activeCell="E558" sqref="E558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3309,7 +3323,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44095.637339236113</v>
+        <v>44096.587758564812</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -17458,6 +17472,32 @@
       </c>
       <c r="H557" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" s="5">
+        <v>556</v>
+      </c>
+      <c r="B558" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D558" s="6">
+        <v>44096</v>
+      </c>
+      <c r="E558" s="6">
+        <v>44086</v>
+      </c>
+      <c r="F558" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H558" s="5" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$558</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$560</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="422">
   <si>
     <t>備考</t>
   </si>
@@ -3293,11 +3293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J558"/>
+  <dimension ref="A1:J560"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E558" sqref="E558"/>
+      <pane ySplit="2" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F559" sqref="F559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44096.587758564812</v>
+        <v>44097.61481979167</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -17498,6 +17498,58 @@
       </c>
       <c r="H558" s="5" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" s="5">
+        <v>557</v>
+      </c>
+      <c r="B559" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C559" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D559" s="6">
+        <v>44097</v>
+      </c>
+      <c r="E559" s="6">
+        <v>44089</v>
+      </c>
+      <c r="F559" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H559" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" s="5">
+        <v>558</v>
+      </c>
+      <c r="B560" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D560" s="6">
+        <v>44097</v>
+      </c>
+      <c r="E560" s="6">
+        <v>44094</v>
+      </c>
+      <c r="F560" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H560" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$560</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$562</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="425">
   <si>
     <t>備考</t>
   </si>
@@ -2909,6 +2909,27 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>タカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2937,7 +2958,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3293,11 +3314,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J560"/>
+  <dimension ref="A1:J562"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F559" sqref="F559"/>
+      <pane ySplit="2" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H563" sqref="H563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3323,7 +3344,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44097.61481979167</v>
+        <v>44099.69476273148</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -17550,6 +17571,58 @@
       </c>
       <c r="H560" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561" s="5">
+        <v>559</v>
+      </c>
+      <c r="B561" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C561" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D561" s="6">
+        <v>44099</v>
+      </c>
+      <c r="E561" s="6">
+        <v>44092</v>
+      </c>
+      <c r="F561" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H561" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="A562" s="5">
+        <v>560</v>
+      </c>
+      <c r="B562" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D562" s="6">
+        <v>44099</v>
+      </c>
+      <c r="E562" s="6">
+        <v>44096</v>
+      </c>
+      <c r="F562" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H562" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$562</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$564</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="430">
   <si>
     <t>備考</t>
   </si>
@@ -2951,6 +2951,41 @@
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3314,37 +3349,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J562"/>
+  <dimension ref="A1:J564"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H563" sqref="H563"/>
+      <selection pane="bottomLeft" activeCell="G565" sqref="G565"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44099.69476273148</v>
+        <v>44100.622173611111</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3354,7 +3389,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="26">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -17623,6 +17658,58 @@
       </c>
       <c r="H562" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="5">
+        <v>561</v>
+      </c>
+      <c r="B563" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C563" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D563" s="6">
+        <v>44100</v>
+      </c>
+      <c r="E563" s="6">
+        <v>44095</v>
+      </c>
+      <c r="F563" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="H563" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="5">
+        <v>562</v>
+      </c>
+      <c r="B564" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D564" s="6">
+        <v>44100</v>
+      </c>
+      <c r="E564" s="6">
+        <v>44098</v>
+      </c>
+      <c r="F564" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H564" s="5" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$564</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$569</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="439">
   <si>
     <t>備考</t>
   </si>
@@ -2988,6 +2988,72 @@
       <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川西町</t>
+    <rPh sb="0" eb="3">
+      <t>カワニシチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2998,7 +3064,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3033,6 +3099,18 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3349,37 +3427,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J564"/>
+  <dimension ref="A1:J569"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G565" sqref="G565"/>
+      <pane ySplit="2" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F571" sqref="F571"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44100.622173611111</v>
+        <v>44102.661057291669</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3389,7 +3467,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="26">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -17710,6 +17788,133 @@
       </c>
       <c r="H564" s="5" t="s">
         <v>427</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="5">
+        <v>563</v>
+      </c>
+      <c r="B565" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C565" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D565" s="6">
+        <v>44102</v>
+      </c>
+      <c r="E565" s="6">
+        <v>44095</v>
+      </c>
+      <c r="F565" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H565" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="5">
+        <v>564</v>
+      </c>
+      <c r="B566" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D566" s="6">
+        <v>44102</v>
+      </c>
+      <c r="E566" s="6">
+        <v>44098</v>
+      </c>
+      <c r="F566" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G566" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H566" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="5">
+        <v>565</v>
+      </c>
+      <c r="B567" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D567" s="6">
+        <v>44102</v>
+      </c>
+      <c r="E567" s="6">
+        <v>44100</v>
+      </c>
+      <c r="F567" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G567" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="H567" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="5">
+        <v>566</v>
+      </c>
+      <c r="B568" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D568" s="6">
+        <v>44102</v>
+      </c>
+      <c r="E568" s="6">
+        <v>44101</v>
+      </c>
+      <c r="F568" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G568" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H568" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="5">
+        <v>567</v>
+      </c>
+      <c r="B569" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D569" s="6">
+        <v>44102</v>
+      </c>
+      <c r="F569" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G569" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H569" s="5" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$569</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$570</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="439">
   <si>
     <t>備考</t>
   </si>
@@ -3059,12 +3059,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3105,12 +3105,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3427,11 +3421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J569"/>
+  <dimension ref="A1:J570"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F571" sqref="F571"/>
+      <selection pane="bottomLeft" activeCell="E567" sqref="E567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3457,7 +3451,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44102.661057291669</v>
+        <v>44103.648574999999</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -17915,6 +17909,32 @@
       </c>
       <c r="H569" s="5" t="s">
         <v>438</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="5">
+        <v>568</v>
+      </c>
+      <c r="B570" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D570" s="6">
+        <v>44103</v>
+      </c>
+      <c r="E570" s="6">
+        <v>44098</v>
+      </c>
+      <c r="F570" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G570" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H570" s="5" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$570</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$585</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="439">
   <si>
     <t>備考</t>
   </si>
@@ -3421,11 +3421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J570"/>
+  <dimension ref="A1:J571"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E567" sqref="E567"/>
+      <pane ySplit="2" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H572" sqref="H572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44103.648574999999</v>
+        <v>44104.614076504629</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -17935,6 +17935,29 @@
       </c>
       <c r="H570" s="5" t="s">
         <v>436</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="5">
+        <v>569</v>
+      </c>
+      <c r="B571" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C571" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D571" s="6">
+        <v>44104</v>
+      </c>
+      <c r="F571" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G571" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H571" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="439">
   <si>
     <t>備考</t>
   </si>
@@ -3421,11 +3421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J571"/>
+  <dimension ref="A1:J576"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H572" sqref="H572"/>
+      <pane ySplit="2" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H536" sqref="H536:H542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44104.614076504629</v>
+        <v>44105.62906875</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -17958,6 +17958,136 @@
       </c>
       <c r="H571" s="5" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="5">
+        <v>570</v>
+      </c>
+      <c r="B572" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D572" s="6">
+        <v>44105</v>
+      </c>
+      <c r="E572" s="6">
+        <v>44098</v>
+      </c>
+      <c r="F572" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G572" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H572" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="5">
+        <v>571</v>
+      </c>
+      <c r="B573" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D573" s="6">
+        <v>44105</v>
+      </c>
+      <c r="E573" s="6">
+        <v>44099</v>
+      </c>
+      <c r="F573" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G573" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H573" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="5">
+        <v>572</v>
+      </c>
+      <c r="B574" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D574" s="6">
+        <v>44105</v>
+      </c>
+      <c r="E574" s="6">
+        <v>44096</v>
+      </c>
+      <c r="F574" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G574" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H574" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="A575" s="5">
+        <v>573</v>
+      </c>
+      <c r="B575" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D575" s="6">
+        <v>44105</v>
+      </c>
+      <c r="E575" s="6">
+        <v>44099</v>
+      </c>
+      <c r="F575" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G575" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H575" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576" s="5">
+        <v>574</v>
+      </c>
+      <c r="B576" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C576" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D576" s="6">
+        <v>44105</v>
+      </c>
+      <c r="E576" s="6">
+        <v>44100</v>
+      </c>
+      <c r="F576" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G576" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H576" s="5" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$585</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="439">
   <si>
     <t>備考</t>
   </si>
@@ -3059,7 +3059,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3421,11 +3421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J576"/>
+  <dimension ref="A1:J577"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H536" sqref="H536:H542"/>
+      <selection pane="bottomLeft" activeCell="H577" sqref="H577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44105.62906875</v>
+        <v>44106.604441319447</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -18088,6 +18088,32 @@
       </c>
       <c r="H576" s="5" t="s">
         <v>436</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577" s="5">
+        <v>575</v>
+      </c>
+      <c r="B577" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D577" s="6">
+        <v>44106</v>
+      </c>
+      <c r="E577" s="6">
+        <v>44105</v>
+      </c>
+      <c r="F577" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G577" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H577" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="447">
   <si>
     <t>備考</t>
   </si>
@@ -3054,6 +3054,62 @@
       <t>ジョセイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>宇陀市</t>
+    <rPh sb="0" eb="3">
+      <t>ウダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3421,37 +3477,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J577"/>
+  <dimension ref="A1:J582"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H577" sqref="H577"/>
+      <pane ySplit="2" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D582" sqref="D582"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44106.604441319447</v>
+        <v>44107.62553946759</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3461,7 +3517,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="26">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -18114,6 +18170,133 @@
       </c>
       <c r="H577" s="5" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578" s="5">
+        <v>576</v>
+      </c>
+      <c r="B578" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D578" s="6">
+        <v>44107</v>
+      </c>
+      <c r="E578" s="6">
+        <v>44102</v>
+      </c>
+      <c r="F578" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G578" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H578" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" s="5">
+        <v>577</v>
+      </c>
+      <c r="B579" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D579" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F579" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G579" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="H579" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580" s="5">
+        <v>578</v>
+      </c>
+      <c r="B580" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D580" s="6">
+        <v>44107</v>
+      </c>
+      <c r="E580" s="6">
+        <v>44105</v>
+      </c>
+      <c r="F580" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="G580" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H580" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581" s="5">
+        <v>579</v>
+      </c>
+      <c r="B581" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C581" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D581" s="6">
+        <v>44107</v>
+      </c>
+      <c r="E581" s="6">
+        <v>44102</v>
+      </c>
+      <c r="F581" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="G581" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H581" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582" s="5">
+        <v>580</v>
+      </c>
+      <c r="B582" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D582" s="6">
+        <v>44107</v>
+      </c>
+      <c r="E582" s="6">
+        <v>44100</v>
+      </c>
+      <c r="F582" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="G582" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H582" s="5" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="447">
   <si>
     <t>備考</t>
   </si>
@@ -3477,37 +3477,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J582"/>
+  <dimension ref="A1:J583"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D582" sqref="D582"/>
+      <selection pane="bottomLeft" activeCell="H584" sqref="H584"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44107.62553946759</v>
+        <v>44108.505629976855</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3517,7 +3517,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="26">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -18297,6 +18297,32 @@
       </c>
       <c r="H582" s="5" t="s">
         <v>441</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="A583" s="5">
+        <v>581</v>
+      </c>
+      <c r="B583" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C583" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D583" s="6">
+        <v>44108</v>
+      </c>
+      <c r="E583" s="6">
+        <v>44104</v>
+      </c>
+      <c r="F583" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G583" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H583" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$585</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="448">
   <si>
     <t>備考</t>
   </si>
@@ -3108,6 +3108,13 @@
     <t>女性</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3115,7 +3122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3477,11 +3484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J583"/>
+  <dimension ref="A1:J585"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H584" sqref="H584"/>
+      <selection pane="bottomLeft" activeCell="H586" sqref="H586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3507,7 +3514,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44108.505629976855</v>
+        <v>44111.600639583332</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -18323,6 +18330,58 @@
       </c>
       <c r="H583" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584" s="5">
+        <v>582</v>
+      </c>
+      <c r="B584" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C584" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D584" s="6">
+        <v>44111</v>
+      </c>
+      <c r="E584" s="6">
+        <v>44101</v>
+      </c>
+      <c r="F584" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G584" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H584" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585" s="5">
+        <v>583</v>
+      </c>
+      <c r="B585" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D585" s="6">
+        <v>44111</v>
+      </c>
+      <c r="E585" s="6">
+        <v>44105</v>
+      </c>
+      <c r="F585" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G585" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H585" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$585</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$589</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="451">
   <si>
     <t>備考</t>
   </si>
@@ -3115,6 +3115,27 @@
     <t>生駒市</t>
     <rPh sb="0" eb="3">
       <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斑鳩町</t>
+    <rPh sb="0" eb="3">
+      <t>イカルガチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3484,11 +3505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J585"/>
+  <dimension ref="A1:J589"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H586" sqref="H586"/>
+      <selection pane="bottomLeft" activeCell="A589" sqref="A589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3514,7 +3535,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44111.600639583332</v>
+        <v>44112.591202430558</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -18381,6 +18402,110 @@
         <v>79</v>
       </c>
       <c r="H585" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" s="5">
+        <v>584</v>
+      </c>
+      <c r="B586" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C586" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D586" s="6">
+        <v>44112</v>
+      </c>
+      <c r="E586" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F586" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G586" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H586" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" s="5">
+        <v>585</v>
+      </c>
+      <c r="B587" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D587" s="6">
+        <v>44112</v>
+      </c>
+      <c r="E587" s="6">
+        <v>44104</v>
+      </c>
+      <c r="F587" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G587" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H587" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588" s="5">
+        <v>586</v>
+      </c>
+      <c r="B588" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C588" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D588" s="6">
+        <v>44112</v>
+      </c>
+      <c r="E588" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F588" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G588" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H588" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" s="5">
+        <v>587</v>
+      </c>
+      <c r="B589" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C589" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D589" s="6">
+        <v>44112</v>
+      </c>
+      <c r="E589" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F589" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="G589" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H589" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$589</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$597</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="452">
   <si>
     <t>備考</t>
   </si>
@@ -3136,6 +3136,13 @@
     <t>香芝市</t>
     <rPh sb="0" eb="3">
       <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天理市</t>
+    <rPh sb="0" eb="3">
+      <t>テンリシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3505,11 +3512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J589"/>
+  <dimension ref="A1:J597"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A589" sqref="A589"/>
+      <pane ySplit="2" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G592" sqref="G592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3535,7 +3542,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44112.591202430558</v>
+        <v>44113.709142939813</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -18506,6 +18513,208 @@
         <v>70</v>
       </c>
       <c r="H589" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590" s="5">
+        <v>588</v>
+      </c>
+      <c r="B590" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C590" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D590" s="6">
+        <v>44113</v>
+      </c>
+      <c r="E590" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F590" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="G590" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H590" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" s="5">
+        <v>589</v>
+      </c>
+      <c r="B591" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C591" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D591" s="6">
+        <v>44113</v>
+      </c>
+      <c r="E591" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F591" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G591" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H591" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592" s="5">
+        <v>590</v>
+      </c>
+      <c r="B592" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D592" s="6">
+        <v>44113</v>
+      </c>
+      <c r="E592" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F592" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G592" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H592" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" s="5">
+        <v>591</v>
+      </c>
+      <c r="B593" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C593" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D593" s="6">
+        <v>44113</v>
+      </c>
+      <c r="E593" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F593" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G593" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H593" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594" s="5">
+        <v>592</v>
+      </c>
+      <c r="B594" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D594" s="6">
+        <v>44113</v>
+      </c>
+      <c r="E594" s="6">
+        <v>44106</v>
+      </c>
+      <c r="F594" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G594" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H594" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" s="5">
+        <v>593</v>
+      </c>
+      <c r="B595" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C595" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D595" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F595" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G595" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H595" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596" s="5">
+        <v>594</v>
+      </c>
+      <c r="B596" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D596" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F596" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G596" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H596" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" s="5">
+        <v>595</v>
+      </c>
+      <c r="B597" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C597" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D597" s="6">
+        <v>44113</v>
+      </c>
+      <c r="E597" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F597" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G597" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H597" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$597</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$601</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="455">
   <si>
     <t>備考</t>
   </si>
@@ -3143,6 +3143,27 @@
     <t>天理市</t>
     <rPh sb="0" eb="3">
       <t>テンリシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3150,7 +3171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3512,37 +3533,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J597"/>
+  <dimension ref="A1:J601"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G592" sqref="G592"/>
+      <selection pane="bottomLeft" activeCell="E599" sqref="E599"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44113.709142939813</v>
+        <v>44115.60934826389</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3552,7 +3573,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="26">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -18715,6 +18736,110 @@
         <v>90</v>
       </c>
       <c r="H597" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
+      <c r="A598" s="5">
+        <v>596</v>
+      </c>
+      <c r="B598" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D598" s="6">
+        <v>44115</v>
+      </c>
+      <c r="E598" s="6">
+        <v>44111</v>
+      </c>
+      <c r="F598" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G598" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H598" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599" s="5">
+        <v>597</v>
+      </c>
+      <c r="B599" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C599" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D599" s="6">
+        <v>44115</v>
+      </c>
+      <c r="E599" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F599" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G599" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H599" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="A600" s="5">
+        <v>598</v>
+      </c>
+      <c r="B600" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D600" s="6">
+        <v>44115</v>
+      </c>
+      <c r="E600" s="6">
+        <v>44111</v>
+      </c>
+      <c r="F600" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G600" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H600" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601" s="5">
+        <v>599</v>
+      </c>
+      <c r="B601" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C601" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D601" s="6">
+        <v>44115</v>
+      </c>
+      <c r="E601" s="6">
+        <v>44111</v>
+      </c>
+      <c r="F601" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G601" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H601" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$601</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$602</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="455">
   <si>
     <t>備考</t>
   </si>
@@ -3171,7 +3171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3533,37 +3533,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J601"/>
+  <dimension ref="A1:J602"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E599" sqref="E599"/>
+      <selection pane="bottomLeft" activeCell="A602" sqref="A602"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44115.60934826389</v>
+        <v>44116.59174895833</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3573,7 +3573,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="26">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -18840,6 +18840,32 @@
         <v>78</v>
       </c>
       <c r="H601" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="A602" s="5">
+        <v>600</v>
+      </c>
+      <c r="B602" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C602" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D602" s="6">
+        <v>44116</v>
+      </c>
+      <c r="E602" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F602" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G602" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H602" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$602</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$605</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="456">
   <si>
     <t>備考</t>
   </si>
@@ -3164,6 +3164,13 @@
     <t>奈良市</t>
     <rPh sb="0" eb="3">
       <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉野町</t>
+    <rPh sb="0" eb="3">
+      <t>ヨシノチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3171,7 +3178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3533,11 +3540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J602"/>
+  <dimension ref="A1:J605"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A602" sqref="A602"/>
+      <pane ySplit="2" topLeftCell="A588" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3563,7 +3570,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44116.59174895833</v>
+        <v>44117.588527893517</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -18866,6 +18873,81 @@
         <v>79</v>
       </c>
       <c r="H602" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
+      <c r="A603" s="5">
+        <v>601</v>
+      </c>
+      <c r="B603" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C603" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D603" s="6">
+        <v>44117</v>
+      </c>
+      <c r="E603" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F603" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G603" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H603" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" s="5">
+        <v>602</v>
+      </c>
+      <c r="B604" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C604" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D604" s="6">
+        <v>44117</v>
+      </c>
+      <c r="F604" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G604" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H604" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="A605" s="5">
+        <v>603</v>
+      </c>
+      <c r="B605" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C605" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D605" s="6">
+        <v>44117</v>
+      </c>
+      <c r="E605" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F605" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G605" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H605" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$605</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$607</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="456">
   <si>
     <t>備考</t>
   </si>
@@ -3178,7 +3178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3540,11 +3540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J605"/>
+  <dimension ref="A1:J607"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A588" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
+      <pane ySplit="2" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G607" sqref="G607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44117.588527893517</v>
+        <v>44118.5770625</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -18949,6 +18949,58 @@
       </c>
       <c r="H605" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606" s="5">
+        <v>604</v>
+      </c>
+      <c r="B606" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C606" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D606" s="6">
+        <v>44118</v>
+      </c>
+      <c r="E606" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F606" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G606" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H606" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" s="5">
+        <v>605</v>
+      </c>
+      <c r="B607" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C607" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D607" s="6">
+        <v>44118</v>
+      </c>
+      <c r="E607" s="6">
+        <v>44117</v>
+      </c>
+      <c r="F607" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G607" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H607" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$607</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$609</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="456">
   <si>
     <t>備考</t>
   </si>
@@ -3540,11 +3540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J607"/>
+  <dimension ref="A1:J609"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G607" sqref="G607"/>
+      <selection pane="bottomLeft" activeCell="H610" sqref="H610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44118.5770625</v>
+        <v>44119.607464583336</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -19000,6 +19000,58 @@
         <v>41</v>
       </c>
       <c r="H607" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="A608" s="5">
+        <v>606</v>
+      </c>
+      <c r="B608" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C608" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D608" s="6">
+        <v>44119</v>
+      </c>
+      <c r="E608" s="6">
+        <v>44117</v>
+      </c>
+      <c r="F608" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G608" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H608" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="A609" s="5">
+        <v>607</v>
+      </c>
+      <c r="B609" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C609" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D609" s="6">
+        <v>44119</v>
+      </c>
+      <c r="E609" s="6">
+        <v>44114</v>
+      </c>
+      <c r="F609" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G609" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H609" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$609</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$612</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="456">
   <si>
     <t>備考</t>
   </si>
@@ -3540,11 +3540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J609"/>
+  <dimension ref="A1:J612"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H610" sqref="H610"/>
+      <selection pane="bottomLeft" activeCell="F613" sqref="F613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44119.607464583336</v>
+        <v>44120.5907568287</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -19053,6 +19053,84 @@
       </c>
       <c r="H609" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="A610" s="5">
+        <v>608</v>
+      </c>
+      <c r="B610" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C610" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D610" s="6">
+        <v>44120</v>
+      </c>
+      <c r="E610" s="6">
+        <v>44118</v>
+      </c>
+      <c r="F610" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G610" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H610" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="A611" s="5">
+        <v>609</v>
+      </c>
+      <c r="B611" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C611" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D611" s="6">
+        <v>44120</v>
+      </c>
+      <c r="E611" s="6">
+        <v>44118</v>
+      </c>
+      <c r="F611" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G611" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H611" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="A612" s="5">
+        <v>610</v>
+      </c>
+      <c r="B612" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D612" s="6">
+        <v>44120</v>
+      </c>
+      <c r="E612" s="6">
+        <v>44115</v>
+      </c>
+      <c r="F612" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G612" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H612" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$612</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$615</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="456">
   <si>
     <t>備考</t>
   </si>
@@ -3178,7 +3178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3540,37 +3540,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J612"/>
+  <dimension ref="A1:J615"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F613" sqref="F613"/>
+      <selection pane="bottomLeft" activeCell="H616" sqref="H616"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44120.5907568287</v>
+        <v>44121.606009143521</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3580,7 +3580,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="26">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -19130,6 +19130,81 @@
         <v>79</v>
       </c>
       <c r="H612" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="A613" s="5">
+        <v>611</v>
+      </c>
+      <c r="B613" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C613" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D613" s="6">
+        <v>44121</v>
+      </c>
+      <c r="F613" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G613" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H613" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614" s="5">
+        <v>612</v>
+      </c>
+      <c r="B614" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D614" s="6">
+        <v>44121</v>
+      </c>
+      <c r="E614" s="6">
+        <v>44119</v>
+      </c>
+      <c r="F614" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G614" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H614" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
+      <c r="A615" s="5">
+        <v>613</v>
+      </c>
+      <c r="B615" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C615" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D615" s="6">
+        <v>44121</v>
+      </c>
+      <c r="E615" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F615" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G615" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H615" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$615</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$617</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="457">
   <si>
     <t>備考</t>
   </si>
@@ -3171,6 +3171,13 @@
     <t>吉野町</t>
     <rPh sb="0" eb="3">
       <t>ヨシノチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3178,7 +3185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3540,37 +3547,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J615"/>
+  <dimension ref="A1:J617"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H616" sqref="H616"/>
+      <selection pane="bottomLeft" activeCell="H610" sqref="H610"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44121.606009143521</v>
+        <v>44124.619782754628</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3580,7 +3587,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="26">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -19205,6 +19212,58 @@
         <v>32</v>
       </c>
       <c r="H615" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
+      <c r="A616" s="5">
+        <v>614</v>
+      </c>
+      <c r="B616" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D616" s="6">
+        <v>44124</v>
+      </c>
+      <c r="E616" s="6">
+        <v>44120</v>
+      </c>
+      <c r="F616" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G616" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H616" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
+      <c r="A617" s="5">
+        <v>615</v>
+      </c>
+      <c r="B617" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C617" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D617" s="6">
+        <v>44124</v>
+      </c>
+      <c r="E617" s="6">
+        <v>44121</v>
+      </c>
+      <c r="F617" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G617" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H617" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$617</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$624</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="464">
   <si>
     <t>備考</t>
   </si>
@@ -3178,6 +3178,55 @@
     <t>葛城市</t>
     <rPh sb="0" eb="3">
       <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明日香村</t>
+    <rPh sb="0" eb="4">
+      <t>アスカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3547,11 +3596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H610" sqref="H610"/>
+      <pane ySplit="2" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H623" sqref="H623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3577,7 +3626,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44124.619782754628</v>
+        <v>44126.565922569447</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -19264,6 +19313,159 @@
         <v>70</v>
       </c>
       <c r="H617" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
+      <c r="A618" s="5">
+        <v>616</v>
+      </c>
+      <c r="B618" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C618" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D618" s="6">
+        <v>44125</v>
+      </c>
+      <c r="E618" s="6">
+        <v>44119</v>
+      </c>
+      <c r="F618" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="G618" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="H618" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="A619" s="5">
+        <v>617</v>
+      </c>
+      <c r="B619" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C619" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D619" s="6">
+        <v>44125</v>
+      </c>
+      <c r="E619" s="6">
+        <v>44121</v>
+      </c>
+      <c r="F619" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G619" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="H619" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
+      <c r="A620" s="5">
+        <v>618</v>
+      </c>
+      <c r="B620" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D620" s="6">
+        <v>44125</v>
+      </c>
+      <c r="F620" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G620" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="H620" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
+      <c r="A621" s="5">
+        <v>619</v>
+      </c>
+      <c r="B621" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C621" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D621" s="6">
+        <v>44126</v>
+      </c>
+      <c r="E621" s="6">
+        <v>44119</v>
+      </c>
+      <c r="F621" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G621" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H621" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="A622" s="5">
+        <v>620</v>
+      </c>
+      <c r="B622" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D622" s="6">
+        <v>44126</v>
+      </c>
+      <c r="E622" s="6">
+        <v>44121</v>
+      </c>
+      <c r="F622" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G622" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H622" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
+      <c r="A623" s="5">
+        <v>621</v>
+      </c>
+      <c r="B623" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C623" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D623" s="6">
+        <v>44126</v>
+      </c>
+      <c r="E623" s="6">
+        <v>44116</v>
+      </c>
+      <c r="F623" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G623" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H623" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$624</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$626</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="465">
   <si>
     <t>備考</t>
   </si>
@@ -3229,12 +3229,19 @@
       <t>ジョセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川西町</t>
+    <rPh sb="0" eb="3">
+      <t>カワニシチョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3596,11 +3603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H623" sqref="H623"/>
+      <pane ySplit="2" topLeftCell="A609" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H626" sqref="H626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3626,7 +3633,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44126.565922569447</v>
+        <v>44127.611818171295</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -19466,6 +19473,81 @@
         <v>38</v>
       </c>
       <c r="H623" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="A624" s="5">
+        <v>622</v>
+      </c>
+      <c r="B624" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C624" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D624" s="6">
+        <v>44127</v>
+      </c>
+      <c r="E624" s="6">
+        <v>44125</v>
+      </c>
+      <c r="F624" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G624" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H624" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="A625" s="5">
+        <v>623</v>
+      </c>
+      <c r="B625" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C625" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D625" s="6">
+        <v>44127</v>
+      </c>
+      <c r="E625" s="6">
+        <v>44122</v>
+      </c>
+      <c r="F625" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G625" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H625" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="A626" s="5">
+        <v>624</v>
+      </c>
+      <c r="B626" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C626" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D626" s="6">
+        <v>44127</v>
+      </c>
+      <c r="F626" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G626" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H626" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$626</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$627</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="465">
   <si>
     <t>備考</t>
   </si>
@@ -3241,7 +3241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3603,11 +3603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A609" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H626" sqref="H626"/>
+      <pane ySplit="2" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F627" sqref="F627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44127.611818171295</v>
+        <v>44128.485176967595</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -19548,6 +19548,32 @@
         <v>32</v>
       </c>
       <c r="H626" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
+      <c r="A627" s="5">
+        <v>625</v>
+      </c>
+      <c r="B627" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C627" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D627" s="6">
+        <v>44128</v>
+      </c>
+      <c r="E627" s="6">
+        <v>44121</v>
+      </c>
+      <c r="F627" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G627" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H627" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$627</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$628</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="466">
   <si>
     <t>備考</t>
   </si>
@@ -3236,6 +3236,16 @@
       <t>カワニシチョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>河合町</t>
+    <rPh sb="0" eb="2">
+      <t>カワイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3603,11 +3613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F627" sqref="F627"/>
+      <selection pane="bottomLeft" activeCell="A628" sqref="A628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3633,7 +3643,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44128.485176967595</v>
+        <v>44130.605226736108</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -19575,6 +19585,32 @@
       </c>
       <c r="H627" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
+      <c r="A628" s="5">
+        <v>626</v>
+      </c>
+      <c r="B628" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C628" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D628" s="6">
+        <v>44130</v>
+      </c>
+      <c r="E628" s="6">
+        <v>44128</v>
+      </c>
+      <c r="F628" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G628" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H628" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$628</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$633</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="468">
   <si>
     <t>備考</t>
   </si>
@@ -3244,6 +3244,20 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="4">
+      <t>タワラモトチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3613,11 +3627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J633"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A628" sqref="A628"/>
+      <selection pane="bottomLeft" activeCell="G632" sqref="G632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3643,7 +3657,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44130.605226736108</v>
+        <v>44132.600302199076</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -19611,6 +19625,136 @@
       </c>
       <c r="H628" s="5" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
+      <c r="A629" s="5">
+        <v>627</v>
+      </c>
+      <c r="B629" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C629" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D629" s="6">
+        <v>44132</v>
+      </c>
+      <c r="E629" s="6">
+        <v>44124</v>
+      </c>
+      <c r="F629" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G629" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H629" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
+      <c r="A630" s="5">
+        <v>628</v>
+      </c>
+      <c r="B630" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D630" s="6">
+        <v>44132</v>
+      </c>
+      <c r="E630" s="6">
+        <v>44128</v>
+      </c>
+      <c r="F630" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G630" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H630" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
+      <c r="A631" s="5">
+        <v>629</v>
+      </c>
+      <c r="B631" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C631" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D631" s="6">
+        <v>44132</v>
+      </c>
+      <c r="E631" s="6">
+        <v>44129</v>
+      </c>
+      <c r="F631" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G631" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H631" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="A632" s="5">
+        <v>630</v>
+      </c>
+      <c r="B632" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D632" s="6">
+        <v>44132</v>
+      </c>
+      <c r="E632" s="6">
+        <v>44129</v>
+      </c>
+      <c r="F632" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G632" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H632" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="A633" s="5">
+        <v>631</v>
+      </c>
+      <c r="B633" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C633" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D633" s="6">
+        <v>44132</v>
+      </c>
+      <c r="E633" s="6">
+        <v>44126</v>
+      </c>
+      <c r="F633" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G633" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H633" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$633</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="476">
   <si>
     <t>備考</t>
   </si>
@@ -3258,6 +3257,65 @@
     <t>田原本町</t>
     <rPh sb="0" eb="4">
       <t>タワラモトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良県</t>
+    <rPh sb="0" eb="3">
+      <t>ナラケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="4">
+      <t>ヤマトコオリヤマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3265,7 +3323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3627,11 +3685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J633"/>
+  <dimension ref="A1:J638"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G632" sqref="G632"/>
+      <pane ySplit="2" topLeftCell="A627" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A637" sqref="A637:XFD637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3657,7 +3715,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44132.600302199076</v>
+        <v>44133.725243171299</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -19756,6 +19814,113 @@
       <c r="H633" s="5" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="634" spans="1:8">
+      <c r="A634" s="5">
+        <v>632</v>
+      </c>
+      <c r="B634" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C634" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D634" s="6">
+        <v>44133</v>
+      </c>
+      <c r="E634" s="6">
+        <v>44126</v>
+      </c>
+      <c r="F634" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="G634" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="H634" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8">
+      <c r="A635" s="5">
+        <v>633</v>
+      </c>
+      <c r="B635" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C635" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D635" s="6">
+        <v>44133</v>
+      </c>
+      <c r="E635" s="6">
+        <v>44129</v>
+      </c>
+      <c r="F635" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G635" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="H635" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
+      <c r="A636" s="5">
+        <v>634</v>
+      </c>
+      <c r="B636" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C636" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D636" s="6">
+        <v>44133</v>
+      </c>
+      <c r="E636" s="6">
+        <v>44130</v>
+      </c>
+      <c r="F636" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G636" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="H636" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8">
+      <c r="A637" s="5">
+        <v>635</v>
+      </c>
+      <c r="B637" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C637" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D637" s="6">
+        <v>44133</v>
+      </c>
+      <c r="E637" s="6">
+        <v>44128</v>
+      </c>
+      <c r="F637" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G637" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H637" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
+      <c r="D638" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,9 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$641</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="477">
   <si>
     <t>備考</t>
   </si>
@@ -3316,6 +3317,13 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御所市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴセシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3323,7 +3331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3685,11 +3693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J638"/>
+  <dimension ref="A1:J641"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A627" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A637" sqref="A637:XFD637"/>
+      <pane ySplit="2" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E641" sqref="E641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3715,7 +3723,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44133.725243171299</v>
+        <v>44134.619143171294</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -19920,7 +19928,108 @@
       </c>
     </row>
     <row r="638" spans="1:8">
-      <c r="D638" s="6"/>
+      <c r="A638" s="5">
+        <v>636</v>
+      </c>
+      <c r="B638" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C638" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D638" s="6">
+        <v>44134</v>
+      </c>
+      <c r="E638" s="6">
+        <v>44125</v>
+      </c>
+      <c r="F638" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G638" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H638" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
+      <c r="A639" s="5">
+        <v>637</v>
+      </c>
+      <c r="B639" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C639" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D639" s="6">
+        <v>44134</v>
+      </c>
+      <c r="E639" s="6">
+        <v>44126</v>
+      </c>
+      <c r="F639" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G639" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H639" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
+      <c r="A640" s="5">
+        <v>638</v>
+      </c>
+      <c r="B640" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C640" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D640" s="6">
+        <v>44134</v>
+      </c>
+      <c r="E640" s="6">
+        <v>44129</v>
+      </c>
+      <c r="F640" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G640" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H640" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8">
+      <c r="A641" s="5">
+        <v>639</v>
+      </c>
+      <c r="B641" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C641" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D641" s="6">
+        <v>44134</v>
+      </c>
+      <c r="E641" s="6">
+        <v>44130</v>
+      </c>
+      <c r="F641" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G641" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H641" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$641</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$650</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="479">
   <si>
     <t>備考</t>
   </si>
@@ -3324,6 +3324,20 @@
     <t>御所市</t>
     <rPh sb="0" eb="3">
       <t>ゴセシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斑鳩町</t>
+    <rPh sb="0" eb="3">
+      <t>イカルガチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3693,11 +3707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J641"/>
+  <dimension ref="A1:J650"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E641" sqref="E641"/>
+      <pane ySplit="2" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J645" sqref="J645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3723,7 +3737,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44134.619143171294</v>
+        <v>44135.57386921296</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -20029,6 +20043,240 @@
       </c>
       <c r="H641" s="5" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8">
+      <c r="A642" s="5">
+        <v>640</v>
+      </c>
+      <c r="B642" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C642" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D642" s="6">
+        <v>44135</v>
+      </c>
+      <c r="E642" s="6">
+        <v>44131</v>
+      </c>
+      <c r="F642" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G642" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H642" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8">
+      <c r="A643" s="5">
+        <v>641</v>
+      </c>
+      <c r="B643" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C643" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D643" s="6">
+        <v>44135</v>
+      </c>
+      <c r="E643" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F643" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G643" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H643" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8">
+      <c r="A644" s="5">
+        <v>642</v>
+      </c>
+      <c r="B644" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D644" s="6">
+        <v>44135</v>
+      </c>
+      <c r="E644" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F644" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="G644" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H644" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8">
+      <c r="A645" s="5">
+        <v>643</v>
+      </c>
+      <c r="B645" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C645" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D645" s="6">
+        <v>44135</v>
+      </c>
+      <c r="E645" s="6">
+        <v>44132</v>
+      </c>
+      <c r="F645" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G645" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H645" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8">
+      <c r="A646" s="5">
+        <v>644</v>
+      </c>
+      <c r="B646" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C646" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D646" s="6">
+        <v>44135</v>
+      </c>
+      <c r="E646" s="6">
+        <v>44132</v>
+      </c>
+      <c r="F646" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G646" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H646" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8">
+      <c r="A647" s="5">
+        <v>645</v>
+      </c>
+      <c r="B647" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C647" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D647" s="6">
+        <v>44135</v>
+      </c>
+      <c r="E647" s="6">
+        <v>44130</v>
+      </c>
+      <c r="F647" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G647" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="H647" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8">
+      <c r="A648" s="5">
+        <v>646</v>
+      </c>
+      <c r="B648" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C648" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D648" s="6">
+        <v>44135</v>
+      </c>
+      <c r="E648" s="6">
+        <v>44130</v>
+      </c>
+      <c r="F648" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G648" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H648" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8">
+      <c r="A649" s="5">
+        <v>647</v>
+      </c>
+      <c r="B649" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C649" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D649" s="6">
+        <v>44135</v>
+      </c>
+      <c r="E649" s="6">
+        <v>44132</v>
+      </c>
+      <c r="F649" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G649" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H649" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8">
+      <c r="A650" s="5">
+        <v>648</v>
+      </c>
+      <c r="B650" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C650" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D650" s="6">
+        <v>44135</v>
+      </c>
+      <c r="E650" s="6">
+        <v>44128</v>
+      </c>
+      <c r="F650" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G650" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H650" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$650</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$661</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="483">
   <si>
     <t>備考</t>
   </si>
@@ -3340,12 +3340,40 @@
       <t>イカルガチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>安堵町</t>
+    <rPh sb="0" eb="3">
+      <t>アンドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3707,11 +3735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J650"/>
+  <dimension ref="A1:J661"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J645" sqref="J645"/>
+      <pane ySplit="2" topLeftCell="A644" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H661" sqref="H661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3737,7 +3765,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44135.57386921296</v>
+        <v>44136.621530787037</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -20277,6 +20305,283 @@
       </c>
       <c r="H650" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8">
+      <c r="A651" s="5">
+        <v>649</v>
+      </c>
+      <c r="B651" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C651" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D651" s="6">
+        <v>44136</v>
+      </c>
+      <c r="E651" s="6">
+        <v>44129</v>
+      </c>
+      <c r="F651" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G651" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H651" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8">
+      <c r="A652" s="5">
+        <v>650</v>
+      </c>
+      <c r="B652" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C652" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D652" s="6">
+        <v>44136</v>
+      </c>
+      <c r="E652" s="6">
+        <v>44132</v>
+      </c>
+      <c r="F652" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G652" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H652" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8">
+      <c r="A653" s="5">
+        <v>651</v>
+      </c>
+      <c r="B653" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C653" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D653" s="6">
+        <v>44136</v>
+      </c>
+      <c r="E653" s="6">
+        <v>44132</v>
+      </c>
+      <c r="F653" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G653" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H653" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8">
+      <c r="A654" s="5">
+        <v>652</v>
+      </c>
+      <c r="B654" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C654" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D654" s="6">
+        <v>44136</v>
+      </c>
+      <c r="E654" s="6">
+        <v>44125</v>
+      </c>
+      <c r="F654" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G654" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H654" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8">
+      <c r="A655" s="5">
+        <v>653</v>
+      </c>
+      <c r="B655" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C655" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D655" s="6">
+        <v>44136</v>
+      </c>
+      <c r="E655" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F655" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G655" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H655" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8">
+      <c r="A656" s="5">
+        <v>654</v>
+      </c>
+      <c r="B656" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C656" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D656" s="6">
+        <v>44136</v>
+      </c>
+      <c r="E656" s="6">
+        <v>44133</v>
+      </c>
+      <c r="F656" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G656" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H656" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="A657" s="5">
+        <v>655</v>
+      </c>
+      <c r="B657" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C657" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D657" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F657" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G657" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H657" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="A658" s="5">
+        <v>656</v>
+      </c>
+      <c r="B658" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C658" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D658" s="6">
+        <v>44136</v>
+      </c>
+      <c r="E658" s="6">
+        <v>44132</v>
+      </c>
+      <c r="F658" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G658" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="H658" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8">
+      <c r="A659" s="5">
+        <v>657</v>
+      </c>
+      <c r="B659" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C659" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D659" s="6">
+        <v>44136</v>
+      </c>
+      <c r="E659" s="6">
+        <v>44133</v>
+      </c>
+      <c r="F659" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G659" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="H659" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8">
+      <c r="A660" s="5">
+        <v>658</v>
+      </c>
+      <c r="B660" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C660" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D660" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F660" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G660" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H660" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8">
+      <c r="A661" s="5">
+        <v>659</v>
+      </c>
+      <c r="B661" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C661" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D661" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F661" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G661" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H661" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$661</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$666</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="486">
   <si>
     <t>備考</t>
   </si>
@@ -3368,12 +3368,33 @@
       <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="4">
+      <t>タワラモトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3735,11 +3756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J661"/>
+  <dimension ref="A1:J666"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A644" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H661" sqref="H661"/>
+      <pane ySplit="2" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K656" sqref="K656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3765,7 +3786,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44136.621530787037</v>
+        <v>44137.668348842592</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -20581,6 +20602,133 @@
         <v>434</v>
       </c>
       <c r="H661" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
+      <c r="A662" s="5">
+        <v>660</v>
+      </c>
+      <c r="B662" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C662" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D662" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F662" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G662" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H662" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8">
+      <c r="A663" s="5">
+        <v>661</v>
+      </c>
+      <c r="B663" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C663" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D663" s="6">
+        <v>44137</v>
+      </c>
+      <c r="E663" s="6">
+        <v>44129</v>
+      </c>
+      <c r="F663" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G663" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H663" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8">
+      <c r="A664" s="5">
+        <v>662</v>
+      </c>
+      <c r="B664" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C664" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D664" s="6">
+        <v>44137</v>
+      </c>
+      <c r="E664" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F664" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G664" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H664" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8">
+      <c r="A665" s="5">
+        <v>663</v>
+      </c>
+      <c r="B665" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C665" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D665" s="6">
+        <v>44137</v>
+      </c>
+      <c r="E665" s="6">
+        <v>44132</v>
+      </c>
+      <c r="F665" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G665" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H665" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8">
+      <c r="A666" s="5">
+        <v>664</v>
+      </c>
+      <c r="B666" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C666" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D666" s="6">
+        <v>44137</v>
+      </c>
+      <c r="E666" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F666" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G666" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H666" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$666</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$677</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="488">
   <si>
     <t>備考</t>
   </si>
@@ -3387,6 +3387,20 @@
     <t>田原本町</t>
     <rPh sb="0" eb="4">
       <t>タワラモトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3756,11 +3770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J666"/>
+  <dimension ref="A1:J677"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K656" sqref="K656"/>
+      <pane ySplit="2" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H678" sqref="H678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3786,7 +3800,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44137.668348842592</v>
+        <v>44138.643628124999</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -20730,6 +20744,286 @@
       </c>
       <c r="H666" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8">
+      <c r="A667" s="5">
+        <v>665</v>
+      </c>
+      <c r="B667" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C667" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D667" s="6">
+        <v>44138</v>
+      </c>
+      <c r="E667" s="6">
+        <v>44130</v>
+      </c>
+      <c r="F667" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G667" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H667" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8">
+      <c r="A668" s="5">
+        <v>666</v>
+      </c>
+      <c r="B668" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C668" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D668" s="6">
+        <v>44138</v>
+      </c>
+      <c r="E668" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F668" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G668" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H668" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8">
+      <c r="A669" s="5">
+        <v>667</v>
+      </c>
+      <c r="B669" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C669" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D669" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F669" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G669" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H669" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8">
+      <c r="A670" s="5">
+        <v>668</v>
+      </c>
+      <c r="B670" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C670" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D670" s="6">
+        <v>44138</v>
+      </c>
+      <c r="E670" s="6">
+        <v>44130</v>
+      </c>
+      <c r="F670" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G670" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H670" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8">
+      <c r="A671" s="5">
+        <v>669</v>
+      </c>
+      <c r="B671" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C671" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D671" s="6">
+        <v>44138</v>
+      </c>
+      <c r="E671" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F671" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G671" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H671" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8">
+      <c r="A672" s="5">
+        <v>670</v>
+      </c>
+      <c r="B672" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C672" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D672" s="6">
+        <v>44138</v>
+      </c>
+      <c r="E672" s="6">
+        <v>44130</v>
+      </c>
+      <c r="F672" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G672" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H672" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8">
+      <c r="A673" s="5">
+        <v>671</v>
+      </c>
+      <c r="B673" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C673" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D673" s="6">
+        <v>44138</v>
+      </c>
+      <c r="E673" s="6">
+        <v>44133</v>
+      </c>
+      <c r="F673" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G673" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H673" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8">
+      <c r="A674" s="5">
+        <v>672</v>
+      </c>
+      <c r="B674" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C674" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D674" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F674" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G674" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H674" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8">
+      <c r="A675" s="5">
+        <v>673</v>
+      </c>
+      <c r="B675" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C675" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D675" s="6">
+        <v>44138</v>
+      </c>
+      <c r="E675" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F675" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G675" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H675" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8">
+      <c r="A676" s="5">
+        <v>674</v>
+      </c>
+      <c r="B676" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C676" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D676" s="6">
+        <v>44138</v>
+      </c>
+      <c r="E676" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F676" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G676" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H676" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8">
+      <c r="A677" s="5">
+        <v>675</v>
+      </c>
+      <c r="B677" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C677" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D677" s="6">
+        <v>44138</v>
+      </c>
+      <c r="E677" s="6">
+        <v>44132</v>
+      </c>
+      <c r="F677" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G677" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H677" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$677</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$681</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="488">
   <si>
     <t>備考</t>
   </si>
@@ -3408,7 +3408,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3770,11 +3770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J677"/>
+  <dimension ref="A1:J681"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H678" sqref="H678"/>
+      <pane ySplit="2" topLeftCell="A666" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A681" sqref="A681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44138.643628124999</v>
+        <v>44139.609250347225</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -21023,6 +21023,107 @@
         <v>38</v>
       </c>
       <c r="H677" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8">
+      <c r="A678" s="5">
+        <v>676</v>
+      </c>
+      <c r="B678" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C678" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D678" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F678" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G678" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H678" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8">
+      <c r="A679" s="5">
+        <v>677</v>
+      </c>
+      <c r="B679" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C679" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D679" s="6">
+        <v>44139</v>
+      </c>
+      <c r="E679" s="6">
+        <v>44132</v>
+      </c>
+      <c r="F679" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G679" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H679" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8">
+      <c r="A680" s="5">
+        <v>678</v>
+      </c>
+      <c r="B680" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C680" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D680" s="6">
+        <v>44139</v>
+      </c>
+      <c r="E680" s="6">
+        <v>44133</v>
+      </c>
+      <c r="F680" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G680" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H680" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8">
+      <c r="A681" s="5">
+        <v>679</v>
+      </c>
+      <c r="B681" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C681" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D681" s="6">
+        <v>44139</v>
+      </c>
+      <c r="E681" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F681" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G681" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H681" s="5" t="s">
         <v>262</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$681</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$696</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="489">
   <si>
     <t>備考</t>
   </si>
@@ -3399,6 +3399,13 @@
   </si>
   <si>
     <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
@@ -3408,7 +3415,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3770,11 +3777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J681"/>
+  <dimension ref="A1:J696"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A666" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A681" sqref="A681"/>
+      <pane ySplit="2" topLeftCell="A681" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H696" sqref="H696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3800,7 +3807,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44139.609250347225</v>
+        <v>44140.590548495369</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -21125,6 +21132,387 @@
       </c>
       <c r="H681" s="5" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8">
+      <c r="A682" s="5">
+        <v>680</v>
+      </c>
+      <c r="B682" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C682" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D682" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F682" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G682" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H682" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8">
+      <c r="A683" s="5">
+        <v>681</v>
+      </c>
+      <c r="B683" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C683" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D683" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E683" s="6">
+        <v>44132</v>
+      </c>
+      <c r="F683" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G683" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H683" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8">
+      <c r="A684" s="5">
+        <v>682</v>
+      </c>
+      <c r="B684" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C684" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D684" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E684" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F684" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G684" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H684" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8">
+      <c r="A685" s="5">
+        <v>683</v>
+      </c>
+      <c r="B685" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C685" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D685" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E685" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F685" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G685" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H685" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8">
+      <c r="A686" s="5">
+        <v>684</v>
+      </c>
+      <c r="B686" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C686" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D686" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E686" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F686" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G686" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H686" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8">
+      <c r="A687" s="5">
+        <v>685</v>
+      </c>
+      <c r="B687" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C687" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D687" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F687" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G687" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H687" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8">
+      <c r="A688" s="5">
+        <v>686</v>
+      </c>
+      <c r="B688" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C688" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D688" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F688" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G688" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H688" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8">
+      <c r="A689" s="5">
+        <v>687</v>
+      </c>
+      <c r="B689" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C689" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D689" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E689" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F689" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G689" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H689" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8">
+      <c r="A690" s="5">
+        <v>688</v>
+      </c>
+      <c r="B690" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C690" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D690" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E690" s="6">
+        <v>44133</v>
+      </c>
+      <c r="F690" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G690" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H690" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8">
+      <c r="A691" s="5">
+        <v>689</v>
+      </c>
+      <c r="B691" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C691" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D691" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E691" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F691" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G691" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H691" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8">
+      <c r="A692" s="5">
+        <v>690</v>
+      </c>
+      <c r="B692" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D692" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E692" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F692" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G692" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H692" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8">
+      <c r="A693" s="5">
+        <v>691</v>
+      </c>
+      <c r="B693" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C693" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D693" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E693" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F693" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G693" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H693" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8">
+      <c r="A694" s="5">
+        <v>692</v>
+      </c>
+      <c r="B694" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D694" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E694" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F694" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G694" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H694" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8">
+      <c r="A695" s="5">
+        <v>693</v>
+      </c>
+      <c r="B695" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C695" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D695" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E695" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F695" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G695" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H695" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8">
+      <c r="A696" s="5">
+        <v>694</v>
+      </c>
+      <c r="B696" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C696" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D696" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E696" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F696" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G696" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H696" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$696</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$715</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="489">
   <si>
     <t>備考</t>
   </si>
@@ -3777,11 +3777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J696"/>
+  <dimension ref="A1:J715"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A681" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H696" sqref="H696"/>
+      <pane ySplit="2" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E708" sqref="E708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44140.590548495369</v>
+        <v>44141.698932638887</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -21512,6 +21512,491 @@
         <v>70</v>
       </c>
       <c r="H696" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8">
+      <c r="A697" s="5">
+        <v>695</v>
+      </c>
+      <c r="B697" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C697" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D697" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E697" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F697" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G697" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H697" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8">
+      <c r="A698" s="5">
+        <v>696</v>
+      </c>
+      <c r="B698" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C698" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D698" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E698" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F698" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G698" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H698" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8">
+      <c r="A699" s="5">
+        <v>697</v>
+      </c>
+      <c r="B699" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C699" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D699" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E699" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F699" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G699" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H699" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8">
+      <c r="A700" s="5">
+        <v>698</v>
+      </c>
+      <c r="B700" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C700" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D700" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E700" s="6">
+        <v>44131</v>
+      </c>
+      <c r="F700" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G700" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H700" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8">
+      <c r="A701" s="5">
+        <v>699</v>
+      </c>
+      <c r="B701" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C701" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D701" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E701" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F701" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G701" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H701" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8">
+      <c r="A702" s="5">
+        <v>700</v>
+      </c>
+      <c r="B702" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C702" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D702" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E702" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F702" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G702" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H702" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8">
+      <c r="A703" s="5">
+        <v>701</v>
+      </c>
+      <c r="B703" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C703" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D703" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E703" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F703" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G703" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H703" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8">
+      <c r="A704" s="5">
+        <v>702</v>
+      </c>
+      <c r="B704" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C704" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D704" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E704" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F704" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G704" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H704" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8">
+      <c r="A705" s="5">
+        <v>703</v>
+      </c>
+      <c r="B705" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C705" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D705" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E705" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F705" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G705" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H705" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8">
+      <c r="A706" s="5">
+        <v>704</v>
+      </c>
+      <c r="B706" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D706" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F706" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G706" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H706" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8">
+      <c r="A707" s="5">
+        <v>705</v>
+      </c>
+      <c r="B707" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C707" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D707" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E707" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F707" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G707" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H707" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8">
+      <c r="A708" s="5">
+        <v>706</v>
+      </c>
+      <c r="B708" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D708" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F708" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G708" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H708" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8">
+      <c r="A709" s="5">
+        <v>707</v>
+      </c>
+      <c r="B709" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C709" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D709" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F709" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G709" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H709" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8">
+      <c r="A710" s="5">
+        <v>708</v>
+      </c>
+      <c r="B710" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D710" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E710" s="6">
+        <v>44133</v>
+      </c>
+      <c r="F710" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G710" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H710" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8">
+      <c r="A711" s="5">
+        <v>709</v>
+      </c>
+      <c r="B711" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C711" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D711" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E711" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F711" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G711" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H711" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8">
+      <c r="A712" s="5">
+        <v>710</v>
+      </c>
+      <c r="B712" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C712" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D712" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E712" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F712" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G712" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H712" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8">
+      <c r="A713" s="5">
+        <v>711</v>
+      </c>
+      <c r="B713" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C713" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D713" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E713" s="6">
+        <v>44131</v>
+      </c>
+      <c r="F713" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G713" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H713" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8">
+      <c r="A714" s="5">
+        <v>712</v>
+      </c>
+      <c r="B714" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C714" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D714" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E714" s="6">
+        <v>44127</v>
+      </c>
+      <c r="F714" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G714" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H714" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8">
+      <c r="A715" s="5">
+        <v>713</v>
+      </c>
+      <c r="B715" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C715" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D715" s="6">
+        <v>44140</v>
+      </c>
+      <c r="E715" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F715" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G715" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H715" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -3780,8 +3780,8 @@
   <dimension ref="A1:J715"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E708" sqref="E708"/>
+      <pane ySplit="2" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D703" sqref="D703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44141.698932638887</v>
+        <v>44141.798275925925</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -21526,7 +21526,7 @@
         <v>104</v>
       </c>
       <c r="D697" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E697" s="6">
         <v>44139</v>
@@ -21552,7 +21552,7 @@
         <v>104</v>
       </c>
       <c r="D698" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E698" s="6">
         <v>44134</v>
@@ -21578,7 +21578,7 @@
         <v>104</v>
       </c>
       <c r="D699" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E699" s="6">
         <v>44136</v>
@@ -21604,7 +21604,7 @@
         <v>104</v>
       </c>
       <c r="D700" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E700" s="6">
         <v>44131</v>
@@ -21630,7 +21630,7 @@
         <v>104</v>
       </c>
       <c r="D701" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E701" s="6">
         <v>44138</v>
@@ -21656,7 +21656,7 @@
         <v>104</v>
       </c>
       <c r="D702" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E702" s="6">
         <v>44139</v>
@@ -21682,7 +21682,7 @@
         <v>104</v>
       </c>
       <c r="D703" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E703" s="6">
         <v>44139</v>
@@ -21708,7 +21708,7 @@
         <v>104</v>
       </c>
       <c r="D704" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E704" s="6">
         <v>44139</v>
@@ -21734,7 +21734,7 @@
         <v>104</v>
       </c>
       <c r="D705" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E705" s="6">
         <v>44139</v>
@@ -21760,7 +21760,7 @@
         <v>104</v>
       </c>
       <c r="D706" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="F706" s="6" t="s">
         <v>24</v>
@@ -21783,7 +21783,7 @@
         <v>104</v>
       </c>
       <c r="D707" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E707" s="6">
         <v>44138</v>
@@ -21809,7 +21809,7 @@
         <v>104</v>
       </c>
       <c r="D708" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="F708" s="6" t="s">
         <v>24</v>
@@ -21832,7 +21832,7 @@
         <v>104</v>
       </c>
       <c r="D709" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="F709" s="6" t="s">
         <v>24</v>
@@ -21855,7 +21855,7 @@
         <v>104</v>
       </c>
       <c r="D710" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E710" s="6">
         <v>44133</v>
@@ -21881,7 +21881,7 @@
         <v>104</v>
       </c>
       <c r="D711" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E711" s="6">
         <v>44134</v>
@@ -21907,7 +21907,7 @@
         <v>104</v>
       </c>
       <c r="D712" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E712" s="6">
         <v>44137</v>
@@ -21933,7 +21933,7 @@
         <v>104</v>
       </c>
       <c r="D713" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E713" s="6">
         <v>44131</v>
@@ -21959,7 +21959,7 @@
         <v>104</v>
       </c>
       <c r="D714" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E714" s="6">
         <v>44127</v>
@@ -21985,7 +21985,7 @@
         <v>104</v>
       </c>
       <c r="D715" s="6">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="E715" s="6">
         <v>44138</v>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$715</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$728</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="499">
   <si>
     <t>備考</t>
   </si>
@@ -3408,6 +3408,79 @@
     <t>10代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天理市</t>
+    <rPh sb="0" eb="3">
+      <t>テンリシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三宅町</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3415,7 +3488,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3777,37 +3850,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J715"/>
+  <dimension ref="A1:J728"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D703" sqref="D703"/>
+      <pane ySplit="2" topLeftCell="A710" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A728" sqref="A728"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44141.798275925925</v>
+        <v>44142.653590277776</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3817,7 +3890,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="26">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -21998,6 +22071,341 @@
       </c>
       <c r="H715" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8">
+      <c r="A716" s="5">
+        <v>714</v>
+      </c>
+      <c r="B716" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C716" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D716" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E716" s="6">
+        <v>44133</v>
+      </c>
+      <c r="F716" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="G716" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H716" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8">
+      <c r="A717" s="5">
+        <v>715</v>
+      </c>
+      <c r="B717" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C717" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D717" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E717" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F717" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G717" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H717" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8">
+      <c r="A718" s="5">
+        <v>716</v>
+      </c>
+      <c r="B718" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C718" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D718" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E718" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F718" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G718" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H718" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8">
+      <c r="A719" s="5">
+        <v>717</v>
+      </c>
+      <c r="B719" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C719" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D719" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E719" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F719" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G719" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H719" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8">
+      <c r="A720" s="5">
+        <v>718</v>
+      </c>
+      <c r="B720" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C720" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D720" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E720" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F720" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G720" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H720" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8">
+      <c r="A721" s="5">
+        <v>719</v>
+      </c>
+      <c r="B721" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C721" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D721" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E721" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F721" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G721" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H721" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8">
+      <c r="A722" s="5">
+        <v>720</v>
+      </c>
+      <c r="B722" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C722" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D722" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E722" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F722" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G722" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H722" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8">
+      <c r="A723" s="5">
+        <v>721</v>
+      </c>
+      <c r="B723" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C723" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D723" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E723" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F723" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="G723" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H723" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8">
+      <c r="A724" s="5">
+        <v>722</v>
+      </c>
+      <c r="B724" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C724" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D724" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E724" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F724" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G724" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H724" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8">
+      <c r="A725" s="5">
+        <v>723</v>
+      </c>
+      <c r="B725" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C725" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D725" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E725" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F725" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G725" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H725" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8">
+      <c r="A726" s="5">
+        <v>724</v>
+      </c>
+      <c r="B726" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C726" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D726" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F726" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G726" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="H726" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8">
+      <c r="A727" s="5">
+        <v>725</v>
+      </c>
+      <c r="B727" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C727" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D727" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E727" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F727" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G727" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="H727" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8">
+      <c r="A728" s="5">
+        <v>726</v>
+      </c>
+      <c r="B728" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C728" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D728" s="6">
+        <v>44142</v>
+      </c>
+      <c r="E728" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F728" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G728" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H728" s="5" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$728</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$739</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="503">
   <si>
     <t>備考</t>
   </si>
@@ -3481,6 +3481,34 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天理市</t>
+    <rPh sb="0" eb="3">
+      <t>テンリシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3488,7 +3516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3850,37 +3878,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J728"/>
+  <dimension ref="A1:J739"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A710" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A728" sqref="A728"/>
+      <pane ySplit="2" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E729" sqref="E729"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44142.653590277776</v>
+        <v>44143.650928124996</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3890,7 +3918,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="26">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -22203,7 +22231,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:9">
       <c r="A721" s="5">
         <v>719</v>
       </c>
@@ -22229,7 +22257,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:9">
       <c r="A722" s="5">
         <v>720</v>
       </c>
@@ -22255,7 +22283,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:9">
       <c r="A723" s="5">
         <v>721</v>
       </c>
@@ -22281,7 +22309,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:9">
       <c r="A724" s="5">
         <v>722</v>
       </c>
@@ -22307,7 +22335,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:9">
       <c r="A725" s="5">
         <v>723</v>
       </c>
@@ -22333,7 +22361,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:9">
       <c r="A726" s="5">
         <v>724</v>
       </c>
@@ -22356,7 +22384,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:9">
       <c r="A727" s="5">
         <v>725</v>
       </c>
@@ -22382,7 +22410,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:9">
       <c r="A728" s="5">
         <v>726</v>
       </c>
@@ -22406,6 +22434,283 @@
       </c>
       <c r="H728" s="5" t="s">
         <v>490</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9">
+      <c r="A729" s="5">
+        <v>727</v>
+      </c>
+      <c r="B729" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C729" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D729" s="6">
+        <v>44143</v>
+      </c>
+      <c r="E729" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F729" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G729" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H729" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9">
+      <c r="A730" s="5">
+        <v>728</v>
+      </c>
+      <c r="B730" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C730" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D730" s="6">
+        <v>44143</v>
+      </c>
+      <c r="E730" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F730" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G730" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H730" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9">
+      <c r="A731" s="5">
+        <v>729</v>
+      </c>
+      <c r="B731" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C731" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D731" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F731" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="G731" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H731" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9">
+      <c r="A732" s="5">
+        <v>730</v>
+      </c>
+      <c r="B732" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C732" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D732" s="6">
+        <v>44143</v>
+      </c>
+      <c r="E732" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F732" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G732" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H732" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9">
+      <c r="A733" s="5">
+        <v>731</v>
+      </c>
+      <c r="B733" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C733" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D733" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F733" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G733" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H733" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9">
+      <c r="A734" s="5">
+        <v>732</v>
+      </c>
+      <c r="B734" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C734" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D734" s="6">
+        <v>44143</v>
+      </c>
+      <c r="E734" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F734" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G734" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H734" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9">
+      <c r="A735" s="5">
+        <v>733</v>
+      </c>
+      <c r="B735" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C735" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D735" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F735" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G735" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H735" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I735" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9">
+      <c r="A736" s="5">
+        <v>734</v>
+      </c>
+      <c r="B736" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C736" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D736" s="6">
+        <v>44143</v>
+      </c>
+      <c r="E736" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F736" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G736" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H736" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8">
+      <c r="A737" s="5">
+        <v>735</v>
+      </c>
+      <c r="B737" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C737" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D737" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F737" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="G737" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H737" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8">
+      <c r="A738" s="5">
+        <v>736</v>
+      </c>
+      <c r="B738" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C738" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D738" s="6">
+        <v>44143</v>
+      </c>
+      <c r="E738" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F738" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="G738" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H738" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8">
+      <c r="A739" s="5">
+        <v>737</v>
+      </c>
+      <c r="B739" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C739" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D739" s="6">
+        <v>44143</v>
+      </c>
+      <c r="E739" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F739" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="G739" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H739" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$739</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$759</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="515">
   <si>
     <t>備考</t>
   </si>
@@ -3509,6 +3509,90 @@
     <t>天理市</t>
     <rPh sb="0" eb="3">
       <t>テンリシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三郷町</t>
+    <rPh sb="0" eb="3">
+      <t>サンゴウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天理市</t>
+    <rPh sb="0" eb="3">
+      <t>テンリシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3516,7 +3600,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3878,11 +3962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J739"/>
+  <dimension ref="A1:J751"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E729" sqref="E729"/>
+      <pane ySplit="2" topLeftCell="A741" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A747" sqref="A747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3908,7 +3992,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44143.650928124996</v>
+        <v>44144.632203703703</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -22712,6 +22796,226 @@
       <c r="H739" s="5" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="740" spans="1:8">
+      <c r="A740" s="5">
+        <v>738</v>
+      </c>
+      <c r="B740" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C740" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D740" s="6">
+        <v>44144</v>
+      </c>
+      <c r="E740" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F740" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="G740" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="H740" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8">
+      <c r="A741" s="5">
+        <v>739</v>
+      </c>
+      <c r="B741" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C741" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D741" s="6">
+        <v>44144</v>
+      </c>
+      <c r="E741" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F741" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="G741" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="H741" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8">
+      <c r="A742" s="5">
+        <v>740</v>
+      </c>
+      <c r="B742" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C742" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D742" s="6">
+        <v>44144</v>
+      </c>
+      <c r="E742" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F742" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="G742" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="H742" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8">
+      <c r="A743" s="5">
+        <v>741</v>
+      </c>
+      <c r="B743" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C743" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D743" s="6">
+        <v>44144</v>
+      </c>
+      <c r="E743" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F743" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="G743" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="H743" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8">
+      <c r="A744" s="5">
+        <v>742</v>
+      </c>
+      <c r="B744" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C744" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D744" s="6">
+        <v>44144</v>
+      </c>
+      <c r="E744" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F744" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="G744" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="H744" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8">
+      <c r="A745" s="5">
+        <v>743</v>
+      </c>
+      <c r="B745" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C745" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D745" s="6">
+        <v>44144</v>
+      </c>
+      <c r="E745" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F745" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="G745" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="H745" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8">
+      <c r="A746" s="5">
+        <v>744</v>
+      </c>
+      <c r="B746" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C746" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D746" s="6">
+        <v>44144</v>
+      </c>
+      <c r="E746" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F746" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="G746" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="H746" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8">
+      <c r="A747" s="5">
+        <v>745</v>
+      </c>
+      <c r="B747" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C747" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D747" s="6">
+        <v>44144</v>
+      </c>
+      <c r="E747" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F747" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="G747" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="H747" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8">
+      <c r="D748" s="6"/>
+    </row>
+    <row r="749" spans="1:8">
+      <c r="D749" s="6"/>
+    </row>
+    <row r="750" spans="1:8">
+      <c r="D750" s="6"/>
+    </row>
+    <row r="751" spans="1:8">
+      <c r="D751" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$759</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="517">
   <si>
     <t>備考</t>
   </si>
@@ -3593,6 +3593,20 @@
     <t>50代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天理市</t>
+    <rPh sb="0" eb="3">
+      <t>テンリシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3600,7 +3614,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -3962,11 +3976,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J751"/>
+  <dimension ref="A1:J756"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A741" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A747" sqref="A747"/>
+      <pane ySplit="2" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E754" sqref="E754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3992,7 +4006,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44144.632203703703</v>
+        <v>44145.597806481484</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -23006,16 +23020,238 @@
       </c>
     </row>
     <row r="748" spans="1:8">
-      <c r="D748" s="6"/>
+      <c r="A748" s="5">
+        <v>746</v>
+      </c>
+      <c r="B748" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C748" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D748" s="6">
+        <v>44145</v>
+      </c>
+      <c r="E748" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F748" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="G748" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H748" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="749" spans="1:8">
-      <c r="D749" s="6"/>
+      <c r="A749" s="5">
+        <v>747</v>
+      </c>
+      <c r="B749" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C749" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D749" s="6">
+        <v>44145</v>
+      </c>
+      <c r="E749" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F749" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="G749" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H749" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="750" spans="1:8">
-      <c r="D750" s="6"/>
+      <c r="A750" s="5">
+        <v>748</v>
+      </c>
+      <c r="B750" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C750" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D750" s="6">
+        <v>44145</v>
+      </c>
+      <c r="E750" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F750" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G750" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H750" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="751" spans="1:8">
-      <c r="D751" s="6"/>
+      <c r="A751" s="5">
+        <v>749</v>
+      </c>
+      <c r="B751" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C751" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D751" s="6">
+        <v>44145</v>
+      </c>
+      <c r="E751" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F751" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G751" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H751" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8">
+      <c r="A752" s="5">
+        <v>750</v>
+      </c>
+      <c r="B752" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C752" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D752" s="6">
+        <v>44145</v>
+      </c>
+      <c r="E752" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F752" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="G752" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H752" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8">
+      <c r="A753" s="5">
+        <v>751</v>
+      </c>
+      <c r="B753" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C753" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D753" s="6">
+        <v>44145</v>
+      </c>
+      <c r="E753" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F753" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G753" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H753" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8">
+      <c r="A754" s="5">
+        <v>752</v>
+      </c>
+      <c r="B754" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C754" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D754" s="6">
+        <v>44145</v>
+      </c>
+      <c r="E754" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F754" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G754" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H754" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8">
+      <c r="A755" s="5">
+        <v>753</v>
+      </c>
+      <c r="B755" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C755" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D755" s="6">
+        <v>44145</v>
+      </c>
+      <c r="E755" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F755" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G755" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H755" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8">
+      <c r="A756" s="5">
+        <v>754</v>
+      </c>
+      <c r="B756" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C756" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D756" s="6">
+        <v>44145</v>
+      </c>
+      <c r="E756" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F756" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G756" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H756" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$759</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$773</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="521">
   <si>
     <t>備考</t>
   </si>
@@ -3607,6 +3607,34 @@
     <t>天理市</t>
     <rPh sb="0" eb="3">
       <t>テンリシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河合町</t>
+    <rPh sb="0" eb="3">
+      <t>カワイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇陀市</t>
+    <rPh sb="0" eb="3">
+      <t>ウダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3976,11 +4004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J756"/>
+  <dimension ref="A1:J773"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E754" sqref="E754"/>
+      <pane ySplit="2" topLeftCell="A734" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H775" sqref="H775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4006,7 +4034,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44145.597806481484</v>
+        <v>44146.644677662036</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -23250,6 +23278,442 @@
         <v>38</v>
       </c>
       <c r="H756" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8">
+      <c r="A757" s="5">
+        <v>755</v>
+      </c>
+      <c r="B757" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C757" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D757" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E757" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F757" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G757" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H757" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8">
+      <c r="A758" s="5">
+        <v>756</v>
+      </c>
+      <c r="B758" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C758" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D758" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F758" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G758" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H758" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8">
+      <c r="A759" s="5">
+        <v>757</v>
+      </c>
+      <c r="B759" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C759" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D759" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F759" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="G759" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H759" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8">
+      <c r="A760" s="5">
+        <v>758</v>
+      </c>
+      <c r="B760" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C760" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D760" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E760" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F760" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G760" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H760" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8">
+      <c r="A761" s="5">
+        <v>759</v>
+      </c>
+      <c r="B761" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C761" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D761" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E761" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F761" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G761" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H761" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8">
+      <c r="A762" s="5">
+        <v>760</v>
+      </c>
+      <c r="B762" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C762" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D762" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E762" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F762" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="G762" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H762" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8">
+      <c r="A763" s="5">
+        <v>761</v>
+      </c>
+      <c r="B763" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C763" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D763" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E763" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F763" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G763" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H763" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8">
+      <c r="A764" s="5">
+        <v>762</v>
+      </c>
+      <c r="B764" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C764" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D764" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E764" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F764" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G764" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H764" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8">
+      <c r="A765" s="5">
+        <v>763</v>
+      </c>
+      <c r="B765" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C765" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D765" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E765" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F765" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="G765" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H765" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8">
+      <c r="A766" s="5">
+        <v>764</v>
+      </c>
+      <c r="B766" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C766" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D766" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E766" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F766" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="G766" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H766" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8">
+      <c r="A767" s="5">
+        <v>765</v>
+      </c>
+      <c r="B767" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C767" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D767" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E767" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F767" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G767" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H767" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8">
+      <c r="A768" s="5">
+        <v>766</v>
+      </c>
+      <c r="B768" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C768" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D768" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E768" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F768" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G768" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H768" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8">
+      <c r="A769" s="5">
+        <v>767</v>
+      </c>
+      <c r="B769" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C769" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D769" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E769" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F769" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G769" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H769" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8">
+      <c r="A770" s="5">
+        <v>768</v>
+      </c>
+      <c r="B770" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C770" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D770" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E770" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F770" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G770" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H770" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8">
+      <c r="A771" s="5">
+        <v>769</v>
+      </c>
+      <c r="B771" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C771" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D771" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E771" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F771" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G771" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H771" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8">
+      <c r="A772" s="5">
+        <v>770</v>
+      </c>
+      <c r="B772" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C772" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D772" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E772" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F772" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G772" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H772" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8">
+      <c r="A773" s="5">
+        <v>771</v>
+      </c>
+      <c r="B773" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C773" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D773" s="6">
+        <v>44146</v>
+      </c>
+      <c r="E773" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F773" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G773" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H773" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$773</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$790</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="527">
   <si>
     <t>備考</t>
   </si>
@@ -3635,6 +3635,48 @@
     <t>大和郡山市</t>
     <rPh sb="0" eb="5">
       <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇陀市</t>
+    <rPh sb="0" eb="3">
+      <t>ウダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3642,7 +3684,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -4004,11 +4046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J773"/>
+  <dimension ref="A1:J790"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A734" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H775" sqref="H775"/>
+      <pane ySplit="2" topLeftCell="A773" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F777" sqref="F777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4034,7 +4076,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44146.644677662036</v>
+        <v>44147.629896759259</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -23715,6 +23757,439 @@
       </c>
       <c r="H773" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8">
+      <c r="A774" s="5">
+        <v>772</v>
+      </c>
+      <c r="B774" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C774" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D774" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E774" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F774" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G774" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H774" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8">
+      <c r="A775" s="5">
+        <v>773</v>
+      </c>
+      <c r="B775" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C775" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D775" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E775" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F775" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G775" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H775" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8">
+      <c r="A776" s="5">
+        <v>774</v>
+      </c>
+      <c r="B776" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C776" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D776" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E776" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F776" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G776" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H776" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8">
+      <c r="A777" s="5">
+        <v>775</v>
+      </c>
+      <c r="B777" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C777" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D777" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E777" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F777" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G777" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H777" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8">
+      <c r="A778" s="5">
+        <v>776</v>
+      </c>
+      <c r="B778" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C778" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D778" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E778" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F778" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G778" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H778" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8">
+      <c r="A779" s="5">
+        <v>777</v>
+      </c>
+      <c r="B779" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C779" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D779" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E779" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F779" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G779" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H779" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8">
+      <c r="A780" s="5">
+        <v>778</v>
+      </c>
+      <c r="B780" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C780" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D780" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E780" s="6">
+        <v>44139</v>
+      </c>
+      <c r="F780" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G780" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H780" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8">
+      <c r="A781" s="5">
+        <v>779</v>
+      </c>
+      <c r="B781" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C781" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D781" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E781" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F781" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G781" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H781" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8">
+      <c r="A782" s="5">
+        <v>780</v>
+      </c>
+      <c r="B782" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C782" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D782" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F782" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G782" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="H782" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8">
+      <c r="A783" s="5">
+        <v>781</v>
+      </c>
+      <c r="B783" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C783" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D783" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E783" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F783" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G783" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="H783" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8">
+      <c r="A784" s="5">
+        <v>782</v>
+      </c>
+      <c r="B784" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C784" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D784" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E784" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F784" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G784" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H784" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8">
+      <c r="A785" s="5">
+        <v>783</v>
+      </c>
+      <c r="B785" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C785" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D785" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E785" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F785" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G785" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H785" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8">
+      <c r="A786" s="5">
+        <v>784</v>
+      </c>
+      <c r="B786" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C786" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D786" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E786" s="6">
+        <v>44135</v>
+      </c>
+      <c r="F786" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G786" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H786" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="A787" s="5">
+        <v>785</v>
+      </c>
+      <c r="B787" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C787" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D787" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F787" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G787" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="H787" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="A788" s="5">
+        <v>786</v>
+      </c>
+      <c r="B788" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C788" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D788" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F788" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G788" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H788" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8">
+      <c r="A789" s="5">
+        <v>787</v>
+      </c>
+      <c r="B789" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C789" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D789" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E789" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F789" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G789" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H789" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8">
+      <c r="A790" s="5">
+        <v>788</v>
+      </c>
+      <c r="B790" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C790" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D790" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E790" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F790" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G790" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H790" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$790</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$814</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="546">
   <si>
     <t>備考</t>
   </si>
@@ -3677,6 +3677,142 @@
     <t>50代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>河合町</t>
+    <rPh sb="0" eb="3">
+      <t>カワイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>斑鳩町</t>
+    <rPh sb="0" eb="3">
+      <t>イカルガチョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="4">
+      <t>タワラモトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3689,7 +3825,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3718,6 +3854,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4046,11 +4188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J790"/>
+  <dimension ref="A1:J814"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A773" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F777" sqref="F777"/>
+      <pane ySplit="2" topLeftCell="A748" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G791" sqref="G791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4076,7 +4218,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44147.629896759259</v>
+        <v>44148.671635300925</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -24190,6 +24332,618 @@
       </c>
       <c r="H790" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8">
+      <c r="A791" s="5">
+        <v>789</v>
+      </c>
+      <c r="B791" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C791" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D791" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E791" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F791" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="G791" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H791" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8">
+      <c r="A792" s="5">
+        <v>790</v>
+      </c>
+      <c r="B792" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C792" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D792" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E792" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F792" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G792" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H792" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8">
+      <c r="A793" s="5">
+        <v>791</v>
+      </c>
+      <c r="B793" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C793" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D793" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E793" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F793" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G793" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H793" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8">
+      <c r="A794" s="5">
+        <v>792</v>
+      </c>
+      <c r="B794" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C794" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D794" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E794" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F794" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G794" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H794" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8">
+      <c r="A795" s="5">
+        <v>793</v>
+      </c>
+      <c r="B795" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C795" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D795" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E795" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F795" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G795" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="H795" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="A796" s="5">
+        <v>794</v>
+      </c>
+      <c r="B796" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C796" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D796" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E796" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F796" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="G796" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H796" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="A797" s="5">
+        <v>795</v>
+      </c>
+      <c r="B797" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C797" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D797" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F797" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="G797" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="H797" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8">
+      <c r="A798" s="5">
+        <v>796</v>
+      </c>
+      <c r="B798" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C798" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D798" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E798" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F798" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G798" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H798" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8">
+      <c r="A799" s="5">
+        <v>797</v>
+      </c>
+      <c r="B799" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C799" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D799" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E799" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F799" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G799" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="H799" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8">
+      <c r="A800" s="5">
+        <v>798</v>
+      </c>
+      <c r="B800" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C800" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D800" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E800" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F800" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G800" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H800" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8">
+      <c r="A801" s="5">
+        <v>799</v>
+      </c>
+      <c r="B801" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C801" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D801" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E801" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F801" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G801" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H801" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8">
+      <c r="A802" s="5">
+        <v>800</v>
+      </c>
+      <c r="B802" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C802" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D802" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E802" s="6">
+        <v>44140</v>
+      </c>
+      <c r="F802" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G802" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="H802" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8">
+      <c r="A803" s="5">
+        <v>801</v>
+      </c>
+      <c r="B803" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C803" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D803" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E803" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F803" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="G803" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="H803" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8">
+      <c r="A804" s="5">
+        <v>802</v>
+      </c>
+      <c r="B804" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C804" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D804" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F804" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G804" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="H804" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8">
+      <c r="A805" s="5">
+        <v>803</v>
+      </c>
+      <c r="B805" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C805" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D805" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E805" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F805" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G805" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="H805" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8">
+      <c r="A806" s="5">
+        <v>804</v>
+      </c>
+      <c r="B806" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C806" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D806" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E806" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F806" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="G806" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H806" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8">
+      <c r="A807" s="5">
+        <v>805</v>
+      </c>
+      <c r="B807" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C807" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D807" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E807" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F807" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G807" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="H807" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8">
+      <c r="A808" s="5">
+        <v>806</v>
+      </c>
+      <c r="B808" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C808" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D808" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E808" s="6">
+        <v>44134</v>
+      </c>
+      <c r="F808" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G808" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H808" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8">
+      <c r="A809" s="5">
+        <v>807</v>
+      </c>
+      <c r="B809" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C809" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D809" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F809" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G809" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="H809" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8">
+      <c r="A810" s="5">
+        <v>808</v>
+      </c>
+      <c r="B810" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C810" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D810" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E810" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F810" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G810" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="H810" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8">
+      <c r="A811" s="5">
+        <v>809</v>
+      </c>
+      <c r="B811" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C811" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D811" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E811" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F811" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G811" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="H811" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8">
+      <c r="A812" s="5">
+        <v>810</v>
+      </c>
+      <c r="B812" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C812" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D812" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E812" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F812" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G812" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H812" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8">
+      <c r="A813" s="5">
+        <v>811</v>
+      </c>
+      <c r="B813" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C813" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D813" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E813" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F813" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G813" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="H813" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8">
+      <c r="A814" s="5">
+        <v>812</v>
+      </c>
+      <c r="B814" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C814" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D814" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F814" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G814" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H814" s="5" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$814</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$840</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="564">
   <si>
     <t>備考</t>
   </si>
@@ -3808,6 +3808,132 @@
       <t>タワラモトチョウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王寺町</t>
+    <rPh sb="0" eb="3">
+      <t>オウジチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三宅町</t>
+    <rPh sb="0" eb="3">
+      <t>ミヤケチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御所市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴセシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天理市</t>
+    <rPh sb="0" eb="3">
+      <t>テンリシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>奈良市</t>
@@ -4188,37 +4314,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J814"/>
+  <dimension ref="A1:J837"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A748" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G791" sqref="G791"/>
+      <pane ySplit="2" topLeftCell="A823" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F833" sqref="F833"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44148.671635300925</v>
+        <v>44149.680272453705</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4228,7 +4354,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="26">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -24944,6 +25070,586 @@
       </c>
       <c r="H814" s="5" t="s">
         <v>527</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8">
+      <c r="A815" s="5">
+        <v>813</v>
+      </c>
+      <c r="B815" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C815" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D815" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E815" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F815" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="G815" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H815" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8">
+      <c r="A816" s="5">
+        <v>814</v>
+      </c>
+      <c r="B816" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C816" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D816" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E816" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F816" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="G816" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H816" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8">
+      <c r="A817" s="5">
+        <v>815</v>
+      </c>
+      <c r="B817" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C817" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D817" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F817" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="G817" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="H817" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8">
+      <c r="A818" s="5">
+        <v>816</v>
+      </c>
+      <c r="B818" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C818" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D818" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E818" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F818" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G818" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="H818" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8">
+      <c r="A819" s="5">
+        <v>817</v>
+      </c>
+      <c r="B819" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C819" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D819" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E819" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F819" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="G819" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="H819" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8">
+      <c r="A820" s="5">
+        <v>818</v>
+      </c>
+      <c r="B820" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C820" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D820" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F820" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G820" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="H820" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8">
+      <c r="A821" s="5">
+        <v>819</v>
+      </c>
+      <c r="B821" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C821" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D821" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E821" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F821" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="G821" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="H821" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8">
+      <c r="A822" s="5">
+        <v>820</v>
+      </c>
+      <c r="B822" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C822" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D822" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E822" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F822" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="G822" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="H822" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8">
+      <c r="A823" s="5">
+        <v>821</v>
+      </c>
+      <c r="B823" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C823" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D823" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F823" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="G823" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="H823" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8">
+      <c r="A824" s="5">
+        <v>822</v>
+      </c>
+      <c r="B824" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C824" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D824" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E824" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F824" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="G824" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H824" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8">
+      <c r="A825" s="5">
+        <v>823</v>
+      </c>
+      <c r="B825" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C825" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D825" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E825" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F825" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="G825" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="H825" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8">
+      <c r="A826" s="5">
+        <v>824</v>
+      </c>
+      <c r="B826" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C826" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D826" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F826" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G826" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="H826" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8">
+      <c r="A827" s="5">
+        <v>825</v>
+      </c>
+      <c r="B827" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C827" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D827" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E827" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F827" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G827" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H827" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8">
+      <c r="A828" s="5">
+        <v>826</v>
+      </c>
+      <c r="B828" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C828" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D828" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E828" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F828" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G828" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="H828" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8">
+      <c r="A829" s="5">
+        <v>827</v>
+      </c>
+      <c r="B829" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C829" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D829" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E829" s="6">
+        <v>44138</v>
+      </c>
+      <c r="F829" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G829" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H829" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8">
+      <c r="A830" s="5">
+        <v>828</v>
+      </c>
+      <c r="B830" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C830" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D830" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E830" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F830" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G830" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="H830" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8">
+      <c r="A831" s="5">
+        <v>829</v>
+      </c>
+      <c r="B831" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C831" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D831" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F831" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G831" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H831" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8">
+      <c r="A832" s="5">
+        <v>830</v>
+      </c>
+      <c r="B832" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C832" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D832" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E832" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F832" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G832" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="H832" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8">
+      <c r="A833" s="5">
+        <v>831</v>
+      </c>
+      <c r="B833" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C833" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D833" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E833" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F833" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G833" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H833" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8">
+      <c r="A834" s="5">
+        <v>832</v>
+      </c>
+      <c r="B834" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C834" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D834" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E834" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F834" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G834" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="H834" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8">
+      <c r="A835" s="5">
+        <v>833</v>
+      </c>
+      <c r="B835" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C835" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D835" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E835" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F835" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G835" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="H835" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8">
+      <c r="A836" s="5">
+        <v>834</v>
+      </c>
+      <c r="B836" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C836" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D836" s="6">
+        <v>44149</v>
+      </c>
+      <c r="E836" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F836" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G836" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="H836" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8">
+      <c r="A837" s="5">
+        <v>835</v>
+      </c>
+      <c r="B837" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C837" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D837" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F837" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G837" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="H837" s="5" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$840</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$848</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="567">
   <si>
     <t>備考</t>
   </si>
@@ -3939,6 +3939,27 @@
     <t>奈良市</t>
     <rPh sb="0" eb="3">
       <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3946,7 +3967,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -4314,37 +4335,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J837"/>
+  <dimension ref="A1:J846"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A823" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F833" sqref="F833"/>
+      <pane ySplit="2" topLeftCell="A829" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F843" sqref="F843"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44149.680272453705</v>
+        <v>44150.604744328703</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4354,7 +4375,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="26">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -25650,6 +25671,237 @@
       </c>
       <c r="H837" s="5" t="s">
         <v>553</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8">
+      <c r="A838" s="5">
+        <v>836</v>
+      </c>
+      <c r="B838" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C838" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D838" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F838" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G838" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H838" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8">
+      <c r="A839" s="5">
+        <v>837</v>
+      </c>
+      <c r="B839" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C839" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D839" s="6">
+        <v>44150</v>
+      </c>
+      <c r="E839" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F839" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="G839" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="H839" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8">
+      <c r="A840" s="5">
+        <v>838</v>
+      </c>
+      <c r="B840" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C840" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D840" s="6">
+        <v>44150</v>
+      </c>
+      <c r="E840" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F840" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G840" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H840" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8">
+      <c r="A841" s="5">
+        <v>839</v>
+      </c>
+      <c r="B841" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C841" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D841" s="6">
+        <v>44150</v>
+      </c>
+      <c r="E841" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F841" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="G841" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H841" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8">
+      <c r="A842" s="5">
+        <v>840</v>
+      </c>
+      <c r="B842" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C842" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D842" s="6">
+        <v>44150</v>
+      </c>
+      <c r="E842" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F842" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G842" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H842" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8">
+      <c r="A843" s="5">
+        <v>841</v>
+      </c>
+      <c r="B843" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C843" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D843" s="6">
+        <v>44150</v>
+      </c>
+      <c r="E843" s="6">
+        <v>44141</v>
+      </c>
+      <c r="F843" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G843" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H843" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8">
+      <c r="A844" s="5">
+        <v>842</v>
+      </c>
+      <c r="B844" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C844" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D844" s="6">
+        <v>44150</v>
+      </c>
+      <c r="E844" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F844" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G844" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H844" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8">
+      <c r="A845" s="5">
+        <v>843</v>
+      </c>
+      <c r="B845" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C845" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D845" s="6">
+        <v>44150</v>
+      </c>
+      <c r="E845" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F845" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G845" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H845" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8">
+      <c r="A846" s="5">
+        <v>844</v>
+      </c>
+      <c r="B846" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C846" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D846" s="6">
+        <v>44150</v>
+      </c>
+      <c r="E846" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F846" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G846" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="H846" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$848</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$862</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="572">
   <si>
     <t>備考</t>
   </si>
@@ -3960,6 +3960,41 @@
     <t>10代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御所市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴセシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4335,11 +4370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J846"/>
+  <dimension ref="A1:J860"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A829" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F843" sqref="F843"/>
+      <pane ySplit="2" topLeftCell="A841" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E860" sqref="E860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4365,7 +4400,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44150.604744328703</v>
+        <v>44151.643337847221</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -25901,6 +25936,364 @@
         <v>566</v>
       </c>
       <c r="H846" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8">
+      <c r="A847" s="5">
+        <v>845</v>
+      </c>
+      <c r="B847" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C847" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D847" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E847" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F847" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="G847" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H847" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8">
+      <c r="A848" s="5">
+        <v>846</v>
+      </c>
+      <c r="B848" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C848" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D848" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E848" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F848" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="G848" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H848" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8">
+      <c r="A849" s="5">
+        <v>847</v>
+      </c>
+      <c r="B849" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C849" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D849" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E849" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F849" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="G849" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H849" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8">
+      <c r="A850" s="5">
+        <v>848</v>
+      </c>
+      <c r="B850" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C850" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D850" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E850" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F850" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="G850" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H850" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8">
+      <c r="A851" s="5">
+        <v>849</v>
+      </c>
+      <c r="B851" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C851" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D851" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F851" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="G851" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H851" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8">
+      <c r="A852" s="5">
+        <v>850</v>
+      </c>
+      <c r="B852" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C852" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D852" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E852" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F852" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="G852" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H852" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8">
+      <c r="A853" s="5">
+        <v>851</v>
+      </c>
+      <c r="B853" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C853" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D853" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E853" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F853" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="G853" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H853" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8">
+      <c r="A854" s="5">
+        <v>852</v>
+      </c>
+      <c r="B854" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C854" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D854" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F854" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="G854" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H854" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8">
+      <c r="A855" s="5">
+        <v>853</v>
+      </c>
+      <c r="B855" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C855" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D855" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E855" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F855" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G855" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H855" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8">
+      <c r="A856" s="5">
+        <v>854</v>
+      </c>
+      <c r="B856" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C856" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D856" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E856" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F856" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G856" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H856" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8">
+      <c r="A857" s="5">
+        <v>855</v>
+      </c>
+      <c r="B857" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C857" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D857" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E857" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F857" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G857" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H857" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8">
+      <c r="A858" s="5">
+        <v>856</v>
+      </c>
+      <c r="B858" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C858" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D858" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E858" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F858" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G858" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H858" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8">
+      <c r="A859" s="5">
+        <v>857</v>
+      </c>
+      <c r="B859" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C859" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D859" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E859" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F859" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G859" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H859" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8">
+      <c r="A860" s="5">
+        <v>858</v>
+      </c>
+      <c r="B860" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C860" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D860" s="6">
+        <v>44151</v>
+      </c>
+      <c r="E860" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F860" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G860" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H860" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$862</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$870</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="577">
   <si>
     <t>備考</t>
   </si>
@@ -3995,6 +3995,41 @@
     <t>橿原市</t>
     <rPh sb="0" eb="3">
       <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="3">
+      <t>ヘグリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪市</t>
+    <rPh sb="0" eb="3">
+      <t>オオサカシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4370,11 +4405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J860"/>
+  <dimension ref="A1:J870"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A841" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E860" sqref="E860"/>
+      <pane ySplit="2" topLeftCell="A860" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E871" sqref="E871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4400,7 +4435,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44151.643337847221</v>
+        <v>44152.642866319446</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -26295,6 +26330,254 @@
       </c>
       <c r="H860" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8">
+      <c r="A861" s="5">
+        <v>859</v>
+      </c>
+      <c r="B861" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C861" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D861" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F861" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G861" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H861" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8">
+      <c r="A862" s="5">
+        <v>860</v>
+      </c>
+      <c r="B862" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C862" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D862" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F862" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G862" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H862" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8">
+      <c r="A863" s="5">
+        <v>861</v>
+      </c>
+      <c r="B863" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C863" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D863" s="6">
+        <v>44152</v>
+      </c>
+      <c r="E863" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F863" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G863" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H863" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8">
+      <c r="A864" s="5">
+        <v>862</v>
+      </c>
+      <c r="B864" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C864" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D864" s="6">
+        <v>44152</v>
+      </c>
+      <c r="E864" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F864" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G864" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H864" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8">
+      <c r="A865" s="5">
+        <v>863</v>
+      </c>
+      <c r="B865" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C865" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D865" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F865" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G865" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H865" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8">
+      <c r="A866" s="5">
+        <v>864</v>
+      </c>
+      <c r="B866" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C866" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D866" s="6">
+        <v>44152</v>
+      </c>
+      <c r="E866" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F866" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G866" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H866" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8">
+      <c r="A867" s="5">
+        <v>865</v>
+      </c>
+      <c r="B867" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C867" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D867" s="6">
+        <v>44152</v>
+      </c>
+      <c r="E867" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F867" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G867" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H867" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8">
+      <c r="A868" s="5">
+        <v>866</v>
+      </c>
+      <c r="B868" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C868" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D868" s="6">
+        <v>44152</v>
+      </c>
+      <c r="E868" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F868" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="G868" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H868" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8">
+      <c r="A869" s="5">
+        <v>867</v>
+      </c>
+      <c r="B869" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C869" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D869" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F869" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="G869" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H869" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8">
+      <c r="A870" s="5">
+        <v>868</v>
+      </c>
+      <c r="B870" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C870" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D870" s="6">
+        <v>44152</v>
+      </c>
+      <c r="E870" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F870" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="G870" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H870" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$870</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$898</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="578">
   <si>
     <t>備考</t>
   </si>
@@ -4030,6 +4030,13 @@
     <t>大阪市</t>
     <rPh sb="0" eb="3">
       <t>オオサカシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曽爾村</t>
+    <rPh sb="0" eb="3">
+      <t>ソニムラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4037,7 +4044,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -4111,7 +4118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4143,11 +4150,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4188,6 +4223,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4405,11 +4452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J870"/>
+  <dimension ref="A1:J898"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E871" sqref="E871"/>
+      <pane ySplit="2" topLeftCell="A879" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I894" sqref="I894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4435,7 +4482,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44152.642866319446</v>
+        <v>44153.706832986114</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -26430,7 +26477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:9">
       <c r="A865" s="5">
         <v>863</v>
       </c>
@@ -26453,7 +26500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:9">
       <c r="A866" s="5">
         <v>864</v>
       </c>
@@ -26479,7 +26526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:9">
       <c r="A867" s="5">
         <v>865</v>
       </c>
@@ -26505,7 +26552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:9">
       <c r="A868" s="5">
         <v>866</v>
       </c>
@@ -26531,7 +26578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:9">
       <c r="A869" s="5">
         <v>867</v>
       </c>
@@ -26554,29 +26601,747 @@
         <v>28</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
-      <c r="A870" s="5">
+    <row r="870" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A870" s="16">
         <v>868</v>
       </c>
-      <c r="B870" s="5">
-        <v>290009</v>
-      </c>
-      <c r="C870" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D870" s="6">
+      <c r="B870" s="16">
+        <v>290009</v>
+      </c>
+      <c r="C870" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D870" s="17">
         <v>44152</v>
       </c>
-      <c r="E870" s="6">
+      <c r="E870" s="17">
         <v>44149</v>
       </c>
-      <c r="F870" s="6" t="s">
+      <c r="F870" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="G870" s="5" t="s">
+      <c r="G870" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H870" s="5" t="s">
+      <c r="H870" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I870" s="16"/>
+    </row>
+    <row r="871" spans="1:9">
+      <c r="A871" s="14">
+        <v>869</v>
+      </c>
+      <c r="B871" s="14">
+        <v>290009</v>
+      </c>
+      <c r="C871" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D871" s="15">
+        <v>44153</v>
+      </c>
+      <c r="E871" s="15">
+        <v>44150</v>
+      </c>
+      <c r="F871" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G871" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H871" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I871" s="14"/>
+    </row>
+    <row r="872" spans="1:9">
+      <c r="A872" s="5">
+        <v>870</v>
+      </c>
+      <c r="B872" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C872" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D872" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E872" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F872" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G872" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H872" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9">
+      <c r="A873" s="5">
+        <v>871</v>
+      </c>
+      <c r="B873" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C873" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D873" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E873" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F873" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G873" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H873" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9">
+      <c r="A874" s="5">
+        <v>872</v>
+      </c>
+      <c r="B874" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C874" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D874" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E874" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F874" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G874" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H874" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9">
+      <c r="A875" s="5">
+        <v>873</v>
+      </c>
+      <c r="B875" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C875" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D875" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E875" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F875" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G875" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H875" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9">
+      <c r="A876" s="5">
+        <v>874</v>
+      </c>
+      <c r="B876" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C876" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D876" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E876" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F876" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="G876" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H876" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9">
+      <c r="A877" s="5">
+        <v>875</v>
+      </c>
+      <c r="B877" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C877" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D877" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E877" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F877" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G877" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H877" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9">
+      <c r="A878" s="5">
+        <v>876</v>
+      </c>
+      <c r="B878" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C878" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D878" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E878" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F878" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G878" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H878" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9">
+      <c r="A879" s="5">
+        <v>877</v>
+      </c>
+      <c r="B879" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C879" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D879" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F879" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G879" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H879" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9">
+      <c r="A880" s="5">
+        <v>878</v>
+      </c>
+      <c r="B880" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C880" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D880" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E880" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F880" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G880" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H880" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8">
+      <c r="A881" s="5">
+        <v>879</v>
+      </c>
+      <c r="B881" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C881" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D881" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E881" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F881" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G881" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H881" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8">
+      <c r="A882" s="5">
+        <v>880</v>
+      </c>
+      <c r="B882" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C882" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D882" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E882" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F882" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G882" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H882" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8">
+      <c r="A883" s="5">
+        <v>881</v>
+      </c>
+      <c r="B883" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C883" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D883" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F883" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G883" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H883" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8">
+      <c r="A884" s="5">
+        <v>882</v>
+      </c>
+      <c r="B884" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C884" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D884" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E884" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F884" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G884" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H884" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8">
+      <c r="A885" s="5">
+        <v>883</v>
+      </c>
+      <c r="B885" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C885" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D885" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E885" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F885" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G885" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H885" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8">
+      <c r="A886" s="5">
+        <v>884</v>
+      </c>
+      <c r="B886" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C886" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D886" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E886" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F886" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G886" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H886" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8">
+      <c r="A887" s="5">
+        <v>885</v>
+      </c>
+      <c r="B887" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C887" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D887" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F887" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G887" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H887" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8">
+      <c r="A888" s="5">
+        <v>886</v>
+      </c>
+      <c r="B888" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C888" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D888" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E888" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F888" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G888" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H888" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8">
+      <c r="A889" s="5">
+        <v>887</v>
+      </c>
+      <c r="B889" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C889" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D889" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E889" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F889" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G889" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H889" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8">
+      <c r="A890" s="5">
+        <v>888</v>
+      </c>
+      <c r="B890" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C890" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D890" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E890" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F890" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G890" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H890" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8">
+      <c r="A891" s="5">
+        <v>889</v>
+      </c>
+      <c r="B891" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C891" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D891" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E891" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F891" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="G891" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H891" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8">
+      <c r="A892" s="5">
+        <v>890</v>
+      </c>
+      <c r="B892" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C892" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D892" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E892" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F892" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G892" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H892" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8">
+      <c r="A893" s="5">
+        <v>891</v>
+      </c>
+      <c r="B893" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C893" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D893" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E893" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F893" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G893" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H893" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8">
+      <c r="A894" s="5">
+        <v>892</v>
+      </c>
+      <c r="B894" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C894" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D894" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E894" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F894" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G894" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H894" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8">
+      <c r="A895" s="5">
+        <v>893</v>
+      </c>
+      <c r="B895" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C895" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D895" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E895" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F895" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G895" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H895" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8">
+      <c r="A896" s="5">
+        <v>894</v>
+      </c>
+      <c r="B896" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C896" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D896" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E896" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F896" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G896" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H896" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8">
+      <c r="A897" s="5">
+        <v>895</v>
+      </c>
+      <c r="B897" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C897" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D897" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F897" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G897" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H897" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8">
+      <c r="A898" s="5">
+        <v>896</v>
+      </c>
+      <c r="B898" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C898" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D898" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E898" s="6">
+        <v>44137</v>
+      </c>
+      <c r="F898" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G898" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H898" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$898</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$931</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="599">
   <si>
     <t>備考</t>
   </si>
@@ -4038,18 +4038,126 @@
     <rPh sb="0" eb="3">
       <t>ソニムラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+  </si>
+  <si>
+    <t>広陵町</t>
+  </si>
+  <si>
+    <t>三郷町</t>
+  </si>
+  <si>
+    <t>平群町</t>
+  </si>
+  <si>
+    <t>葛城市</t>
+  </si>
+  <si>
+    <t>香芝市</t>
+  </si>
+  <si>
+    <t>橿原市</t>
+  </si>
+  <si>
+    <t>大和高田市</t>
+  </si>
+  <si>
+    <t>田原本町</t>
+  </si>
+  <si>
+    <t>天理市</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4078,6 +4186,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4452,11 +4566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J898"/>
+  <dimension ref="A1:J931"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A879" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I894" sqref="I894"/>
+      <pane ySplit="2" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I929" sqref="I929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4482,7 +4596,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44153.706832986114</v>
+        <v>44154.651629050924</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -27343,6 +27457,846 @@
       </c>
       <c r="H898" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8">
+      <c r="A899" s="5">
+        <v>897</v>
+      </c>
+      <c r="B899" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C899" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D899" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E899" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F899" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="G899" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H899" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8">
+      <c r="A900" s="5">
+        <v>898</v>
+      </c>
+      <c r="B900" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C900" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D900" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E900" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F900" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G900" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H900" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8">
+      <c r="A901" s="5">
+        <v>899</v>
+      </c>
+      <c r="B901" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C901" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D901" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F901" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G901" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H901" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8">
+      <c r="A902" s="5">
+        <v>900</v>
+      </c>
+      <c r="B902" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C902" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D902" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E902" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F902" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G902" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H902" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8">
+      <c r="A903" s="5">
+        <v>901</v>
+      </c>
+      <c r="B903" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C903" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D903" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E903" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F903" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G903" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H903" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8">
+      <c r="A904" s="5">
+        <v>902</v>
+      </c>
+      <c r="B904" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C904" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D904" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E904" s="6">
+        <v>44142</v>
+      </c>
+      <c r="F904" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="G904" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="H904" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8">
+      <c r="A905" s="5">
+        <v>903</v>
+      </c>
+      <c r="B905" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C905" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D905" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E905" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F905" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G905" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H905" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8">
+      <c r="A906" s="5">
+        <v>904</v>
+      </c>
+      <c r="B906" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C906" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D906" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F906" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="G906" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H906" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8">
+      <c r="A907" s="5">
+        <v>905</v>
+      </c>
+      <c r="B907" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C907" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D907" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E907" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F907" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G907" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H907" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8">
+      <c r="A908" s="5">
+        <v>906</v>
+      </c>
+      <c r="B908" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C908" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D908" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E908" s="6">
+        <v>44148</v>
+      </c>
+      <c r="F908" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="G908" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H908" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8">
+      <c r="A909" s="5">
+        <v>907</v>
+      </c>
+      <c r="B909" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C909" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D909" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E909" s="6">
+        <v>44143</v>
+      </c>
+      <c r="F909" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G909" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H909" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8">
+      <c r="A910" s="5">
+        <v>908</v>
+      </c>
+      <c r="B910" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C910" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D910" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E910" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F910" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="G910" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H910" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8">
+      <c r="A911" s="5">
+        <v>909</v>
+      </c>
+      <c r="B911" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C911" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D911" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E911" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F911" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G911" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H911" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8">
+      <c r="A912" s="5">
+        <v>910</v>
+      </c>
+      <c r="B912" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C912" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D912" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F912" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G912" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H912" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8">
+      <c r="A913" s="5">
+        <v>911</v>
+      </c>
+      <c r="B913" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C913" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D913" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E913" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F913" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G913" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H913" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8">
+      <c r="A914" s="5">
+        <v>912</v>
+      </c>
+      <c r="B914" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C914" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D914" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E914" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F914" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G914" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="H914" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8">
+      <c r="A915" s="5">
+        <v>913</v>
+      </c>
+      <c r="B915" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C915" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D915" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E915" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F915" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="G915" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H915" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8">
+      <c r="A916" s="5">
+        <v>914</v>
+      </c>
+      <c r="B916" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C916" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D916" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E916" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F916" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G916" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H916" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8">
+      <c r="A917" s="5">
+        <v>915</v>
+      </c>
+      <c r="B917" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C917" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D917" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E917" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F917" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G917" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H917" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8">
+      <c r="A918" s="5">
+        <v>916</v>
+      </c>
+      <c r="B918" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C918" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D918" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F918" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="G918" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H918" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8">
+      <c r="A919" s="5">
+        <v>917</v>
+      </c>
+      <c r="B919" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C919" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D919" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E919" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F919" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G919" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H919" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8">
+      <c r="A920" s="5">
+        <v>918</v>
+      </c>
+      <c r="B920" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C920" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D920" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E920" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F920" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G920" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H920" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8">
+      <c r="A921" s="5">
+        <v>919</v>
+      </c>
+      <c r="B921" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C921" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D921" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E921" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F921" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G921" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H921" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8">
+      <c r="A922" s="5">
+        <v>920</v>
+      </c>
+      <c r="B922" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C922" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D922" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E922" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F922" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G922" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="H922" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8">
+      <c r="A923" s="5">
+        <v>921</v>
+      </c>
+      <c r="B923" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C923" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D923" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E923" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F923" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G923" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H923" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8">
+      <c r="A924" s="5">
+        <v>922</v>
+      </c>
+      <c r="B924" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C924" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D924" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E924" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F924" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G924" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H924" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8">
+      <c r="A925" s="5">
+        <v>923</v>
+      </c>
+      <c r="B925" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C925" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D925" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E925" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F925" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G925" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H925" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8">
+      <c r="A926" s="5">
+        <v>924</v>
+      </c>
+      <c r="B926" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C926" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D926" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E926" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F926" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G926" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H926" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8">
+      <c r="A927" s="5">
+        <v>925</v>
+      </c>
+      <c r="B927" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C927" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D927" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E927" s="6">
+        <v>44144</v>
+      </c>
+      <c r="F927" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G927" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H927" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8">
+      <c r="A928" s="5">
+        <v>926</v>
+      </c>
+      <c r="B928" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C928" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D928" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F928" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G928" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="H928" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8">
+      <c r="A929" s="5">
+        <v>927</v>
+      </c>
+      <c r="B929" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C929" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D929" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E929" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F929" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G929" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H929" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8">
+      <c r="A930" s="5">
+        <v>928</v>
+      </c>
+      <c r="B930" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C930" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D930" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F930" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G930" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H930" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8">
+      <c r="A931" s="5">
+        <v>929</v>
+      </c>
+      <c r="B931" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C931" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D931" s="6">
+        <v>44154</v>
+      </c>
+      <c r="E931" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F931" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G931" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H931" s="5" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$931</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$954</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="622">
   <si>
     <t>備考</t>
   </si>
@@ -4146,6 +4146,170 @@
   </si>
   <si>
     <t>天理市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマト</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三郷町</t>
+    <rPh sb="0" eb="3">
+      <t>サンゴウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="3">
+      <t>ヘグリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広陵町</t>
+    <rPh sb="0" eb="3">
+      <t>コウリョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天理市</t>
+    <rPh sb="0" eb="3">
+      <t>テンリシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4566,11 +4730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J931"/>
+  <dimension ref="A1:J954"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I929" sqref="I929"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="106" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D932" sqref="D932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4596,7 +4760,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44154.651629050924</v>
+        <v>44155.705572800929</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -28224,7 +28388,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:9">
       <c r="A929" s="5">
         <v>927</v>
       </c>
@@ -28250,7 +28414,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:9">
       <c r="A930" s="5">
         <v>928</v>
       </c>
@@ -28273,7 +28437,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:9">
       <c r="A931" s="5">
         <v>929</v>
       </c>
@@ -28298,6 +28462,625 @@
       <c r="H931" s="5" t="s">
         <v>579</v>
       </c>
+    </row>
+    <row r="932" spans="1:9">
+      <c r="A932" s="5">
+        <v>930</v>
+      </c>
+      <c r="B932" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C932" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D932" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E932" s="13">
+        <v>44154</v>
+      </c>
+      <c r="F932" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="G932" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H932" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="I932" s="7"/>
+    </row>
+    <row r="933" spans="1:9">
+      <c r="A933" s="5">
+        <v>931</v>
+      </c>
+      <c r="B933" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C933" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D933" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E933" s="13">
+        <v>44147</v>
+      </c>
+      <c r="F933" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="G933" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H933" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="I933" s="7"/>
+    </row>
+    <row r="934" spans="1:9">
+      <c r="A934" s="5">
+        <v>932</v>
+      </c>
+      <c r="B934" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C934" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D934" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E934" s="13">
+        <v>44147</v>
+      </c>
+      <c r="F934" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="G934" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H934" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="I934" s="7"/>
+    </row>
+    <row r="935" spans="1:9">
+      <c r="A935" s="5">
+        <v>933</v>
+      </c>
+      <c r="B935" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C935" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D935" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E935" s="13"/>
+      <c r="F935" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="G935" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H935" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="I935" s="7"/>
+    </row>
+    <row r="936" spans="1:9">
+      <c r="A936" s="5">
+        <v>934</v>
+      </c>
+      <c r="B936" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C936" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D936" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E936" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F936" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="G936" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H936" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="I936" s="7"/>
+    </row>
+    <row r="937" spans="1:9">
+      <c r="A937" s="5">
+        <v>935</v>
+      </c>
+      <c r="B937" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C937" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D937" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E937" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F937" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="G937" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H937" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="I937" s="7"/>
+    </row>
+    <row r="938" spans="1:9">
+      <c r="A938" s="5">
+        <v>936</v>
+      </c>
+      <c r="B938" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C938" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D938" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E938" s="13">
+        <v>44151</v>
+      </c>
+      <c r="F938" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="G938" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H938" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="I938" s="7"/>
+    </row>
+    <row r="939" spans="1:9">
+      <c r="A939" s="5">
+        <v>937</v>
+      </c>
+      <c r="B939" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C939" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D939" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E939" s="13">
+        <v>44144</v>
+      </c>
+      <c r="F939" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="G939" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H939" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="I939" s="7"/>
+    </row>
+    <row r="940" spans="1:9">
+      <c r="A940" s="5">
+        <v>938</v>
+      </c>
+      <c r="B940" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C940" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D940" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E940" s="13">
+        <v>44150</v>
+      </c>
+      <c r="F940" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="G940" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H940" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="I940" s="7"/>
+    </row>
+    <row r="941" spans="1:9">
+      <c r="A941" s="5">
+        <v>939</v>
+      </c>
+      <c r="B941" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C941" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D941" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E941" s="13">
+        <v>44150</v>
+      </c>
+      <c r="F941" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G941" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H941" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="I941" s="7"/>
+    </row>
+    <row r="942" spans="1:9">
+      <c r="A942" s="5">
+        <v>940</v>
+      </c>
+      <c r="B942" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C942" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D942" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E942" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F942" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="G942" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H942" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="I942" s="7"/>
+    </row>
+    <row r="943" spans="1:9">
+      <c r="A943" s="5">
+        <v>941</v>
+      </c>
+      <c r="B943" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C943" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D943" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E943" s="13">
+        <v>44151</v>
+      </c>
+      <c r="F943" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="G943" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H943" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="I943" s="7"/>
+    </row>
+    <row r="944" spans="1:9">
+      <c r="A944" s="5">
+        <v>942</v>
+      </c>
+      <c r="B944" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C944" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D944" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E944" s="13">
+        <v>44154</v>
+      </c>
+      <c r="F944" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="G944" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H944" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="I944" s="7"/>
+    </row>
+    <row r="945" spans="1:9">
+      <c r="A945" s="5">
+        <v>943</v>
+      </c>
+      <c r="B945" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C945" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D945" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E945" s="13">
+        <v>44155</v>
+      </c>
+      <c r="F945" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="G945" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H945" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="I945" s="7"/>
+    </row>
+    <row r="946" spans="1:9">
+      <c r="A946" s="5">
+        <v>944</v>
+      </c>
+      <c r="B946" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C946" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D946" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E946" s="13">
+        <v>44148</v>
+      </c>
+      <c r="F946" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G946" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H946" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="I946" s="7"/>
+    </row>
+    <row r="947" spans="1:9">
+      <c r="A947" s="5">
+        <v>945</v>
+      </c>
+      <c r="B947" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C947" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D947" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E947" s="13">
+        <v>44153</v>
+      </c>
+      <c r="F947" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="G947" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H947" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="I947" s="7"/>
+    </row>
+    <row r="948" spans="1:9">
+      <c r="A948" s="5">
+        <v>946</v>
+      </c>
+      <c r="B948" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C948" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D948" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E948" s="13">
+        <v>44153</v>
+      </c>
+      <c r="F948" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="G948" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="H948" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="I948" s="7"/>
+    </row>
+    <row r="949" spans="1:9">
+      <c r="A949" s="5">
+        <v>947</v>
+      </c>
+      <c r="B949" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C949" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D949" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E949" s="13">
+        <v>44155</v>
+      </c>
+      <c r="F949" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="G949" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="H949" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="I949" s="7"/>
+    </row>
+    <row r="950" spans="1:9">
+      <c r="A950" s="5">
+        <v>948</v>
+      </c>
+      <c r="B950" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C950" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D950" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E950" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F950" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="G950" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H950" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="I950" s="7"/>
+    </row>
+    <row r="951" spans="1:9">
+      <c r="A951" s="5">
+        <v>949</v>
+      </c>
+      <c r="B951" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C951" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D951" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E951" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F951" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="G951" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H951" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="I951" s="7"/>
+    </row>
+    <row r="952" spans="1:9">
+      <c r="A952" s="5">
+        <v>950</v>
+      </c>
+      <c r="B952" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C952" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D952" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E952" s="13">
+        <v>44151</v>
+      </c>
+      <c r="F952" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="G952" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H952" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="I952" s="7"/>
+    </row>
+    <row r="953" spans="1:9">
+      <c r="A953" s="5">
+        <v>951</v>
+      </c>
+      <c r="B953" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C953" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D953" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E953" s="13">
+        <v>44149</v>
+      </c>
+      <c r="F953" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="G953" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H953" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="I953" s="7"/>
+    </row>
+    <row r="954" spans="1:9">
+      <c r="A954" s="5">
+        <v>952</v>
+      </c>
+      <c r="B954" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C954" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D954" s="13">
+        <v>44155</v>
+      </c>
+      <c r="E954" s="13">
+        <v>44150</v>
+      </c>
+      <c r="F954" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="G954" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H954" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="I954" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$954</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$977</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="628">
   <si>
     <t>備考</t>
   </si>
@@ -4309,6 +4309,48 @@
     <t>大和郡山市</t>
     <rPh sb="0" eb="5">
       <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4730,11 +4772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J954"/>
+  <dimension ref="A1:J977"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="106" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D932" sqref="D932"/>
+      <pane ySplit="2" topLeftCell="A966" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A977" sqref="A977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4760,7 +4802,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44155.705572800929</v>
+        <v>44156.622603819444</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -29081,6 +29123,592 @@
         <v>617</v>
       </c>
       <c r="I954" s="7"/>
+    </row>
+    <row r="955" spans="1:9">
+      <c r="A955" s="5">
+        <v>953</v>
+      </c>
+      <c r="B955" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C955" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D955" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E955" s="13">
+        <v>44146</v>
+      </c>
+      <c r="F955" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="G955" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H955" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9">
+      <c r="A956" s="5">
+        <v>954</v>
+      </c>
+      <c r="B956" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C956" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D956" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E956" s="13">
+        <v>44145</v>
+      </c>
+      <c r="F956" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="G956" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H956" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9">
+      <c r="A957" s="5">
+        <v>955</v>
+      </c>
+      <c r="B957" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C957" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D957" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E957" s="13">
+        <v>44150</v>
+      </c>
+      <c r="F957" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="G957" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H957" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9">
+      <c r="A958" s="5">
+        <v>956</v>
+      </c>
+      <c r="B958" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C958" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D958" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E958" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F958" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="G958" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H958" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9">
+      <c r="A959" s="5">
+        <v>957</v>
+      </c>
+      <c r="B959" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C959" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D959" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E959" s="13">
+        <v>44154</v>
+      </c>
+      <c r="F959" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="G959" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H959" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9">
+      <c r="A960" s="5">
+        <v>958</v>
+      </c>
+      <c r="B960" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C960" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D960" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E960" s="13">
+        <v>44154</v>
+      </c>
+      <c r="F960" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G960" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H960" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8">
+      <c r="A961" s="5">
+        <v>959</v>
+      </c>
+      <c r="B961" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C961" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D961" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E961" s="13">
+        <v>44153</v>
+      </c>
+      <c r="F961" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G961" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H961" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8">
+      <c r="A962" s="5">
+        <v>960</v>
+      </c>
+      <c r="B962" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C962" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D962" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E962" s="13">
+        <v>44151</v>
+      </c>
+      <c r="F962" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="G962" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H962" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8">
+      <c r="A963" s="5">
+        <v>961</v>
+      </c>
+      <c r="B963" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C963" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D963" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E963" s="13">
+        <v>44155</v>
+      </c>
+      <c r="F963" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G963" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H963" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8">
+      <c r="A964" s="5">
+        <v>962</v>
+      </c>
+      <c r="B964" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C964" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D964" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E964" s="13">
+        <v>44154</v>
+      </c>
+      <c r="F964" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="G964" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H964" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8">
+      <c r="A965" s="5">
+        <v>963</v>
+      </c>
+      <c r="B965" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C965" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D965" s="13">
+        <v>44156</v>
+      </c>
+      <c r="F965" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G965" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H965" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8">
+      <c r="A966" s="5">
+        <v>964</v>
+      </c>
+      <c r="B966" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C966" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D966" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E966" s="13">
+        <v>44154</v>
+      </c>
+      <c r="F966" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G966" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H966" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8">
+      <c r="A967" s="5">
+        <v>965</v>
+      </c>
+      <c r="B967" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C967" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D967" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E967" s="13">
+        <v>44148</v>
+      </c>
+      <c r="F967" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G967" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H967" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8">
+      <c r="A968" s="5">
+        <v>966</v>
+      </c>
+      <c r="B968" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C968" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D968" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E968" s="13">
+        <v>44144</v>
+      </c>
+      <c r="F968" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G968" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H968" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8">
+      <c r="A969" s="5">
+        <v>967</v>
+      </c>
+      <c r="B969" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C969" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D969" s="13">
+        <v>44156</v>
+      </c>
+      <c r="F969" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G969" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H969" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8">
+      <c r="A970" s="5">
+        <v>968</v>
+      </c>
+      <c r="B970" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C970" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D970" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E970" s="13">
+        <v>44154</v>
+      </c>
+      <c r="F970" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G970" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H970" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8">
+      <c r="A971" s="5">
+        <v>969</v>
+      </c>
+      <c r="B971" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C971" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D971" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E971" s="13">
+        <v>44150</v>
+      </c>
+      <c r="F971" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G971" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H971" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8">
+      <c r="A972" s="5">
+        <v>970</v>
+      </c>
+      <c r="B972" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C972" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D972" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E972" s="13">
+        <v>44153</v>
+      </c>
+      <c r="F972" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G972" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H972" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8">
+      <c r="A973" s="5">
+        <v>971</v>
+      </c>
+      <c r="B973" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C973" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D973" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E973" s="13">
+        <v>44149</v>
+      </c>
+      <c r="F973" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G973" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H973" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8">
+      <c r="A974" s="5">
+        <v>972</v>
+      </c>
+      <c r="B974" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C974" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D974" s="13">
+        <v>44156</v>
+      </c>
+      <c r="F974" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G974" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H974" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8">
+      <c r="A975" s="5">
+        <v>973</v>
+      </c>
+      <c r="B975" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C975" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D975" s="13">
+        <v>44156</v>
+      </c>
+      <c r="F975" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G975" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H975" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8">
+      <c r="A976" s="5">
+        <v>974</v>
+      </c>
+      <c r="B976" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C976" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D976" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E976" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F976" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G976" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H976" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8">
+      <c r="A977" s="5">
+        <v>975</v>
+      </c>
+      <c r="B977" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C977" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D977" s="13">
+        <v>44156</v>
+      </c>
+      <c r="E977" s="13">
+        <v>44150</v>
+      </c>
+      <c r="F977" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G977" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H977" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$977</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$991</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="628">
   <si>
     <t>備考</t>
   </si>
@@ -4358,7 +4358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -4772,37 +4772,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J977"/>
+  <dimension ref="A1:J991"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="106" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A966" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A977" sqref="A977"/>
+      <pane ySplit="2" topLeftCell="A982" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G992" sqref="G992"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44156.622603819444</v>
+        <v>44157.637570486113</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4812,7 +4812,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="26">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -26921,7 +26921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="870" spans="1:9" ht="14.25" thickBot="1">
+    <row r="870" spans="1:9" ht="13.5" thickBot="1">
       <c r="A870" s="16">
         <v>868</v>
       </c>
@@ -29708,6 +29708,370 @@
       </c>
       <c r="H977" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8">
+      <c r="A978" s="5">
+        <v>976</v>
+      </c>
+      <c r="B978" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C978" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D978" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E978" s="13">
+        <v>44153</v>
+      </c>
+      <c r="F978" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G978" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H978" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8">
+      <c r="A979" s="5">
+        <v>977</v>
+      </c>
+      <c r="B979" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C979" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D979" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E979" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F979" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G979" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H979" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8">
+      <c r="A980" s="5">
+        <v>978</v>
+      </c>
+      <c r="B980" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C980" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D980" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E980" s="13">
+        <v>44149</v>
+      </c>
+      <c r="F980" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G980" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H980" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8">
+      <c r="A981" s="5">
+        <v>979</v>
+      </c>
+      <c r="B981" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C981" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D981" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E981" s="13">
+        <v>44147</v>
+      </c>
+      <c r="F981" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G981" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H981" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8">
+      <c r="A982" s="5">
+        <v>980</v>
+      </c>
+      <c r="B982" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C982" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D982" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E982" s="13">
+        <v>44151</v>
+      </c>
+      <c r="F982" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G982" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H982" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8">
+      <c r="A983" s="5">
+        <v>981</v>
+      </c>
+      <c r="B983" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C983" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D983" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E983" s="13">
+        <v>44146</v>
+      </c>
+      <c r="F983" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G983" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H983" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8">
+      <c r="A984" s="5">
+        <v>982</v>
+      </c>
+      <c r="B984" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C984" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D984" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E984" s="13">
+        <v>44150</v>
+      </c>
+      <c r="F984" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G984" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H984" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8">
+      <c r="A985" s="5">
+        <v>983</v>
+      </c>
+      <c r="B985" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C985" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D985" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E985" s="13">
+        <v>44149</v>
+      </c>
+      <c r="F985" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G985" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H985" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8">
+      <c r="A986" s="5">
+        <v>984</v>
+      </c>
+      <c r="B986" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C986" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D986" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E986" s="13">
+        <v>44146</v>
+      </c>
+      <c r="F986" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G986" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H986" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8">
+      <c r="A987" s="5">
+        <v>985</v>
+      </c>
+      <c r="B987" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C987" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D987" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E987" s="13">
+        <v>44150</v>
+      </c>
+      <c r="F987" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G987" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H987" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8">
+      <c r="A988" s="5">
+        <v>986</v>
+      </c>
+      <c r="B988" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C988" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D988" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E988" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F988" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G988" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H988" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="989" spans="1:8">
+      <c r="A989" s="5">
+        <v>987</v>
+      </c>
+      <c r="B989" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C989" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D989" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E989" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F989" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G989" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H989" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="990" spans="1:8">
+      <c r="A990" s="5">
+        <v>988</v>
+      </c>
+      <c r="B990" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C990" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D990" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E990" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F990" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G990" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H990" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="991" spans="1:8">
+      <c r="A991" s="5">
+        <v>989</v>
+      </c>
+      <c r="B991" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C991" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D991" s="13">
+        <v>44157</v>
+      </c>
+      <c r="E991" s="13">
+        <v>44152</v>
+      </c>
+      <c r="F991" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G991" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H991" s="5" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$991</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1051</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="639">
   <si>
     <t>備考</t>
   </si>
@@ -4353,6 +4353,53 @@
       <t>カシバシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+  </si>
+  <si>
+    <t>王寺町</t>
+  </si>
+  <si>
+    <t>天理市</t>
+  </si>
+  <si>
+    <t>上牧町</t>
+  </si>
+  <si>
+    <t>御所市</t>
+  </si>
+  <si>
+    <t>五條市</t>
+  </si>
+  <si>
+    <t>斑鳩町</t>
+  </si>
+  <si>
+    <t>奈良市</t>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -4772,11 +4819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J991"/>
+  <dimension ref="A1:J1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="106" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A982" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G992" sqref="G992"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A996" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1012" sqref="A1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
@@ -4802,7 +4849,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44157.637570486113</v>
+        <v>44158.732753819444</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -30073,6 +30120,549 @@
       <c r="H991" s="5" t="s">
         <v>528</v>
       </c>
+    </row>
+    <row r="992" spans="1:8">
+      <c r="A992" s="5">
+        <v>990</v>
+      </c>
+      <c r="B992" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C992" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D992" s="13">
+        <v>44158</v>
+      </c>
+      <c r="F992" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G992" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H992" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8">
+      <c r="A993" s="5">
+        <v>991</v>
+      </c>
+      <c r="B993" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C993" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D993" s="13">
+        <v>44158</v>
+      </c>
+      <c r="F993" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="G993" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H993" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8">
+      <c r="A994" s="5">
+        <v>992</v>
+      </c>
+      <c r="B994" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C994" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D994" s="13">
+        <v>44158</v>
+      </c>
+      <c r="F994" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G994" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H994" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8">
+      <c r="A995" s="5">
+        <v>993</v>
+      </c>
+      <c r="B995" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C995" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D995" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E995" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F995" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="G995" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H995" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8">
+      <c r="A996" s="5">
+        <v>994</v>
+      </c>
+      <c r="B996" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C996" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D996" s="13">
+        <v>44158</v>
+      </c>
+      <c r="F996" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G996" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H996" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8">
+      <c r="A997" s="5">
+        <v>995</v>
+      </c>
+      <c r="B997" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C997" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D997" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E997" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F997" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G997" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H997" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8">
+      <c r="A998" s="5">
+        <v>996</v>
+      </c>
+      <c r="B998" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C998" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D998" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E998" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F998" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="G998" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H998" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8">
+      <c r="A999" s="5">
+        <v>997</v>
+      </c>
+      <c r="B999" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C999" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D999" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E999" s="6">
+        <v>44149</v>
+      </c>
+      <c r="F999" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G999" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H999" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8">
+      <c r="A1000" s="5">
+        <v>998</v>
+      </c>
+      <c r="B1000" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1000" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1000" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1000" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F1000" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1000" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1000" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8">
+      <c r="A1001" s="5">
+        <v>999</v>
+      </c>
+      <c r="B1001" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1001" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1001" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1001" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F1001" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="G1001" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1001" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8">
+      <c r="A1002" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1002" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1002" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1002" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1002" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1002" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1002" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8">
+      <c r="A1003" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1003" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1003" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1003" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F1003" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="G1003" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1003" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8">
+      <c r="A1004" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1004" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1004" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1004" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1004" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1004" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1004" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8">
+      <c r="A1005" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1005" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1005" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1005" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1005" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="G1005" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1005" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8">
+      <c r="A1006" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B1006" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1006" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1006" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1006" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1006" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1006" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1006" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8">
+      <c r="A1007" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B1007" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1007" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1007" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1007" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F1007" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1007" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1007" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8">
+      <c r="A1008" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B1008" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1008" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1008" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1008" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F1008" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1008" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1008" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8">
+      <c r="A1009" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B1009" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1009" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1009" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1009" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F1009" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1009" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1009" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8">
+      <c r="A1010" s="5">
+        <v>1008</v>
+      </c>
+      <c r="B1010" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1010" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1010" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1010" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F1010" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1010" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1010" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8">
+      <c r="A1011" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B1011" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1011" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1011" s="13">
+        <v>44158</v>
+      </c>
+      <c r="E1011" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1011" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1011" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1011" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8">
+      <c r="A1012" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B1012" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1012" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1012" s="13">
+        <v>44158</v>
+      </c>
+      <c r="F1012" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1012" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1012" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8">
+      <c r="D1013" s="13"/>
+    </row>
+    <row r="1014" spans="1:8">
+      <c r="D1014" s="13"/>
+    </row>
+    <row r="1015" spans="1:8">
+      <c r="D1015" s="13"/>
+    </row>
+    <row r="1016" spans="1:8">
+      <c r="D1016" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="648">
   <si>
     <t>備考</t>
   </si>
@@ -4398,6 +4398,75 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>広陵町</t>
+    <rPh sb="0" eb="3">
+      <t>コウリョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>御所市</t>
+    <rPh sb="0" eb="2">
+      <t>ゴセ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="4">
+      <t>タワラモトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -4819,37 +4888,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1016"/>
+  <dimension ref="A1:J1028"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A996" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1012" sqref="A1012"/>
+      <pane ySplit="2" topLeftCell="A1010" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1014" sqref="H1014"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44158.732753819444</v>
+        <v>44159.772361921299</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4859,7 +4928,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="26">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -26968,7 +27037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="870" spans="1:9" ht="13.5" thickBot="1">
+    <row r="870" spans="1:9" ht="14.25" thickBot="1">
       <c r="A870" s="16">
         <v>868</v>
       </c>
@@ -30653,16 +30722,411 @@
       </c>
     </row>
     <row r="1013" spans="1:8">
-      <c r="D1013" s="13"/>
+      <c r="A1013" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B1013" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1013" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1013" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1013" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1013" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1013" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1013" s="5" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1014" spans="1:8">
-      <c r="D1014" s="13"/>
+      <c r="A1014" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B1014" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1014" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1014" s="13">
+        <v>44159</v>
+      </c>
+      <c r="F1014" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="G1014" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1014" s="5" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1015" spans="1:8">
-      <c r="D1015" s="13"/>
+      <c r="A1015" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B1015" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1015" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1015" s="13">
+        <v>44159</v>
+      </c>
+      <c r="F1015" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1015" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1015" s="5" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="1016" spans="1:8">
-      <c r="D1016" s="13"/>
+      <c r="A1016" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B1016" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1016" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1016" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1016" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F1016" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1016" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1016" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8">
+      <c r="A1017" s="5">
+        <v>1015</v>
+      </c>
+      <c r="B1017" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1017" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1017" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1017" s="6">
+        <v>44147</v>
+      </c>
+      <c r="F1017" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1017" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1017" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8">
+      <c r="A1018" s="5">
+        <v>1016</v>
+      </c>
+      <c r="B1018" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1018" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1018" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1018" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1018" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="G1018" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1018" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8">
+      <c r="A1019" s="5">
+        <v>1017</v>
+      </c>
+      <c r="B1019" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1019" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1019" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1019" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1019" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1019" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1019" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8">
+      <c r="A1020" s="5">
+        <v>1018</v>
+      </c>
+      <c r="B1020" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1020" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1020" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1020" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F1020" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G1020" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1020" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8">
+      <c r="A1021" s="5">
+        <v>1019</v>
+      </c>
+      <c r="B1021" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1021" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1021" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1021" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F1021" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="G1021" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1021" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8">
+      <c r="A1022" s="5">
+        <v>1020</v>
+      </c>
+      <c r="B1022" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1022" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1022" s="13">
+        <v>44159</v>
+      </c>
+      <c r="F1022" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1022" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1022" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8">
+      <c r="A1023" s="5">
+        <v>1021</v>
+      </c>
+      <c r="B1023" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1023" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1023" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1023" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F1023" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G1023" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1023" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8">
+      <c r="A1024" s="5">
+        <v>1022</v>
+      </c>
+      <c r="B1024" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1024" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1024" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1024" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1024" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="G1024" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1024" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8">
+      <c r="A1025" s="5">
+        <v>1023</v>
+      </c>
+      <c r="B1025" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1025" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1025" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1025" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1025" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1025" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1025" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8">
+      <c r="A1026" s="5">
+        <v>1024</v>
+      </c>
+      <c r="B1026" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1026" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1026" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1026" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1026" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1026" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1026" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8">
+      <c r="A1027" s="5">
+        <v>1025</v>
+      </c>
+      <c r="B1027" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1027" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1027" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1027" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F1027" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1027" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1027" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8">
+      <c r="A1028" s="5">
+        <v>1026</v>
+      </c>
+      <c r="B1028" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1028" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1028" s="13">
+        <v>44159</v>
+      </c>
+      <c r="E1028" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F1028" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1028" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="H1028" s="5" t="s">
+        <v>579</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1051</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="648">
   <si>
     <t>備考</t>
   </si>
@@ -4474,7 +4474,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -4888,11 +4888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1028"/>
+  <dimension ref="A1:J1040"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1010" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1014" sqref="H1014"/>
+      <pane ySplit="2" topLeftCell="A1025" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1041" sqref="H1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44159.772361921299</v>
+        <v>44160.714261458335</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -31126,6 +31126,315 @@
       </c>
       <c r="H1028" s="5" t="s">
         <v>579</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8">
+      <c r="A1029" s="5">
+        <v>1027</v>
+      </c>
+      <c r="B1029" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1029" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1029" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1029" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1029" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1029" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1029" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8">
+      <c r="A1030" s="5">
+        <v>1028</v>
+      </c>
+      <c r="B1030" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1030" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1030" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1030" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1030" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1030" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1030" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8">
+      <c r="A1031" s="5">
+        <v>1029</v>
+      </c>
+      <c r="B1031" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1031" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1031" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1031" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F1031" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1031" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1031" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8">
+      <c r="A1032" s="5">
+        <v>1030</v>
+      </c>
+      <c r="B1032" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1032" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1032" s="13">
+        <v>44160</v>
+      </c>
+      <c r="F1032" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1032" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1032" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8">
+      <c r="A1033" s="5">
+        <v>1031</v>
+      </c>
+      <c r="B1033" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1033" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1033" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1033" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F1033" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1033" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1033" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8">
+      <c r="A1034" s="5">
+        <v>1032</v>
+      </c>
+      <c r="B1034" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1034" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1034" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1034" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1034" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1034" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1034" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8">
+      <c r="A1035" s="5">
+        <v>1033</v>
+      </c>
+      <c r="B1035" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1035" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1035" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1035" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F1035" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1035" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1035" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8">
+      <c r="A1036" s="5">
+        <v>1034</v>
+      </c>
+      <c r="B1036" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1036" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1036" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1036" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1036" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1036" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1036" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8">
+      <c r="A1037" s="5">
+        <v>1035</v>
+      </c>
+      <c r="B1037" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1037" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1037" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1037" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F1037" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1037" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1037" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8">
+      <c r="A1038" s="5">
+        <v>1036</v>
+      </c>
+      <c r="B1038" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1038" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1038" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1038" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1038" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1038" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1038" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8">
+      <c r="A1039" s="5">
+        <v>1037</v>
+      </c>
+      <c r="B1039" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1039" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1039" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1039" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F1039" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1039" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1039" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8">
+      <c r="A1040" s="5">
+        <v>1038</v>
+      </c>
+      <c r="B1040" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1040" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1040" s="13">
+        <v>44160</v>
+      </c>
+      <c r="E1040" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1040" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1040" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1040" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -15,11 +15,11 @@
     <sheet name="奈良県_01新型コロナウイルス感染者_患者リスト" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1051</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1104</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="659">
   <si>
     <t>備考</t>
   </si>
@@ -4469,12 +4469,45 @@
       <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>河合町</t>
+  </si>
+  <si>
+    <t>宇陀市</t>
+  </si>
+  <si>
+    <t>70代</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>10代</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>20代</t>
+  </si>
+  <si>
+    <t>50代</t>
+  </si>
+  <si>
+    <t>40代</t>
+  </si>
+  <si>
+    <t>30代</t>
+  </si>
+  <si>
+    <t>60代</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -4888,11 +4921,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1040"/>
+  <dimension ref="A1:J1063"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1025" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1041" sqref="H1041"/>
+      <pane ySplit="2" topLeftCell="A1048" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1064" sqref="A1064"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4918,7 +4951,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44160.714261458335</v>
+        <v>44161.691473032406</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -31435,6 +31468,601 @@
       </c>
       <c r="H1040" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8">
+      <c r="A1041" s="5">
+        <v>1039</v>
+      </c>
+      <c r="B1041" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1041" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1041" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1041" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1041" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1041" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1041" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8">
+      <c r="A1042" s="5">
+        <v>1040</v>
+      </c>
+      <c r="B1042" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1042" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1042" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1042" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1042" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1042" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1042" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8">
+      <c r="A1043" s="5">
+        <v>1041</v>
+      </c>
+      <c r="B1043" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1043" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1043" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1043" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1043" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1043" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1043" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8">
+      <c r="A1044" s="5">
+        <v>1042</v>
+      </c>
+      <c r="B1044" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1044" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1044" s="13">
+        <v>44161</v>
+      </c>
+      <c r="F1044" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1044" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1044" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8">
+      <c r="A1045" s="5">
+        <v>1043</v>
+      </c>
+      <c r="B1045" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1045" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1045" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1045" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1045" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1045" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1045" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8">
+      <c r="A1046" s="5">
+        <v>1044</v>
+      </c>
+      <c r="B1046" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1046" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1046" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1046" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1046" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1046" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1046" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8">
+      <c r="A1047" s="5">
+        <v>1045</v>
+      </c>
+      <c r="B1047" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1047" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1047" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1047" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F1047" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1047" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1047" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8">
+      <c r="A1048" s="5">
+        <v>1046</v>
+      </c>
+      <c r="B1048" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1048" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1048" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1048" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1048" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1048" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1048" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8">
+      <c r="A1049" s="5">
+        <v>1047</v>
+      </c>
+      <c r="B1049" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1049" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1049" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1049" s="6">
+        <v>44146</v>
+      </c>
+      <c r="F1049" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1049" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1049" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8">
+      <c r="A1050" s="5">
+        <v>1048</v>
+      </c>
+      <c r="B1050" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1050" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1050" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1050" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F1050" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1050" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1050" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8">
+      <c r="A1051" s="5">
+        <v>1049</v>
+      </c>
+      <c r="B1051" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1051" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1051" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1051" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1051" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1051" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1051" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8">
+      <c r="A1052" s="5">
+        <v>1050</v>
+      </c>
+      <c r="B1052" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1052" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1052" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1052" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1052" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1052" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1052" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8">
+      <c r="A1053" s="5">
+        <v>1051</v>
+      </c>
+      <c r="B1053" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1053" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1053" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1053" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F1053" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1053" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1053" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8">
+      <c r="A1054" s="5">
+        <v>1052</v>
+      </c>
+      <c r="B1054" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1054" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1054" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1054" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1054" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1054" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1054" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8">
+      <c r="A1055" s="5">
+        <v>1053</v>
+      </c>
+      <c r="B1055" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1055" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1055" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1055" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1055" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1055" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1055" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8">
+      <c r="A1056" s="5">
+        <v>1054</v>
+      </c>
+      <c r="B1056" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1056" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1056" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1056" s="6">
+        <v>44145</v>
+      </c>
+      <c r="F1056" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1056" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1056" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8">
+      <c r="A1057" s="5">
+        <v>1055</v>
+      </c>
+      <c r="B1057" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1057" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1057" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1057" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1057" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G1057" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1057" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8">
+      <c r="A1058" s="5">
+        <v>1056</v>
+      </c>
+      <c r="B1058" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1058" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1058" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1058" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1058" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1058" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1058" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8">
+      <c r="A1059" s="5">
+        <v>1057</v>
+      </c>
+      <c r="B1059" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1059" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1059" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1059" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1059" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1059" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1059" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8">
+      <c r="A1060" s="5">
+        <v>1058</v>
+      </c>
+      <c r="B1060" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1060" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1060" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1060" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1060" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1060" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1060" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8">
+      <c r="A1061" s="5">
+        <v>1059</v>
+      </c>
+      <c r="B1061" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1061" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1061" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1061" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1061" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1061" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1061" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8">
+      <c r="A1062" s="5">
+        <v>1060</v>
+      </c>
+      <c r="B1062" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1062" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1062" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1062" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F1062" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1062" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1062" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8">
+      <c r="A1063" s="5">
+        <v>1061</v>
+      </c>
+      <c r="B1063" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1063" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1063" s="13">
+        <v>44161</v>
+      </c>
+      <c r="E1063" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1063" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1063" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1063" s="5" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1104</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="667">
   <si>
     <t>備考</t>
   </si>
@@ -4502,12 +4502,68 @@
   </si>
   <si>
     <t>60代</t>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上牧町</t>
+    <rPh sb="0" eb="3">
+      <t>カンマキチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -4921,11 +4977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1063"/>
+  <dimension ref="A1:J1089"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1048" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1064" sqref="A1064"/>
+      <pane ySplit="2" topLeftCell="A1072" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1088" sqref="F1088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4951,7 +5007,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44161.691473032406</v>
+        <v>44162.638585300927</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -32063,6 +32119,676 @@
       </c>
       <c r="H1063" s="5" t="s">
         <v>653</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8">
+      <c r="A1064" s="5">
+        <v>1062</v>
+      </c>
+      <c r="B1064" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1064" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1064" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1064" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1064" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1064" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1064" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8">
+      <c r="A1065" s="5">
+        <v>1063</v>
+      </c>
+      <c r="B1065" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1065" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1065" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1065" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1065" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1065" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1065" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8">
+      <c r="A1066" s="5">
+        <v>1064</v>
+      </c>
+      <c r="B1066" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1066" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1066" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1066" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1066" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1066" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="H1066" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8">
+      <c r="A1067" s="5">
+        <v>1065</v>
+      </c>
+      <c r="B1067" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1067" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1067" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1067" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1067" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G1067" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1067" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8">
+      <c r="A1068" s="5">
+        <v>1066</v>
+      </c>
+      <c r="B1068" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1068" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1068" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1068" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F1068" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1068" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1068" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8">
+      <c r="A1069" s="5">
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1069" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1069" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1069" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1069" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="G1069" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1069" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8">
+      <c r="A1070" s="5">
+        <v>1068</v>
+      </c>
+      <c r="B1070" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1070" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1070" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1070" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F1070" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1070" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1070" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8">
+      <c r="A1071" s="5">
+        <v>1069</v>
+      </c>
+      <c r="B1071" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1071" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1071" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1071" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1071" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1071" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1071" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8">
+      <c r="A1072" s="5">
+        <v>1070</v>
+      </c>
+      <c r="B1072" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1072" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1072" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1072" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F1072" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="G1072" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1072" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8">
+      <c r="A1073" s="5">
+        <v>1071</v>
+      </c>
+      <c r="B1073" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1073" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1073" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1073" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1073" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="G1073" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1073" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8">
+      <c r="A1074" s="5">
+        <v>1072</v>
+      </c>
+      <c r="B1074" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1074" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1074" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1074" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F1074" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1074" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1074" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8">
+      <c r="A1075" s="5">
+        <v>1073</v>
+      </c>
+      <c r="B1075" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1075" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1075" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1075" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1075" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1075" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1075" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8">
+      <c r="A1076" s="5">
+        <v>1074</v>
+      </c>
+      <c r="B1076" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1076" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1076" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1076" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1076" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="G1076" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1076" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8">
+      <c r="A1077" s="5">
+        <v>1075</v>
+      </c>
+      <c r="B1077" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1077" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1077" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1077" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1077" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1077" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1077" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8">
+      <c r="A1078" s="5">
+        <v>1076</v>
+      </c>
+      <c r="B1078" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1078" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1078" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1078" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1078" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1078" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1078" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8">
+      <c r="A1079" s="5">
+        <v>1077</v>
+      </c>
+      <c r="B1079" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1079" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1079" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1079" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1079" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="G1079" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1079" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8">
+      <c r="A1080" s="5">
+        <v>1078</v>
+      </c>
+      <c r="B1080" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1080" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1080" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1080" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1080" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1080" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1080" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8">
+      <c r="A1081" s="5">
+        <v>1079</v>
+      </c>
+      <c r="B1081" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1081" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1081" s="13">
+        <v>44162</v>
+      </c>
+      <c r="F1081" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1081" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1081" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8">
+      <c r="A1082" s="5">
+        <v>1080</v>
+      </c>
+      <c r="B1082" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1082" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1082" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1082" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1082" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="G1082" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1082" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8">
+      <c r="A1083" s="5">
+        <v>1081</v>
+      </c>
+      <c r="B1083" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1083" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1083" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1083" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1083" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1083" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1083" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8">
+      <c r="A1084" s="5">
+        <v>1082</v>
+      </c>
+      <c r="B1084" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1084" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1084" s="13">
+        <v>44162</v>
+      </c>
+      <c r="F1084" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G1084" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="H1084" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8">
+      <c r="A1085" s="5">
+        <v>1083</v>
+      </c>
+      <c r="B1085" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1085" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1085" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1085" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1085" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G1085" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="H1085" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8">
+      <c r="A1086" s="5">
+        <v>1084</v>
+      </c>
+      <c r="B1086" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1086" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1086" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1086" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1086" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G1086" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1086" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8">
+      <c r="A1087" s="5">
+        <v>1085</v>
+      </c>
+      <c r="B1087" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1087" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1087" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1087" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1087" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G1087" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1087" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8">
+      <c r="A1088" s="5">
+        <v>1086</v>
+      </c>
+      <c r="B1088" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1088" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1088" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1088" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1088" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G1088" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1088" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8">
+      <c r="A1089" s="5">
+        <v>1087</v>
+      </c>
+      <c r="B1089" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1089" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1089" s="13">
+        <v>44162</v>
+      </c>
+      <c r="E1089" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1089" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G1089" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1089" s="5" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1108</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="682">
   <si>
     <t>備考</t>
   </si>
@@ -4556,6 +4556,108 @@
     <t>香芝市</t>
     <rPh sb="0" eb="3">
       <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天理市</t>
+    <rPh sb="0" eb="3">
+      <t>テンリシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三郷町</t>
+    <rPh sb="0" eb="3">
+      <t>サンゴウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安堵町</t>
+    <rPh sb="0" eb="3">
+      <t>アンドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4977,11 +5079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1089"/>
+  <dimension ref="A1:J1108"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1072" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1088" sqref="F1088"/>
+      <pane ySplit="2" topLeftCell="A1090" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1108" sqref="E1108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5007,7 +5109,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44162.638585300927</v>
+        <v>44163.649630208332</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -32789,6 +32891,482 @@
       </c>
       <c r="H1089" s="5" t="s">
         <v>528</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8">
+      <c r="A1090" s="5">
+        <v>1088</v>
+      </c>
+      <c r="B1090" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1090" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1090" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1090" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1090" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G1090" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="H1090" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8">
+      <c r="A1091" s="5">
+        <v>1089</v>
+      </c>
+      <c r="B1091" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1091" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1091" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1091" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1091" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="G1091" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1091" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8">
+      <c r="A1092" s="5">
+        <v>1090</v>
+      </c>
+      <c r="B1092" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1092" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1092" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1092" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1092" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="G1092" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="H1092" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8">
+      <c r="A1093" s="5">
+        <v>1091</v>
+      </c>
+      <c r="B1093" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1093" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1093" s="13">
+        <v>44163</v>
+      </c>
+      <c r="F1093" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G1093" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1093" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8">
+      <c r="A1094" s="5">
+        <v>1092</v>
+      </c>
+      <c r="B1094" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1094" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1094" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1094" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F1094" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1094" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="H1094" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8">
+      <c r="A1095" s="5">
+        <v>1093</v>
+      </c>
+      <c r="B1095" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1095" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1095" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1095" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1095" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1095" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1095" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8">
+      <c r="A1096" s="5">
+        <v>1094</v>
+      </c>
+      <c r="B1096" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1096" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1096" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1096" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1096" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G1096" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="H1096" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8">
+      <c r="A1097" s="5">
+        <v>1095</v>
+      </c>
+      <c r="B1097" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1097" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1097" s="13">
+        <v>44163</v>
+      </c>
+      <c r="F1097" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G1097" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1097" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8">
+      <c r="A1098" s="5">
+        <v>1096</v>
+      </c>
+      <c r="B1098" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1098" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1098" s="13">
+        <v>44163</v>
+      </c>
+      <c r="F1098" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G1098" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="H1098" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8">
+      <c r="A1099" s="5">
+        <v>1097</v>
+      </c>
+      <c r="B1099" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1099" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1099" s="13">
+        <v>44163</v>
+      </c>
+      <c r="F1099" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G1099" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1099" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8">
+      <c r="A1100" s="5">
+        <v>1098</v>
+      </c>
+      <c r="B1100" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1100" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1100" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1100" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F1100" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1100" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="H1100" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8">
+      <c r="A1101" s="5">
+        <v>1099</v>
+      </c>
+      <c r="B1101" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1101" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1101" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1101" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1101" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1101" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1101" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8">
+      <c r="A1102" s="5">
+        <v>1100</v>
+      </c>
+      <c r="B1102" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1102" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1102" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1102" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1102" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1102" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1102" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8">
+      <c r="A1103" s="5">
+        <v>1101</v>
+      </c>
+      <c r="B1103" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1103" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1103" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1103" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1103" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1103" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1103" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8">
+      <c r="A1104" s="5">
+        <v>1102</v>
+      </c>
+      <c r="B1104" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1104" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1104" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1104" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1104" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1104" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1104" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8">
+      <c r="A1105" s="5">
+        <v>1103</v>
+      </c>
+      <c r="B1105" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1105" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1105" s="13">
+        <v>44163</v>
+      </c>
+      <c r="F1105" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1105" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="H1105" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8">
+      <c r="A1106" s="5">
+        <v>1104</v>
+      </c>
+      <c r="B1106" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1106" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1106" s="13">
+        <v>44163</v>
+      </c>
+      <c r="F1106" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1106" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1106" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8">
+      <c r="A1107" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B1107" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1107" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1107" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1107" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1107" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1107" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="H1107" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8">
+      <c r="A1108" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B1108" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1108" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1108" s="13">
+        <v>44163</v>
+      </c>
+      <c r="E1108" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1108" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1108" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="H1108" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1108</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1124</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4501" uniqueCount="683">
   <si>
     <t>備考</t>
   </si>
@@ -4658,6 +4658,13 @@
     <t>60代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="2">
+      <t>ヘグリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4665,7 +4672,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -5079,37 +5086,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1108"/>
+  <dimension ref="A1:J1124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1090" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1108" sqref="E1108"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1109" sqref="A1109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44163.649630208332</v>
+        <v>44164.679785532404</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5119,7 +5126,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="26">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -27228,7 +27235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="870" spans="1:9" ht="14.25" thickBot="1">
+    <row r="870" spans="1:9" ht="13.5" thickBot="1">
       <c r="A870" s="16">
         <v>868</v>
       </c>
@@ -33366,6 +33373,416 @@
         <v>669</v>
       </c>
       <c r="H1108" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8">
+      <c r="A1109" s="5">
+        <v>1107</v>
+      </c>
+      <c r="B1109" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1109" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1109" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1109" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1109" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1109" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1109" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8">
+      <c r="A1110" s="5">
+        <v>1108</v>
+      </c>
+      <c r="B1110" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1110" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1110" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1110" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1110" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1110" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1110" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8">
+      <c r="A1111" s="5">
+        <v>1109</v>
+      </c>
+      <c r="B1111" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1111" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1111" s="13">
+        <v>44164</v>
+      </c>
+      <c r="F1111" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1111" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1111" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8">
+      <c r="A1112" s="5">
+        <v>1110</v>
+      </c>
+      <c r="B1112" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1112" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1112" s="13">
+        <v>44164</v>
+      </c>
+      <c r="F1112" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1112" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1112" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8">
+      <c r="A1113" s="5">
+        <v>1111</v>
+      </c>
+      <c r="B1113" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1113" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1113" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1113" s="6">
+        <v>44151</v>
+      </c>
+      <c r="F1113" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1113" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1113" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8">
+      <c r="A1114" s="5">
+        <v>1112</v>
+      </c>
+      <c r="B1114" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1114" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1114" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1114" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1114" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G1114" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1114" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8">
+      <c r="A1115" s="5">
+        <v>1113</v>
+      </c>
+      <c r="B1115" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1115" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1115" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1115" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1115" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1115" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1115" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8">
+      <c r="A1116" s="5">
+        <v>1114</v>
+      </c>
+      <c r="B1116" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1116" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1116" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1116" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1116" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1116" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1116" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8">
+      <c r="A1117" s="5">
+        <v>1115</v>
+      </c>
+      <c r="B1117" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1117" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1117" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1117" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1117" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1117" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1117" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8">
+      <c r="A1118" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B1118" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1118" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1118" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1118" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1118" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1118" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1118" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8">
+      <c r="A1119" s="5">
+        <v>1117</v>
+      </c>
+      <c r="B1119" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1119" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1119" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1119" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1119" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1119" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1119" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8">
+      <c r="A1120" s="5">
+        <v>1118</v>
+      </c>
+      <c r="B1120" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1120" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1120" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1120" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F1120" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1120" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1120" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8">
+      <c r="A1121" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B1121" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1121" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1121" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1121" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1121" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1121" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1121" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8">
+      <c r="A1122" s="5">
+        <v>1120</v>
+      </c>
+      <c r="B1122" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1122" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1122" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1122" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1122" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1122" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1122" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8">
+      <c r="A1123" s="5">
+        <v>1121</v>
+      </c>
+      <c r="B1123" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1123" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1123" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1123" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1123" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1123" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1123" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8">
+      <c r="A1124" s="5">
+        <v>1122</v>
+      </c>
+      <c r="B1124" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1124" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1124" s="13">
+        <v>44164</v>
+      </c>
+      <c r="E1124" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1124" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1124" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1124" s="5" t="s">
         <v>581</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1124</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1143</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4501" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="683">
   <si>
     <t>備考</t>
   </si>
@@ -5086,37 +5086,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1124"/>
+  <dimension ref="A1:J1143"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1109" sqref="A1109"/>
+      <pane ySplit="2" topLeftCell="A1127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1130" sqref="I1130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44164.679785532404</v>
+        <v>44165.732176157406</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5126,7 +5126,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="26">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -27235,7 +27235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="870" spans="1:9" ht="13.5" thickBot="1">
+    <row r="870" spans="1:9" ht="14.25" thickBot="1">
       <c r="A870" s="16">
         <v>868</v>
       </c>
@@ -33784,6 +33784,491 @@
       </c>
       <c r="H1124" s="5" t="s">
         <v>581</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8">
+      <c r="A1125" s="5">
+        <v>1123</v>
+      </c>
+      <c r="B1125" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1125" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1125" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1125" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1125" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1125" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1125" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8">
+      <c r="A1126" s="5">
+        <v>1124</v>
+      </c>
+      <c r="B1126" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1126" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1126" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1126" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1126" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1126" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1126" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8">
+      <c r="A1127" s="5">
+        <v>1125</v>
+      </c>
+      <c r="B1127" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1127" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1127" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1127" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1127" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1127" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1127" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8">
+      <c r="A1128" s="5">
+        <v>1126</v>
+      </c>
+      <c r="B1128" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1128" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1128" s="13">
+        <v>44165</v>
+      </c>
+      <c r="F1128" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1128" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1128" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8">
+      <c r="A1129" s="5">
+        <v>1127</v>
+      </c>
+      <c r="B1129" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1129" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1129" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1129" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1129" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1129" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1129" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8">
+      <c r="A1130" s="5">
+        <v>1128</v>
+      </c>
+      <c r="B1130" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1130" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1130" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1130" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1130" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1130" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1130" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8">
+      <c r="A1131" s="5">
+        <v>1129</v>
+      </c>
+      <c r="B1131" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1131" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1131" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1131" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1131" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1131" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1131" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8">
+      <c r="A1132" s="5">
+        <v>1130</v>
+      </c>
+      <c r="B1132" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1132" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1132" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1132" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1132" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1132" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1132" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8">
+      <c r="A1133" s="5">
+        <v>1131</v>
+      </c>
+      <c r="B1133" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1133" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1133" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1133" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1133" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1133" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1133" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8">
+      <c r="A1134" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B1134" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1134" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1134" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1134" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1134" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1134" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1134" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8">
+      <c r="A1135" s="5">
+        <v>1133</v>
+      </c>
+      <c r="B1135" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1135" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1135" s="13">
+        <v>44165</v>
+      </c>
+      <c r="F1135" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1135" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1135" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8">
+      <c r="A1136" s="5">
+        <v>1134</v>
+      </c>
+      <c r="B1136" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1136" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1136" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1136" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1136" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1136" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1136" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8">
+      <c r="A1137" s="5">
+        <v>1135</v>
+      </c>
+      <c r="B1137" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1137" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1137" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1137" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1137" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1137" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1137" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8">
+      <c r="A1138" s="5">
+        <v>1136</v>
+      </c>
+      <c r="B1138" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1138" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1138" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1138" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1138" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1138" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1138" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8">
+      <c r="A1139" s="5">
+        <v>1137</v>
+      </c>
+      <c r="B1139" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1139" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1139" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1139" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1139" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1139" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1139" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8">
+      <c r="A1140" s="5">
+        <v>1138</v>
+      </c>
+      <c r="B1140" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1140" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1140" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1140" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1140" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1140" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1140" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8">
+      <c r="A1141" s="5">
+        <v>1139</v>
+      </c>
+      <c r="B1141" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1141" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1141" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1141" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1141" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1141" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1141" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8">
+      <c r="A1142" s="5">
+        <v>1140</v>
+      </c>
+      <c r="B1142" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1142" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1142" s="13">
+        <v>44165</v>
+      </c>
+      <c r="F1142" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1142" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1142" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8">
+      <c r="A1143" s="5">
+        <v>1141</v>
+      </c>
+      <c r="B1143" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1143" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1143" s="13">
+        <v>44165</v>
+      </c>
+      <c r="E1143" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1143" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1143" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1143" s="5" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1143</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1159</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="684">
   <si>
     <t>備考</t>
   </si>
@@ -4665,6 +4665,13 @@
     <t>平群町</t>
     <rPh sb="0" eb="2">
       <t>ヘグリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5086,11 +5093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1143"/>
+  <dimension ref="A1:J1159"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1130" sqref="I1130"/>
+      <pane ySplit="2" topLeftCell="A1149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1156" sqref="J1156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5116,7 +5123,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44165.732176157406</v>
+        <v>44166.693699537034</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -34269,6 +34276,419 @@
       </c>
       <c r="H1143" s="5" t="s">
         <v>579</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8">
+      <c r="A1144" s="5">
+        <v>1142</v>
+      </c>
+      <c r="B1144" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1144" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1144" s="13">
+        <v>44166</v>
+      </c>
+      <c r="F1144" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1144" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1144" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8">
+      <c r="A1145" s="5">
+        <v>1143</v>
+      </c>
+      <c r="B1145" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1145" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1145" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1145" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1145" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="G1145" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1145" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8">
+      <c r="A1146" s="5">
+        <v>1144</v>
+      </c>
+      <c r="B1146" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1146" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1146" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1146" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1146" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="G1146" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1146" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8">
+      <c r="A1147" s="5">
+        <v>1145</v>
+      </c>
+      <c r="B1147" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1147" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1147" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1147" s="6">
+        <v>44156</v>
+      </c>
+      <c r="F1147" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="G1147" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1147" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8">
+      <c r="A1148" s="5">
+        <v>1146</v>
+      </c>
+      <c r="B1148" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1148" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1148" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1148" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1148" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1148" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1148" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8">
+      <c r="A1149" s="5">
+        <v>1147</v>
+      </c>
+      <c r="B1149" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1149" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1149" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1149" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1149" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1149" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1149" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8">
+      <c r="A1150" s="5">
+        <v>1148</v>
+      </c>
+      <c r="B1150" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1150" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1150" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1150" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1150" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1150" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1150" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8">
+      <c r="A1151" s="5">
+        <v>1149</v>
+      </c>
+      <c r="B1151" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1151" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1151" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1151" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1151" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1151" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1151" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8">
+      <c r="A1152" s="5">
+        <v>1150</v>
+      </c>
+      <c r="B1152" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1152" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1152" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1152" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1152" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1152" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1152" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8">
+      <c r="A1153" s="5">
+        <v>1151</v>
+      </c>
+      <c r="B1153" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1153" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1153" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1153" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1153" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1153" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1153" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8">
+      <c r="A1154" s="5">
+        <v>1152</v>
+      </c>
+      <c r="B1154" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1154" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1154" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1154" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1154" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1154" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1154" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8">
+      <c r="A1155" s="5">
+        <v>1153</v>
+      </c>
+      <c r="B1155" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1155" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1155" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1155" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1155" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1155" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1155" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8">
+      <c r="A1156" s="5">
+        <v>1154</v>
+      </c>
+      <c r="B1156" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1156" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1156" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1156" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1156" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1156" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1156" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8">
+      <c r="A1157" s="5">
+        <v>1155</v>
+      </c>
+      <c r="B1157" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1157" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1157" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1157" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1157" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1157" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1157" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8">
+      <c r="A1158" s="5">
+        <v>1156</v>
+      </c>
+      <c r="B1158" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1158" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1158" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1158" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1158" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1158" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1158" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8">
+      <c r="A1159" s="5">
+        <v>1157</v>
+      </c>
+      <c r="B1159" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1159" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1159" s="13">
+        <v>44166</v>
+      </c>
+      <c r="E1159" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1159" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1159" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1159" s="5" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1159</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1192</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4773" uniqueCount="692">
   <si>
     <t>備考</t>
   </si>
@@ -4665,6 +4665,62 @@
     <t>平群町</t>
     <rPh sb="0" eb="2">
       <t>ヘグリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="3">
+      <t>ヘグリチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4679,7 +4735,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -5093,11 +5149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1159"/>
+  <dimension ref="A1:J1192"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1156" sqref="J1156"/>
+      <pane ySplit="2" topLeftCell="A1179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1193" sqref="F1193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5123,7 +5179,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44166.693699537034</v>
+        <v>44167.653838888888</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -34689,6 +34745,861 @@
       </c>
       <c r="H1159" s="5" t="s">
         <v>528</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8">
+      <c r="A1160" s="5">
+        <v>1158</v>
+      </c>
+      <c r="B1160" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1160" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1160" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1160" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1160" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1160" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1160" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8">
+      <c r="A1161" s="5">
+        <v>1159</v>
+      </c>
+      <c r="B1161" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1161" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1161" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1161" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1161" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1161" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1161" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8">
+      <c r="A1162" s="5">
+        <v>1160</v>
+      </c>
+      <c r="B1162" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1162" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1162" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1162" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1162" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1162" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1162" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8">
+      <c r="A1163" s="5">
+        <v>1161</v>
+      </c>
+      <c r="B1163" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1163" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1163" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1163" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1163" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="G1163" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1163" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8">
+      <c r="A1164" s="5">
+        <v>1162</v>
+      </c>
+      <c r="B1164" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1164" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1164" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1164" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1164" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1164" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1164" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8">
+      <c r="A1165" s="5">
+        <v>1163</v>
+      </c>
+      <c r="B1165" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1165" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1165" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1165" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1165" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1165" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1165" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8">
+      <c r="A1166" s="5">
+        <v>1164</v>
+      </c>
+      <c r="B1166" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1166" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1166" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1166" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1166" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1166" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1166" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8">
+      <c r="A1167" s="5">
+        <v>1165</v>
+      </c>
+      <c r="B1167" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1167" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1167" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1167" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1167" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1167" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1167" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8">
+      <c r="A1168" s="5">
+        <v>1166</v>
+      </c>
+      <c r="B1168" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1168" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1168" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1168" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1168" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1168" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1168" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8">
+      <c r="A1169" s="5">
+        <v>1167</v>
+      </c>
+      <c r="B1169" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1169" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1169" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1169" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1169" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1169" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1169" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8">
+      <c r="A1170" s="5">
+        <v>1168</v>
+      </c>
+      <c r="B1170" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1170" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1170" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1170" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1170" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1170" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1170" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8">
+      <c r="A1171" s="5">
+        <v>1169</v>
+      </c>
+      <c r="B1171" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1171" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1171" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1171" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1171" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1171" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1171" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8">
+      <c r="A1172" s="5">
+        <v>1170</v>
+      </c>
+      <c r="B1172" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1172" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1172" s="13">
+        <v>44167</v>
+      </c>
+      <c r="F1172" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G1172" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1172" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8">
+      <c r="A1173" s="5">
+        <v>1171</v>
+      </c>
+      <c r="B1173" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1173" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1173" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1173" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1173" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1173" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1173" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8">
+      <c r="A1174" s="5">
+        <v>1172</v>
+      </c>
+      <c r="B1174" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1174" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1174" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1174" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1174" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1174" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1174" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8">
+      <c r="A1175" s="5">
+        <v>1173</v>
+      </c>
+      <c r="B1175" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1175" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1175" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1175" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1175" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1175" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1175" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8">
+      <c r="A1176" s="5">
+        <v>1174</v>
+      </c>
+      <c r="B1176" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1176" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1176" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1176" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1176" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1176" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1176" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8">
+      <c r="A1177" s="5">
+        <v>1175</v>
+      </c>
+      <c r="B1177" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1177" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1177" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1177" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1177" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1177" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1177" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8">
+      <c r="A1178" s="5">
+        <v>1176</v>
+      </c>
+      <c r="B1178" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1178" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1178" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1178" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1178" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G1178" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1178" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8">
+      <c r="A1179" s="5">
+        <v>1177</v>
+      </c>
+      <c r="B1179" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1179" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1179" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1179" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1179" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1179" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1179" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8">
+      <c r="A1180" s="5">
+        <v>1178</v>
+      </c>
+      <c r="B1180" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1180" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1180" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1180" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1180" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1180" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1180" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8">
+      <c r="A1181" s="5">
+        <v>1179</v>
+      </c>
+      <c r="B1181" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1181" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1181" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1181" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1181" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1181" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1181" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8">
+      <c r="A1182" s="5">
+        <v>1180</v>
+      </c>
+      <c r="B1182" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1182" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1182" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1182" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1182" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1182" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1182" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8">
+      <c r="A1183" s="5">
+        <v>1181</v>
+      </c>
+      <c r="B1183" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1183" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1183" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1183" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1183" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1183" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1183" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8">
+      <c r="A1184" s="5">
+        <v>1182</v>
+      </c>
+      <c r="B1184" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1184" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1184" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1184" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1184" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1184" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1184" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8">
+      <c r="A1185" s="5">
+        <v>1183</v>
+      </c>
+      <c r="B1185" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1185" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1185" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1185" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1185" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1185" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1185" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8">
+      <c r="A1186" s="5">
+        <v>1184</v>
+      </c>
+      <c r="B1186" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1186" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1186" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1186" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1186" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1186" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1186" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8">
+      <c r="A1187" s="5">
+        <v>1185</v>
+      </c>
+      <c r="B1187" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1187" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1187" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1187" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1187" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G1187" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="H1187" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8">
+      <c r="A1188" s="5">
+        <v>1186</v>
+      </c>
+      <c r="B1188" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1188" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1188" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1188" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1188" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G1188" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="H1188" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8">
+      <c r="A1189" s="5">
+        <v>1187</v>
+      </c>
+      <c r="B1189" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1189" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1189" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1189" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1189" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G1189" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="H1189" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8">
+      <c r="A1190" s="5">
+        <v>1188</v>
+      </c>
+      <c r="B1190" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1190" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1190" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1190" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1190" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G1190" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="H1190" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8">
+      <c r="A1191" s="5">
+        <v>1189</v>
+      </c>
+      <c r="B1191" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1191" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1191" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1191" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1191" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G1191" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1191" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8">
+      <c r="A1192" s="5">
+        <v>1190</v>
+      </c>
+      <c r="B1192" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1192" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1192" s="13">
+        <v>44167</v>
+      </c>
+      <c r="E1192" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1192" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G1192" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1192" s="5" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1192</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1231</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4773" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="701">
   <si>
     <t>備考</t>
   </si>
@@ -4728,6 +4728,69 @@
     <t>香芝市</t>
     <rPh sb="0" eb="3">
       <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="3">
+      <t>ヘグリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五條市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴジョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5149,11 +5212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1192"/>
+  <dimension ref="A1:J1231"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1193" sqref="F1193"/>
+      <pane ySplit="2" topLeftCell="A1212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1217" sqref="D1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5179,7 +5242,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44167.653838888888</v>
+        <v>44168.66666840278</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -35600,6 +35663,981 @@
       </c>
       <c r="H1192" s="5" t="s">
         <v>579</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8">
+      <c r="A1193" s="5">
+        <v>1191</v>
+      </c>
+      <c r="B1193" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1193" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1193" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1193" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1193" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1193" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1193" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8">
+      <c r="A1194" s="5">
+        <v>1192</v>
+      </c>
+      <c r="B1194" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1194" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1194" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1194" s="6">
+        <v>44155</v>
+      </c>
+      <c r="F1194" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1194" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1194" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8">
+      <c r="A1195" s="5">
+        <v>1193</v>
+      </c>
+      <c r="B1195" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1195" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1195" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1195" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1195" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1195" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1195" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8">
+      <c r="A1196" s="5">
+        <v>1194</v>
+      </c>
+      <c r="B1196" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1196" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1196" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1196" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1196" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1196" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8">
+      <c r="A1197" s="5">
+        <v>1195</v>
+      </c>
+      <c r="B1197" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1197" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1197" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1197" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1197" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1197" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1197" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8">
+      <c r="A1198" s="5">
+        <v>1196</v>
+      </c>
+      <c r="B1198" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1198" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1198" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1198" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1198" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1198" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1198" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8">
+      <c r="A1199" s="5">
+        <v>1197</v>
+      </c>
+      <c r="B1199" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1199" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1199" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1199" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1199" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H1199" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8">
+      <c r="A1200" s="5">
+        <v>1198</v>
+      </c>
+      <c r="B1200" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1200" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1200" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1200" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1200" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1200" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:8">
+      <c r="A1201" s="5">
+        <v>1199</v>
+      </c>
+      <c r="B1201" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1201" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1201" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1201" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1201" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H1201" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:8">
+      <c r="A1202" s="5">
+        <v>1200</v>
+      </c>
+      <c r="B1202" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1202" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1202" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1202" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1202" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1202" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:8">
+      <c r="A1203" s="5">
+        <v>1201</v>
+      </c>
+      <c r="B1203" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1203" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1203" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1203" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1203" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1203" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:8">
+      <c r="A1204" s="5">
+        <v>1202</v>
+      </c>
+      <c r="B1204" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1204" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1204" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1204" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1204" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="G1204" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1204" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:8">
+      <c r="A1205" s="5">
+        <v>1203</v>
+      </c>
+      <c r="B1205" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1205" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1205" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1205" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1205" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1205" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:8">
+      <c r="A1206" s="5">
+        <v>1204</v>
+      </c>
+      <c r="B1206" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1206" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1206" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1206" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1206" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1206" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:8">
+      <c r="A1207" s="5">
+        <v>1205</v>
+      </c>
+      <c r="B1207" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1207" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1207" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1207" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1207" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1207" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="H1207" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:8">
+      <c r="A1208" s="5">
+        <v>1206</v>
+      </c>
+      <c r="B1208" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1208" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1208" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1208" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1208" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1208" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1208" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8">
+      <c r="A1209" s="5">
+        <v>1207</v>
+      </c>
+      <c r="B1209" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1209" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1209" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1209" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1209" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1209" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="H1209" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:8">
+      <c r="A1210" s="5">
+        <v>1208</v>
+      </c>
+      <c r="B1210" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1210" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1210" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1210" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1210" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1210" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1210" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:8">
+      <c r="A1211" s="5">
+        <v>1209</v>
+      </c>
+      <c r="B1211" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1211" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1211" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1211" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1211" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1211" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1211" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8">
+      <c r="A1212" s="5">
+        <v>1210</v>
+      </c>
+      <c r="B1212" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1212" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1212" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1212" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F1212" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1212" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1212" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:8">
+      <c r="A1213" s="5">
+        <v>1211</v>
+      </c>
+      <c r="B1213" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1213" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1213" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1213" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1213" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1213" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8">
+      <c r="A1214" s="5">
+        <v>1212</v>
+      </c>
+      <c r="B1214" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1214" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1214" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1214" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1214" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1214" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="H1214" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8">
+      <c r="A1215" s="5">
+        <v>1213</v>
+      </c>
+      <c r="B1215" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1215" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1215" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1215" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1215" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1215" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1215" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8">
+      <c r="A1216" s="5">
+        <v>1214</v>
+      </c>
+      <c r="B1216" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1216" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1216" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1216" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1216" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1216" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1216" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8">
+      <c r="A1217" s="5">
+        <v>1215</v>
+      </c>
+      <c r="B1217" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1217" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1217" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1217" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1217" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1217" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1217" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8">
+      <c r="A1218" s="5">
+        <v>1216</v>
+      </c>
+      <c r="B1218" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1218" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1218" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1218" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1218" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="H1218" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8">
+      <c r="A1219" s="5">
+        <v>1217</v>
+      </c>
+      <c r="B1219" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1219" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1219" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1219" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G1219" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1219" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8">
+      <c r="A1220" s="5">
+        <v>1218</v>
+      </c>
+      <c r="B1220" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1220" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1220" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1220" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1220" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G1220" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1220" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8">
+      <c r="A1221" s="5">
+        <v>1219</v>
+      </c>
+      <c r="B1221" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1221" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1221" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1221" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1221" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="G1221" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1221" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8">
+      <c r="A1222" s="5">
+        <v>1220</v>
+      </c>
+      <c r="B1222" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1222" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1222" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1222" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1222" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1222" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1222" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8">
+      <c r="A1223" s="5">
+        <v>1221</v>
+      </c>
+      <c r="B1223" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1223" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1223" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1223" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1223" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1223" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1223" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8">
+      <c r="A1224" s="5">
+        <v>1222</v>
+      </c>
+      <c r="B1224" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1224" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1224" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1224" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1224" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1224" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="H1224" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8">
+      <c r="A1225" s="5">
+        <v>1223</v>
+      </c>
+      <c r="B1225" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1225" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1225" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1225" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1225" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1225" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1225" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8">
+      <c r="A1226" s="5">
+        <v>1224</v>
+      </c>
+      <c r="B1226" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1226" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1226" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1226" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1226" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1226" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1226" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8">
+      <c r="A1227" s="5">
+        <v>1225</v>
+      </c>
+      <c r="B1227" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1227" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1227" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1227" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1227" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1227" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8">
+      <c r="A1228" s="5">
+        <v>1226</v>
+      </c>
+      <c r="B1228" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1228" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1228" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1228" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1228" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1228" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1228" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8">
+      <c r="A1229" s="5">
+        <v>1227</v>
+      </c>
+      <c r="B1229" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1229" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1229" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1229" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1229" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1229" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1229" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8">
+      <c r="A1230" s="5">
+        <v>1228</v>
+      </c>
+      <c r="B1230" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1230" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1230" s="13">
+        <v>44168</v>
+      </c>
+      <c r="E1230" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1230" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1230" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1230" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8">
+      <c r="A1231" s="5">
+        <v>1229</v>
+      </c>
+      <c r="B1231" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1231" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1231" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F1231" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1231" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1231" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1231</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1266</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5069" uniqueCount="704">
   <si>
     <t>備考</t>
   </si>
@@ -4791,6 +4791,27 @@
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="3">
+      <t>ヘグリチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4798,7 +4819,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -5212,11 +5233,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1231"/>
+  <dimension ref="A1:J1266"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1217" sqref="D1217"/>
+      <pane ySplit="2" topLeftCell="A1253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1266" sqref="I1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5242,7 +5263,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44168.66666840278</v>
+        <v>44169.693842939814</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -36637,6 +36658,901 @@
         <v>78</v>
       </c>
       <c r="H1231" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8">
+      <c r="A1232" s="5">
+        <v>1230</v>
+      </c>
+      <c r="B1232" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1232" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1232" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1232" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1232" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1232" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1232" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8">
+      <c r="A1233" s="5">
+        <v>1231</v>
+      </c>
+      <c r="B1233" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1233" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1233" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1233" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1233" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1233" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1233" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8">
+      <c r="A1234" s="5">
+        <v>1232</v>
+      </c>
+      <c r="B1234" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1234" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1234" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1234" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1234" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1234" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1234" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8">
+      <c r="A1235" s="5">
+        <v>1233</v>
+      </c>
+      <c r="B1235" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1235" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1235" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1235" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1235" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1235" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1235" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8">
+      <c r="A1236" s="5">
+        <v>1234</v>
+      </c>
+      <c r="B1236" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1236" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1236" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1236" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1236" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1236" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1236" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8">
+      <c r="A1237" s="5">
+        <v>1235</v>
+      </c>
+      <c r="B1237" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1237" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1237" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1237" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1237" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1237" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1237" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8">
+      <c r="A1238" s="5">
+        <v>1236</v>
+      </c>
+      <c r="B1238" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1238" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1238" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1238" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1238" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1238" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1238" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8">
+      <c r="A1239" s="5">
+        <v>1237</v>
+      </c>
+      <c r="B1239" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1239" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1239" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1239" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1239" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1239" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1239" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8">
+      <c r="A1240" s="5">
+        <v>1238</v>
+      </c>
+      <c r="B1240" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1240" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1240" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1240" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1240" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1240" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1240" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8">
+      <c r="A1241" s="5">
+        <v>1239</v>
+      </c>
+      <c r="B1241" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1241" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1241" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1241" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1241" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1241" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1241" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8">
+      <c r="A1242" s="5">
+        <v>1240</v>
+      </c>
+      <c r="B1242" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1242" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1242" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1242" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1242" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1242" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1242" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8">
+      <c r="A1243" s="5">
+        <v>1241</v>
+      </c>
+      <c r="B1243" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1243" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1243" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1243" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1243" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1243" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1243" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8">
+      <c r="A1244" s="5">
+        <v>1242</v>
+      </c>
+      <c r="B1244" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1244" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1244" s="13">
+        <v>44169</v>
+      </c>
+      <c r="F1244" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1244" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1244" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8">
+      <c r="A1245" s="5">
+        <v>1243</v>
+      </c>
+      <c r="B1245" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1245" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1245" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1245" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1245" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1245" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1245" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8">
+      <c r="A1246" s="5">
+        <v>1244</v>
+      </c>
+      <c r="B1246" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1246" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1246" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1246" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1246" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1246" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1246" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8">
+      <c r="A1247" s="5">
+        <v>1245</v>
+      </c>
+      <c r="B1247" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1247" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1247" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1247" s="6">
+        <v>44150</v>
+      </c>
+      <c r="F1247" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1247" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1247" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8">
+      <c r="A1248" s="5">
+        <v>1246</v>
+      </c>
+      <c r="B1248" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1248" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1248" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1248" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F1248" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1248" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1248" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8">
+      <c r="A1249" s="5">
+        <v>1247</v>
+      </c>
+      <c r="B1249" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1249" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1249" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1249" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1249" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1249" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1249" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8">
+      <c r="A1250" s="5">
+        <v>1248</v>
+      </c>
+      <c r="B1250" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1250" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1250" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1250" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1250" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1250" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1250" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8">
+      <c r="A1251" s="5">
+        <v>1249</v>
+      </c>
+      <c r="B1251" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1251" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1251" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1251" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1251" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1251" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1251" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8">
+      <c r="A1252" s="5">
+        <v>1250</v>
+      </c>
+      <c r="B1252" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1252" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1252" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1252" s="6">
+        <v>44158</v>
+      </c>
+      <c r="F1252" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1252" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1252" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8">
+      <c r="A1253" s="5">
+        <v>1251</v>
+      </c>
+      <c r="B1253" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1253" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1253" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1253" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1253" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1253" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1253" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8">
+      <c r="A1254" s="5">
+        <v>1252</v>
+      </c>
+      <c r="B1254" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1254" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1254" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1254" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1254" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1254" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1254" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8">
+      <c r="A1255" s="5">
+        <v>1253</v>
+      </c>
+      <c r="B1255" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1255" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1255" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1255" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1255" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1255" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1255" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8">
+      <c r="A1256" s="5">
+        <v>1254</v>
+      </c>
+      <c r="B1256" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1256" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1256" s="13">
+        <v>44169</v>
+      </c>
+      <c r="F1256" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1256" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1256" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8">
+      <c r="A1257" s="5">
+        <v>1255</v>
+      </c>
+      <c r="B1257" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1257" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1257" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1257" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1257" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1257" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1257" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8">
+      <c r="A1258" s="5">
+        <v>1256</v>
+      </c>
+      <c r="B1258" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1258" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1258" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1258" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1258" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1258" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1258" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8">
+      <c r="A1259" s="5">
+        <v>1257</v>
+      </c>
+      <c r="B1259" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1259" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1259" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1259" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1259" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1259" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1259" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8">
+      <c r="A1260" s="5">
+        <v>1258</v>
+      </c>
+      <c r="B1260" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1260" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1260" s="13">
+        <v>44169</v>
+      </c>
+      <c r="F1260" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1260" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1260" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8">
+      <c r="A1261" s="5">
+        <v>1259</v>
+      </c>
+      <c r="B1261" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1261" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1261" s="13">
+        <v>44169</v>
+      </c>
+      <c r="F1261" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1261" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1261" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8">
+      <c r="A1262" s="5">
+        <v>1260</v>
+      </c>
+      <c r="B1262" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1262" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1262" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1262" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1262" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1262" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1262" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8">
+      <c r="A1263" s="5">
+        <v>1261</v>
+      </c>
+      <c r="B1263" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1263" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1263" s="13">
+        <v>44169</v>
+      </c>
+      <c r="F1263" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1263" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1263" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8">
+      <c r="A1264" s="5">
+        <v>1262</v>
+      </c>
+      <c r="B1264" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1264" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1264" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1264" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1264" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1264" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1264" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8">
+      <c r="A1265" s="5">
+        <v>1263</v>
+      </c>
+      <c r="B1265" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1265" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1265" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1265" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1265" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1265" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1265" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8">
+      <c r="A1266" s="5">
+        <v>1264</v>
+      </c>
+      <c r="B1266" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1266" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1266" s="13">
+        <v>44169</v>
+      </c>
+      <c r="E1266" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1266" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1266" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1266" s="5" t="s">
         <v>581</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1266</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1293</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5069" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5177" uniqueCount="714">
   <si>
     <t>備考</t>
   </si>
@@ -4812,6 +4812,76 @@
     <t>平群町</t>
     <rPh sb="0" eb="3">
       <t>ヘグリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五條市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴジョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4819,7 +4889,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -5233,11 +5303,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1266"/>
+  <dimension ref="A1:J1298"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1266" sqref="I1266"/>
+      <pane ySplit="2" topLeftCell="A1277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1294" sqref="E1294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5263,7 +5333,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44169.693842939814</v>
+        <v>44170.659350000002</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -37555,6 +37625,711 @@
       <c r="H1266" s="5" t="s">
         <v>581</v>
       </c>
+    </row>
+    <row r="1267" spans="1:8">
+      <c r="A1267" s="5">
+        <v>1265</v>
+      </c>
+      <c r="B1267" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1267" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1267" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1267" s="6">
+        <v>43859</v>
+      </c>
+      <c r="F1267" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1267" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1267" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8">
+      <c r="A1268" s="5">
+        <v>1266</v>
+      </c>
+      <c r="B1268" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1268" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1268" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1268" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1268" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1268" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1268" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8">
+      <c r="A1269" s="5">
+        <v>1267</v>
+      </c>
+      <c r="B1269" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1269" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1269" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1269" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1269" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1269" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1269" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8">
+      <c r="A1270" s="5">
+        <v>1268</v>
+      </c>
+      <c r="B1270" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1270" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1270" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1270" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1270" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1270" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1270" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8">
+      <c r="A1271" s="5">
+        <v>1269</v>
+      </c>
+      <c r="B1271" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1271" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1271" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1271" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1271" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1271" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1271" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8">
+      <c r="A1272" s="5">
+        <v>1270</v>
+      </c>
+      <c r="B1272" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1272" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1272" s="13">
+        <v>44170</v>
+      </c>
+      <c r="F1272" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1272" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1272" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8">
+      <c r="A1273" s="5">
+        <v>1271</v>
+      </c>
+      <c r="B1273" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1273" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1273" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1273" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1273" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1273" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1273" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8">
+      <c r="A1274" s="5">
+        <v>1272</v>
+      </c>
+      <c r="B1274" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1274" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1274" s="13">
+        <v>44170</v>
+      </c>
+      <c r="F1274" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1274" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1274" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8">
+      <c r="A1275" s="5">
+        <v>1273</v>
+      </c>
+      <c r="B1275" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1275" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1275" s="13">
+        <v>44170</v>
+      </c>
+      <c r="F1275" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1275" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1275" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8">
+      <c r="A1276" s="5">
+        <v>1274</v>
+      </c>
+      <c r="B1276" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1276" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1276" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1276" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1276" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1276" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1276" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8">
+      <c r="A1277" s="5">
+        <v>1275</v>
+      </c>
+      <c r="B1277" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1277" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1277" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1277" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1277" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1277" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1277" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8">
+      <c r="A1278" s="5">
+        <v>1276</v>
+      </c>
+      <c r="B1278" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1278" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1278" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1278" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1278" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1278" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1278" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8">
+      <c r="A1279" s="5">
+        <v>1277</v>
+      </c>
+      <c r="B1279" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1279" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1279" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1279" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1279" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G1279" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1279" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8">
+      <c r="A1280" s="5">
+        <v>1278</v>
+      </c>
+      <c r="B1280" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1280" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1280" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1280" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1280" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1280" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1280" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8">
+      <c r="A1281" s="5">
+        <v>1279</v>
+      </c>
+      <c r="B1281" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1281" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1281" s="13">
+        <v>44170</v>
+      </c>
+      <c r="F1281" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1281" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1281" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8">
+      <c r="A1282" s="5">
+        <v>1280</v>
+      </c>
+      <c r="B1282" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1282" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1282" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1282" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1282" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1282" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1282" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8">
+      <c r="A1283" s="5">
+        <v>1281</v>
+      </c>
+      <c r="B1283" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1283" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1283" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1283" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1283" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1283" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1283" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8">
+      <c r="A1284" s="5">
+        <v>1282</v>
+      </c>
+      <c r="B1284" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1284" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1284" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1284" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1284" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1284" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1284" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8">
+      <c r="A1285" s="5">
+        <v>1283</v>
+      </c>
+      <c r="B1285" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1285" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1285" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1285" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1285" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="G1285" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1285" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8">
+      <c r="A1286" s="5">
+        <v>1284</v>
+      </c>
+      <c r="B1286" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1286" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1286" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1286" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1286" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="G1286" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="H1286" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8">
+      <c r="A1287" s="5">
+        <v>1285</v>
+      </c>
+      <c r="B1287" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1287" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1287" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1287" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1287" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1287" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="H1287" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8">
+      <c r="A1288" s="5">
+        <v>1286</v>
+      </c>
+      <c r="B1288" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1288" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1288" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1288" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1288" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1288" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="H1288" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8">
+      <c r="A1289" s="5">
+        <v>1287</v>
+      </c>
+      <c r="B1289" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1289" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1289" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1289" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1289" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1289" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1289" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8">
+      <c r="A1290" s="5">
+        <v>1288</v>
+      </c>
+      <c r="B1290" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1290" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1290" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1290" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1290" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1290" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="H1290" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8">
+      <c r="A1291" s="5">
+        <v>1289</v>
+      </c>
+      <c r="B1291" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1291" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1291" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1291" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1291" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1291" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="H1291" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8">
+      <c r="A1292" s="5">
+        <v>1290</v>
+      </c>
+      <c r="B1292" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1292" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1292" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1292" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1292" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1292" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="H1292" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8">
+      <c r="A1293" s="5">
+        <v>1291</v>
+      </c>
+      <c r="B1293" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1293" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1293" s="13">
+        <v>44170</v>
+      </c>
+      <c r="E1293" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1293" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1293" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="H1293" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8">
+      <c r="D1294" s="13"/>
+    </row>
+    <row r="1295" spans="1:8">
+      <c r="D1295" s="13"/>
+    </row>
+    <row r="1296" spans="1:8">
+      <c r="D1296" s="13"/>
+    </row>
+    <row r="1297" spans="4:4">
+      <c r="D1297" s="13"/>
+    </row>
+    <row r="1298" spans="4:4">
+      <c r="D1298" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1293</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1308</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5177" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5237" uniqueCount="715">
   <si>
     <t>備考</t>
   </si>
@@ -4882,6 +4882,13 @@
     <t>香芝市</t>
     <rPh sb="0" eb="3">
       <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5303,11 +5310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1298"/>
+  <dimension ref="A1:J1308"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1294" sqref="E1294"/>
+      <pane ySplit="2" topLeftCell="A1296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1308" sqref="E1308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5333,7 +5340,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44170.659350000002</v>
+        <v>44171.607882407407</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -38317,19 +38324,388 @@
       </c>
     </row>
     <row r="1294" spans="1:8">
-      <c r="D1294" s="13"/>
+      <c r="A1294" s="5">
+        <v>1292</v>
+      </c>
+      <c r="B1294" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1294" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1294" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1294" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1294" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1294" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1294" s="5" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1295" spans="1:8">
-      <c r="D1295" s="13"/>
+      <c r="A1295" s="5">
+        <v>1293</v>
+      </c>
+      <c r="B1295" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1295" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1295" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1295" s="13"/>
+      <c r="F1295" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1295" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1295" s="5" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1296" spans="1:8">
-      <c r="D1296" s="13"/>
-    </row>
-    <row r="1297" spans="4:4">
-      <c r="D1297" s="13"/>
-    </row>
-    <row r="1298" spans="4:4">
-      <c r="D1298" s="13"/>
+      <c r="A1296" s="5">
+        <v>1294</v>
+      </c>
+      <c r="B1296" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1296" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1296" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1296" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1296" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1296" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1296" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8">
+      <c r="A1297" s="5">
+        <v>1295</v>
+      </c>
+      <c r="B1297" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1297" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1297" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1297" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1297" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1297" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1297" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8">
+      <c r="A1298" s="5">
+        <v>1296</v>
+      </c>
+      <c r="B1298" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1298" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1298" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1298" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1298" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1298" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1298" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8">
+      <c r="A1299" s="5">
+        <v>1297</v>
+      </c>
+      <c r="B1299" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1299" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1299" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1299" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1299" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1299" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1299" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8">
+      <c r="A1300" s="5">
+        <v>1298</v>
+      </c>
+      <c r="B1300" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1300" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1300" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1300" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1300" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="G1300" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1300" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8">
+      <c r="A1301" s="5">
+        <v>1299</v>
+      </c>
+      <c r="B1301" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1301" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1301" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1301" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1301" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1301" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1301" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8">
+      <c r="A1302" s="5">
+        <v>1300</v>
+      </c>
+      <c r="B1302" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1302" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1302" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1302" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1302" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1302" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1302" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8">
+      <c r="A1303" s="5">
+        <v>1301</v>
+      </c>
+      <c r="B1303" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1303" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1303" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1303" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1303" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1303" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1303" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8">
+      <c r="A1304" s="5">
+        <v>1302</v>
+      </c>
+      <c r="B1304" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1304" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1304" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1304" s="13"/>
+      <c r="F1304" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1304" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1304" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8">
+      <c r="A1305" s="5">
+        <v>1303</v>
+      </c>
+      <c r="B1305" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1305" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1305" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1305" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1305" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1305" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1305" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8">
+      <c r="A1306" s="5">
+        <v>1304</v>
+      </c>
+      <c r="B1306" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1306" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1306" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1306" s="13"/>
+      <c r="F1306" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1306" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1306" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8">
+      <c r="A1307" s="5">
+        <v>1305</v>
+      </c>
+      <c r="B1307" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1307" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1307" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1307" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1307" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1307" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1307" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8">
+      <c r="A1308" s="5">
+        <v>1306</v>
+      </c>
+      <c r="B1308" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1308" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1308" s="13">
+        <v>44171</v>
+      </c>
+      <c r="E1308" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1308" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1308" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1308" s="5" t="s">
+        <v>579</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1308</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1332</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5237" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5333" uniqueCount="716">
   <si>
     <t>備考</t>
   </si>
@@ -4889,6 +4889,16 @@
     <t>橿原市</t>
     <rPh sb="0" eb="3">
       <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代未満</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5310,11 +5320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1308"/>
+  <dimension ref="A1:J1332"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1308" sqref="E1308"/>
+      <pane ySplit="2" topLeftCell="A1318" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1322" sqref="H1322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5340,7 +5350,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44171.607882407407</v>
+        <v>44172.642437615737</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -38705,6 +38715,615 @@
       </c>
       <c r="H1308" s="5" t="s">
         <v>579</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8">
+      <c r="A1309" s="5">
+        <v>1307</v>
+      </c>
+      <c r="B1309" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1309" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1309" s="13">
+        <v>44172</v>
+      </c>
+      <c r="F1309" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1309" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1309" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8">
+      <c r="A1310" s="5">
+        <v>1308</v>
+      </c>
+      <c r="B1310" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1310" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1310" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1310" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1310" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1310" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1310" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8">
+      <c r="A1311" s="5">
+        <v>1309</v>
+      </c>
+      <c r="B1311" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1311" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1311" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1311" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1311" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1311" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1311" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8">
+      <c r="A1312" s="5">
+        <v>1310</v>
+      </c>
+      <c r="B1312" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1312" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1312" s="13">
+        <v>44172</v>
+      </c>
+      <c r="F1312" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1312" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1312" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8">
+      <c r="A1313" s="5">
+        <v>1311</v>
+      </c>
+      <c r="B1313" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1313" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1313" s="13">
+        <v>44172</v>
+      </c>
+      <c r="F1313" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1313" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1313" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8">
+      <c r="A1314" s="5">
+        <v>1312</v>
+      </c>
+      <c r="B1314" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1314" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1314" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1314" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1314" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1314" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1314" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8">
+      <c r="A1315" s="5">
+        <v>1313</v>
+      </c>
+      <c r="B1315" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1315" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1315" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1315" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1315" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1315" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1315" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8">
+      <c r="A1316" s="5">
+        <v>1314</v>
+      </c>
+      <c r="B1316" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1316" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1316" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1316" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1316" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1316" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1316" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:8">
+      <c r="A1317" s="5">
+        <v>1315</v>
+      </c>
+      <c r="B1317" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1317" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1317" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1317" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1317" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1317" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1317" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8">
+      <c r="A1318" s="5">
+        <v>1316</v>
+      </c>
+      <c r="B1318" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1318" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1318" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1318" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1318" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1318" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1318" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8">
+      <c r="A1319" s="5">
+        <v>1317</v>
+      </c>
+      <c r="B1319" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1319" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1319" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1319" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1319" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1319" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1319" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8">
+      <c r="A1320" s="5">
+        <v>1318</v>
+      </c>
+      <c r="B1320" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1320" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1320" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1320" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1320" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1320" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="H1320" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8">
+      <c r="A1321" s="5">
+        <v>1319</v>
+      </c>
+      <c r="B1321" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1321" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1321" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1321" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1321" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1321" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1321" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8">
+      <c r="A1322" s="5">
+        <v>1320</v>
+      </c>
+      <c r="B1322" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1322" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1322" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1322" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1322" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1322" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1322" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8">
+      <c r="A1323" s="5">
+        <v>1321</v>
+      </c>
+      <c r="B1323" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1323" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1323" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1323" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1323" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1323" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1323" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8">
+      <c r="A1324" s="5">
+        <v>1322</v>
+      </c>
+      <c r="B1324" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1324" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1324" s="13">
+        <v>44172</v>
+      </c>
+      <c r="F1324" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1324" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1324" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8">
+      <c r="A1325" s="5">
+        <v>1323</v>
+      </c>
+      <c r="B1325" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1325" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1325" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1325" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1325" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1325" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1325" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8">
+      <c r="A1326" s="5">
+        <v>1324</v>
+      </c>
+      <c r="B1326" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1326" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1326" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1326" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1326" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1326" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1326" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8">
+      <c r="A1327" s="5">
+        <v>1325</v>
+      </c>
+      <c r="B1327" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1327" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1327" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1327" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1327" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1327" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1327" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8">
+      <c r="A1328" s="5">
+        <v>1326</v>
+      </c>
+      <c r="B1328" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1328" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1328" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1328" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1328" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1328" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1328" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8">
+      <c r="A1329" s="5">
+        <v>1327</v>
+      </c>
+      <c r="B1329" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1329" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1329" s="13">
+        <v>44172</v>
+      </c>
+      <c r="F1329" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1329" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1329" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8">
+      <c r="A1330" s="5">
+        <v>1328</v>
+      </c>
+      <c r="B1330" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1330" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1330" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1330" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1330" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1330" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1330" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8">
+      <c r="A1331" s="5">
+        <v>1329</v>
+      </c>
+      <c r="B1331" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1331" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1331" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1331" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1331" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1331" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1331" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8">
+      <c r="A1332" s="5">
+        <v>1330</v>
+      </c>
+      <c r="B1332" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1332" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1332" s="13">
+        <v>44172</v>
+      </c>
+      <c r="E1332" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1332" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1332" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1332" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1332</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1353</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5333" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="728">
   <si>
     <t>備考</t>
   </si>
@@ -4899,6 +4899,90 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高取町</t>
+    <rPh sb="0" eb="3">
+      <t>タカトリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="4">
+      <t>タワラモトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5320,11 +5404,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1332"/>
+  <dimension ref="A1:J1353"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1322" sqref="H1322"/>
+      <pane ySplit="2" topLeftCell="A1340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1340" sqref="F1340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5350,7 +5434,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44172.642437615737</v>
+        <v>44173.651004976855</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -39324,6 +39408,537 @@
       </c>
       <c r="H1332" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8">
+      <c r="A1333" s="7">
+        <v>1331</v>
+      </c>
+      <c r="B1333" s="7">
+        <v>290009</v>
+      </c>
+      <c r="C1333" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1333" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1333" s="13">
+        <v>44170</v>
+      </c>
+      <c r="F1333" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1333" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="H1333" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8">
+      <c r="A1334" s="5">
+        <v>1332</v>
+      </c>
+      <c r="B1334" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1334" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1334" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1334" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1334" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1334" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="H1334" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8">
+      <c r="A1335" s="5">
+        <v>1333</v>
+      </c>
+      <c r="B1335" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1335" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1335" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1335" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1335" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1335" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1335" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8">
+      <c r="A1336" s="5">
+        <v>1334</v>
+      </c>
+      <c r="B1336" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1336" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1336" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1336" s="6">
+        <v>44157</v>
+      </c>
+      <c r="F1336" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1336" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="H1336" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8">
+      <c r="A1337" s="5">
+        <v>1335</v>
+      </c>
+      <c r="B1337" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1337" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1337" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1337" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1337" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1337" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="H1337" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8">
+      <c r="A1338" s="5">
+        <v>1336</v>
+      </c>
+      <c r="B1338" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1338" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1338" s="13">
+        <v>44173</v>
+      </c>
+      <c r="F1338" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1338" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="H1338" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8">
+      <c r="A1339" s="5">
+        <v>1337</v>
+      </c>
+      <c r="B1339" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1339" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1339" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1339" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1339" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1339" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="H1339" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8">
+      <c r="A1340" s="5">
+        <v>1338</v>
+      </c>
+      <c r="B1340" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1340" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1340" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1340" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1340" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1340" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="H1340" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8">
+      <c r="A1341" s="5">
+        <v>1339</v>
+      </c>
+      <c r="B1341" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1341" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1341" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1341" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1341" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1341" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="H1341" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8">
+      <c r="A1342" s="5">
+        <v>1340</v>
+      </c>
+      <c r="B1342" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1342" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1342" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1342" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1342" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1342" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="H1342" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8">
+      <c r="A1343" s="5">
+        <v>1341</v>
+      </c>
+      <c r="B1343" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1343" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1343" s="13">
+        <v>44173</v>
+      </c>
+      <c r="F1343" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1343" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="H1343" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8">
+      <c r="A1344" s="5">
+        <v>1342</v>
+      </c>
+      <c r="B1344" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1344" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1344" s="13">
+        <v>44173</v>
+      </c>
+      <c r="F1344" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1344" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="H1344" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8">
+      <c r="A1345" s="5">
+        <v>1343</v>
+      </c>
+      <c r="B1345" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1345" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1345" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1345" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1345" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1345" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="H1345" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8">
+      <c r="A1346" s="5">
+        <v>1344</v>
+      </c>
+      <c r="B1346" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1346" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1346" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1346" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1346" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="G1346" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="H1346" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8">
+      <c r="A1347" s="5">
+        <v>1345</v>
+      </c>
+      <c r="B1347" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1347" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1347" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1347" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1347" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="G1347" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="H1347" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8">
+      <c r="A1348" s="5">
+        <v>1346</v>
+      </c>
+      <c r="B1348" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1348" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1348" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1348" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1348" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1348" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="H1348" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8">
+      <c r="A1349" s="5">
+        <v>1347</v>
+      </c>
+      <c r="B1349" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1349" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1349" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1349" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1349" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1349" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="H1349" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8">
+      <c r="A1350" s="5">
+        <v>1348</v>
+      </c>
+      <c r="B1350" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1350" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1350" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1350" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1350" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1350" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="H1350" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8">
+      <c r="A1351" s="5">
+        <v>1349</v>
+      </c>
+      <c r="B1351" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1351" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1351" s="13">
+        <v>44173</v>
+      </c>
+      <c r="F1351" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1351" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="H1351" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8">
+      <c r="A1352" s="5">
+        <v>1350</v>
+      </c>
+      <c r="B1352" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1352" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1352" s="13">
+        <v>44173</v>
+      </c>
+      <c r="F1352" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1352" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="H1352" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8">
+      <c r="A1353" s="5">
+        <v>1351</v>
+      </c>
+      <c r="B1353" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1353" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1353" s="13">
+        <v>44173</v>
+      </c>
+      <c r="E1353" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1353" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1353" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="H1353" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1353</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1388</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5557" uniqueCount="730">
   <si>
     <t>備考</t>
   </si>
@@ -4983,6 +4983,20 @@
     <t>奈良市</t>
     <rPh sb="0" eb="3">
       <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5404,11 +5418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1353"/>
+  <dimension ref="A1:J1389"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1340" sqref="F1340"/>
+      <pane ySplit="2" topLeftCell="A1373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1389" sqref="E1389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5434,7 +5448,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44173.651004976855</v>
+        <v>44174.592260532409</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -39940,6 +39954,907 @@
       <c r="H1353" s="5" t="s">
         <v>581</v>
       </c>
+    </row>
+    <row r="1354" spans="1:8">
+      <c r="A1354" s="5">
+        <v>1352</v>
+      </c>
+      <c r="B1354" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1354" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1354" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1354" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1354" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1354" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="H1354" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8">
+      <c r="A1355" s="5">
+        <v>1353</v>
+      </c>
+      <c r="B1355" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1355" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1355" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1355" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1355" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1355" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1355" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8">
+      <c r="A1356" s="5">
+        <v>1354</v>
+      </c>
+      <c r="B1356" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1356" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1356" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1356" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1356" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1356" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1356" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8">
+      <c r="A1357" s="5">
+        <v>1355</v>
+      </c>
+      <c r="B1357" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1357" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1357" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1357" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1357" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1357" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1357" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8">
+      <c r="A1358" s="5">
+        <v>1356</v>
+      </c>
+      <c r="B1358" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1358" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1358" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1358" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1358" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1358" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1358" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8">
+      <c r="A1359" s="5">
+        <v>1357</v>
+      </c>
+      <c r="B1359" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1359" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1359" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1359" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1359" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1359" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1359" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8">
+      <c r="A1360" s="5">
+        <v>1358</v>
+      </c>
+      <c r="B1360" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1360" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1360" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1360" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1360" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1360" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1360" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8">
+      <c r="A1361" s="5">
+        <v>1359</v>
+      </c>
+      <c r="B1361" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1361" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1361" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1361" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1361" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1361" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1361" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8">
+      <c r="A1362" s="5">
+        <v>1360</v>
+      </c>
+      <c r="B1362" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1362" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1362" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1362" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1362" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1362" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1362" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8">
+      <c r="A1363" s="5">
+        <v>1361</v>
+      </c>
+      <c r="B1363" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1363" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1363" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1363" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1363" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1363" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1363" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8">
+      <c r="A1364" s="5">
+        <v>1362</v>
+      </c>
+      <c r="B1364" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1364" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1364" s="13">
+        <v>44174</v>
+      </c>
+      <c r="F1364" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1364" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1364" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8">
+      <c r="A1365" s="5">
+        <v>1363</v>
+      </c>
+      <c r="B1365" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1365" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1365" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1365" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1365" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1365" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1365" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8">
+      <c r="A1366" s="5">
+        <v>1364</v>
+      </c>
+      <c r="B1366" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1366" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1366" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1366" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1366" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1366" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1366" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8">
+      <c r="A1367" s="5">
+        <v>1365</v>
+      </c>
+      <c r="B1367" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1367" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1367" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1367" s="6">
+        <v>44163</v>
+      </c>
+      <c r="F1367" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1367" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1367" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8">
+      <c r="A1368" s="5">
+        <v>1366</v>
+      </c>
+      <c r="B1368" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1368" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1368" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1368" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1368" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1368" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1368" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8">
+      <c r="A1369" s="5">
+        <v>1367</v>
+      </c>
+      <c r="B1369" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1369" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1369" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1369" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1369" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1369" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1369" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8">
+      <c r="A1370" s="5">
+        <v>1368</v>
+      </c>
+      <c r="B1370" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1370" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1370" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1370" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1370" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1370" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1370" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8">
+      <c r="A1371" s="5">
+        <v>1369</v>
+      </c>
+      <c r="B1371" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1371" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1371" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1371" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1371" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1371" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1371" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8">
+      <c r="A1372" s="5">
+        <v>1370</v>
+      </c>
+      <c r="B1372" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1372" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1372" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1372" s="6">
+        <v>44162</v>
+      </c>
+      <c r="F1372" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1372" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1372" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8">
+      <c r="A1373" s="5">
+        <v>1371</v>
+      </c>
+      <c r="B1373" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1373" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1373" s="13">
+        <v>44174</v>
+      </c>
+      <c r="F1373" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1373" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="H1373" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8">
+      <c r="A1374" s="5">
+        <v>1372</v>
+      </c>
+      <c r="B1374" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1374" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1374" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1374" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1374" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1374" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1374" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8">
+      <c r="A1375" s="5">
+        <v>1373</v>
+      </c>
+      <c r="B1375" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1375" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1375" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1375" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1375" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1375" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1375" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8">
+      <c r="A1376" s="5">
+        <v>1374</v>
+      </c>
+      <c r="B1376" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1376" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1376" s="13">
+        <v>44174</v>
+      </c>
+      <c r="F1376" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1376" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1376" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8">
+      <c r="A1377" s="5">
+        <v>1375</v>
+      </c>
+      <c r="B1377" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1377" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1377" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1377" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1377" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1377" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1377" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8">
+      <c r="A1378" s="5">
+        <v>1376</v>
+      </c>
+      <c r="B1378" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1378" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1378" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1378" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1378" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1378" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1378" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8">
+      <c r="A1379" s="5">
+        <v>1377</v>
+      </c>
+      <c r="B1379" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1379" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1379" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1379" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1379" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1379" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1379" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8">
+      <c r="A1380" s="5">
+        <v>1378</v>
+      </c>
+      <c r="B1380" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1380" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1380" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1380" s="6">
+        <v>44161</v>
+      </c>
+      <c r="F1380" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1380" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1380" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8">
+      <c r="A1381" s="5">
+        <v>1379</v>
+      </c>
+      <c r="B1381" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1381" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1381" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1381" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1381" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1381" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1381" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8">
+      <c r="A1382" s="5">
+        <v>1380</v>
+      </c>
+      <c r="B1382" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1382" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1382" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1382" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1382" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1382" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1382" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8">
+      <c r="A1383" s="5">
+        <v>1381</v>
+      </c>
+      <c r="B1383" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1383" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1383" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1383" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1383" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1383" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1383" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8">
+      <c r="A1384" s="5">
+        <v>1382</v>
+      </c>
+      <c r="B1384" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1384" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1384" s="13">
+        <v>44174</v>
+      </c>
+      <c r="F1384" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1384" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1384" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8">
+      <c r="A1385" s="5">
+        <v>1383</v>
+      </c>
+      <c r="B1385" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1385" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1385" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1385" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1385" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1385" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1385" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8">
+      <c r="A1386" s="5">
+        <v>1384</v>
+      </c>
+      <c r="B1386" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1386" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1386" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1386" s="6">
+        <v>44164</v>
+      </c>
+      <c r="F1386" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1386" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1386" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8">
+      <c r="A1387" s="5">
+        <v>1385</v>
+      </c>
+      <c r="B1387" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1387" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1387" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1387" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1387" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1387" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1387" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8">
+      <c r="A1388" s="5">
+        <v>1386</v>
+      </c>
+      <c r="B1388" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1388" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1388" s="13">
+        <v>44174</v>
+      </c>
+      <c r="E1388" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1388" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1388" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1388" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8">
+      <c r="D1389" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1388</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1412</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5557" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5653" uniqueCount="732">
   <si>
     <t>備考</t>
   </si>
@@ -4893,16 +4893,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10代未満</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -4999,12 +4989,21 @@
       <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+  </si>
+  <si>
+    <t>90代</t>
+  </si>
+  <si>
+    <t>80代</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -5418,11 +5417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1389"/>
+  <dimension ref="A1:J1412"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1389" sqref="E1389"/>
+      <pane ySplit="2" topLeftCell="A1402" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1374" sqref="G1374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5448,7 +5447,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44174.592260532409</v>
+        <v>44175.662129629629</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -39112,7 +39111,7 @@
         <v>27</v>
       </c>
       <c r="G1320" s="5" t="s">
-        <v>715</v>
+        <v>207</v>
       </c>
       <c r="H1320" s="5" t="s">
         <v>39</v>
@@ -39444,7 +39443,7 @@
         <v>105</v>
       </c>
       <c r="G1333" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1333" s="7" t="s">
         <v>39</v>
@@ -39470,7 +39469,7 @@
         <v>27</v>
       </c>
       <c r="G1334" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1334" s="5" t="s">
         <v>581</v>
@@ -39496,7 +39495,7 @@
         <v>29</v>
       </c>
       <c r="G1335" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1335" s="5" t="s">
         <v>39</v>
@@ -39522,7 +39521,7 @@
         <v>145</v>
       </c>
       <c r="G1336" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1336" s="5" t="s">
         <v>581</v>
@@ -39548,7 +39547,7 @@
         <v>29</v>
       </c>
       <c r="G1337" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1337" s="5" t="s">
         <v>39</v>
@@ -39571,7 +39570,7 @@
         <v>29</v>
       </c>
       <c r="G1338" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1338" s="5" t="s">
         <v>581</v>
@@ -39597,7 +39596,7 @@
         <v>145</v>
       </c>
       <c r="G1339" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1339" s="5" t="s">
         <v>39</v>
@@ -39623,7 +39622,7 @@
         <v>27</v>
       </c>
       <c r="G1340" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1340" s="5" t="s">
         <v>39</v>
@@ -39649,7 +39648,7 @@
         <v>232</v>
       </c>
       <c r="G1341" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1341" s="5" t="s">
         <v>581</v>
@@ -39675,7 +39674,7 @@
         <v>232</v>
       </c>
       <c r="G1342" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1342" s="5" t="s">
         <v>39</v>
@@ -39698,7 +39697,7 @@
         <v>232</v>
       </c>
       <c r="G1343" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1343" s="5" t="s">
         <v>39</v>
@@ -39721,7 +39720,7 @@
         <v>232</v>
       </c>
       <c r="G1344" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1344" s="5" t="s">
         <v>581</v>
@@ -39744,10 +39743,10 @@
         <v>44171</v>
       </c>
       <c r="F1345" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G1345" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1345" s="5" t="s">
         <v>39</v>
@@ -39770,10 +39769,10 @@
         <v>44166</v>
       </c>
       <c r="F1346" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G1346" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1346" s="5" t="s">
         <v>39</v>
@@ -39796,10 +39795,10 @@
         <v>44169</v>
       </c>
       <c r="F1347" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G1347" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1347" s="5" t="s">
         <v>39</v>
@@ -39822,10 +39821,10 @@
         <v>44168</v>
       </c>
       <c r="F1348" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G1348" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1348" s="5" t="s">
         <v>39</v>
@@ -39848,10 +39847,10 @@
         <v>44165</v>
       </c>
       <c r="F1349" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G1349" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1349" s="5" t="s">
         <v>39</v>
@@ -39874,10 +39873,10 @@
         <v>44168</v>
       </c>
       <c r="F1350" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G1350" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1350" s="5" t="s">
         <v>39</v>
@@ -39897,10 +39896,10 @@
         <v>44173</v>
       </c>
       <c r="F1351" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G1351" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1351" s="5" t="s">
         <v>581</v>
@@ -39920,10 +39919,10 @@
         <v>44173</v>
       </c>
       <c r="F1352" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G1352" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1352" s="5" t="s">
         <v>39</v>
@@ -39946,10 +39945,10 @@
         <v>44169</v>
       </c>
       <c r="F1353" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G1353" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1353" s="5" t="s">
         <v>581</v>
@@ -39975,7 +39974,7 @@
         <v>145</v>
       </c>
       <c r="G1354" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1354" s="5" t="s">
         <v>39</v>
@@ -40105,7 +40104,7 @@
         <v>89</v>
       </c>
       <c r="G1359" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1359" s="5" t="s">
         <v>39</v>
@@ -40284,7 +40283,7 @@
         <v>27</v>
       </c>
       <c r="G1366" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1366" s="5" t="s">
         <v>28</v>
@@ -40463,7 +40462,7 @@
         <v>29</v>
       </c>
       <c r="G1373" s="5" t="s">
-        <v>715</v>
+        <v>207</v>
       </c>
       <c r="H1373" s="5" t="s">
         <v>28</v>
@@ -40489,7 +40488,7 @@
         <v>105</v>
       </c>
       <c r="G1374" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1374" s="5" t="s">
         <v>28</v>
@@ -40515,7 +40514,7 @@
         <v>27</v>
       </c>
       <c r="G1375" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1375" s="5" t="s">
         <v>28</v>
@@ -40538,7 +40537,7 @@
         <v>27</v>
       </c>
       <c r="G1376" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1376" s="5" t="s">
         <v>28</v>
@@ -40564,7 +40563,7 @@
         <v>27</v>
       </c>
       <c r="G1377" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1377" s="5" t="s">
         <v>28</v>
@@ -40743,7 +40742,7 @@
         <v>24</v>
       </c>
       <c r="G1384" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1384" s="5" t="s">
         <v>28</v>
@@ -40821,7 +40820,7 @@
         <v>24</v>
       </c>
       <c r="G1387" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1387" s="5" t="s">
         <v>28</v>
@@ -40854,7 +40853,613 @@
       </c>
     </row>
     <row r="1389" spans="1:8">
-      <c r="D1389" s="13"/>
+      <c r="A1389" s="5">
+        <v>1387</v>
+      </c>
+      <c r="B1389" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1389" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1389" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1389" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1389" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1389" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1389" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:8">
+      <c r="A1390" s="5">
+        <v>1388</v>
+      </c>
+      <c r="B1390" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1390" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1390" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1390" s="6">
+        <v>44159</v>
+      </c>
+      <c r="F1390" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1390" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1390" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:8">
+      <c r="A1391" s="5">
+        <v>1389</v>
+      </c>
+      <c r="B1391" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1391" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1391" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1391" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1391" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1391" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1391" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:8">
+      <c r="A1392" s="5">
+        <v>1390</v>
+      </c>
+      <c r="B1392" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1392" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1392" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1392" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1392" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1392" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1392" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:8">
+      <c r="A1393" s="5">
+        <v>1391</v>
+      </c>
+      <c r="B1393" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1393" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1393" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1393" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1393" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1393" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1393" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:8">
+      <c r="A1394" s="5">
+        <v>1392</v>
+      </c>
+      <c r="B1394" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1394" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1394" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1394" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1394" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1394" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1394" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:8">
+      <c r="A1395" s="5">
+        <v>1393</v>
+      </c>
+      <c r="B1395" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1395" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1395" s="13">
+        <v>44175</v>
+      </c>
+      <c r="F1395" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1395" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1395" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:8">
+      <c r="A1396" s="5">
+        <v>1394</v>
+      </c>
+      <c r="B1396" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1396" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1396" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1396" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1396" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1396" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1396" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:8">
+      <c r="A1397" s="5">
+        <v>1395</v>
+      </c>
+      <c r="B1397" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1397" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1397" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1397" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1397" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1397" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1397" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:8">
+      <c r="A1398" s="5">
+        <v>1396</v>
+      </c>
+      <c r="B1398" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1398" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1398" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1398" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1398" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1398" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="H1398" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:8">
+      <c r="A1399" s="5">
+        <v>1397</v>
+      </c>
+      <c r="B1399" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1399" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1399" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1399" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1399" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1399" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1399" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:8">
+      <c r="A1400" s="5">
+        <v>1398</v>
+      </c>
+      <c r="B1400" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1400" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1400" s="13">
+        <v>44175</v>
+      </c>
+      <c r="F1400" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1400" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1400" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:8">
+      <c r="A1401" s="5">
+        <v>1399</v>
+      </c>
+      <c r="B1401" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1401" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1401" s="13">
+        <v>44175</v>
+      </c>
+      <c r="F1401" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1401" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1401" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:8">
+      <c r="A1402" s="5">
+        <v>1400</v>
+      </c>
+      <c r="B1402" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1402" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1402" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1402" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1402" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1402" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1402" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:8">
+      <c r="A1403" s="5">
+        <v>1401</v>
+      </c>
+      <c r="B1403" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1403" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1403" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1403" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1403" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1403" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1403" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:8">
+      <c r="A1404" s="5">
+        <v>1402</v>
+      </c>
+      <c r="B1404" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1404" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1404" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1404" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1404" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1404" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1404" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:8">
+      <c r="A1405" s="5">
+        <v>1403</v>
+      </c>
+      <c r="B1405" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1405" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1405" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1405" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1405" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1405" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1405" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:8">
+      <c r="A1406" s="5">
+        <v>1404</v>
+      </c>
+      <c r="B1406" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1406" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1406" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1406" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1406" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1406" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1406" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:8">
+      <c r="A1407" s="5">
+        <v>1405</v>
+      </c>
+      <c r="B1407" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1407" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1407" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1407" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1407" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1407" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1407" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:8">
+      <c r="A1408" s="5">
+        <v>1406</v>
+      </c>
+      <c r="B1408" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1408" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1408" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1408" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1408" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1408" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1408" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:8">
+      <c r="A1409" s="5">
+        <v>1407</v>
+      </c>
+      <c r="B1409" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1409" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1409" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1409" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1409" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1409" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1409" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:8">
+      <c r="A1410" s="5">
+        <v>1408</v>
+      </c>
+      <c r="B1410" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1410" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1410" s="13">
+        <v>44175</v>
+      </c>
+      <c r="E1410" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1410" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1410" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1410" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:8">
+      <c r="A1411" s="5">
+        <v>1409</v>
+      </c>
+      <c r="B1411" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1411" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1411" s="13">
+        <v>44175</v>
+      </c>
+      <c r="F1411" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1411" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1411" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:8">
+      <c r="A1412" s="5">
+        <v>1410</v>
+      </c>
+      <c r="B1412" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1412" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1412" s="13">
+        <v>44175</v>
+      </c>
+      <c r="F1412" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1412" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1412" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1412</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1435</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5653" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5745" uniqueCount="744">
   <si>
     <t>備考</t>
   </si>
@@ -4998,12 +4998,96 @@
   </si>
   <si>
     <t>80代</t>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -5417,11 +5501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1412"/>
+  <dimension ref="A1:J1435"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1374" sqref="G1374"/>
+      <pane ySplit="2" topLeftCell="A1421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1435" sqref="F1435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5447,7 +5531,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44175.662129629629</v>
+        <v>44176.650253240739</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -41458,6 +41542,589 @@
         <v>657</v>
       </c>
       <c r="H1412" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:8">
+      <c r="A1413" s="5">
+        <v>1411</v>
+      </c>
+      <c r="B1413" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1413" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1413" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1413" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1413" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1413" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1413" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:8">
+      <c r="A1414" s="5">
+        <v>1412</v>
+      </c>
+      <c r="B1414" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1414" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1414" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1414" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1414" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1414" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="H1414" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:8">
+      <c r="A1415" s="5">
+        <v>1413</v>
+      </c>
+      <c r="B1415" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1415" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1415" s="13">
+        <v>44176</v>
+      </c>
+      <c r="F1415" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1415" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="H1415" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:8">
+      <c r="A1416" s="5">
+        <v>1414</v>
+      </c>
+      <c r="B1416" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1416" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1416" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1416" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1416" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1416" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="H1416" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:8">
+      <c r="A1417" s="5">
+        <v>1415</v>
+      </c>
+      <c r="B1417" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1417" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1417" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1417" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1417" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1417" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="H1417" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:8">
+      <c r="A1418" s="5">
+        <v>1416</v>
+      </c>
+      <c r="B1418" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1418" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1418" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1418" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1418" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1418" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H1418" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:8">
+      <c r="A1419" s="5">
+        <v>1417</v>
+      </c>
+      <c r="B1419" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1419" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1419" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1419" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1419" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1419" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="H1419" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:8">
+      <c r="A1420" s="5">
+        <v>1418</v>
+      </c>
+      <c r="B1420" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1420" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1420" s="13">
+        <v>44176</v>
+      </c>
+      <c r="F1420" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1420" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1420" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:8">
+      <c r="A1421" s="5">
+        <v>1419</v>
+      </c>
+      <c r="B1421" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1421" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1421" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1421" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1421" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1421" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="H1421" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:8">
+      <c r="A1422" s="5">
+        <v>1420</v>
+      </c>
+      <c r="B1422" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1422" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1422" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1422" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1422" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1422" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="H1422" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:8">
+      <c r="A1423" s="5">
+        <v>1421</v>
+      </c>
+      <c r="B1423" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1423" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1423" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1423" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1423" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1423" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="H1423" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:8">
+      <c r="A1424" s="5">
+        <v>1422</v>
+      </c>
+      <c r="B1424" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1424" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1424" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1424" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1424" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1424" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="H1424" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:8">
+      <c r="A1425" s="5">
+        <v>1423</v>
+      </c>
+      <c r="B1425" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1425" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1425" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1425" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1425" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1425" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="H1425" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:8">
+      <c r="A1426" s="5">
+        <v>1424</v>
+      </c>
+      <c r="B1426" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1426" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1426" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1426" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1426" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1426" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="H1426" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:8">
+      <c r="A1427" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B1427" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1427" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1427" s="13">
+        <v>44176</v>
+      </c>
+      <c r="F1427" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1427" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="H1427" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:8">
+      <c r="A1428" s="5">
+        <v>1426</v>
+      </c>
+      <c r="B1428" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1428" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1428" s="13">
+        <v>44176</v>
+      </c>
+      <c r="F1428" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1428" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1428" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:8">
+      <c r="A1429" s="5">
+        <v>1427</v>
+      </c>
+      <c r="B1429" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1429" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1429" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1429" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1429" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1429" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="H1429" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:8">
+      <c r="A1430" s="5">
+        <v>1428</v>
+      </c>
+      <c r="B1430" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1430" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1430" s="13">
+        <v>44176</v>
+      </c>
+      <c r="F1430" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1430" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="H1430" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:8">
+      <c r="A1431" s="5">
+        <v>1429</v>
+      </c>
+      <c r="B1431" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1431" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1431" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1431" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1431" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1431" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="H1431" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:8">
+      <c r="A1432" s="5">
+        <v>1430</v>
+      </c>
+      <c r="B1432" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1432" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1432" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1432" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1432" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1432" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="H1432" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:8">
+      <c r="A1433" s="5">
+        <v>1431</v>
+      </c>
+      <c r="B1433" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1433" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1433" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1433" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1433" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1433" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="H1433" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:8">
+      <c r="A1434" s="5">
+        <v>1432</v>
+      </c>
+      <c r="B1434" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1434" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1434" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1434" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1434" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1434" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="H1434" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:8">
+      <c r="A1435" s="5">
+        <v>1433</v>
+      </c>
+      <c r="B1435" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1435" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1435" s="13">
+        <v>44176</v>
+      </c>
+      <c r="E1435" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F1435" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1435" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="H1435" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1435</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1467</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5745" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5873" uniqueCount="744">
   <si>
     <t>備考</t>
   </si>
@@ -5501,11 +5501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1435"/>
+  <dimension ref="A1:J1467"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1435" sqref="F1435"/>
+      <pane ySplit="2" topLeftCell="A1419" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1456" sqref="F1456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44176.650253240739</v>
+        <v>44177.671236226852</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -42125,6 +42125,811 @@
         <v>735</v>
       </c>
       <c r="H1435" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:8">
+      <c r="A1436" s="5">
+        <v>1434</v>
+      </c>
+      <c r="B1436" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1436" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1436" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1436" s="6">
+        <v>44167</v>
+      </c>
+      <c r="F1436" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1436" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1436" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:8">
+      <c r="A1437" s="5">
+        <v>1435</v>
+      </c>
+      <c r="B1437" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1437" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1437" s="13">
+        <v>44177</v>
+      </c>
+      <c r="F1437" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1437" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1437" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:8">
+      <c r="A1438" s="5">
+        <v>1436</v>
+      </c>
+      <c r="B1438" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1438" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1438" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1438" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1438" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1438" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1438" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:8">
+      <c r="A1439" s="5">
+        <v>1437</v>
+      </c>
+      <c r="B1439" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1439" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1439" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1439" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1439" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1439" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1439" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:8">
+      <c r="A1440" s="5">
+        <v>1438</v>
+      </c>
+      <c r="B1440" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1440" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1440" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1440" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1440" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1440" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1440" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:8">
+      <c r="A1441" s="5">
+        <v>1439</v>
+      </c>
+      <c r="B1441" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1441" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1441" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1441" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1441" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1441" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1441" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:8">
+      <c r="A1442" s="5">
+        <v>1440</v>
+      </c>
+      <c r="B1442" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1442" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1442" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1442" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1442" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1442" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1442" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:8">
+      <c r="A1443" s="5">
+        <v>1441</v>
+      </c>
+      <c r="B1443" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1443" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1443" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1443" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1443" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1443" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1443" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:8">
+      <c r="A1444" s="5">
+        <v>1442</v>
+      </c>
+      <c r="B1444" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1444" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1444" s="13">
+        <v>44177</v>
+      </c>
+      <c r="F1444" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1444" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1444" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:8">
+      <c r="A1445" s="5">
+        <v>1443</v>
+      </c>
+      <c r="B1445" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1445" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1445" s="13">
+        <v>44177</v>
+      </c>
+      <c r="F1445" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1445" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1445" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:8">
+      <c r="A1446" s="5">
+        <v>1444</v>
+      </c>
+      <c r="B1446" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1446" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1446" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1446" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1446" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1446" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1446" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:8">
+      <c r="A1447" s="5">
+        <v>1445</v>
+      </c>
+      <c r="B1447" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1447" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1447" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1447" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1447" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1447" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1447" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:8">
+      <c r="A1448" s="5">
+        <v>1446</v>
+      </c>
+      <c r="B1448" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1448" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1448" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1448" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1448" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1448" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1448" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:8">
+      <c r="A1449" s="5">
+        <v>1447</v>
+      </c>
+      <c r="B1449" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1449" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1449" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1449" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1449" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1449" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1449" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:8">
+      <c r="A1450" s="5">
+        <v>1448</v>
+      </c>
+      <c r="B1450" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1450" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1450" s="13">
+        <v>44177</v>
+      </c>
+      <c r="F1450" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1450" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1450" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:8">
+      <c r="A1451" s="5">
+        <v>1449</v>
+      </c>
+      <c r="B1451" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1451" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1451" s="13">
+        <v>44177</v>
+      </c>
+      <c r="F1451" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1451" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1451" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:8">
+      <c r="A1452" s="5">
+        <v>1450</v>
+      </c>
+      <c r="B1452" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1452" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1452" s="13">
+        <v>44177</v>
+      </c>
+      <c r="F1452" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1452" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1452" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:8">
+      <c r="A1453" s="5">
+        <v>1451</v>
+      </c>
+      <c r="B1453" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1453" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1453" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1453" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1453" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1453" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1453" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:8">
+      <c r="A1454" s="5">
+        <v>1452</v>
+      </c>
+      <c r="B1454" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1454" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1454" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1454" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1454" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1454" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1454" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:8">
+      <c r="A1455" s="5">
+        <v>1453</v>
+      </c>
+      <c r="B1455" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1455" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1455" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1455" s="6">
+        <v>44174</v>
+      </c>
+      <c r="F1455" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1455" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1455" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:8">
+      <c r="A1456" s="5">
+        <v>1454</v>
+      </c>
+      <c r="B1456" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1456" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1456" s="13">
+        <v>44177</v>
+      </c>
+      <c r="F1456" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1456" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1456" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:8">
+      <c r="A1457" s="5">
+        <v>1455</v>
+      </c>
+      <c r="B1457" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1457" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1457" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1457" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1457" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1457" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1457" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:8">
+      <c r="A1458" s="5">
+        <v>1456</v>
+      </c>
+      <c r="B1458" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1458" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1458" s="13">
+        <v>44177</v>
+      </c>
+      <c r="F1458" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1458" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1458" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:8">
+      <c r="A1459" s="5">
+        <v>1457</v>
+      </c>
+      <c r="B1459" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1459" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1459" s="13">
+        <v>44177</v>
+      </c>
+      <c r="F1459" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1459" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1459" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:8">
+      <c r="A1460" s="5">
+        <v>1458</v>
+      </c>
+      <c r="B1460" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1460" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1460" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1460" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1460" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1460" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1460" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:8">
+      <c r="A1461" s="5">
+        <v>1459</v>
+      </c>
+      <c r="B1461" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1461" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1461" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1461" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1461" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1461" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1461" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:8">
+      <c r="A1462" s="5">
+        <v>1460</v>
+      </c>
+      <c r="B1462" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1462" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1462" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1462" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1462" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1462" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1462" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:8">
+      <c r="A1463" s="5">
+        <v>1461</v>
+      </c>
+      <c r="B1463" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1463" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1463" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1463" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1463" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1463" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1463" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:8">
+      <c r="A1464" s="5">
+        <v>1462</v>
+      </c>
+      <c r="B1464" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1464" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1464" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1464" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1464" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1464" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1464" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:8">
+      <c r="A1465" s="5">
+        <v>1463</v>
+      </c>
+      <c r="B1465" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1465" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1465" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1465" s="6">
+        <v>44165</v>
+      </c>
+      <c r="F1465" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1465" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1465" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:8">
+      <c r="A1466" s="5">
+        <v>1464</v>
+      </c>
+      <c r="B1466" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1466" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1466" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1466" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1466" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1466" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1466" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:8">
+      <c r="A1467" s="5">
+        <v>1465</v>
+      </c>
+      <c r="B1467" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1467" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1467" s="13">
+        <v>44177</v>
+      </c>
+      <c r="E1467" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1467" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1467" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1467" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1467</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1495</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5873" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5985" uniqueCount="760">
   <si>
     <t>備考</t>
   </si>
@@ -5078,6 +5078,118 @@
   </si>
   <si>
     <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="3">
+      <t>ヘグリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヨドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇陀市</t>
+    <rPh sb="0" eb="3">
+      <t>ウダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
@@ -5087,7 +5199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -5231,7 +5343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5284,6 +5396,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5501,11 +5616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1467"/>
+  <dimension ref="A1:J1495"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1419" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1456" sqref="F1456"/>
+      <pane ySplit="2" topLeftCell="A1463" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1451" sqref="I1451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5531,7 +5646,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44177.671236226852</v>
+        <v>44178.609414351849</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -42931,6 +43046,671 @@
       </c>
       <c r="H1467" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:8">
+      <c r="A1468" s="5">
+        <v>1466</v>
+      </c>
+      <c r="B1468" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1468" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1468" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1468" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="G1468" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H1468" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:8">
+      <c r="A1469" s="5">
+        <v>1467</v>
+      </c>
+      <c r="B1469" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1469" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1469" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1469" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G1469" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="H1469" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:8">
+      <c r="A1470" s="5">
+        <v>1468</v>
+      </c>
+      <c r="B1470" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1470" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1470" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1470" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1470" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="H1470" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:8">
+      <c r="A1471" s="5">
+        <v>1469</v>
+      </c>
+      <c r="B1471" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1471" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1471" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1471" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1471" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="H1471" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:8">
+      <c r="A1472" s="5">
+        <v>1470</v>
+      </c>
+      <c r="B1472" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1472" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1472" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1472" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1472" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="H1472" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:8">
+      <c r="A1473" s="5">
+        <v>1471</v>
+      </c>
+      <c r="B1473" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1473" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1473" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1473" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1473" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H1473" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:8">
+      <c r="A1474" s="5">
+        <v>1472</v>
+      </c>
+      <c r="B1474" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1474" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1474" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1474" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="G1474" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="H1474" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:8">
+      <c r="A1475" s="5">
+        <v>1473</v>
+      </c>
+      <c r="B1475" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1475" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1475" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1475" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1475" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1475" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:8">
+      <c r="A1476" s="5">
+        <v>1474</v>
+      </c>
+      <c r="B1476" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1476" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1476" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1476" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1476" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="H1476" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:8">
+      <c r="A1477" s="5">
+        <v>1475</v>
+      </c>
+      <c r="B1477" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1477" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1477" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1477" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="G1477" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="H1477" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:8">
+      <c r="A1478" s="5">
+        <v>1476</v>
+      </c>
+      <c r="B1478" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1478" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1478" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1478" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1478" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="H1478" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:8">
+      <c r="A1479" s="5">
+        <v>1477</v>
+      </c>
+      <c r="B1479" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1479" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1479" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1479" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1479" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1479" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:8">
+      <c r="A1480" s="5">
+        <v>1478</v>
+      </c>
+      <c r="B1480" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1480" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1480" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1480" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1480" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="H1480" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:8">
+      <c r="A1481" s="5">
+        <v>1479</v>
+      </c>
+      <c r="B1481" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1481" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1481" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1481" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1481" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H1481" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8">
+      <c r="A1482" s="5">
+        <v>1480</v>
+      </c>
+      <c r="B1482" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1482" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1482" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1482" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1482" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1482" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8">
+      <c r="A1483" s="5">
+        <v>1481</v>
+      </c>
+      <c r="B1483" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1483" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1483" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1483" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1483" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1483" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:8">
+      <c r="A1484" s="5">
+        <v>1482</v>
+      </c>
+      <c r="B1484" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1484" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1484" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1484" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="G1484" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="H1484" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:8">
+      <c r="A1485" s="5">
+        <v>1483</v>
+      </c>
+      <c r="B1485" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1485" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1485" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1485" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="G1485" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="H1485" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8">
+      <c r="A1486" s="5">
+        <v>1484</v>
+      </c>
+      <c r="B1486" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1486" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1486" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1486" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1486" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="H1486" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:8">
+      <c r="A1487" s="5">
+        <v>1485</v>
+      </c>
+      <c r="B1487" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1487" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1487" s="18">
+        <v>44178</v>
+      </c>
+      <c r="E1487" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1487" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1487" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="H1487" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:8">
+      <c r="A1488" s="5">
+        <v>1486</v>
+      </c>
+      <c r="B1488" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1488" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1488" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1488" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1488" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="H1488" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8">
+      <c r="A1489" s="5">
+        <v>1487</v>
+      </c>
+      <c r="B1489" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1489" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1489" s="18">
+        <v>44178</v>
+      </c>
+      <c r="E1489" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1489" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1489" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1489" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8">
+      <c r="A1490" s="5">
+        <v>1488</v>
+      </c>
+      <c r="B1490" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1490" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1490" s="18">
+        <v>44178</v>
+      </c>
+      <c r="E1490" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1490" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1490" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H1490" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:8">
+      <c r="A1491" s="5">
+        <v>1489</v>
+      </c>
+      <c r="B1491" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1491" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1491" s="18">
+        <v>44178</v>
+      </c>
+      <c r="E1491" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1491" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1491" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="H1491" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:8">
+      <c r="A1492" s="5">
+        <v>1490</v>
+      </c>
+      <c r="B1492" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1492" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1492" s="18">
+        <v>44178</v>
+      </c>
+      <c r="E1492" s="6">
+        <v>44174</v>
+      </c>
+      <c r="F1492" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1492" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H1492" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:8">
+      <c r="A1493" s="5">
+        <v>1491</v>
+      </c>
+      <c r="B1493" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1493" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1493" s="18">
+        <v>44178</v>
+      </c>
+      <c r="E1493" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1493" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1493" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1493" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:8">
+      <c r="A1494" s="5">
+        <v>1492</v>
+      </c>
+      <c r="B1494" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1494" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1494" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F1494" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1494" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H1494" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:8">
+      <c r="A1495" s="5">
+        <v>1493</v>
+      </c>
+      <c r="B1495" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1495" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1495" s="18">
+        <v>44178</v>
+      </c>
+      <c r="E1495" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1495" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1495" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1495" s="5" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1495</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1514</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5985" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="776">
   <si>
     <t>備考</t>
   </si>
@@ -5192,6 +5192,124 @@
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="2">
+      <t>タハラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高取町</t>
+    <rPh sb="0" eb="3">
+      <t>タカトリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヨドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5616,11 +5734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1495"/>
+  <dimension ref="A1:J1514"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1463" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1451" sqref="I1451"/>
+      <pane ySplit="2" topLeftCell="A1497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1514" sqref="E1514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5646,7 +5764,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44178.609414351849</v>
+        <v>44179.639217824071</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -43061,6 +43179,9 @@
       <c r="D1468" s="18">
         <v>44178</v>
       </c>
+      <c r="E1468" s="6">
+        <v>44172</v>
+      </c>
       <c r="F1468" s="6" t="s">
         <v>752</v>
       </c>
@@ -43084,6 +43205,9 @@
       <c r="D1469" s="18">
         <v>44178</v>
       </c>
+      <c r="E1469" s="6">
+        <v>44175</v>
+      </c>
       <c r="F1469" s="6" t="s">
         <v>753</v>
       </c>
@@ -43107,6 +43231,9 @@
       <c r="D1470" s="18">
         <v>44178</v>
       </c>
+      <c r="E1470" s="6">
+        <v>44168</v>
+      </c>
       <c r="F1470" s="6" t="s">
         <v>105</v>
       </c>
@@ -43130,6 +43257,9 @@
       <c r="D1471" s="18">
         <v>44178</v>
       </c>
+      <c r="E1471" s="6">
+        <v>44174</v>
+      </c>
       <c r="F1471" s="6" t="s">
         <v>164</v>
       </c>
@@ -43153,6 +43283,9 @@
       <c r="D1472" s="18">
         <v>44178</v>
       </c>
+      <c r="E1472" s="6">
+        <v>44175</v>
+      </c>
       <c r="F1472" s="6" t="s">
         <v>105</v>
       </c>
@@ -43176,6 +43309,9 @@
       <c r="D1473" s="18">
         <v>44178</v>
       </c>
+      <c r="E1473" s="6">
+        <v>44176</v>
+      </c>
       <c r="F1473" s="6" t="s">
         <v>31</v>
       </c>
@@ -43199,6 +43335,9 @@
       <c r="D1474" s="18">
         <v>44178</v>
       </c>
+      <c r="E1474" s="6">
+        <v>44173</v>
+      </c>
       <c r="F1474" s="6" t="s">
         <v>754</v>
       </c>
@@ -43245,6 +43384,9 @@
       <c r="D1476" s="18">
         <v>44178</v>
       </c>
+      <c r="E1476" s="6">
+        <v>44174</v>
+      </c>
       <c r="F1476" s="6" t="s">
         <v>756</v>
       </c>
@@ -43268,6 +43410,9 @@
       <c r="D1477" s="18">
         <v>44178</v>
       </c>
+      <c r="E1477" s="6">
+        <v>44174</v>
+      </c>
       <c r="F1477" s="6" t="s">
         <v>757</v>
       </c>
@@ -43314,6 +43459,9 @@
       <c r="D1479" s="18">
         <v>44178</v>
       </c>
+      <c r="E1479" s="6">
+        <v>44174</v>
+      </c>
       <c r="F1479" s="6" t="s">
         <v>89</v>
       </c>
@@ -43337,6 +43485,9 @@
       <c r="D1480" s="18">
         <v>44178</v>
       </c>
+      <c r="E1480" s="6">
+        <v>44177</v>
+      </c>
       <c r="F1480" s="6" t="s">
         <v>89</v>
       </c>
@@ -43360,6 +43511,9 @@
       <c r="D1481" s="18">
         <v>44178</v>
       </c>
+      <c r="E1481" s="6">
+        <v>44176</v>
+      </c>
       <c r="F1481" s="6" t="s">
         <v>73</v>
       </c>
@@ -43383,6 +43537,9 @@
       <c r="D1482" s="18">
         <v>44178</v>
       </c>
+      <c r="E1482" s="6">
+        <v>44175</v>
+      </c>
       <c r="F1482" s="6" t="s">
         <v>73</v>
       </c>
@@ -43406,6 +43563,9 @@
       <c r="D1483" s="18">
         <v>44178</v>
       </c>
+      <c r="E1483" s="6">
+        <v>44175</v>
+      </c>
       <c r="F1483" s="6" t="s">
         <v>73</v>
       </c>
@@ -43684,10 +43844,10 @@
         <v>748</v>
       </c>
       <c r="H1494" s="5" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1495" s="5">
         <v>1493</v>
       </c>
@@ -43711,6 +43871,485 @@
       </c>
       <c r="H1495" s="5" t="s">
         <v>751</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:8">
+      <c r="A1496" s="5">
+        <v>1494</v>
+      </c>
+      <c r="B1496" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1496" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1496" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1496" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1496" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="G1496" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="H1496" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:8">
+      <c r="A1497" s="5">
+        <v>1495</v>
+      </c>
+      <c r="B1497" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1497" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1497" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1497" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1497" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="G1497" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="H1497" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:8">
+      <c r="A1498" s="5">
+        <v>1496</v>
+      </c>
+      <c r="B1498" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1498" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1498" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1498" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1498" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="G1498" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="H1498" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:8">
+      <c r="A1499" s="5">
+        <v>1497</v>
+      </c>
+      <c r="B1499" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1499" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1499" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1499" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1499" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="G1499" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1499" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:8">
+      <c r="A1500" s="5">
+        <v>1498</v>
+      </c>
+      <c r="B1500" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1500" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1500" s="18">
+        <v>44179</v>
+      </c>
+      <c r="F1500" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="G1500" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1500" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:8">
+      <c r="A1501" s="5">
+        <v>1499</v>
+      </c>
+      <c r="B1501" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1501" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1501" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1501" s="6">
+        <v>44175</v>
+      </c>
+      <c r="F1501" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="G1501" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="H1501" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:8">
+      <c r="A1502" s="5">
+        <v>1500</v>
+      </c>
+      <c r="B1502" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1502" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1502" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1502" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1502" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="G1502" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="H1502" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:8">
+      <c r="A1503" s="5">
+        <v>1501</v>
+      </c>
+      <c r="B1503" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1503" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1503" s="18">
+        <v>44179</v>
+      </c>
+      <c r="F1503" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="G1503" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="H1503" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:8">
+      <c r="A1504" s="5">
+        <v>1502</v>
+      </c>
+      <c r="B1504" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1504" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1504" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1504" s="6">
+        <v>44174</v>
+      </c>
+      <c r="F1504" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1504" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="H1504" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:8">
+      <c r="A1505" s="5">
+        <v>1503</v>
+      </c>
+      <c r="B1505" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1505" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1505" s="18">
+        <v>44179</v>
+      </c>
+      <c r="F1505" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="G1505" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="H1505" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8">
+      <c r="A1506" s="5">
+        <v>1504</v>
+      </c>
+      <c r="B1506" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1506" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1506" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1506" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1506" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="G1506" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="H1506" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:8">
+      <c r="A1507" s="5">
+        <v>1505</v>
+      </c>
+      <c r="B1507" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1507" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1507" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1507" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1507" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1507" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="H1507" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:8">
+      <c r="A1508" s="5">
+        <v>1506</v>
+      </c>
+      <c r="B1508" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1508" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1508" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1508" s="6">
+        <v>44175</v>
+      </c>
+      <c r="F1508" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1508" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="H1508" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:8">
+      <c r="A1509" s="5">
+        <v>1507</v>
+      </c>
+      <c r="B1509" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1509" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1509" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1509" s="6">
+        <v>44175</v>
+      </c>
+      <c r="F1509" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1509" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="H1509" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:8">
+      <c r="A1510" s="5">
+        <v>1508</v>
+      </c>
+      <c r="B1510" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1510" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1510" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1510" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1510" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1510" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1510" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:8">
+      <c r="A1511" s="5">
+        <v>1509</v>
+      </c>
+      <c r="B1511" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1511" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1511" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1511" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F1511" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1511" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="H1511" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:8">
+      <c r="A1512" s="5">
+        <v>1510</v>
+      </c>
+      <c r="B1512" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1512" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1512" s="18">
+        <v>44179</v>
+      </c>
+      <c r="E1512" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1512" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1512" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1512" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:8">
+      <c r="A1513" s="5">
+        <v>1511</v>
+      </c>
+      <c r="B1513" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1513" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1513" s="18">
+        <v>44179</v>
+      </c>
+      <c r="F1513" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1513" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="H1513" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:8">
+      <c r="A1514" s="5">
+        <v>1512</v>
+      </c>
+      <c r="B1514" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1514" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1514" s="18">
+        <v>44179</v>
+      </c>
+      <c r="F1514" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1514" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="H1514" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1514</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1556</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6229" uniqueCount="795">
   <si>
     <t>備考</t>
   </si>
@@ -5311,6 +5311,115 @@
     <rPh sb="0" eb="3">
       <t>イコマシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高取町</t>
+    <rPh sb="0" eb="3">
+      <t>タカトリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斑鳩町</t>
+    <rPh sb="0" eb="3">
+      <t>イカルガチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="4">
+      <t>タワラモトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="3">
+      <t>ヘグリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5734,11 +5843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1514"/>
+  <dimension ref="A1:J1556"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1514" sqref="E1514"/>
+      <pane ySplit="2" topLeftCell="A1540" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1557" sqref="E1557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5764,7 +5873,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44179.639217824071</v>
+        <v>44181.739395254626</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -44349,6 +44458,1089 @@
         <v>767</v>
       </c>
       <c r="H1514" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:8">
+      <c r="A1515" s="5">
+        <v>1513</v>
+      </c>
+      <c r="B1515" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1515" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1515" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1515" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1515" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="G1515" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1515" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:8">
+      <c r="A1516" s="5">
+        <v>1514</v>
+      </c>
+      <c r="B1516" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1516" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1516" s="18">
+        <v>44180</v>
+      </c>
+      <c r="F1516" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="G1516" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1516" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8">
+      <c r="A1517" s="5">
+        <v>1515</v>
+      </c>
+      <c r="B1517" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1517" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1517" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1517" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1517" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1517" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1517" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8">
+      <c r="A1518" s="5">
+        <v>1516</v>
+      </c>
+      <c r="B1518" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1518" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1518" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1518" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1518" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1518" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1518" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8">
+      <c r="A1519" s="5">
+        <v>1517</v>
+      </c>
+      <c r="B1519" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1519" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1519" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1519" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1519" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1519" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1519" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8">
+      <c r="A1520" s="5">
+        <v>1518</v>
+      </c>
+      <c r="B1520" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1520" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1520" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1520" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1520" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1520" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1520" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:8">
+      <c r="A1521" s="5">
+        <v>1519</v>
+      </c>
+      <c r="B1521" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1521" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1521" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1521" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1521" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1521" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1521" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:8">
+      <c r="A1522" s="5">
+        <v>1520</v>
+      </c>
+      <c r="B1522" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1522" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1522" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1522" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1522" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1522" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1522" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:8">
+      <c r="A1523" s="5">
+        <v>1521</v>
+      </c>
+      <c r="B1523" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1523" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1523" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1523" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1523" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1523" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1523" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:8">
+      <c r="A1524" s="5">
+        <v>1522</v>
+      </c>
+      <c r="B1524" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1524" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1524" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1524" s="6">
+        <v>44175</v>
+      </c>
+      <c r="F1524" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1524" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1524" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:8">
+      <c r="A1525" s="5">
+        <v>1523</v>
+      </c>
+      <c r="B1525" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1525" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1525" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1525" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1525" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1525" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1525" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:8">
+      <c r="A1526" s="5">
+        <v>1524</v>
+      </c>
+      <c r="B1526" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1526" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1526" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1526" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1526" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1526" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1526" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:8">
+      <c r="A1527" s="5">
+        <v>1525</v>
+      </c>
+      <c r="B1527" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1527" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1527" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1527" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F1527" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1527" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1527" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:8">
+      <c r="A1528" s="5">
+        <v>1526</v>
+      </c>
+      <c r="B1528" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1528" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1528" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1528" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1528" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1528" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1528" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:8">
+      <c r="A1529" s="5">
+        <v>1527</v>
+      </c>
+      <c r="B1529" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1529" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1529" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1529" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1529" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="G1529" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1529" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:8">
+      <c r="A1530" s="5">
+        <v>1528</v>
+      </c>
+      <c r="B1530" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1530" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1530" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1530" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1530" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="G1530" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1530" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:8">
+      <c r="A1531" s="5">
+        <v>1529</v>
+      </c>
+      <c r="B1531" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1531" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1531" s="18">
+        <v>44180</v>
+      </c>
+      <c r="E1531" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1531" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="G1531" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1531" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:8">
+      <c r="A1532" s="5">
+        <v>1530</v>
+      </c>
+      <c r="B1532" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1532" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1532" s="18">
+        <v>44180</v>
+      </c>
+      <c r="F1532" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="G1532" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1532" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:8">
+      <c r="A1533" s="5">
+        <v>1531</v>
+      </c>
+      <c r="B1533" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1533" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1533" s="18">
+        <v>44181</v>
+      </c>
+      <c r="F1533" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="G1533" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="H1533" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:8">
+      <c r="A1534" s="5">
+        <v>1532</v>
+      </c>
+      <c r="B1534" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1534" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1534" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1534" s="6">
+        <v>44175</v>
+      </c>
+      <c r="F1534" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="G1534" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H1534" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:8">
+      <c r="A1535" s="5">
+        <v>1533</v>
+      </c>
+      <c r="B1535" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1535" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1535" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1535" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1535" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="G1535" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1535" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:8">
+      <c r="A1536" s="5">
+        <v>1534</v>
+      </c>
+      <c r="B1536" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1536" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1536" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1536" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1536" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1536" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H1536" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:8">
+      <c r="A1537" s="5">
+        <v>1535</v>
+      </c>
+      <c r="B1537" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1537" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1537" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1537" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1537" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="G1537" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1537" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:8">
+      <c r="A1538" s="5">
+        <v>1536</v>
+      </c>
+      <c r="B1538" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1538" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1538" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1538" s="6">
+        <v>44175</v>
+      </c>
+      <c r="F1538" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="G1538" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="H1538" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:8">
+      <c r="A1539" s="5">
+        <v>1537</v>
+      </c>
+      <c r="B1539" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1539" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1539" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1539" s="6">
+        <v>44174</v>
+      </c>
+      <c r="F1539" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="G1539" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1539" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:8">
+      <c r="A1540" s="5">
+        <v>1538</v>
+      </c>
+      <c r="B1540" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1540" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1540" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1540" s="6">
+        <v>44174</v>
+      </c>
+      <c r="F1540" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="G1540" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="H1540" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:8">
+      <c r="A1541" s="5">
+        <v>1539</v>
+      </c>
+      <c r="B1541" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1541" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1541" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1541" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1541" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="G1541" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="H1541" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:8">
+      <c r="A1542" s="5">
+        <v>1540</v>
+      </c>
+      <c r="B1542" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1542" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1542" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1542" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1542" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="G1542" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="H1542" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:8">
+      <c r="A1543" s="5">
+        <v>1541</v>
+      </c>
+      <c r="B1543" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1543" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1543" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1543" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1543" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="G1543" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H1543" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:8">
+      <c r="A1544" s="5">
+        <v>1542</v>
+      </c>
+      <c r="B1544" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1544" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1544" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1544" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1544" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="G1544" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="H1544" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:8">
+      <c r="A1545" s="5">
+        <v>1543</v>
+      </c>
+      <c r="B1545" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1545" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1545" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1545" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1545" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="G1545" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H1545" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:8">
+      <c r="A1546" s="5">
+        <v>1544</v>
+      </c>
+      <c r="B1546" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1546" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1546" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1546" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1546" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="G1546" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H1546" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:8">
+      <c r="A1547" s="5">
+        <v>1545</v>
+      </c>
+      <c r="B1547" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1547" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1547" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1547" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1547" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="G1547" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H1547" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:8">
+      <c r="A1548" s="5">
+        <v>1546</v>
+      </c>
+      <c r="B1548" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1548" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1548" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1548" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1548" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="G1548" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H1548" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:8">
+      <c r="A1549" s="5">
+        <v>1547</v>
+      </c>
+      <c r="B1549" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1549" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1549" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1549" s="6">
+        <v>44175</v>
+      </c>
+      <c r="F1549" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1549" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="H1549" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:8">
+      <c r="A1550" s="5">
+        <v>1548</v>
+      </c>
+      <c r="B1550" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1550" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1550" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1550" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1550" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1550" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H1550" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:8">
+      <c r="A1551" s="5">
+        <v>1549</v>
+      </c>
+      <c r="B1551" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1551" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1551" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1551" s="6">
+        <v>44172</v>
+      </c>
+      <c r="F1551" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1551" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H1551" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:8">
+      <c r="A1552" s="5">
+        <v>1550</v>
+      </c>
+      <c r="B1552" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1552" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1552" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1552" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1552" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1552" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="H1552" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:8">
+      <c r="A1553" s="5">
+        <v>1551</v>
+      </c>
+      <c r="B1553" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1553" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1553" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1553" s="6">
+        <v>44174</v>
+      </c>
+      <c r="F1553" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1553" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H1553" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:8">
+      <c r="A1554" s="5">
+        <v>1552</v>
+      </c>
+      <c r="B1554" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1554" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1554" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1554" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1554" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1554" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="H1554" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:8">
+      <c r="A1555" s="5">
+        <v>1553</v>
+      </c>
+      <c r="B1555" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1555" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1555" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1555" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1555" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1555" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="H1555" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:8">
+      <c r="A1556" s="5">
+        <v>1554</v>
+      </c>
+      <c r="B1556" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1556" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1556" s="18">
+        <v>44181</v>
+      </c>
+      <c r="E1556" s="6">
+        <v>44169</v>
+      </c>
+      <c r="F1556" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1556" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="H1556" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1556</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1579</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6229" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6321" uniqueCount="800">
   <si>
     <t>備考</t>
   </si>
@@ -5420,13 +5420,48 @@
   </si>
   <si>
     <t>30代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -5843,11 +5878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1556"/>
+  <dimension ref="A1:J1580"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1540" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1557" sqref="E1557"/>
+      <pane ySplit="2" topLeftCell="A1558" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1580" sqref="G1580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5873,7 +5908,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44181.739395254626</v>
+        <v>44182.683819212965</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -45543,6 +45578,589 @@
       <c r="H1556" s="5" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="1557" spans="1:8">
+      <c r="A1557" s="5">
+        <v>1555</v>
+      </c>
+      <c r="B1557" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1557" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1557" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1557" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1557" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1557" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="H1557" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:8">
+      <c r="A1558" s="5">
+        <v>1556</v>
+      </c>
+      <c r="B1558" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1558" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1558" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1558" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1558" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1558" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1558" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:8">
+      <c r="A1559" s="5">
+        <v>1557</v>
+      </c>
+      <c r="B1559" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1559" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1559" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1559" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1559" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1559" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="H1559" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:8">
+      <c r="A1560" s="5">
+        <v>1558</v>
+      </c>
+      <c r="B1560" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1560" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1560" s="18">
+        <v>44182</v>
+      </c>
+      <c r="F1560" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1560" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="H1560" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8">
+      <c r="A1561" s="5">
+        <v>1559</v>
+      </c>
+      <c r="B1561" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1561" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1561" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1561" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1561" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1561" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="H1561" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:8">
+      <c r="A1562" s="5">
+        <v>1560</v>
+      </c>
+      <c r="B1562" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1562" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1562" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1562" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1562" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1562" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1562" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:8">
+      <c r="A1563" s="5">
+        <v>1561</v>
+      </c>
+      <c r="B1563" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1563" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1563" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1563" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1563" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1563" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1563" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:8">
+      <c r="A1564" s="5">
+        <v>1562</v>
+      </c>
+      <c r="B1564" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1564" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1564" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1564" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1564" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1564" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1564" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:8">
+      <c r="A1565" s="5">
+        <v>1563</v>
+      </c>
+      <c r="B1565" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1565" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1565" s="18">
+        <v>44182</v>
+      </c>
+      <c r="F1565" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1565" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1565" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:8">
+      <c r="A1566" s="5">
+        <v>1564</v>
+      </c>
+      <c r="B1566" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1566" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1566" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1566" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1566" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1566" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1566" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:8">
+      <c r="A1567" s="5">
+        <v>1565</v>
+      </c>
+      <c r="B1567" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1567" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1567" s="18">
+        <v>44182</v>
+      </c>
+      <c r="F1567" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1567" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1567" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:8">
+      <c r="A1568" s="5">
+        <v>1566</v>
+      </c>
+      <c r="B1568" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1568" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1568" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1568" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1568" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1568" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1568" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:8">
+      <c r="A1569" s="5">
+        <v>1567</v>
+      </c>
+      <c r="B1569" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1569" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1569" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1569" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1569" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1569" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1569" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:8">
+      <c r="A1570" s="5">
+        <v>1568</v>
+      </c>
+      <c r="B1570" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1570" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1570" s="18">
+        <v>44182</v>
+      </c>
+      <c r="F1570" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1570" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1570" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:8">
+      <c r="A1571" s="5">
+        <v>1569</v>
+      </c>
+      <c r="B1571" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1571" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1571" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1571" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1571" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1571" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1571" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:8">
+      <c r="A1572" s="5">
+        <v>1570</v>
+      </c>
+      <c r="B1572" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1572" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1572" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1572" s="6">
+        <v>44168</v>
+      </c>
+      <c r="F1572" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1572" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1572" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:8">
+      <c r="A1573" s="5">
+        <v>1571</v>
+      </c>
+      <c r="B1573" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1573" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1573" s="18">
+        <v>44182</v>
+      </c>
+      <c r="F1573" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1573" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1573" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:8">
+      <c r="A1574" s="5">
+        <v>1572</v>
+      </c>
+      <c r="B1574" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1574" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1574" s="18">
+        <v>44182</v>
+      </c>
+      <c r="F1574" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1574" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1574" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:8">
+      <c r="A1575" s="5">
+        <v>1573</v>
+      </c>
+      <c r="B1575" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1575" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1575" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1575" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1575" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1575" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1575" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:8">
+      <c r="A1576" s="5">
+        <v>1574</v>
+      </c>
+      <c r="B1576" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1576" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1576" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1576" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1576" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1576" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1576" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:8">
+      <c r="A1577" s="5">
+        <v>1575</v>
+      </c>
+      <c r="B1577" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1577" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1577" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1577" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1577" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1577" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1577" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:8">
+      <c r="A1578" s="5">
+        <v>1576</v>
+      </c>
+      <c r="B1578" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1578" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1578" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1578" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1578" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1578" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1578" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:8">
+      <c r="A1579" s="5">
+        <v>1577</v>
+      </c>
+      <c r="B1579" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1579" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1579" s="18">
+        <v>44182</v>
+      </c>
+      <c r="E1579" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1579" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1579" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1579" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:8">
+      <c r="D1580" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1579</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1630</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6321" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6499" uniqueCount="818">
   <si>
     <t>備考</t>
   </si>
@@ -5456,17 +5456,147 @@
       <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和歌山県内</t>
+    <rPh sb="0" eb="4">
+      <t>ワカヤマケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="3">
+      <t>ヘグリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御所市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴセシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇陀市</t>
+    <rPh sb="0" eb="3">
+      <t>ウダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヨドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山添村</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマゾエムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斑鳩町</t>
+    <rPh sb="0" eb="3">
+      <t>イカルガチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
+    <numFmt numFmtId="178" formatCode="#&quot;代&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5520,8 +5650,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5540,8 +5684,14 @@
         <bgColor rgb="FFDADADA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -5601,11 +5751,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5662,6 +5860,30 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5878,11 +6100,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1580"/>
+  <dimension ref="A1:J1630"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="106" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1558" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1580" sqref="G1580"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="127" zoomScaleNormal="106" zoomScaleSheetLayoutView="127" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1621" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1625" sqref="E1625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5908,7 +6130,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44182.683819212965</v>
+        <v>44184.72665300926</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -46160,7 +46382,1300 @@
       </c>
     </row>
     <row r="1580" spans="1:8">
-      <c r="D1580" s="18"/>
+      <c r="A1580" s="5">
+        <v>1578</v>
+      </c>
+      <c r="B1580" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1580" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1580" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1580" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1580" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1580" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1580" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:8">
+      <c r="A1581" s="5">
+        <v>1579</v>
+      </c>
+      <c r="B1581" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1581" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1581" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1581" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1581" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="G1581" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1581" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:8">
+      <c r="A1582" s="5">
+        <v>1580</v>
+      </c>
+      <c r="B1582" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1582" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1582" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1582" s="6">
+        <v>44174</v>
+      </c>
+      <c r="F1582" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1582" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1582" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:8">
+      <c r="A1583" s="5">
+        <v>1581</v>
+      </c>
+      <c r="B1583" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1583" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1583" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1583" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1583" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="G1583" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1583" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:8">
+      <c r="A1584" s="5">
+        <v>1582</v>
+      </c>
+      <c r="B1584" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1584" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1584" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1584" s="6">
+        <v>44174</v>
+      </c>
+      <c r="F1584" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1584" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1584" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:8">
+      <c r="A1585" s="5">
+        <v>1583</v>
+      </c>
+      <c r="B1585" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1585" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1585" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1585" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1585" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1585" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1585" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:8">
+      <c r="A1586" s="5">
+        <v>1584</v>
+      </c>
+      <c r="B1586" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1586" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1586" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1586" s="6">
+        <v>44174</v>
+      </c>
+      <c r="F1586" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1586" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1586" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:8">
+      <c r="A1587" s="5">
+        <v>1585</v>
+      </c>
+      <c r="B1587" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1587" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1587" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1587" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1587" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1587" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1587" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:8">
+      <c r="A1588" s="5">
+        <v>1586</v>
+      </c>
+      <c r="B1588" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1588" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1588" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1588" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1588" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1588" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1588" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:8">
+      <c r="A1589" s="5">
+        <v>1587</v>
+      </c>
+      <c r="B1589" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1589" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1589" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1589" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1589" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1589" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1589" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:8">
+      <c r="A1590" s="5">
+        <v>1588</v>
+      </c>
+      <c r="B1590" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1590" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1590" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1590" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1590" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1590" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1590" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:8">
+      <c r="A1591" s="5">
+        <v>1589</v>
+      </c>
+      <c r="B1591" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1591" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1591" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1591" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1591" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1591" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1591" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:8">
+      <c r="A1592" s="5">
+        <v>1590</v>
+      </c>
+      <c r="B1592" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1592" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1592" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1592" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1592" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1592" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1592" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:8">
+      <c r="A1593" s="5">
+        <v>1591</v>
+      </c>
+      <c r="B1593" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1593" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1593" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1593" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1593" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1593" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1593" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:8">
+      <c r="A1594" s="5">
+        <v>1592</v>
+      </c>
+      <c r="B1594" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1594" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1594" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1594" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1594" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1594" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1594" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:8">
+      <c r="A1595" s="5">
+        <v>1593</v>
+      </c>
+      <c r="B1595" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1595" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1595" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1595" s="6">
+        <v>44175</v>
+      </c>
+      <c r="F1595" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1595" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1595" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:8">
+      <c r="A1596" s="5">
+        <v>1594</v>
+      </c>
+      <c r="B1596" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1596" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1596" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1596" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1596" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="G1596" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1596" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:8">
+      <c r="A1597" s="5">
+        <v>1595</v>
+      </c>
+      <c r="B1597" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1597" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1597" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1597" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1597" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="G1597" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1597" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:8">
+      <c r="A1598" s="5">
+        <v>1596</v>
+      </c>
+      <c r="B1598" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1598" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1598" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1598" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1598" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1598" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1598" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:8">
+      <c r="A1599" s="5">
+        <v>1597</v>
+      </c>
+      <c r="B1599" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1599" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1599" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1599" s="6">
+        <v>44175</v>
+      </c>
+      <c r="F1599" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1599" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1599" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:8">
+      <c r="A1600" s="5">
+        <v>1598</v>
+      </c>
+      <c r="B1600" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1600" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1600" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1600" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1600" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1600" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1600" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:8">
+      <c r="A1601" s="5">
+        <v>1599</v>
+      </c>
+      <c r="B1601" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1601" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1601" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1601" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1601" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1601" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1601" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:8">
+      <c r="A1602" s="5">
+        <v>1600</v>
+      </c>
+      <c r="B1602" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1602" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1602" s="18">
+        <v>44183</v>
+      </c>
+      <c r="E1602" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1602" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1602" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1602" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:8">
+      <c r="A1603" s="5">
+        <v>1601</v>
+      </c>
+      <c r="B1603" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1603" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1603" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1603" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1603" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="G1603" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="H1603" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:8" ht="14.25">
+      <c r="A1604" s="5">
+        <v>1602</v>
+      </c>
+      <c r="B1604" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1604" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1604" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F1604" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1604" s="22">
+        <v>40</v>
+      </c>
+      <c r="H1604" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:8" ht="14.25">
+      <c r="A1605" s="5">
+        <v>1603</v>
+      </c>
+      <c r="B1605" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1605" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1605" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F1605" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="G1605" s="23">
+        <v>40</v>
+      </c>
+      <c r="H1605" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:8" ht="14.25">
+      <c r="A1606" s="5">
+        <v>1604</v>
+      </c>
+      <c r="B1606" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1606" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1606" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1606" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1606" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1606" s="22">
+        <v>80</v>
+      </c>
+      <c r="H1606" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:8" ht="14.25">
+      <c r="A1607" s="5">
+        <v>1605</v>
+      </c>
+      <c r="B1607" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1607" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1607" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1607" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1607" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="G1607" s="22">
+        <v>70</v>
+      </c>
+      <c r="H1607" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:8" ht="14.25">
+      <c r="A1608" s="5">
+        <v>1606</v>
+      </c>
+      <c r="B1608" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1608" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1608" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1608" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1608" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="G1608" s="22">
+        <v>40</v>
+      </c>
+      <c r="H1608" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:8" ht="14.25">
+      <c r="A1609" s="5">
+        <v>1607</v>
+      </c>
+      <c r="B1609" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1609" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1609" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1609" s="6">
+        <v>44174</v>
+      </c>
+      <c r="F1609" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="G1609" s="22">
+        <v>70</v>
+      </c>
+      <c r="H1609" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:8" ht="14.25">
+      <c r="A1610" s="5">
+        <v>1608</v>
+      </c>
+      <c r="B1610" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1610" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1610" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1610" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1610" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1610" s="22">
+        <v>50</v>
+      </c>
+      <c r="H1610" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:8" ht="14.25">
+      <c r="A1611" s="5">
+        <v>1609</v>
+      </c>
+      <c r="B1611" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1611" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1611" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1611" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1611" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1611" s="22">
+        <v>60</v>
+      </c>
+      <c r="H1611" s="20" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:8" ht="14.25">
+      <c r="A1612" s="5">
+        <v>1610</v>
+      </c>
+      <c r="B1612" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1612" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1612" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F1612" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1612" s="23">
+        <v>70</v>
+      </c>
+      <c r="H1612" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:8" ht="14.25">
+      <c r="A1613" s="5">
+        <v>1611</v>
+      </c>
+      <c r="B1613" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1613" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1613" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F1613" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1613" s="22">
+        <v>40</v>
+      </c>
+      <c r="H1613" s="20" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:8" ht="14.25">
+      <c r="A1614" s="5">
+        <v>1612</v>
+      </c>
+      <c r="B1614" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1614" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1614" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F1614" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1614" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="H1614" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:8" ht="14.25">
+      <c r="A1615" s="5">
+        <v>1613</v>
+      </c>
+      <c r="B1615" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1615" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1615" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1615" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1615" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1615" s="22">
+        <v>60</v>
+      </c>
+      <c r="H1615" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" ht="14.25">
+      <c r="A1616" s="5">
+        <v>1614</v>
+      </c>
+      <c r="B1616" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1616" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1616" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1616" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1616" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="G1616" s="23">
+        <v>40</v>
+      </c>
+      <c r="H1616" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:8" ht="14.25">
+      <c r="A1617" s="5">
+        <v>1615</v>
+      </c>
+      <c r="B1617" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1617" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1617" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1617" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1617" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="G1617" s="23">
+        <v>80</v>
+      </c>
+      <c r="H1617" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:8" ht="14.25">
+      <c r="A1618" s="5">
+        <v>1616</v>
+      </c>
+      <c r="B1618" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1618" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1618" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1618" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1618" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1618" s="22">
+        <v>20</v>
+      </c>
+      <c r="H1618" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:8" ht="14.25">
+      <c r="A1619" s="5">
+        <v>1617</v>
+      </c>
+      <c r="B1619" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1619" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1619" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1619" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1619" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1619" s="24">
+        <v>20</v>
+      </c>
+      <c r="H1619" s="21" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:8" ht="14.25">
+      <c r="A1620" s="5">
+        <v>1618</v>
+      </c>
+      <c r="B1620" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1620" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1620" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1620" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1620" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="G1620" s="23">
+        <v>10</v>
+      </c>
+      <c r="H1620" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:8" ht="14.25">
+      <c r="A1621" s="5">
+        <v>1619</v>
+      </c>
+      <c r="B1621" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1621" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1621" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F1621" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1621" s="22">
+        <v>80</v>
+      </c>
+      <c r="H1621" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:8" ht="14.25">
+      <c r="A1622" s="5">
+        <v>1620</v>
+      </c>
+      <c r="B1622" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1622" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1622" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F1622" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1622" s="22">
+        <v>20</v>
+      </c>
+      <c r="H1622" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:8" ht="14.25">
+      <c r="A1623" s="5">
+        <v>1621</v>
+      </c>
+      <c r="B1623" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1623" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1623" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F1623" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1623" s="24">
+        <v>50</v>
+      </c>
+      <c r="H1623" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:8" ht="14.25">
+      <c r="A1624" s="5">
+        <v>1622</v>
+      </c>
+      <c r="B1624" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1624" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1624" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F1624" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1624" s="23">
+        <v>60</v>
+      </c>
+      <c r="H1624" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:8" ht="14.25">
+      <c r="A1625" s="5">
+        <v>1623</v>
+      </c>
+      <c r="B1625" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1625" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1625" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1625" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1625" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1625" s="22">
+        <v>60</v>
+      </c>
+      <c r="H1625" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:8" ht="14.25">
+      <c r="A1626" s="5">
+        <v>1624</v>
+      </c>
+      <c r="B1626" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1626" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1626" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1626" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1626" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1626" s="25">
+        <v>40</v>
+      </c>
+      <c r="H1626" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:8" ht="14.25">
+      <c r="A1627" s="5">
+        <v>1625</v>
+      </c>
+      <c r="B1627" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1627" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1627" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1627" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1627" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1627" s="26">
+        <v>40</v>
+      </c>
+      <c r="H1627" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:8" ht="14.25">
+      <c r="A1628" s="5">
+        <v>1626</v>
+      </c>
+      <c r="B1628" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1628" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1628" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1628" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1628" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1628" s="22">
+        <v>40</v>
+      </c>
+      <c r="H1628" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:8" ht="14.25">
+      <c r="A1629" s="5">
+        <v>1627</v>
+      </c>
+      <c r="B1629" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1629" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1629" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F1629" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1629" s="22">
+        <v>50</v>
+      </c>
+      <c r="H1629" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:8" ht="14.25">
+      <c r="A1630" s="5">
+        <v>1628</v>
+      </c>
+      <c r="B1630" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1630" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1630" s="18">
+        <v>44184</v>
+      </c>
+      <c r="E1630" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1630" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1630" s="22">
+        <v>20</v>
+      </c>
+      <c r="H1630" s="19" t="s">
+        <v>816</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1630</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1656</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6499" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6603" uniqueCount="824">
   <si>
     <t>備考</t>
   </si>
@@ -5585,12 +5585,54 @@
       <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河合町</t>
+    <rPh sb="0" eb="3">
+      <t>カワイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安堵町</t>
+    <rPh sb="0" eb="3">
+      <t>アンドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -6100,11 +6142,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1630"/>
+  <dimension ref="A1:J1656"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="127" zoomScaleNormal="106" zoomScaleSheetLayoutView="127" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1621" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1625" sqref="E1625"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1635" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1649" sqref="F1649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -6130,7 +6172,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44184.72665300926</v>
+        <v>44185.720384143518</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -47675,6 +47717,667 @@
       </c>
       <c r="H1630" s="19" t="s">
         <v>816</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:8">
+      <c r="A1631" s="5">
+        <v>1629</v>
+      </c>
+      <c r="B1631" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1631" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1631" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1631" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1631" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1631" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1631" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:8">
+      <c r="A1632" s="5">
+        <v>1630</v>
+      </c>
+      <c r="B1632" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1632" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1632" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1632" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1632" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="G1632" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="H1632" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:8">
+      <c r="A1633" s="5">
+        <v>1631</v>
+      </c>
+      <c r="B1633" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1633" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1633" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1633" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1633" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="G1633" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1633" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:8">
+      <c r="A1634" s="5">
+        <v>1632</v>
+      </c>
+      <c r="B1634" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1634" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1634" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1634" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1634" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="G1634" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1634" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:8">
+      <c r="A1635" s="5">
+        <v>1633</v>
+      </c>
+      <c r="B1635" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1635" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1635" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1635" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F1635" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1635" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1635" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:8">
+      <c r="A1636" s="5">
+        <v>1634</v>
+      </c>
+      <c r="B1636" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1636" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1636" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1636" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1636" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1636" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1636" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:8">
+      <c r="A1637" s="5">
+        <v>1635</v>
+      </c>
+      <c r="B1637" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1637" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1637" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1637" s="6">
+        <v>44175</v>
+      </c>
+      <c r="F1637" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1637" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1637" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:8">
+      <c r="A1638" s="5">
+        <v>1636</v>
+      </c>
+      <c r="B1638" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1638" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1638" s="18">
+        <v>44185</v>
+      </c>
+      <c r="F1638" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1638" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1638" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:8">
+      <c r="A1639" s="5">
+        <v>1637</v>
+      </c>
+      <c r="B1639" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1639" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1639" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1639" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1639" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1639" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1639" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:8">
+      <c r="A1640" s="5">
+        <v>1638</v>
+      </c>
+      <c r="B1640" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1640" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1640" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1640" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1640" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1640" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1640" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:8">
+      <c r="A1641" s="5">
+        <v>1639</v>
+      </c>
+      <c r="B1641" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1641" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1641" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1641" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1641" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="G1641" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1641" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:8">
+      <c r="A1642" s="5">
+        <v>1640</v>
+      </c>
+      <c r="B1642" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1642" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1642" s="18">
+        <v>44185</v>
+      </c>
+      <c r="F1642" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="G1642" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1642" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:8">
+      <c r="A1643" s="5">
+        <v>1641</v>
+      </c>
+      <c r="B1643" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1643" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1643" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1643" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1643" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1643" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1643" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:8">
+      <c r="A1644" s="5">
+        <v>1642</v>
+      </c>
+      <c r="B1644" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1644" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1644" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1644" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1644" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1644" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1644" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:8">
+      <c r="A1645" s="5">
+        <v>1643</v>
+      </c>
+      <c r="B1645" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1645" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1645" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1645" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1645" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="G1645" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1645" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:8">
+      <c r="A1646" s="5">
+        <v>1644</v>
+      </c>
+      <c r="B1646" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1646" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1646" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1646" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F1646" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1646" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1646" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:8">
+      <c r="A1647" s="5">
+        <v>1645</v>
+      </c>
+      <c r="B1647" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1647" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1647" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1647" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1647" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1647" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1647" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:8">
+      <c r="A1648" s="5">
+        <v>1646</v>
+      </c>
+      <c r="B1648" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1648" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1648" s="18">
+        <v>44185</v>
+      </c>
+      <c r="F1648" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1648" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1648" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:8">
+      <c r="A1649" s="5">
+        <v>1647</v>
+      </c>
+      <c r="B1649" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1649" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1649" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1649" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1649" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1649" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1649" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:8">
+      <c r="A1650" s="5">
+        <v>1648</v>
+      </c>
+      <c r="B1650" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1650" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1650" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1650" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1650" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1650" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1650" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:8">
+      <c r="A1651" s="5">
+        <v>1649</v>
+      </c>
+      <c r="B1651" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1651" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1651" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1651" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1651" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1651" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1651" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:8">
+      <c r="A1652" s="5">
+        <v>1650</v>
+      </c>
+      <c r="B1652" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1652" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1652" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1652" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1652" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1652" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1652" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:8">
+      <c r="A1653" s="5">
+        <v>1651</v>
+      </c>
+      <c r="B1653" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1653" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1653" s="18">
+        <v>44185</v>
+      </c>
+      <c r="F1653" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1653" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1653" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:8">
+      <c r="A1654" s="5">
+        <v>1652</v>
+      </c>
+      <c r="B1654" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1654" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1654" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1654" s="6">
+        <v>44173</v>
+      </c>
+      <c r="F1654" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1654" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1654" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:8">
+      <c r="A1655" s="5">
+        <v>1653</v>
+      </c>
+      <c r="B1655" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1655" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1655" s="18">
+        <v>44185</v>
+      </c>
+      <c r="E1655" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1655" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1655" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1655" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:8">
+      <c r="A1656" s="5">
+        <v>1654</v>
+      </c>
+      <c r="B1656" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1656" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1656" s="18">
+        <v>44185</v>
+      </c>
+      <c r="F1656" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1656" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1656" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1688</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1714</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6732" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6836" uniqueCount="840">
   <si>
     <t>備考</t>
   </si>
@@ -5646,6 +5646,100 @@
     <t>調査中</t>
     <rPh sb="0" eb="3">
       <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヨドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5653,7 +5747,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -6163,11 +6257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1688"/>
+  <dimension ref="A1:J1714"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1659" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1675" sqref="E1675"/>
+      <pane ySplit="2" topLeftCell="A1679" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1712" sqref="E1712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -6192,7 +6286,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44186.705067013892</v>
+        <v>44187.636708564816</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -49215,6 +49309,664 @@
       </c>
       <c r="H1688" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:8">
+      <c r="A1689" s="5">
+        <v>1687</v>
+      </c>
+      <c r="B1689" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1689" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1689" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1689" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1689" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1689" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="H1689" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:8">
+      <c r="A1690" s="5">
+        <v>1688</v>
+      </c>
+      <c r="B1690" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1690" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1690" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1690" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1690" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="G1690" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="H1690" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:8">
+      <c r="A1691" s="5">
+        <v>1689</v>
+      </c>
+      <c r="B1691" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1691" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1691" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1691" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1691" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1691" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H1691" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:8">
+      <c r="A1692" s="5">
+        <v>1690</v>
+      </c>
+      <c r="B1692" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1692" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1692" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1692" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1692" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="H1692" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:8">
+      <c r="A1693" s="5">
+        <v>1691</v>
+      </c>
+      <c r="B1693" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1693" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1693" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1693" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1693" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1693" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="H1693" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:8">
+      <c r="A1694" s="5">
+        <v>1692</v>
+      </c>
+      <c r="B1694" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1694" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1694" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1694" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1694" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1694" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="H1694" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:8">
+      <c r="A1695" s="5">
+        <v>1693</v>
+      </c>
+      <c r="B1695" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1695" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1695" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1695" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1695" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1695" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="H1695" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:8">
+      <c r="A1696" s="5">
+        <v>1694</v>
+      </c>
+      <c r="B1696" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1696" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1696" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1696" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1696" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="H1696" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:8">
+      <c r="A1697" s="5">
+        <v>1695</v>
+      </c>
+      <c r="B1697" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1697" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1697" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1697" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1697" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1697" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H1697" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:8">
+      <c r="A1698" s="5">
+        <v>1696</v>
+      </c>
+      <c r="B1698" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1698" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1698" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1698" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1698" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1698" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="H1698" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:8">
+      <c r="A1699" s="5">
+        <v>1697</v>
+      </c>
+      <c r="B1699" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1699" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1699" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1699" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1699" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1699" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="H1699" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:8">
+      <c r="A1700" s="5">
+        <v>1698</v>
+      </c>
+      <c r="B1700" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1700" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1700" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1700" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1700" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1700" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="H1700" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:8">
+      <c r="A1701" s="5">
+        <v>1699</v>
+      </c>
+      <c r="B1701" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1701" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1701" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1701" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1701" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1701" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="H1701" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:8">
+      <c r="A1702" s="5">
+        <v>1700</v>
+      </c>
+      <c r="B1702" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1702" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1702" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1702" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1702" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1702" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="H1702" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:8">
+      <c r="A1703" s="5">
+        <v>1701</v>
+      </c>
+      <c r="B1703" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1703" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1703" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1703" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1703" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1703" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H1703" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:8">
+      <c r="A1704" s="5">
+        <v>1702</v>
+      </c>
+      <c r="B1704" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1704" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1704" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1704" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1704" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1704" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="H1704" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:8">
+      <c r="A1705" s="5">
+        <v>1703</v>
+      </c>
+      <c r="B1705" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1705" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1705" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1705" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1705" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="G1705" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="H1705" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:8">
+      <c r="A1706" s="5">
+        <v>1704</v>
+      </c>
+      <c r="B1706" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1706" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1706" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1706" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="G1706" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="H1706" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:8">
+      <c r="A1707" s="5">
+        <v>1705</v>
+      </c>
+      <c r="B1707" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1707" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1707" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1707" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="G1707" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="H1707" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:8">
+      <c r="A1708" s="5">
+        <v>1706</v>
+      </c>
+      <c r="B1708" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1708" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1708" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1708" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1708" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H1708" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:8">
+      <c r="A1709" s="5">
+        <v>1707</v>
+      </c>
+      <c r="B1709" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1709" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1709" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1709" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1709" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1709" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H1709" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:8">
+      <c r="A1710" s="5">
+        <v>1708</v>
+      </c>
+      <c r="B1710" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1710" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1710" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1710" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1710" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1710" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H1710" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:8">
+      <c r="A1711" s="5">
+        <v>1709</v>
+      </c>
+      <c r="B1711" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1711" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1711" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1711" s="6">
+        <v>44178</v>
+      </c>
+      <c r="F1711" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1711" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="H1711" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:8">
+      <c r="A1712" s="5">
+        <v>1710</v>
+      </c>
+      <c r="B1712" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1712" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1712" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1712" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1712" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="G1712" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="H1712" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:8">
+      <c r="A1713" s="5">
+        <v>1711</v>
+      </c>
+      <c r="B1713" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1713" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1713" s="6">
+        <v>44187</v>
+      </c>
+      <c r="E1713" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1713" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="G1713" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="H1713" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:8">
+      <c r="A1714" s="5">
+        <v>1712</v>
+      </c>
+      <c r="B1714" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1714" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1714" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1714" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="G1714" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="H1714" s="5" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1714</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1751</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6836" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6984" uniqueCount="852">
   <si>
     <t>備考</t>
   </si>
@@ -5740,6 +5740,90 @@
     <t>女性</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヨドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斑鳩町</t>
+    <rPh sb="0" eb="3">
+      <t>イカルガチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高取町</t>
+    <rPh sb="0" eb="3">
+      <t>タカトリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河合町</t>
+    <rPh sb="0" eb="3">
+      <t>カワイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="4">
+      <t>タワラモトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="3">
+      <t>ヘグリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三郷町</t>
+    <rPh sb="0" eb="3">
+      <t>サンゴウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6257,11 +6341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1714"/>
+  <dimension ref="A1:J1751"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1679" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1712" sqref="E1712"/>
+      <pane ySplit="2" topLeftCell="A1671" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1752" sqref="E1752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -6286,7 +6370,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44187.636708564816</v>
+        <v>44188.715881944445</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -49967,6 +50051,938 @@
       </c>
       <c r="H1714" s="5" t="s">
         <v>815</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:8">
+      <c r="A1715" s="5">
+        <v>1713</v>
+      </c>
+      <c r="B1715" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1715" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1715" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1715" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1715" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1715" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1715" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:8">
+      <c r="A1716" s="5">
+        <v>1714</v>
+      </c>
+      <c r="B1716" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1716" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1716" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1716" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1716" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1716" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1716" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:8">
+      <c r="A1717" s="5">
+        <v>1715</v>
+      </c>
+      <c r="B1717" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1717" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1717" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1717" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1717" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1717" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:8">
+      <c r="A1718" s="5">
+        <v>1716</v>
+      </c>
+      <c r="B1718" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1718" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1718" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1718" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1718" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1718" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1718" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:8">
+      <c r="A1719" s="5">
+        <v>1717</v>
+      </c>
+      <c r="B1719" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1719" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1719" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1719" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1719" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="G1719" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="H1719" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:8">
+      <c r="A1720" s="5">
+        <v>1718</v>
+      </c>
+      <c r="B1720" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1720" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1720" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1720" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1720" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="G1720" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1720" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:8">
+      <c r="A1721" s="5">
+        <v>1719</v>
+      </c>
+      <c r="B1721" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1721" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1721" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1721" s="6">
+        <v>44180</v>
+      </c>
+      <c r="F1721" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="G1721" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1721" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:8">
+      <c r="A1722" s="5">
+        <v>1720</v>
+      </c>
+      <c r="B1722" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1722" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1722" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1722" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1722" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1722" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1722" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:8">
+      <c r="A1723" s="5">
+        <v>1721</v>
+      </c>
+      <c r="B1723" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1723" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1723" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1723" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1723" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1723" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1723" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:8">
+      <c r="A1724" s="5">
+        <v>1722</v>
+      </c>
+      <c r="B1724" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1724" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1724" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1724" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1724" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="G1724" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1724" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:8">
+      <c r="A1725" s="5">
+        <v>1723</v>
+      </c>
+      <c r="B1725" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1725" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1725" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1725" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1725" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="G1725" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1725" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:8">
+      <c r="A1726" s="5">
+        <v>1724</v>
+      </c>
+      <c r="B1726" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1726" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1726" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1726" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1726" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="G1726" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1726" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:8">
+      <c r="A1727" s="5">
+        <v>1725</v>
+      </c>
+      <c r="B1727" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1727" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1727" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1727" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1727" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1727" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:8">
+      <c r="A1728" s="5">
+        <v>1726</v>
+      </c>
+      <c r="B1728" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1728" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1728" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1728" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1728" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1728" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1728" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:8">
+      <c r="A1729" s="5">
+        <v>1727</v>
+      </c>
+      <c r="B1729" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1729" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1729" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1729" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1729" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1729" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1729" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:8">
+      <c r="A1730" s="5">
+        <v>1728</v>
+      </c>
+      <c r="B1730" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1730" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1730" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1730" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="G1730" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1730" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:8">
+      <c r="A1731" s="5">
+        <v>1729</v>
+      </c>
+      <c r="B1731" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1731" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1731" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1731" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1731" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1731" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:8">
+      <c r="A1732" s="5">
+        <v>1730</v>
+      </c>
+      <c r="B1732" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1732" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1732" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1732" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="G1732" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1732" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:8">
+      <c r="A1733" s="5">
+        <v>1731</v>
+      </c>
+      <c r="B1733" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1733" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1733" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1733" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1733" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1733" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:8">
+      <c r="A1734" s="5">
+        <v>1732</v>
+      </c>
+      <c r="B1734" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1734" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1734" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1734" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1734" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1734" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1734" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:8">
+      <c r="A1735" s="5">
+        <v>1733</v>
+      </c>
+      <c r="B1735" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1735" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1735" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1735" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1735" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1735" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1735" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:8">
+      <c r="A1736" s="5">
+        <v>1734</v>
+      </c>
+      <c r="B1736" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1736" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1736" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1736" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1736" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1736" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:8">
+      <c r="A1737" s="5">
+        <v>1735</v>
+      </c>
+      <c r="B1737" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1737" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1737" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1737" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1737" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="G1737" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1737" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:8">
+      <c r="A1738" s="5">
+        <v>1736</v>
+      </c>
+      <c r="B1738" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1738" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1738" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1738" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1738" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="G1738" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1738" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:8">
+      <c r="A1739" s="5">
+        <v>1737</v>
+      </c>
+      <c r="B1739" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1739" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1739" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1739" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1739" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="G1739" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1739" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:8">
+      <c r="A1740" s="5">
+        <v>1738</v>
+      </c>
+      <c r="B1740" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1740" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1740" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1740" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1740" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1740" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1740" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:8">
+      <c r="A1741" s="5">
+        <v>1739</v>
+      </c>
+      <c r="B1741" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1741" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1741" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1741" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1741" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1741" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1741" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:8">
+      <c r="A1742" s="5">
+        <v>1740</v>
+      </c>
+      <c r="B1742" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1742" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1742" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1742" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1742" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1742" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:8">
+      <c r="A1743" s="5">
+        <v>1741</v>
+      </c>
+      <c r="B1743" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1743" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1743" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1743" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1743" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1743" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:8">
+      <c r="A1744" s="5">
+        <v>1742</v>
+      </c>
+      <c r="B1744" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1744" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1744" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1744" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1744" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1744" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1744" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:8">
+      <c r="A1745" s="5">
+        <v>1743</v>
+      </c>
+      <c r="B1745" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1745" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1745" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1745" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1745" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1745" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1745" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:8">
+      <c r="A1746" s="5">
+        <v>1744</v>
+      </c>
+      <c r="B1746" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1746" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1746" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1746" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1746" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1746" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1746" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:8">
+      <c r="A1747" s="5">
+        <v>1745</v>
+      </c>
+      <c r="B1747" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1747" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1747" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1747" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1747" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1747" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H1747" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:8">
+      <c r="A1748" s="5">
+        <v>1746</v>
+      </c>
+      <c r="B1748" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1748" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1748" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1748" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1748" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1748" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1748" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:8">
+      <c r="A1749" s="5">
+        <v>1747</v>
+      </c>
+      <c r="B1749" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1749" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1749" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1749" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1749" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1749" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1749" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:8">
+      <c r="A1750" s="5">
+        <v>1748</v>
+      </c>
+      <c r="B1750" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1750" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1750" s="6">
+        <v>44188</v>
+      </c>
+      <c r="E1750" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1750" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1750" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1750" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:8">
+      <c r="A1751" s="5">
+        <v>1749</v>
+      </c>
+      <c r="B1751" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1751" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1751" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1751" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1751" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1751" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1751</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1784</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6984" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7116" uniqueCount="859">
   <si>
     <t>備考</t>
   </si>
@@ -5824,6 +5824,58 @@
     <t>奈良市</t>
     <rPh sb="0" eb="3">
       <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代未満</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5831,7 +5883,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -6341,11 +6393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1751"/>
+  <dimension ref="A1:J1784"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1671" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1752" sqref="E1752"/>
+      <pane ySplit="2" topLeftCell="A1765" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1784" sqref="F1784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -6370,7 +6422,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44188.715881944445</v>
+        <v>44189.695464004632</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -50983,6 +51035,831 @@
       </c>
       <c r="H1751" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:8">
+      <c r="A1752" s="5">
+        <v>1750</v>
+      </c>
+      <c r="B1752" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1752" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1752" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1752" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1752" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1752" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="H1752" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:8">
+      <c r="A1753" s="5">
+        <v>1751</v>
+      </c>
+      <c r="B1753" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1753" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1753" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1753" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1753" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="H1753" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:8">
+      <c r="A1754" s="5">
+        <v>1752</v>
+      </c>
+      <c r="B1754" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1754" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1754" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1754" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1754" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="H1754" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:8">
+      <c r="A1755" s="5">
+        <v>1753</v>
+      </c>
+      <c r="B1755" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1755" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1755" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1755" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1755" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1755" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="H1755" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:8">
+      <c r="A1756" s="5">
+        <v>1754</v>
+      </c>
+      <c r="B1756" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1756" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1756" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1756" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1756" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="H1756" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:8">
+      <c r="A1757" s="5">
+        <v>1755</v>
+      </c>
+      <c r="B1757" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1757" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1757" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1757" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1757" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="H1757" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:8">
+      <c r="A1758" s="5">
+        <v>1756</v>
+      </c>
+      <c r="B1758" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1758" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1758" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1758" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1758" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1758" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1758" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:8">
+      <c r="A1759" s="5">
+        <v>1757</v>
+      </c>
+      <c r="B1759" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1759" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1759" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1759" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1759" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="H1759" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:8">
+      <c r="A1760" s="5">
+        <v>1758</v>
+      </c>
+      <c r="B1760" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1760" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1760" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1760" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1760" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1760" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1760" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:8">
+      <c r="A1761" s="5">
+        <v>1759</v>
+      </c>
+      <c r="B1761" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1761" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1761" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1761" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1761" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1761" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:8">
+      <c r="A1762" s="5">
+        <v>1760</v>
+      </c>
+      <c r="B1762" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1762" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1762" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1762" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1762" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1762" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:8">
+      <c r="A1763" s="5">
+        <v>1761</v>
+      </c>
+      <c r="B1763" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1763" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1763" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1763" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1763" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1763" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1763" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:8">
+      <c r="A1764" s="5">
+        <v>1762</v>
+      </c>
+      <c r="B1764" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1764" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1764" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1764" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1764" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1764" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1764" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:8">
+      <c r="A1765" s="5">
+        <v>1763</v>
+      </c>
+      <c r="B1765" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1765" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1765" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1765" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1765" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1765" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1765" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:8">
+      <c r="A1766" s="5">
+        <v>1764</v>
+      </c>
+      <c r="B1766" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1766" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1766" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1766" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1766" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1766" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1766" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:8">
+      <c r="A1767" s="5">
+        <v>1765</v>
+      </c>
+      <c r="B1767" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1767" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1767" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1767" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1767" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1767" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1767" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:8">
+      <c r="A1768" s="5">
+        <v>1766</v>
+      </c>
+      <c r="B1768" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1768" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1768" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1768" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1768" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1768" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1768" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:8">
+      <c r="A1769" s="5">
+        <v>1767</v>
+      </c>
+      <c r="B1769" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1769" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1769" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1769" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1769" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="G1769" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="H1769" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:8">
+      <c r="A1770" s="5">
+        <v>1768</v>
+      </c>
+      <c r="B1770" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1770" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1770" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1770" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1770" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="H1770" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:8">
+      <c r="A1771" s="5">
+        <v>1769</v>
+      </c>
+      <c r="B1771" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1771" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1771" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1771" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1771" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="G1771" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1771" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:8">
+      <c r="A1772" s="5">
+        <v>1770</v>
+      </c>
+      <c r="B1772" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1772" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1772" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1772" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1772" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1772" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1772" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:8">
+      <c r="A1773" s="5">
+        <v>1771</v>
+      </c>
+      <c r="B1773" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1773" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1773" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1773" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1773" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1773" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="H1773" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:8">
+      <c r="A1774" s="5">
+        <v>1772</v>
+      </c>
+      <c r="B1774" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1774" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1774" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1774" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1774" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1774" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1774" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:8">
+      <c r="A1775" s="5">
+        <v>1773</v>
+      </c>
+      <c r="B1775" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1775" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1775" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1775" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1775" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1775" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1775" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:8">
+      <c r="A1776" s="5">
+        <v>1774</v>
+      </c>
+      <c r="B1776" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1776" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1776" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1776" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1776" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1776" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1776" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:8">
+      <c r="A1777" s="5">
+        <v>1775</v>
+      </c>
+      <c r="B1777" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1777" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1777" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1777" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1777" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1777" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="H1777" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:8">
+      <c r="A1778" s="5">
+        <v>1776</v>
+      </c>
+      <c r="B1778" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1778" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1778" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1778" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1778" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="H1778" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:8">
+      <c r="A1779" s="5">
+        <v>1777</v>
+      </c>
+      <c r="B1779" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1779" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1779" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1779" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1779" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1779" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="H1779" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:8">
+      <c r="A1780" s="5">
+        <v>1778</v>
+      </c>
+      <c r="B1780" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1780" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1780" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1780" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1780" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1780" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="H1780" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:8">
+      <c r="A1781" s="5">
+        <v>1779</v>
+      </c>
+      <c r="B1781" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1781" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1781" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1781" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1781" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1781" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:8">
+      <c r="A1782" s="5">
+        <v>1780</v>
+      </c>
+      <c r="B1782" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1782" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1782" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1782" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1782" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1782" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1782" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:8">
+      <c r="A1783" s="5">
+        <v>1781</v>
+      </c>
+      <c r="B1783" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1783" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1783" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1783" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1783" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1783" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:8">
+      <c r="A1784" s="5">
+        <v>1782</v>
+      </c>
+      <c r="B1784" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1784" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1784" s="6">
+        <v>44189</v>
+      </c>
+      <c r="E1784" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1784" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1784" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1784" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1784</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1884</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7116" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7516" uniqueCount="889">
   <si>
     <t>備考</t>
   </si>
@@ -5874,6 +5874,219 @@
   </si>
   <si>
     <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東吉野村</t>
+    <rPh sb="0" eb="3">
+      <t>ヒガシヨシノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御所市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴセシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王寺町</t>
+    <rPh sb="0" eb="3">
+      <t>オウジチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天川村</t>
+    <rPh sb="0" eb="3">
+      <t>テンカワムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="2">
+      <t>カツラギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30だ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
@@ -5958,7 +6171,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5980,6 +6193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6096,7 +6315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6177,6 +6396,9 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6393,11 +6615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1784"/>
+  <dimension ref="A1:J1884"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1765" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1784" sqref="F1784"/>
+      <pane ySplit="2" topLeftCell="A1868" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1885" sqref="G1885"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -6422,7 +6644,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44189.695464004632</v>
+        <v>44192.671987384259</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -51859,6 +52081,2534 @@
         <v>41</v>
       </c>
       <c r="H1784" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:8">
+      <c r="A1785" s="5">
+        <v>1783</v>
+      </c>
+      <c r="B1785" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1785" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1785" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1785" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1785" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1785" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="H1785" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:8">
+      <c r="A1786" s="5">
+        <v>1784</v>
+      </c>
+      <c r="B1786" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1786" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1786" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1786" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1786" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="G1786" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="H1786" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:8">
+      <c r="A1787" s="5">
+        <v>1785</v>
+      </c>
+      <c r="B1787" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1787" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1787" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1787" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1787" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="H1787" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:8">
+      <c r="A1788" s="5">
+        <v>1786</v>
+      </c>
+      <c r="B1788" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1788" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1788" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1788" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1788" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="H1788" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:8">
+      <c r="A1789" s="5">
+        <v>1787</v>
+      </c>
+      <c r="B1789" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1789" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1789" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1789" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1789" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1789" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="H1789" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:8">
+      <c r="A1790" s="5">
+        <v>1788</v>
+      </c>
+      <c r="B1790" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1790" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1790" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1790" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1790" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1790" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H1790" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:8">
+      <c r="A1791" s="5">
+        <v>1789</v>
+      </c>
+      <c r="B1791" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1791" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1791" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1791" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1791" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1791" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H1791" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:8">
+      <c r="A1792" s="5">
+        <v>1790</v>
+      </c>
+      <c r="B1792" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1792" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1792" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1792" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1792" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1792" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="H1792" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:8">
+      <c r="A1793" s="5">
+        <v>1791</v>
+      </c>
+      <c r="B1793" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1793" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1793" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1793" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1793" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1793" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H1793" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:8">
+      <c r="A1794" s="5">
+        <v>1792</v>
+      </c>
+      <c r="B1794" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1794" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1794" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1794" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1794" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1794" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="H1794" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:8">
+      <c r="A1795" s="5">
+        <v>1793</v>
+      </c>
+      <c r="B1795" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1795" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1795" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1795" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F1795" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="G1795" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1795" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:8">
+      <c r="A1796" s="5">
+        <v>1794</v>
+      </c>
+      <c r="B1796" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1796" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1796" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1796" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1796" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H1796" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:8">
+      <c r="A1797" s="5">
+        <v>1795</v>
+      </c>
+      <c r="B1797" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1797" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1797" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1797" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1797" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H1797" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:8">
+      <c r="A1798" s="5">
+        <v>1796</v>
+      </c>
+      <c r="B1798" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1798" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1798" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1798" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1798" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="H1798" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:8">
+      <c r="A1799" s="5">
+        <v>1797</v>
+      </c>
+      <c r="B1799" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1799" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1799" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1799" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1799" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1799" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="H1799" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:8">
+      <c r="A1800" s="5">
+        <v>1798</v>
+      </c>
+      <c r="B1800" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1800" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1800" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1800" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1800" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1800" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="H1800" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:8">
+      <c r="A1801" s="5">
+        <v>1799</v>
+      </c>
+      <c r="B1801" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1801" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1801" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1801" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1801" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1801" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="H1801" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:8">
+      <c r="A1802" s="5">
+        <v>1800</v>
+      </c>
+      <c r="B1802" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1802" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1802" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1802" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1802" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1802" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="H1802" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:8">
+      <c r="A1803" s="5">
+        <v>1801</v>
+      </c>
+      <c r="B1803" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1803" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1803" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1803" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1803" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1803" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="H1803" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:8">
+      <c r="A1804" s="5">
+        <v>1802</v>
+      </c>
+      <c r="B1804" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1804" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1804" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1804" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1804" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="G1804" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="H1804" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:8">
+      <c r="A1805" s="5">
+        <v>1803</v>
+      </c>
+      <c r="B1805" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1805" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1805" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1805" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1805" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1805" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="H1805" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:8">
+      <c r="A1806" s="5">
+        <v>1804</v>
+      </c>
+      <c r="B1806" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1806" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1806" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1806" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1806" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="H1806" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:8">
+      <c r="A1807" s="5">
+        <v>1805</v>
+      </c>
+      <c r="B1807" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1807" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1807" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1807" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1807" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1807" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="H1807" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:8">
+      <c r="A1808" s="5">
+        <v>1806</v>
+      </c>
+      <c r="B1808" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1808" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1808" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1808" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1808" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1808" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="H1808" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:8">
+      <c r="A1809" s="5">
+        <v>1807</v>
+      </c>
+      <c r="B1809" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1809" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1809" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1809" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1809" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1809" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="H1809" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:8">
+      <c r="A1810" s="5">
+        <v>1808</v>
+      </c>
+      <c r="B1810" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1810" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1810" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1810" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1810" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1810" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H1810" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:8">
+      <c r="A1811" s="5">
+        <v>1809</v>
+      </c>
+      <c r="B1811" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1811" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1811" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1811" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1811" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="H1811" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:8">
+      <c r="A1812" s="5">
+        <v>1810</v>
+      </c>
+      <c r="B1812" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1812" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1812" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1812" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1812" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1812" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="H1812" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:8">
+      <c r="A1813" s="5">
+        <v>1811</v>
+      </c>
+      <c r="B1813" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1813" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1813" s="6">
+        <v>44190</v>
+      </c>
+      <c r="E1813" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1813" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1813" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="H1813" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:8">
+      <c r="A1814" s="5">
+        <v>1812</v>
+      </c>
+      <c r="B1814" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1814" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1814" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1814" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1814" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="H1814" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:8">
+      <c r="A1815" s="5">
+        <v>1813</v>
+      </c>
+      <c r="B1815" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1815" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1815" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1815" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1815" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1815" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1815" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:8">
+      <c r="A1816" s="5">
+        <v>1814</v>
+      </c>
+      <c r="B1816" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1816" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1816" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1816" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1816" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1816" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="H1816" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:8">
+      <c r="A1817" s="5">
+        <v>1815</v>
+      </c>
+      <c r="B1817" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1817" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1817" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1817" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1817" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1817" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="H1817" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:8">
+      <c r="A1818" s="5">
+        <v>1816</v>
+      </c>
+      <c r="B1818" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1818" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1818" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1818" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1818" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1818" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="H1818" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:8">
+      <c r="A1819" s="5">
+        <v>1817</v>
+      </c>
+      <c r="B1819" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1819" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1819" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1819" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1819" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1819" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1819" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:8">
+      <c r="A1820" s="5">
+        <v>1818</v>
+      </c>
+      <c r="B1820" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1820" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1820" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1820" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1820" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1820" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1820" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:8">
+      <c r="A1821" s="5">
+        <v>1819</v>
+      </c>
+      <c r="B1821" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1821" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1821" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1821" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1821" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="G1821" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="H1821" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:8">
+      <c r="A1822" s="5">
+        <v>1820</v>
+      </c>
+      <c r="B1822" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1822" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1822" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1822" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1822" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1822" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1822" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:8">
+      <c r="A1823" s="5">
+        <v>1821</v>
+      </c>
+      <c r="B1823" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1823" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1823" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1823" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1823" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="G1823" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="H1823" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:8">
+      <c r="A1824" s="5">
+        <v>1822</v>
+      </c>
+      <c r="B1824" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1824" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1824" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1824" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="G1824" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="H1824" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:8">
+      <c r="A1825" s="5">
+        <v>1823</v>
+      </c>
+      <c r="B1825" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1825" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1825" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1825" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1825" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1825" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:8">
+      <c r="A1826" s="5">
+        <v>1824</v>
+      </c>
+      <c r="B1826" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1826" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1826" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1826" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1826" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1826" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:8">
+      <c r="A1827" s="5">
+        <v>1825</v>
+      </c>
+      <c r="B1827" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1827" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1827" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1827" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1827" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="G1827" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1827" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:8">
+      <c r="A1828" s="5">
+        <v>1826</v>
+      </c>
+      <c r="B1828" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1828" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1828" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1828" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1828" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1828" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:8">
+      <c r="A1829" s="5">
+        <v>1827</v>
+      </c>
+      <c r="B1829" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1829" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1829" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1829" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1829" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1829" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="H1829" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:8">
+      <c r="A1830" s="5">
+        <v>1828</v>
+      </c>
+      <c r="B1830" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1830" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1830" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1830" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1830" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1830" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="H1830" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:8">
+      <c r="A1831" s="5">
+        <v>1829</v>
+      </c>
+      <c r="B1831" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1831" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1831" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1831" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1831" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1831" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="H1831" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:8">
+      <c r="A1832" s="5">
+        <v>1830</v>
+      </c>
+      <c r="B1832" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1832" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1832" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1832" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1832" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1832" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="H1832" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:8">
+      <c r="A1833" s="5">
+        <v>1831</v>
+      </c>
+      <c r="B1833" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1833" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1833" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1833" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1833" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="H1833" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:8">
+      <c r="A1834" s="5">
+        <v>1832</v>
+      </c>
+      <c r="B1834" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1834" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1834" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1834" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1834" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1834" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="H1834" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:8">
+      <c r="A1835" s="5">
+        <v>1833</v>
+      </c>
+      <c r="B1835" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1835" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1835" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1835" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1835" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1835" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="H1835" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:8">
+      <c r="A1836" s="5">
+        <v>1834</v>
+      </c>
+      <c r="B1836" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1836" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1836" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1836" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1836" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1836" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="H1836" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:8">
+      <c r="A1837" s="5">
+        <v>1835</v>
+      </c>
+      <c r="B1837" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1837" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1837" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1837" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1837" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="H1837" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:8">
+      <c r="A1838" s="5">
+        <v>1836</v>
+      </c>
+      <c r="B1838" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1838" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1838" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1838" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1838" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1838" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="H1838" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:8">
+      <c r="A1839" s="5">
+        <v>1837</v>
+      </c>
+      <c r="B1839" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1839" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1839" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1839" s="6">
+        <v>44179</v>
+      </c>
+      <c r="F1839" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1839" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1839" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:8">
+      <c r="A1840" s="5">
+        <v>1838</v>
+      </c>
+      <c r="B1840" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1840" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1840" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1840" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1840" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1840" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1840" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:8">
+      <c r="A1841" s="5">
+        <v>1839</v>
+      </c>
+      <c r="B1841" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1841" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1841" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1841" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1841" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1841" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1841" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:8">
+      <c r="A1842" s="5">
+        <v>1840</v>
+      </c>
+      <c r="B1842" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1842" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1842" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1842" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1842" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1842" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="H1842" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:8">
+      <c r="A1843" s="5">
+        <v>1841</v>
+      </c>
+      <c r="B1843" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1843" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1843" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1843" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1843" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="H1843" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:8">
+      <c r="A1844" s="5">
+        <v>1842</v>
+      </c>
+      <c r="B1844" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1844" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1844" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1844" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1844" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="H1844" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:8">
+      <c r="A1845" s="5">
+        <v>1843</v>
+      </c>
+      <c r="B1845" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1845" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1845" s="6">
+        <v>44191</v>
+      </c>
+      <c r="E1845" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1845" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1845" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1845" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:8">
+      <c r="A1846" s="27">
+        <v>1844</v>
+      </c>
+      <c r="B1846" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1846" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1846" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1846" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1846" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1846" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1846" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:8">
+      <c r="A1847" s="5">
+        <v>1845</v>
+      </c>
+      <c r="B1847" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1847" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1847" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1847" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1847" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1847" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1847" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:8">
+      <c r="A1848" s="5">
+        <v>1846</v>
+      </c>
+      <c r="B1848" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1848" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1848" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1848" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1848" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1848" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1848" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:8">
+      <c r="A1849" s="5">
+        <v>1847</v>
+      </c>
+      <c r="B1849" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1849" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1849" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1849" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1849" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1849" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1849" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:8">
+      <c r="A1850" s="5">
+        <v>1848</v>
+      </c>
+      <c r="B1850" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1850" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1850" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1850" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1850" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1850" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="H1850" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:8">
+      <c r="A1851" s="5">
+        <v>1849</v>
+      </c>
+      <c r="B1851" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1851" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1851" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1851" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1851" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1851" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1851" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:8">
+      <c r="A1852" s="5">
+        <v>1850</v>
+      </c>
+      <c r="B1852" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1852" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1852" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1852" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1852" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1852" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1852" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:8">
+      <c r="A1853" s="5">
+        <v>1851</v>
+      </c>
+      <c r="B1853" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1853" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1853" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1853" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1853" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1853" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1853" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:8">
+      <c r="A1854" s="5">
+        <v>1852</v>
+      </c>
+      <c r="B1854" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1854" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1854" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1854" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1854" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1854" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:8">
+      <c r="A1855" s="5">
+        <v>1853</v>
+      </c>
+      <c r="B1855" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1855" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1855" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1855" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1855" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1855" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="H1855" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:8">
+      <c r="A1856" s="5">
+        <v>1854</v>
+      </c>
+      <c r="B1856" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1856" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1856" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1856" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1856" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1856" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1856" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:8">
+      <c r="A1857" s="5">
+        <v>1855</v>
+      </c>
+      <c r="B1857" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1857" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1857" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1857" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1857" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1857" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="H1857" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:8">
+      <c r="A1858" s="5">
+        <v>1856</v>
+      </c>
+      <c r="B1858" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1858" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1858" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1858" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1858" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1858" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1858" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:8">
+      <c r="A1859" s="5">
+        <v>1857</v>
+      </c>
+      <c r="B1859" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1859" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1859" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1859" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1859" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="H1859" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:8">
+      <c r="A1860" s="5">
+        <v>1858</v>
+      </c>
+      <c r="B1860" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1860" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1860" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1860" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1860" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="H1860" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:8">
+      <c r="A1861" s="5">
+        <v>1859</v>
+      </c>
+      <c r="B1861" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1861" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1861" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1861" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1861" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1861" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1861" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:8">
+      <c r="A1862" s="5">
+        <v>1860</v>
+      </c>
+      <c r="B1862" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1862" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1862" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1862" s="6">
+        <v>44187</v>
+      </c>
+      <c r="F1862" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1862" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1862" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:8">
+      <c r="A1863" s="5">
+        <v>1861</v>
+      </c>
+      <c r="B1863" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1863" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1863" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1863" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1863" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1863" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="H1863" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:8">
+      <c r="A1864" s="5">
+        <v>1862</v>
+      </c>
+      <c r="B1864" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1864" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1864" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1864" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1864" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="H1864" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:8">
+      <c r="A1865" s="5">
+        <v>1863</v>
+      </c>
+      <c r="B1865" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1865" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1865" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1865" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1865" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1865" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="H1865" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:8">
+      <c r="A1866" s="5">
+        <v>1864</v>
+      </c>
+      <c r="B1866" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1866" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1866" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1866" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1866" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1866" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1866" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:8">
+      <c r="A1867" s="5">
+        <v>1865</v>
+      </c>
+      <c r="B1867" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1867" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1867" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1867" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F1867" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="G1867" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1867" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:8">
+      <c r="A1868" s="5">
+        <v>1866</v>
+      </c>
+      <c r="B1868" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1868" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1868" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1868" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1868" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1868" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1868" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:8">
+      <c r="A1869" s="5">
+        <v>1867</v>
+      </c>
+      <c r="B1869" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1869" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1869" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1869" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1869" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1869" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1869" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:8">
+      <c r="A1870" s="5">
+        <v>1868</v>
+      </c>
+      <c r="B1870" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1870" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1870" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1870" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1870" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1870" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1870" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:8">
+      <c r="A1871" s="5">
+        <v>1869</v>
+      </c>
+      <c r="B1871" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1871" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1871" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1871" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1871" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1871" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="H1871" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:8">
+      <c r="A1872" s="5">
+        <v>1870</v>
+      </c>
+      <c r="B1872" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1872" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1872" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1872" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1872" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1872" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1872" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:8">
+      <c r="A1873" s="5">
+        <v>1871</v>
+      </c>
+      <c r="B1873" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1873" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1873" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1873" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1873" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1873" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:8">
+      <c r="A1874" s="5">
+        <v>1872</v>
+      </c>
+      <c r="B1874" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1874" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1874" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1874" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1874" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1874" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1874" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:8">
+      <c r="A1875" s="5">
+        <v>1873</v>
+      </c>
+      <c r="B1875" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1875" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1875" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1875" s="6">
+        <v>44186</v>
+      </c>
+      <c r="F1875" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1875" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="H1875" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:8">
+      <c r="A1876" s="5">
+        <v>1874</v>
+      </c>
+      <c r="B1876" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1876" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1876" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1876" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1876" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1876" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:8">
+      <c r="A1877" s="5">
+        <v>1875</v>
+      </c>
+      <c r="B1877" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1877" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1877" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1877" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F1877" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1877" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1877" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:8">
+      <c r="A1878" s="5">
+        <v>1876</v>
+      </c>
+      <c r="B1878" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1878" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1878" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1878" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1878" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1878" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1878" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:8">
+      <c r="A1879" s="5">
+        <v>1877</v>
+      </c>
+      <c r="B1879" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1879" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1879" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1879" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1879" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1879" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:8">
+      <c r="A1880" s="5">
+        <v>1878</v>
+      </c>
+      <c r="B1880" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1880" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1880" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1880" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1880" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1880" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1880" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:8">
+      <c r="A1881" s="5">
+        <v>1879</v>
+      </c>
+      <c r="B1881" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1881" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1881" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1881" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1881" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1881" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:8">
+      <c r="A1882" s="5">
+        <v>1880</v>
+      </c>
+      <c r="B1882" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1882" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1882" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1882" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1882" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1882" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1882" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:8">
+      <c r="A1883" s="5">
+        <v>1881</v>
+      </c>
+      <c r="B1883" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1883" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1883" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1883" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1883" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1883" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1883" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:8">
+      <c r="A1884" s="5">
+        <v>1882</v>
+      </c>
+      <c r="B1884" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1884" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1884" s="6">
+        <v>44192</v>
+      </c>
+      <c r="E1884" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1884" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1884" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="H1884" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1884</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1914</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7516" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="898">
   <si>
     <t>備考</t>
   </si>
@@ -5552,6 +5552,344 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河合町</t>
+    <rPh sb="0" eb="3">
+      <t>カワイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安堵町</t>
+    <rPh sb="0" eb="3">
+      <t>アンドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヨドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヨドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斑鳩町</t>
+    <rPh sb="0" eb="3">
+      <t>イカルガチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高取町</t>
+    <rPh sb="0" eb="3">
+      <t>タカトリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河合町</t>
+    <rPh sb="0" eb="3">
+      <t>カワイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="4">
+      <t>タワラモトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平群町</t>
+    <rPh sb="0" eb="3">
+      <t>ヘグリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三郷町</t>
+    <rPh sb="0" eb="3">
+      <t>サンゴウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代未満</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東吉野村</t>
+    <rPh sb="0" eb="3">
+      <t>ヒガシヨシノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -5559,6 +5897,104 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御所市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴセシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王寺町</t>
+    <rPh sb="0" eb="3">
+      <t>オウジチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天川村</t>
+    <rPh sb="0" eb="3">
+      <t>テンカワムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
@@ -5566,44 +6002,128 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>女性</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
     <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
+      <t>カツラギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30だ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>奈良市</t>
-    <rPh sb="0" eb="3">
-      <t>ナラシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>河合町</t>
-    <rPh sb="0" eb="3">
-      <t>カワイチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>香芝市</t>
-    <rPh sb="0" eb="3">
-      <t>カシバシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明日香村</t>
+    <rPh sb="0" eb="4">
+      <t>アスカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5615,93 +6135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>葛城市</t>
-    <rPh sb="0" eb="3">
-      <t>カツラギシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>安堵町</t>
-    <rPh sb="0" eb="3">
-      <t>アンドチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>香芝市</t>
-    <rPh sb="0" eb="3">
-      <t>カシバシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大和郡山市</t>
-    <rPh sb="0" eb="5">
-      <t>ヤマトコオリヤマシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>奈良市</t>
-    <rPh sb="0" eb="3">
-      <t>ナラシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大淀町</t>
-    <rPh sb="0" eb="3">
-      <t>オオヨドチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大和郡山市</t>
-    <rPh sb="0" eb="5">
-      <t>ヤマトコオリヤマシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="3">
-      <t>トシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>60代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -5709,194 +6142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大和郡山市</t>
-    <rPh sb="0" eb="5">
-      <t>ヤマトコオリヤマシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>桜井市</t>
-    <rPh sb="0" eb="3">
-      <t>サクライシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大淀町</t>
-    <rPh sb="0" eb="3">
-      <t>オオヨドチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>斑鳩町</t>
-    <rPh sb="0" eb="3">
-      <t>イカルガチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高取町</t>
-    <rPh sb="0" eb="3">
-      <t>タカトリチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>葛城市</t>
-    <rPh sb="0" eb="3">
-      <t>カツラギシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>河合町</t>
-    <rPh sb="0" eb="3">
-      <t>カワイチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>橿原市</t>
-    <rPh sb="0" eb="3">
-      <t>カシハラシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田原本町</t>
-    <rPh sb="0" eb="4">
-      <t>タワラモトチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平群町</t>
-    <rPh sb="0" eb="3">
-      <t>ヘグリチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三郷町</t>
-    <rPh sb="0" eb="3">
-      <t>サンゴウチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>奈良市</t>
-    <rPh sb="0" eb="3">
-      <t>ナラシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>葛城市</t>
-    <rPh sb="0" eb="3">
-      <t>カツラギシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>橿原市</t>
-    <rPh sb="0" eb="3">
-      <t>カシハラシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代未満</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東吉野村</t>
-    <rPh sb="0" eb="3">
-      <t>ヒガシヨシノ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -5904,189 +6149,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大和高田市</t>
-    <rPh sb="0" eb="5">
-      <t>ヤマトタカダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>香芝市</t>
-    <rPh sb="0" eb="3">
-      <t>カシバシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>桜井市</t>
-    <rPh sb="0" eb="3">
-      <t>サクライシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>御所市</t>
-    <rPh sb="0" eb="3">
-      <t>ゴセシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>香芝市</t>
-    <rPh sb="0" eb="3">
-      <t>カシバシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>王寺町</t>
-    <rPh sb="0" eb="3">
-      <t>オウジチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>天川村</t>
-    <rPh sb="0" eb="3">
-      <t>テンカワムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>葛城市</t>
-    <rPh sb="0" eb="2">
-      <t>カツラギ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30だ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
@@ -6096,11 +6159,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
     <numFmt numFmtId="178" formatCode="#&quot;代&quot;"/>
+    <numFmt numFmtId="179" formatCode="#"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -6315,7 +6379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6379,26 +6443,35 @@
     <xf numFmtId="178" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6615,11 +6688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1884"/>
+  <dimension ref="A1:J1914"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1868" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1885" sqref="G1885"/>
+      <pane ySplit="2" topLeftCell="A1904" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1914" sqref="E1914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -6644,7 +6717,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44192.671987384259</v>
+        <v>44193.747471759256</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -6664,10 +6737,10 @@
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="21" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -47513,10 +47586,10 @@
         <v>806</v>
       </c>
       <c r="G1603" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1603" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="H1603" s="5" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="1604" spans="1:8" ht="13.5" customHeight="1">
@@ -47535,11 +47608,11 @@
       <c r="F1604" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1604" s="21">
-        <v>40</v>
+      <c r="G1604" s="23" t="s">
+        <v>891</v>
       </c>
       <c r="H1604" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1605" spans="1:8" ht="13.5" customHeight="1">
@@ -47558,11 +47631,11 @@
       <c r="F1605" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="G1605" s="22">
-        <v>40</v>
+      <c r="G1605" s="29" t="s">
+        <v>891</v>
       </c>
       <c r="H1605" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1606" spans="1:8" ht="13.5" customHeight="1">
@@ -47584,11 +47657,11 @@
       <c r="F1606" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G1606" s="21">
-        <v>80</v>
+      <c r="G1606" s="24" t="s">
+        <v>892</v>
       </c>
       <c r="H1606" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1607" spans="1:8" ht="13.5" customHeight="1">
@@ -47610,11 +47683,11 @@
       <c r="F1607" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="G1607" s="21">
-        <v>70</v>
+      <c r="G1607" s="24" t="s">
+        <v>893</v>
       </c>
       <c r="H1607" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1608" spans="1:8" ht="13.5" customHeight="1">
@@ -47636,11 +47709,11 @@
       <c r="F1608" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="G1608" s="21">
-        <v>40</v>
+      <c r="G1608" s="24" t="s">
+        <v>891</v>
       </c>
       <c r="H1608" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1609" spans="1:8" ht="13.5" customHeight="1">
@@ -47662,11 +47735,11 @@
       <c r="F1609" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="G1609" s="21">
-        <v>70</v>
+      <c r="G1609" s="24" t="s">
+        <v>893</v>
       </c>
       <c r="H1609" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1610" spans="1:8" ht="13.5" customHeight="1">
@@ -47688,11 +47761,11 @@
       <c r="F1610" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G1610" s="21">
-        <v>50</v>
+      <c r="G1610" s="24" t="s">
+        <v>894</v>
       </c>
       <c r="H1610" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1611" spans="1:8" ht="13.5" customHeight="1">
@@ -47714,11 +47787,11 @@
       <c r="F1611" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G1611" s="21">
-        <v>60</v>
+      <c r="G1611" s="24" t="s">
+        <v>895</v>
       </c>
       <c r="H1611" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1612" spans="1:8" ht="13.5" customHeight="1">
@@ -47737,11 +47810,11 @@
       <c r="F1612" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="G1612" s="22">
-        <v>70</v>
+      <c r="G1612" s="25" t="s">
+        <v>893</v>
       </c>
       <c r="H1612" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1613" spans="1:8" ht="13.5" customHeight="1">
@@ -47760,11 +47833,11 @@
       <c r="F1613" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1613" s="21">
-        <v>40</v>
+      <c r="G1613" s="24" t="s">
+        <v>891</v>
       </c>
       <c r="H1613" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1614" spans="1:8" ht="13.5" customHeight="1">
@@ -47783,11 +47856,11 @@
       <c r="F1614" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1614" s="22" t="s">
-        <v>817</v>
+      <c r="G1614" s="25" t="s">
+        <v>816</v>
       </c>
       <c r="H1614" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1615" spans="1:8" ht="13.5" customHeight="1">
@@ -47809,11 +47882,11 @@
       <c r="F1615" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G1615" s="21">
-        <v>60</v>
+      <c r="G1615" s="24" t="s">
+        <v>895</v>
       </c>
       <c r="H1615" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1616" spans="1:8" ht="13.5" customHeight="1">
@@ -47835,11 +47908,11 @@
       <c r="F1616" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="G1616" s="22">
-        <v>40</v>
+      <c r="G1616" s="25" t="s">
+        <v>891</v>
       </c>
       <c r="H1616" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1617" spans="1:8" ht="13.5" customHeight="1">
@@ -47861,11 +47934,11 @@
       <c r="F1617" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="G1617" s="22">
-        <v>80</v>
+      <c r="G1617" s="25" t="s">
+        <v>892</v>
       </c>
       <c r="H1617" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1618" spans="1:8" ht="13.5" customHeight="1">
@@ -47887,11 +47960,11 @@
       <c r="F1618" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1618" s="21">
-        <v>20</v>
+      <c r="G1618" s="24" t="s">
+        <v>896</v>
       </c>
       <c r="H1618" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1619" spans="1:8" ht="13.5" customHeight="1">
@@ -47913,11 +47986,11 @@
       <c r="F1619" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1619" s="23">
-        <v>20</v>
+      <c r="G1619" s="26" t="s">
+        <v>896</v>
       </c>
       <c r="H1619" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1620" spans="1:8" ht="13.5" customHeight="1">
@@ -47939,11 +48012,11 @@
       <c r="F1620" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="G1620" s="22">
-        <v>10</v>
+      <c r="G1620" s="25" t="s">
+        <v>897</v>
       </c>
       <c r="H1620" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1621" spans="1:8" ht="13.5" customHeight="1">
@@ -47962,11 +48035,11 @@
       <c r="F1621" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1621" s="21">
-        <v>80</v>
+      <c r="G1621" s="24" t="s">
+        <v>892</v>
       </c>
       <c r="H1621" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1622" spans="1:8" ht="13.5" customHeight="1">
@@ -47985,11 +48058,11 @@
       <c r="F1622" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1622" s="21">
-        <v>20</v>
+      <c r="G1622" s="24" t="s">
+        <v>896</v>
       </c>
       <c r="H1622" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1623" spans="1:8" ht="13.5" customHeight="1">
@@ -48008,11 +48081,11 @@
       <c r="F1623" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1623" s="23">
-        <v>50</v>
+      <c r="G1623" s="26" t="s">
+        <v>894</v>
       </c>
       <c r="H1623" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1624" spans="1:8" ht="13.5" customHeight="1">
@@ -48031,11 +48104,11 @@
       <c r="F1624" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1624" s="22">
-        <v>60</v>
+      <c r="G1624" s="25" t="s">
+        <v>895</v>
       </c>
       <c r="H1624" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1625" spans="1:8" ht="13.5" customHeight="1">
@@ -48057,11 +48130,11 @@
       <c r="F1625" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1625" s="21">
-        <v>60</v>
+      <c r="G1625" s="24" t="s">
+        <v>895</v>
       </c>
       <c r="H1625" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1626" spans="1:8" ht="13.5" customHeight="1">
@@ -48083,11 +48156,11 @@
       <c r="F1626" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1626" s="24">
-        <v>40</v>
+      <c r="G1626" s="27" t="s">
+        <v>891</v>
       </c>
       <c r="H1626" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1627" spans="1:8" ht="13.5" customHeight="1">
@@ -48109,11 +48182,11 @@
       <c r="F1627" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1627" s="25">
-        <v>40</v>
+      <c r="G1627" s="28" t="s">
+        <v>891</v>
       </c>
       <c r="H1627" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1628" spans="1:8" ht="13.5" customHeight="1">
@@ -48135,11 +48208,11 @@
       <c r="F1628" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1628" s="21">
-        <v>40</v>
+      <c r="G1628" s="24" t="s">
+        <v>891</v>
       </c>
       <c r="H1628" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1629" spans="1:8" ht="13.5" customHeight="1">
@@ -48158,11 +48231,11 @@
       <c r="F1629" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1629" s="21">
-        <v>50</v>
+      <c r="G1629" s="24" t="s">
+        <v>894</v>
       </c>
       <c r="H1629" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1630" spans="1:8" ht="13.5" customHeight="1">
@@ -48184,11 +48257,11 @@
       <c r="F1630" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1630" s="21">
-        <v>20</v>
+      <c r="G1630" s="30" t="s">
+        <v>896</v>
       </c>
       <c r="H1630" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1631" spans="1:8" ht="13.5" customHeight="1">
@@ -48234,10 +48307,10 @@
         <v>44180</v>
       </c>
       <c r="F1632" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G1632" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1632" s="5" t="s">
         <v>39</v>
@@ -48260,7 +48333,7 @@
         <v>44182</v>
       </c>
       <c r="F1633" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G1633" s="5" t="s">
         <v>78</v>
@@ -48286,7 +48359,7 @@
         <v>44180</v>
       </c>
       <c r="F1634" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G1634" s="5" t="s">
         <v>102</v>
@@ -48465,7 +48538,7 @@
         <v>44182</v>
       </c>
       <c r="F1641" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G1641" s="5" t="s">
         <v>90</v>
@@ -48488,7 +48561,7 @@
         <v>44185</v>
       </c>
       <c r="F1642" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G1642" s="5" t="s">
         <v>38</v>
@@ -48566,7 +48639,7 @@
         <v>44183</v>
       </c>
       <c r="F1645" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G1645" s="5" t="s">
         <v>38</v>
@@ -48667,7 +48740,7 @@
         <v>44179</v>
       </c>
       <c r="F1649" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G1649" s="5" t="s">
         <v>38</v>
@@ -48693,7 +48766,7 @@
         <v>44180</v>
       </c>
       <c r="F1650" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G1650" s="5" t="s">
         <v>207</v>
@@ -48719,7 +48792,7 @@
         <v>44182</v>
       </c>
       <c r="F1651" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G1651" s="5" t="s">
         <v>78</v>
@@ -48745,7 +48818,7 @@
         <v>44182</v>
       </c>
       <c r="F1652" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G1652" s="5" t="s">
         <v>102</v>
@@ -48768,7 +48841,7 @@
         <v>44185</v>
       </c>
       <c r="F1653" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G1653" s="5" t="s">
         <v>79</v>
@@ -48794,7 +48867,7 @@
         <v>44173</v>
       </c>
       <c r="F1654" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G1654" s="5" t="s">
         <v>79</v>
@@ -48820,7 +48893,7 @@
         <v>44182</v>
       </c>
       <c r="F1655" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G1655" s="5" t="s">
         <v>78</v>
@@ -48843,7 +48916,7 @@
         <v>44185</v>
       </c>
       <c r="F1656" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G1656" s="5" t="s">
         <v>207</v>
@@ -49152,7 +49225,7 @@
         <v>44176</v>
       </c>
       <c r="F1668" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G1668" s="5" t="s">
         <v>650</v>
@@ -49354,7 +49427,7 @@
         <v>44186</v>
       </c>
       <c r="E1676" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F1676" s="6" t="s">
         <v>164</v>
@@ -49455,7 +49528,7 @@
         <v>44182</v>
       </c>
       <c r="F1680" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G1680" s="5" t="s">
         <v>650</v>
@@ -49686,13 +49759,13 @@
         <v>44181</v>
       </c>
       <c r="F1689" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G1689" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="H1689" s="5" t="s">
         <v>838</v>
-      </c>
-      <c r="H1689" s="5" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="1690" spans="1:8">
@@ -49712,13 +49785,13 @@
         <v>44181</v>
       </c>
       <c r="F1690" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G1690" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1690" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1691" spans="1:8">
@@ -49741,10 +49814,10 @@
         <v>35</v>
       </c>
       <c r="G1691" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1691" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1692" spans="1:8">
@@ -49764,10 +49837,10 @@
         <v>29</v>
       </c>
       <c r="G1692" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1692" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1693" spans="1:8">
@@ -49790,10 +49863,10 @@
         <v>35</v>
       </c>
       <c r="G1693" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1693" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1694" spans="1:8">
@@ -49816,10 +49889,10 @@
         <v>72</v>
       </c>
       <c r="G1694" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1694" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1695" spans="1:8">
@@ -49842,10 +49915,10 @@
         <v>73</v>
       </c>
       <c r="G1695" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1695" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1696" spans="1:8">
@@ -49865,10 +49938,10 @@
         <v>73</v>
       </c>
       <c r="G1696" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1696" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1697" spans="1:8">
@@ -49891,10 +49964,10 @@
         <v>73</v>
       </c>
       <c r="G1697" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1697" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1698" spans="1:8">
@@ -49917,10 +49990,10 @@
         <v>73</v>
       </c>
       <c r="G1698" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1698" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1699" spans="1:8">
@@ -49943,10 +50016,10 @@
         <v>83</v>
       </c>
       <c r="G1699" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1699" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1700" spans="1:8">
@@ -49969,10 +50042,10 @@
         <v>89</v>
       </c>
       <c r="G1700" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1700" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1701" spans="1:8">
@@ -49995,10 +50068,10 @@
         <v>132</v>
       </c>
       <c r="G1701" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1701" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1702" spans="1:8">
@@ -50021,10 +50094,10 @@
         <v>89</v>
       </c>
       <c r="G1702" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1702" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1703" spans="1:8">
@@ -50047,10 +50120,10 @@
         <v>89</v>
       </c>
       <c r="G1703" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1703" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1704" spans="1:8">
@@ -50073,10 +50146,10 @@
         <v>109</v>
       </c>
       <c r="G1704" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1704" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1705" spans="1:8">
@@ -50099,10 +50172,10 @@
         <v>769</v>
       </c>
       <c r="G1705" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1705" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1706" spans="1:8">
@@ -50122,10 +50195,10 @@
         <v>769</v>
       </c>
       <c r="G1706" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1706" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1707" spans="1:8">
@@ -50145,10 +50218,10 @@
         <v>769</v>
       </c>
       <c r="G1707" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1707" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1708" spans="1:8">
@@ -50168,10 +50241,10 @@
         <v>145</v>
       </c>
       <c r="G1708" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1708" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1709" spans="1:8">
@@ -50194,10 +50267,10 @@
         <v>72</v>
       </c>
       <c r="G1709" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1709" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1710" spans="1:8">
@@ -50220,10 +50293,10 @@
         <v>72</v>
       </c>
       <c r="G1710" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1710" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1711" spans="1:8">
@@ -50246,10 +50319,10 @@
         <v>123</v>
       </c>
       <c r="G1711" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1711" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1712" spans="1:8">
@@ -50269,13 +50342,13 @@
         <v>44179</v>
       </c>
       <c r="F1712" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G1712" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1712" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1713" spans="1:8">
@@ -50295,13 +50368,13 @@
         <v>44182</v>
       </c>
       <c r="F1713" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G1713" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1713" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1714" spans="1:8">
@@ -50318,13 +50391,13 @@
         <v>44187</v>
       </c>
       <c r="F1714" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G1714" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1714" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1715" spans="1:8">
@@ -50370,7 +50443,7 @@
         <v>44185</v>
       </c>
       <c r="F1716" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G1716" s="5" t="s">
         <v>658</v>
@@ -50393,7 +50466,7 @@
         <v>44188</v>
       </c>
       <c r="F1717" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1717" s="5" t="s">
         <v>729</v>
@@ -50419,7 +50492,7 @@
         <v>44183</v>
       </c>
       <c r="F1718" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1718" s="5" t="s">
         <v>652</v>
@@ -50445,7 +50518,7 @@
         <v>44186</v>
       </c>
       <c r="F1719" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G1719" s="5" t="s">
         <v>730</v>
@@ -50471,7 +50544,7 @@
         <v>44180</v>
       </c>
       <c r="F1720" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G1720" s="5" t="s">
         <v>731</v>
@@ -50497,7 +50570,7 @@
         <v>44180</v>
       </c>
       <c r="F1721" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G1721" s="5" t="s">
         <v>731</v>
@@ -50523,7 +50596,7 @@
         <v>44187</v>
       </c>
       <c r="F1722" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G1722" s="5" t="s">
         <v>656</v>
@@ -50549,7 +50622,7 @@
         <v>44185</v>
       </c>
       <c r="F1723" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G1723" s="5" t="s">
         <v>652</v>
@@ -50575,7 +50648,7 @@
         <v>44183</v>
       </c>
       <c r="F1724" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G1724" s="5" t="s">
         <v>655</v>
@@ -50601,7 +50674,7 @@
         <v>44181</v>
       </c>
       <c r="F1725" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G1725" s="5" t="s">
         <v>657</v>
@@ -50627,7 +50700,7 @@
         <v>44183</v>
       </c>
       <c r="F1726" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G1726" s="5" t="s">
         <v>657</v>
@@ -50650,7 +50723,7 @@
         <v>44188</v>
       </c>
       <c r="F1727" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1727" s="5" t="s">
         <v>656</v>
@@ -50676,7 +50749,7 @@
         <v>44187</v>
       </c>
       <c r="F1728" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1728" s="5" t="s">
         <v>729</v>
@@ -50702,7 +50775,7 @@
         <v>44186</v>
       </c>
       <c r="F1729" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1729" s="5" t="s">
         <v>657</v>
@@ -50725,7 +50798,7 @@
         <v>44188</v>
       </c>
       <c r="F1730" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G1730" s="5" t="s">
         <v>656</v>
@@ -50748,7 +50821,7 @@
         <v>44188</v>
       </c>
       <c r="F1731" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1731" s="5" t="s">
         <v>655</v>
@@ -50771,7 +50844,7 @@
         <v>44188</v>
       </c>
       <c r="F1732" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G1732" s="5" t="s">
         <v>657</v>
@@ -50794,7 +50867,7 @@
         <v>44188</v>
       </c>
       <c r="F1733" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1733" s="5" t="s">
         <v>729</v>
@@ -50820,7 +50893,7 @@
         <v>44187</v>
       </c>
       <c r="F1734" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1734" s="5" t="s">
         <v>729</v>
@@ -50846,7 +50919,7 @@
         <v>44186</v>
       </c>
       <c r="F1735" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1735" s="5" t="s">
         <v>729</v>
@@ -50869,7 +50942,7 @@
         <v>44188</v>
       </c>
       <c r="F1736" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1736" s="5" t="s">
         <v>729</v>
@@ -50895,7 +50968,7 @@
         <v>44185</v>
       </c>
       <c r="F1737" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G1737" s="5" t="s">
         <v>656</v>
@@ -50921,7 +50994,7 @@
         <v>44184</v>
       </c>
       <c r="F1738" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G1738" s="5" t="s">
         <v>656</v>
@@ -50947,7 +51020,7 @@
         <v>44185</v>
       </c>
       <c r="F1739" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G1739" s="5" t="s">
         <v>658</v>
@@ -50999,7 +51072,7 @@
         <v>44185</v>
       </c>
       <c r="F1741" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1741" s="5" t="s">
         <v>652</v>
@@ -51022,7 +51095,7 @@
         <v>44188</v>
       </c>
       <c r="F1742" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1742" s="5" t="s">
         <v>657</v>
@@ -51045,7 +51118,7 @@
         <v>44188</v>
       </c>
       <c r="F1743" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1743" s="5" t="s">
         <v>657</v>
@@ -51071,7 +51144,7 @@
         <v>44185</v>
       </c>
       <c r="F1744" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1744" s="5" t="s">
         <v>650</v>
@@ -51097,7 +51170,7 @@
         <v>44183</v>
       </c>
       <c r="F1745" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1745" s="5" t="s">
         <v>654</v>
@@ -51123,7 +51196,7 @@
         <v>44183</v>
       </c>
       <c r="F1746" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1746" s="5" t="s">
         <v>657</v>
@@ -51149,7 +51222,7 @@
         <v>44183</v>
       </c>
       <c r="F1747" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1747" s="5" t="s">
         <v>654</v>
@@ -51175,7 +51248,7 @@
         <v>44184</v>
       </c>
       <c r="F1748" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1748" s="5" t="s">
         <v>656</v>
@@ -51201,7 +51274,7 @@
         <v>44182</v>
       </c>
       <c r="F1749" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1749" s="5" t="s">
         <v>652</v>
@@ -51227,7 +51300,7 @@
         <v>44185</v>
       </c>
       <c r="F1750" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1750" s="5" t="s">
         <v>656</v>
@@ -51250,7 +51323,7 @@
         <v>44188</v>
       </c>
       <c r="F1751" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1751" s="5" t="s">
         <v>658</v>
@@ -51279,7 +51352,7 @@
         <v>164</v>
       </c>
       <c r="G1752" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1752" s="5" t="s">
         <v>28</v>
@@ -51302,7 +51375,7 @@
         <v>164</v>
       </c>
       <c r="G1753" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1753" s="5" t="s">
         <v>28</v>
@@ -51325,7 +51398,7 @@
         <v>164</v>
       </c>
       <c r="G1754" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1754" s="5" t="s">
         <v>39</v>
@@ -51351,7 +51424,7 @@
         <v>164</v>
       </c>
       <c r="G1755" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1755" s="5" t="s">
         <v>28</v>
@@ -51374,7 +51447,7 @@
         <v>164</v>
       </c>
       <c r="G1756" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1756" s="5" t="s">
         <v>39</v>
@@ -51397,7 +51470,7 @@
         <v>164</v>
       </c>
       <c r="G1757" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1757" s="5" t="s">
         <v>28</v>
@@ -51446,7 +51519,7 @@
         <v>164</v>
       </c>
       <c r="G1759" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1759" s="5" t="s">
         <v>28</v>
@@ -51697,10 +51770,10 @@
         <v>44188</v>
       </c>
       <c r="F1769" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G1769" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1769" s="5" t="s">
         <v>39</v>
@@ -51723,7 +51796,7 @@
         <v>83</v>
       </c>
       <c r="G1770" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1770" s="5" t="s">
         <v>39</v>
@@ -51746,7 +51819,7 @@
         <v>44185</v>
       </c>
       <c r="F1771" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G1771" s="5" t="s">
         <v>79</v>
@@ -51801,7 +51874,7 @@
         <v>27</v>
       </c>
       <c r="G1773" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1773" s="5" t="s">
         <v>28</v>
@@ -51905,7 +51978,7 @@
         <v>89</v>
       </c>
       <c r="G1777" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1777" s="5" t="s">
         <v>28</v>
@@ -51928,7 +52001,7 @@
         <v>31</v>
       </c>
       <c r="G1778" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1778" s="5" t="s">
         <v>28</v>
@@ -51954,7 +52027,7 @@
         <v>89</v>
       </c>
       <c r="G1779" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1779" s="5" t="s">
         <v>28</v>
@@ -51980,7 +52053,7 @@
         <v>177</v>
       </c>
       <c r="G1780" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1780" s="5" t="s">
         <v>28</v>
@@ -52104,7 +52177,7 @@
         <v>73</v>
       </c>
       <c r="G1785" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1785" s="5" t="s">
         <v>39</v>
@@ -52127,10 +52200,10 @@
         <v>44188</v>
       </c>
       <c r="F1786" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="G1786" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="G1786" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="H1786" s="5" t="s">
         <v>39</v>
@@ -52153,7 +52226,7 @@
         <v>89</v>
       </c>
       <c r="G1787" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1787" s="5" t="s">
         <v>28</v>
@@ -52176,7 +52249,7 @@
         <v>89</v>
       </c>
       <c r="G1788" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1788" s="5" t="s">
         <v>39</v>
@@ -52202,7 +52275,7 @@
         <v>72</v>
       </c>
       <c r="G1789" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1789" s="5" t="s">
         <v>39</v>
@@ -52228,7 +52301,7 @@
         <v>145</v>
       </c>
       <c r="G1790" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1790" s="5" t="s">
         <v>28</v>
@@ -52254,7 +52327,7 @@
         <v>89</v>
       </c>
       <c r="G1791" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1791" s="5" t="s">
         <v>28</v>
@@ -52280,7 +52353,7 @@
         <v>89</v>
       </c>
       <c r="G1792" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1792" s="5" t="s">
         <v>39</v>
@@ -52306,7 +52379,7 @@
         <v>89</v>
       </c>
       <c r="G1793" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1793" s="5" t="s">
         <v>28</v>
@@ -52332,7 +52405,7 @@
         <v>29</v>
       </c>
       <c r="G1794" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1794" s="5" t="s">
         <v>39</v>
@@ -52355,7 +52428,7 @@
         <v>44181</v>
       </c>
       <c r="F1795" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G1795" s="5" t="s">
         <v>90</v>
@@ -52381,7 +52454,7 @@
         <v>83</v>
       </c>
       <c r="G1796" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1796" s="5" t="s">
         <v>39</v>
@@ -52404,7 +52477,7 @@
         <v>83</v>
       </c>
       <c r="G1797" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1797" s="5" t="s">
         <v>28</v>
@@ -52427,7 +52500,7 @@
         <v>105</v>
       </c>
       <c r="G1798" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1798" s="5" t="s">
         <v>28</v>
@@ -52453,7 +52526,7 @@
         <v>31</v>
       </c>
       <c r="G1799" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1799" s="5" t="s">
         <v>39</v>
@@ -52479,7 +52552,7 @@
         <v>72</v>
       </c>
       <c r="G1800" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1800" s="5" t="s">
         <v>28</v>
@@ -52505,7 +52578,7 @@
         <v>72</v>
       </c>
       <c r="G1801" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1801" s="5" t="s">
         <v>28</v>
@@ -52531,7 +52604,7 @@
         <v>29</v>
       </c>
       <c r="G1802" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1802" s="5" t="s">
         <v>28</v>
@@ -52557,7 +52630,7 @@
         <v>134</v>
       </c>
       <c r="G1803" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1803" s="5" t="s">
         <v>39</v>
@@ -52580,10 +52653,10 @@
         <v>44186</v>
       </c>
       <c r="F1804" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G1804" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1804" s="5" t="s">
         <v>28</v>
@@ -52609,7 +52682,7 @@
         <v>290</v>
       </c>
       <c r="G1805" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1805" s="5" t="s">
         <v>39</v>
@@ -52632,7 +52705,7 @@
         <v>24</v>
       </c>
       <c r="G1806" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1806" s="5" t="s">
         <v>28</v>
@@ -52658,7 +52731,7 @@
         <v>24</v>
       </c>
       <c r="G1807" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1807" s="5" t="s">
         <v>39</v>
@@ -52684,7 +52757,7 @@
         <v>24</v>
       </c>
       <c r="G1808" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1808" s="5" t="s">
         <v>39</v>
@@ -52710,7 +52783,7 @@
         <v>24</v>
       </c>
       <c r="G1809" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1809" s="5" t="s">
         <v>28</v>
@@ -52736,7 +52809,7 @@
         <v>24</v>
       </c>
       <c r="G1810" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1810" s="5" t="s">
         <v>39</v>
@@ -52759,7 +52832,7 @@
         <v>24</v>
       </c>
       <c r="G1811" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1811" s="5" t="s">
         <v>39</v>
@@ -52785,7 +52858,7 @@
         <v>24</v>
       </c>
       <c r="G1812" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1812" s="5" t="s">
         <v>39</v>
@@ -52811,7 +52884,7 @@
         <v>24</v>
       </c>
       <c r="G1813" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1813" s="5" t="s">
         <v>28</v>
@@ -52834,7 +52907,7 @@
         <v>24</v>
       </c>
       <c r="G1814" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1814" s="5" t="s">
         <v>28</v>
@@ -52860,7 +52933,7 @@
         <v>130</v>
       </c>
       <c r="G1815" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1815" s="5" t="s">
         <v>28</v>
@@ -52883,13 +52956,13 @@
         <v>44187</v>
       </c>
       <c r="F1816" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G1816" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1816" s="5" t="s">
         <v>875</v>
-      </c>
-      <c r="H1816" s="5" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="1817" spans="1:8">
@@ -52909,10 +52982,10 @@
         <v>44188</v>
       </c>
       <c r="F1817" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G1817" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1817" s="5" t="s">
         <v>39</v>
@@ -52938,7 +53011,7 @@
         <v>145</v>
       </c>
       <c r="G1818" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1818" s="5" t="s">
         <v>28</v>
@@ -52964,10 +53037,10 @@
         <v>72</v>
       </c>
       <c r="G1819" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1819" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1820" spans="1:8">
@@ -52990,10 +53063,10 @@
         <v>72</v>
       </c>
       <c r="G1820" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="H1820" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="H1820" s="5" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="1821" spans="1:8">
@@ -53013,13 +53086,13 @@
         <v>44187</v>
       </c>
       <c r="F1821" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G1821" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1821" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1822" spans="1:8">
@@ -53042,7 +53115,7 @@
         <v>83</v>
       </c>
       <c r="G1822" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1822" s="5" t="s">
         <v>28</v>
@@ -53065,13 +53138,13 @@
         <v>44187</v>
       </c>
       <c r="F1823" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G1823" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1823" s="5" t="s">
         <v>875</v>
-      </c>
-      <c r="H1823" s="5" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="1824" spans="1:8">
@@ -53088,13 +53161,13 @@
         <v>44191</v>
       </c>
       <c r="F1824" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G1824" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1824" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1825" spans="1:8">
@@ -53114,7 +53187,7 @@
         <v>31</v>
       </c>
       <c r="G1825" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1825" s="5" t="s">
         <v>39</v>
@@ -53137,7 +53210,7 @@
         <v>31</v>
       </c>
       <c r="G1826" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1826" s="5" t="s">
         <v>39</v>
@@ -53160,13 +53233,13 @@
         <v>44189</v>
       </c>
       <c r="F1827" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="G1827" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="G1827" s="5" t="s">
-        <v>874</v>
-      </c>
       <c r="H1827" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1828" spans="1:8">
@@ -53186,10 +53259,10 @@
         <v>89</v>
       </c>
       <c r="G1828" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1828" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1829" spans="1:8">
@@ -53212,10 +53285,10 @@
         <v>89</v>
       </c>
       <c r="G1829" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1829" s="5" t="s">
         <v>875</v>
-      </c>
-      <c r="H1829" s="5" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="1830" spans="1:8">
@@ -53238,7 +53311,7 @@
         <v>414</v>
       </c>
       <c r="G1830" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1830" s="5" t="s">
         <v>39</v>
@@ -53264,10 +53337,10 @@
         <v>72</v>
       </c>
       <c r="G1831" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1831" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1832" spans="1:8">
@@ -53290,10 +53363,10 @@
         <v>89</v>
       </c>
       <c r="G1832" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1832" s="5" t="s">
         <v>875</v>
-      </c>
-      <c r="H1832" s="5" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="1833" spans="1:8">
@@ -53313,10 +53386,10 @@
         <v>89</v>
       </c>
       <c r="G1833" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1833" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1834" spans="1:8">
@@ -53339,10 +53412,10 @@
         <v>29</v>
       </c>
       <c r="G1834" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1834" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1835" spans="1:8">
@@ -53365,10 +53438,10 @@
         <v>132</v>
       </c>
       <c r="G1835" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1835" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1836" spans="1:8">
@@ -53391,10 +53464,10 @@
         <v>95</v>
       </c>
       <c r="G1836" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1836" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1837" spans="1:8">
@@ -53414,10 +53487,10 @@
         <v>89</v>
       </c>
       <c r="G1837" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1837" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1838" spans="1:8">
@@ -53440,10 +53513,10 @@
         <v>73</v>
       </c>
       <c r="G1838" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1838" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1839" spans="1:8">
@@ -53466,10 +53539,10 @@
         <v>89</v>
       </c>
       <c r="G1839" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1839" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1840" spans="1:8">
@@ -53492,10 +53565,10 @@
         <v>105</v>
       </c>
       <c r="G1840" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="H1840" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="H1840" s="5" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="1841" spans="1:8">
@@ -53518,7 +53591,7 @@
         <v>24</v>
       </c>
       <c r="G1841" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1841" s="5" t="s">
         <v>39</v>
@@ -53544,7 +53617,7 @@
         <v>24</v>
       </c>
       <c r="G1842" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1842" s="5" t="s">
         <v>28</v>
@@ -53567,7 +53640,7 @@
         <v>24</v>
       </c>
       <c r="G1843" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1843" s="5" t="s">
         <v>28</v>
@@ -53590,10 +53663,10 @@
         <v>24</v>
       </c>
       <c r="G1844" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1844" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1845" spans="1:8">
@@ -53623,7 +53696,7 @@
       </c>
     </row>
     <row r="1846" spans="1:8">
-      <c r="A1846" s="27">
+      <c r="A1846" s="22">
         <v>1844</v>
       </c>
       <c r="B1846" s="5">
@@ -53746,7 +53819,7 @@
         <v>223</v>
       </c>
       <c r="G1850" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1850" s="5" t="s">
         <v>39</v>
@@ -53873,7 +53946,7 @@
         <v>89</v>
       </c>
       <c r="G1855" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1855" s="5" t="s">
         <v>28</v>
@@ -53925,7 +53998,7 @@
         <v>73</v>
       </c>
       <c r="G1857" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1857" s="5" t="s">
         <v>39</v>
@@ -53974,7 +54047,7 @@
         <v>89</v>
       </c>
       <c r="G1859" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1859" s="5" t="s">
         <v>28</v>
@@ -53997,7 +54070,7 @@
         <v>73</v>
       </c>
       <c r="G1860" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1860" s="5" t="s">
         <v>39</v>
@@ -54075,7 +54148,7 @@
         <v>29</v>
       </c>
       <c r="G1863" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1863" s="5" t="s">
         <v>28</v>
@@ -54098,7 +54171,7 @@
         <v>89</v>
       </c>
       <c r="G1864" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1864" s="5" t="s">
         <v>39</v>
@@ -54124,7 +54197,7 @@
         <v>89</v>
       </c>
       <c r="G1865" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1865" s="5" t="s">
         <v>28</v>
@@ -54147,7 +54220,7 @@
         <v>44188</v>
       </c>
       <c r="F1866" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G1866" s="5" t="s">
         <v>78</v>
@@ -54173,7 +54246,7 @@
         <v>44185</v>
       </c>
       <c r="F1867" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G1867" s="5" t="s">
         <v>70</v>
@@ -54277,10 +54350,10 @@
         <v>44189</v>
       </c>
       <c r="F1871" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G1871" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1871" s="5" t="s">
         <v>39</v>
@@ -54303,7 +54376,7 @@
         <v>44188</v>
       </c>
       <c r="F1872" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G1872" s="5" t="s">
         <v>70</v>
@@ -54381,7 +54454,7 @@
         <v>73</v>
       </c>
       <c r="G1875" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1875" s="5" t="s">
         <v>39</v>
@@ -54606,9 +54679,747 @@
         <v>24</v>
       </c>
       <c r="G1884" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1884" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:8">
+      <c r="A1885" s="5">
+        <v>1883</v>
+      </c>
+      <c r="B1885" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1885" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1885" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1885" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1885" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="G1885" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1885" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:8">
+      <c r="A1886" s="5">
+        <v>1884</v>
+      </c>
+      <c r="B1886" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1886" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1886" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1886" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1886" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1886" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:8">
+      <c r="A1887" s="5">
+        <v>1885</v>
+      </c>
+      <c r="B1887" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1887" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1887" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1887" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F1887" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1887" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1887" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:8">
+      <c r="A1888" s="5">
+        <v>1886</v>
+      </c>
+      <c r="B1888" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1888" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1888" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1888" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1888" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1888" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1888" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:8">
+      <c r="A1889" s="5">
+        <v>1887</v>
+      </c>
+      <c r="B1889" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1889" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1889" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1889" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1889" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1889" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1889" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:8">
+      <c r="A1890" s="5">
+        <v>1888</v>
+      </c>
+      <c r="B1890" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1890" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1890" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1890" s="6">
+        <v>44184</v>
+      </c>
+      <c r="F1890" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="G1890" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1890" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:8">
+      <c r="A1891" s="5">
+        <v>1889</v>
+      </c>
+      <c r="B1891" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1891" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1891" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1891" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="G1891" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1891" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:8">
+      <c r="A1892" s="5">
+        <v>1890</v>
+      </c>
+      <c r="B1892" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1892" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1892" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1892" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="G1892" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1892" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:8">
+      <c r="A1893" s="5">
+        <v>1891</v>
+      </c>
+      <c r="B1893" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1893" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1893" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1893" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1893" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1893" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1893" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:8">
+      <c r="A1894" s="5">
+        <v>1892</v>
+      </c>
+      <c r="B1894" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1894" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1894" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1894" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1894" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1894" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:8">
+      <c r="A1895" s="5">
+        <v>1893</v>
+      </c>
+      <c r="B1895" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1895" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1895" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1895" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1895" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1895" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="H1895" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:8">
+      <c r="A1896" s="5">
+        <v>1894</v>
+      </c>
+      <c r="B1896" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1896" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1896" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1896" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F1896" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1896" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1896" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:8">
+      <c r="A1897" s="5">
+        <v>1895</v>
+      </c>
+      <c r="B1897" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1897" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1897" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1897" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1897" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1897" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1897" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:8">
+      <c r="A1898" s="5">
+        <v>1896</v>
+      </c>
+      <c r="B1898" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1898" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1898" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1898" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F1898" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1898" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="H1898" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:8">
+      <c r="A1899" s="5">
+        <v>1897</v>
+      </c>
+      <c r="B1899" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1899" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1899" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1899" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1899" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1899" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:8">
+      <c r="A1900" s="5">
+        <v>1898</v>
+      </c>
+      <c r="B1900" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1900" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1900" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1900" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1900" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1900" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1900" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:8">
+      <c r="A1901" s="5">
+        <v>1899</v>
+      </c>
+      <c r="B1901" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1901" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1901" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1901" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1901" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1901" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1901" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:8">
+      <c r="A1902" s="5">
+        <v>1900</v>
+      </c>
+      <c r="B1902" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1902" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1902" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1902" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F1902" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1902" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1902" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:8">
+      <c r="A1903" s="5">
+        <v>1901</v>
+      </c>
+      <c r="B1903" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1903" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1903" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1903" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1903" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1903" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:8">
+      <c r="A1904" s="5">
+        <v>1902</v>
+      </c>
+      <c r="B1904" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1904" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1904" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1904" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1904" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1904" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="H1904" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:8">
+      <c r="A1905" s="5">
+        <v>1903</v>
+      </c>
+      <c r="B1905" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1905" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1905" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1905" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F1905" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1905" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="H1905" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:8">
+      <c r="A1906" s="5">
+        <v>1904</v>
+      </c>
+      <c r="B1906" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1906" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1906" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1906" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1906" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1906" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:8">
+      <c r="A1907" s="5">
+        <v>1905</v>
+      </c>
+      <c r="B1907" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1907" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1907" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1907" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1907" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1907" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:8">
+      <c r="A1908" s="5">
+        <v>1906</v>
+      </c>
+      <c r="B1908" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1908" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1908" s="6">
+        <v>44193</v>
+      </c>
+      <c r="E1908" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F1908" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1908" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1908" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:8">
+      <c r="A1909" s="5">
+        <v>1907</v>
+      </c>
+      <c r="B1909" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1909" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1909" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1909" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1909" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="H1909" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:8">
+      <c r="A1910" s="5">
+        <v>1908</v>
+      </c>
+      <c r="B1910" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1910" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1910" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1910" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1910" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1910" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:8">
+      <c r="A1911" s="5">
+        <v>1909</v>
+      </c>
+      <c r="B1911" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1911" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1911" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1911" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1911" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1911" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:8">
+      <c r="A1912" s="5">
+        <v>1910</v>
+      </c>
+      <c r="B1912" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1912" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1912" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1912" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1912" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1912" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:8">
+      <c r="A1913" s="5">
+        <v>1911</v>
+      </c>
+      <c r="B1913" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1913" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1913" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1913" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1913" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="H1913" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:8">
+      <c r="A1914" s="5">
+        <v>1912</v>
+      </c>
+      <c r="B1914" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1914" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1914" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F1914" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1914" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1914" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1914</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1938</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="911">
   <si>
     <t>備考</t>
   </si>
@@ -6152,6 +6152,100 @@
     <t>10代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="2">
+      <t>オオヨド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斑鳩町</t>
+    <rPh sb="0" eb="3">
+      <t>イカルガチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6159,7 +6253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -6688,11 +6782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1914"/>
+  <dimension ref="A1:J1938"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1904" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1914" sqref="E1914"/>
+      <pane ySplit="2" topLeftCell="A1782" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1793" sqref="D1793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -6717,7 +6811,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44193.747471759256</v>
+        <v>44194.69594849537</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -55420,6 +55514,558 @@
         <v>38</v>
       </c>
       <c r="H1914" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:8">
+      <c r="A1915" s="5">
+        <v>1913</v>
+      </c>
+      <c r="B1915" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1915" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1915" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1915" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="G1915" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1915" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:8">
+      <c r="A1916" s="5">
+        <v>1914</v>
+      </c>
+      <c r="B1916" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1916" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1916" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1916" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1916" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1916" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:8">
+      <c r="A1917" s="5">
+        <v>1915</v>
+      </c>
+      <c r="B1917" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1917" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1917" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1917" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="G1917" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="H1917" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:8">
+      <c r="A1918" s="5">
+        <v>1916</v>
+      </c>
+      <c r="B1918" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1918" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1918" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1918" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="G1918" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1918" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:8">
+      <c r="A1919" s="5">
+        <v>1917</v>
+      </c>
+      <c r="B1919" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1919" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1919" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1919" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1919" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1919" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:8">
+      <c r="A1920" s="5">
+        <v>1918</v>
+      </c>
+      <c r="B1920" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1920" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1920" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1920" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="G1920" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1920" s="5" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:8">
+      <c r="A1921" s="5">
+        <v>1919</v>
+      </c>
+      <c r="B1921" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1921" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1921" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1921" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1921" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="H1921" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:8">
+      <c r="A1922" s="5">
+        <v>1920</v>
+      </c>
+      <c r="B1922" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1922" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1922" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1922" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1922" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1922" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:8">
+      <c r="A1923" s="5">
+        <v>1921</v>
+      </c>
+      <c r="B1923" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1923" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1923" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1923" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1923" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1923" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:8">
+      <c r="A1924" s="5">
+        <v>1922</v>
+      </c>
+      <c r="B1924" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1924" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1924" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1924" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="G1924" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1924" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:8">
+      <c r="A1925" s="5">
+        <v>1923</v>
+      </c>
+      <c r="B1925" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1925" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1925" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1925" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1925" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1925" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:8">
+      <c r="A1926" s="5">
+        <v>1924</v>
+      </c>
+      <c r="B1926" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1926" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1926" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1926" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1926" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1926" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:8">
+      <c r="A1927" s="5">
+        <v>1925</v>
+      </c>
+      <c r="B1927" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1927" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1927" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1927" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1927" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="H1927" s="5" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:8">
+      <c r="A1928" s="5">
+        <v>1926</v>
+      </c>
+      <c r="B1928" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1928" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1928" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1928" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1928" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="H1928" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:8">
+      <c r="A1929" s="5">
+        <v>1927</v>
+      </c>
+      <c r="B1929" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1929" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1929" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1929" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1929" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="H1929" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:8">
+      <c r="A1930" s="5">
+        <v>1928</v>
+      </c>
+      <c r="B1930" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1930" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1930" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1930" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1930" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1930" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:8">
+      <c r="A1931" s="5">
+        <v>1929</v>
+      </c>
+      <c r="B1931" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1931" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1931" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1931" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="G1931" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1931" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:8">
+      <c r="A1932" s="5">
+        <v>1930</v>
+      </c>
+      <c r="B1932" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1932" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1932" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1932" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1932" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1932" s="5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:8">
+      <c r="A1933" s="5">
+        <v>1931</v>
+      </c>
+      <c r="B1933" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1933" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1933" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1933" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1933" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1933" s="5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:8">
+      <c r="A1934" s="5">
+        <v>1932</v>
+      </c>
+      <c r="B1934" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1934" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1934" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1934" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="G1934" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1934" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:8">
+      <c r="A1935" s="5">
+        <v>1933</v>
+      </c>
+      <c r="B1935" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1935" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1935" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1935" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1935" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="H1935" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:8">
+      <c r="A1936" s="5">
+        <v>1934</v>
+      </c>
+      <c r="B1936" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1936" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1936" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1936" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1936" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1936" s="5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:8">
+      <c r="A1937" s="5">
+        <v>1935</v>
+      </c>
+      <c r="B1937" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1937" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1937" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1937" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1937" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1937" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:8">
+      <c r="A1938" s="5">
+        <v>1936</v>
+      </c>
+      <c r="B1938" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1938" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1938" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F1938" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1938" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1938" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1938</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1968</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7878" uniqueCount="917">
   <si>
     <t>備考</t>
   </si>
@@ -6246,6 +6246,51 @@
     <t>奈良市</t>
     <rPh sb="0" eb="3">
       <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヨドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天理市</t>
+    <rPh sb="0" eb="3">
+      <t>テンリシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代未満</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6253,7 +6298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -6782,36 +6827,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1938"/>
+  <dimension ref="A1:J1968"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1782" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1793" sqref="D1793"/>
+      <pane ySplit="2" topLeftCell="A1932" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1938" sqref="H1938"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="5" width="12.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="12.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44194.69594849537</v>
+        <v>44195.758097569444</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -6821,7 +6866,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="26">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -56066,6 +56111,696 @@
         <v>70</v>
       </c>
       <c r="H1938" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:8">
+      <c r="A1939" s="5">
+        <v>1937</v>
+      </c>
+      <c r="B1939" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1939" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1939" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1939" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1939" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1939" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:8">
+      <c r="A1940" s="5">
+        <v>1938</v>
+      </c>
+      <c r="B1940" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1940" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1940" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1940" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1940" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1940" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:8">
+      <c r="A1941" s="5">
+        <v>1939</v>
+      </c>
+      <c r="B1941" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1941" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1941" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1941" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1941" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1941" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:8">
+      <c r="A1942" s="5">
+        <v>1940</v>
+      </c>
+      <c r="B1942" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1942" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1942" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1942" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1942" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1942" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:8">
+      <c r="A1943" s="5">
+        <v>1941</v>
+      </c>
+      <c r="B1943" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1943" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1943" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1943" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1943" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1943" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:8">
+      <c r="A1944" s="5">
+        <v>1942</v>
+      </c>
+      <c r="B1944" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1944" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1944" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1944" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="G1944" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1944" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:8">
+      <c r="A1945" s="5">
+        <v>1943</v>
+      </c>
+      <c r="B1945" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1945" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1945" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1945" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="G1945" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1945" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:8">
+      <c r="A1946" s="5">
+        <v>1944</v>
+      </c>
+      <c r="B1946" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1946" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1946" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1946" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1946" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1946" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:8">
+      <c r="A1947" s="5">
+        <v>1945</v>
+      </c>
+      <c r="B1947" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1947" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1947" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1947" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="G1947" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="H1947" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:8">
+      <c r="A1948" s="5">
+        <v>1946</v>
+      </c>
+      <c r="B1948" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1948" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1948" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1948" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1948" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="H1948" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:8">
+      <c r="A1949" s="5">
+        <v>1947</v>
+      </c>
+      <c r="B1949" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1949" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1949" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1949" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1949" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="H1949" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:8">
+      <c r="A1950" s="5">
+        <v>1948</v>
+      </c>
+      <c r="B1950" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1950" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1950" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1950" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1950" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="H1950" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:8">
+      <c r="A1951" s="5">
+        <v>1949</v>
+      </c>
+      <c r="B1951" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1951" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1951" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1951" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1951" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="H1951" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:8">
+      <c r="A1952" s="5">
+        <v>1950</v>
+      </c>
+      <c r="B1952" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1952" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1952" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1952" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="G1952" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1952" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:8">
+      <c r="A1953" s="5">
+        <v>1951</v>
+      </c>
+      <c r="B1953" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1953" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1953" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1953" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1953" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1953" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:8">
+      <c r="A1954" s="5">
+        <v>1952</v>
+      </c>
+      <c r="B1954" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1954" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1954" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1954" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1954" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="H1954" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:8">
+      <c r="A1955" s="5">
+        <v>1953</v>
+      </c>
+      <c r="B1955" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1955" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1955" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1955" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1955" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="H1955" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:8">
+      <c r="A1956" s="5">
+        <v>1954</v>
+      </c>
+      <c r="B1956" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1956" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1956" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1956" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1956" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1956" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:8">
+      <c r="A1957" s="5">
+        <v>1955</v>
+      </c>
+      <c r="B1957" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1957" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1957" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1957" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1957" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1957" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:8">
+      <c r="A1958" s="5">
+        <v>1956</v>
+      </c>
+      <c r="B1958" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1958" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1958" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1958" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1958" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1958" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:8">
+      <c r="A1959" s="5">
+        <v>1957</v>
+      </c>
+      <c r="B1959" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1959" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1959" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1959" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1959" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1959" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:8">
+      <c r="A1960" s="5">
+        <v>1958</v>
+      </c>
+      <c r="B1960" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1960" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1960" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1960" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1960" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1960" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:8">
+      <c r="A1961" s="5">
+        <v>1959</v>
+      </c>
+      <c r="B1961" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1961" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1961" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1961" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1961" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1961" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:8">
+      <c r="A1962" s="5">
+        <v>1960</v>
+      </c>
+      <c r="B1962" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1962" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1962" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1962" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1962" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1962" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:8">
+      <c r="A1963" s="5">
+        <v>1961</v>
+      </c>
+      <c r="B1963" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1963" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1963" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1963" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1963" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1963" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:8">
+      <c r="A1964" s="5">
+        <v>1962</v>
+      </c>
+      <c r="B1964" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1964" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1964" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1964" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1964" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1964" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:8">
+      <c r="A1965" s="5">
+        <v>1963</v>
+      </c>
+      <c r="B1965" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1965" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1965" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1965" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1965" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1965" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:8">
+      <c r="A1966" s="5">
+        <v>1964</v>
+      </c>
+      <c r="B1966" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1966" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1966" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1966" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1966" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1966" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:8">
+      <c r="A1967" s="5">
+        <v>1965</v>
+      </c>
+      <c r="B1967" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1967" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1967" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1967" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1967" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1967" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:8">
+      <c r="A1968" s="5">
+        <v>1966</v>
+      </c>
+      <c r="B1968" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1968" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1968" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F1968" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1968" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1968" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$1968</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2007</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7878" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8034" uniqueCount="929">
   <si>
     <t>備考</t>
   </si>
@@ -6289,6 +6289,82 @@
   </si>
   <si>
     <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下市町</t>
+  </si>
+  <si>
+    <t>高取町</t>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
@@ -6406,7 +6482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -6514,11 +6590,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6611,6 +6724,30 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6827,11 +6964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1968"/>
+  <dimension ref="A1:J2007"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1932" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1938" sqref="H1938"/>
+      <pane ySplit="2" topLeftCell="A1989" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2008" sqref="G2008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
@@ -6856,7 +6993,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44195.758097569444</v>
+        <v>44196.73433472222</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -56794,14 +56931,977 @@
       <c r="D1968" s="6">
         <v>44195</v>
       </c>
-      <c r="F1968" s="6" t="s">
+      <c r="F1968" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G1968" s="5" t="s">
+      <c r="G1968" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H1968" s="5" t="s">
+      <c r="H1968" s="38" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:9">
+      <c r="A1969" s="5">
+        <v>1967</v>
+      </c>
+      <c r="B1969" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1969" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1969" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1969" s="31"/>
+      <c r="F1969" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1969" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="H1969" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1969" s="32"/>
+    </row>
+    <row r="1970" spans="1:9">
+      <c r="A1970" s="5">
+        <v>1968</v>
+      </c>
+      <c r="B1970" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1970" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1970" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1970" s="31"/>
+      <c r="F1970" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1970" s="35" t="s">
+        <v>927</v>
+      </c>
+      <c r="H1970" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1970" s="32"/>
+    </row>
+    <row r="1971" spans="1:9">
+      <c r="A1971" s="5">
+        <v>1969</v>
+      </c>
+      <c r="B1971" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1971" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1971" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1971" s="31"/>
+      <c r="F1971" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1971" s="35" t="s">
+        <v>927</v>
+      </c>
+      <c r="H1971" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1971" s="32"/>
+    </row>
+    <row r="1972" spans="1:9">
+      <c r="A1972" s="5">
+        <v>1970</v>
+      </c>
+      <c r="B1972" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1972" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1972" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1972" s="31"/>
+      <c r="F1972" s="35" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1972" s="35" t="s">
+        <v>918</v>
+      </c>
+      <c r="H1972" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1972" s="32"/>
+    </row>
+    <row r="1973" spans="1:9">
+      <c r="A1973" s="5">
+        <v>1971</v>
+      </c>
+      <c r="B1973" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1973" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1973" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1973" s="31"/>
+      <c r="F1973" s="35" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1973" s="35" t="s">
+        <v>922</v>
+      </c>
+      <c r="H1973" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1973" s="32"/>
+    </row>
+    <row r="1974" spans="1:9">
+      <c r="A1974" s="5">
+        <v>1972</v>
+      </c>
+      <c r="B1974" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1974" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1974" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1974" s="31"/>
+      <c r="F1974" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1974" s="35" t="s">
+        <v>922</v>
+      </c>
+      <c r="H1974" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1974" s="32"/>
+    </row>
+    <row r="1975" spans="1:9">
+      <c r="A1975" s="5">
+        <v>1973</v>
+      </c>
+      <c r="B1975" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1975" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1975" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1975" s="31"/>
+      <c r="F1975" s="36" t="s">
+        <v>925</v>
+      </c>
+      <c r="G1975" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1975" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1975" s="32"/>
+    </row>
+    <row r="1976" spans="1:9">
+      <c r="A1976" s="5">
+        <v>1974</v>
+      </c>
+      <c r="B1976" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1976" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1976" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1976" s="31"/>
+      <c r="F1976" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1976" s="35" t="s">
+        <v>918</v>
+      </c>
+      <c r="H1976" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1976" s="32"/>
+    </row>
+    <row r="1977" spans="1:9">
+      <c r="A1977" s="5">
+        <v>1975</v>
+      </c>
+      <c r="B1977" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1977" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1977" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1977" s="31"/>
+      <c r="F1977" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1977" s="35" t="s">
+        <v>922</v>
+      </c>
+      <c r="H1977" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1977" s="32"/>
+    </row>
+    <row r="1978" spans="1:9">
+      <c r="A1978" s="5">
+        <v>1976</v>
+      </c>
+      <c r="B1978" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1978" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1978" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1978" s="31"/>
+      <c r="F1978" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1978" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="H1978" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1978" s="32"/>
+    </row>
+    <row r="1979" spans="1:9">
+      <c r="A1979" s="5">
+        <v>1977</v>
+      </c>
+      <c r="B1979" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1979" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1979" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1979" s="31"/>
+      <c r="F1979" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1979" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1979" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1979" s="32"/>
+    </row>
+    <row r="1980" spans="1:9">
+      <c r="A1980" s="5">
+        <v>1978</v>
+      </c>
+      <c r="B1980" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1980" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1980" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1980" s="31"/>
+      <c r="F1980" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="G1980" s="35" t="s">
+        <v>922</v>
+      </c>
+      <c r="H1980" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1980" s="32"/>
+    </row>
+    <row r="1981" spans="1:9">
+      <c r="A1981" s="5">
+        <v>1979</v>
+      </c>
+      <c r="B1981" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1981" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1981" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1981" s="31"/>
+      <c r="F1981" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1981" s="35" t="s">
+        <v>920</v>
+      </c>
+      <c r="H1981" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1981" s="32"/>
+    </row>
+    <row r="1982" spans="1:9">
+      <c r="A1982" s="5">
+        <v>1980</v>
+      </c>
+      <c r="B1982" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1982" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1982" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1982" s="31"/>
+      <c r="F1982" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1982" s="35" t="s">
+        <v>928</v>
+      </c>
+      <c r="H1982" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1982" s="32"/>
+    </row>
+    <row r="1983" spans="1:9">
+      <c r="A1983" s="5">
+        <v>1981</v>
+      </c>
+      <c r="B1983" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1983" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1983" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1983" s="31"/>
+      <c r="F1983" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="G1983" s="35" t="s">
+        <v>920</v>
+      </c>
+      <c r="H1983" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1983" s="32"/>
+    </row>
+    <row r="1984" spans="1:9">
+      <c r="A1984" s="5">
+        <v>1982</v>
+      </c>
+      <c r="B1984" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1984" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1984" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1984" s="31"/>
+      <c r="F1984" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="G1984" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="H1984" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1984" s="32"/>
+    </row>
+    <row r="1985" spans="1:9">
+      <c r="A1985" s="5">
+        <v>1983</v>
+      </c>
+      <c r="B1985" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1985" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1985" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1985" s="31"/>
+      <c r="F1985" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="G1985" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1985" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1985" s="32"/>
+    </row>
+    <row r="1986" spans="1:9">
+      <c r="A1986" s="5">
+        <v>1984</v>
+      </c>
+      <c r="B1986" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1986" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1986" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1986" s="31"/>
+      <c r="F1986" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1986" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1986" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1986" s="32"/>
+    </row>
+    <row r="1987" spans="1:9">
+      <c r="A1987" s="5">
+        <v>1985</v>
+      </c>
+      <c r="B1987" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1987" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1987" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1987" s="31"/>
+      <c r="F1987" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1987" s="35" t="s">
+        <v>920</v>
+      </c>
+      <c r="H1987" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1987" s="32"/>
+    </row>
+    <row r="1988" spans="1:9">
+      <c r="A1988" s="5">
+        <v>1986</v>
+      </c>
+      <c r="B1988" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1988" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1988" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1988" s="31"/>
+      <c r="F1988" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="G1988" s="35" t="s">
+        <v>928</v>
+      </c>
+      <c r="H1988" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1988" s="32"/>
+    </row>
+    <row r="1989" spans="1:9">
+      <c r="A1989" s="5">
+        <v>1987</v>
+      </c>
+      <c r="B1989" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1989" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1989" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1989" s="31"/>
+      <c r="F1989" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1989" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="H1989" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1989" s="32"/>
+    </row>
+    <row r="1990" spans="1:9">
+      <c r="A1990" s="5">
+        <v>1988</v>
+      </c>
+      <c r="B1990" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1990" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1990" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1990" s="31"/>
+      <c r="F1990" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1990" s="35" t="s">
+        <v>918</v>
+      </c>
+      <c r="H1990" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1990" s="32"/>
+    </row>
+    <row r="1991" spans="1:9">
+      <c r="A1991" s="5">
+        <v>1989</v>
+      </c>
+      <c r="B1991" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1991" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1991" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1991" s="31"/>
+      <c r="F1991" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1991" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="H1991" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1991" s="32"/>
+    </row>
+    <row r="1992" spans="1:9">
+      <c r="A1992" s="5">
+        <v>1990</v>
+      </c>
+      <c r="B1992" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1992" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1992" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1992" s="31"/>
+      <c r="F1992" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1992" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1992" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1992" s="32"/>
+    </row>
+    <row r="1993" spans="1:9">
+      <c r="A1993" s="5">
+        <v>1991</v>
+      </c>
+      <c r="B1993" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1993" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1993" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1993" s="31"/>
+      <c r="F1993" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1993" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="H1993" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1993" s="32"/>
+    </row>
+    <row r="1994" spans="1:9">
+      <c r="A1994" s="5">
+        <v>1992</v>
+      </c>
+      <c r="B1994" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1994" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1994" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1994" s="31"/>
+      <c r="F1994" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1994" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="H1994" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1994" s="32"/>
+    </row>
+    <row r="1995" spans="1:9">
+      <c r="A1995" s="5">
+        <v>1993</v>
+      </c>
+      <c r="B1995" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1995" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1995" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1995" s="31"/>
+      <c r="F1995" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1995" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1995" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1995" s="32"/>
+    </row>
+    <row r="1996" spans="1:9">
+      <c r="A1996" s="5">
+        <v>1994</v>
+      </c>
+      <c r="B1996" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1996" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1996" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1996" s="31"/>
+      <c r="F1996" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1996" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1996" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1996" s="32"/>
+    </row>
+    <row r="1997" spans="1:9">
+      <c r="A1997" s="5">
+        <v>1995</v>
+      </c>
+      <c r="B1997" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1997" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1997" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1997" s="31"/>
+      <c r="F1997" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1997" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1997" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1997" s="32"/>
+    </row>
+    <row r="1998" spans="1:9">
+      <c r="A1998" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B1998" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1998" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1998" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1998" s="31"/>
+      <c r="F1998" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1998" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1998" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1998" s="32"/>
+    </row>
+    <row r="1999" spans="1:9">
+      <c r="A1999" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B1999" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C1999" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1999" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E1999" s="31"/>
+      <c r="F1999" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1999" s="35" t="s">
+        <v>918</v>
+      </c>
+      <c r="H1999" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1999" s="32"/>
+    </row>
+    <row r="2000" spans="1:9">
+      <c r="A2000" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B2000" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2000" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2000" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E2000" s="31"/>
+      <c r="F2000" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G2000" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="H2000" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2000" s="32"/>
+    </row>
+    <row r="2001" spans="1:9">
+      <c r="A2001" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B2001" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2001" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2001" s="6">
+        <v>44196</v>
+      </c>
+      <c r="E2001" s="31"/>
+      <c r="F2001" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="G2001" s="35" t="s">
+        <v>928</v>
+      </c>
+      <c r="H2001" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2001" s="32"/>
+    </row>
+    <row r="2002" spans="1:9">
+      <c r="A2002" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B2002" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2002" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2002" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2002" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="G2002" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="H2002" s="14" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:9">
+      <c r="A2003" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B2003" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2003" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2003" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2003" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="G2003" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="H2003" s="5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:9">
+      <c r="A2004" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B2004" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2004" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2004" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2004" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="G2004" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="H2004" s="5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:9">
+      <c r="A2005" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B2005" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2005" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2005" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2005" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="G2005" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="H2005" s="5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:9">
+      <c r="A2006" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B2006" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2006" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2006" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2006" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="G2006" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="H2006" s="5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:9">
+      <c r="A2007" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B2007" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2007" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2007" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2007" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="G2007" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="H2007" s="5" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2007</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2079</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8034" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8322" uniqueCount="946">
   <si>
     <t>備考</t>
   </si>
@@ -6365,6 +6365,117 @@
   </si>
   <si>
     <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒滝村</t>
+    <rPh sb="0" eb="3">
+      <t>クロタキムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高取町</t>
+    <rPh sb="0" eb="3">
+      <t>タカトリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヨドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御所市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴセシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮城県</t>
+    <rPh sb="0" eb="3">
+      <t>ミヤギケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安堵町</t>
+  </si>
+  <si>
+    <t>明日香村</t>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
@@ -6964,11 +7075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2007"/>
+  <dimension ref="A1:J2079"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1989" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2008" sqref="G2008"/>
+      <pane ySplit="2" topLeftCell="A2039" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2058" sqref="H2058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
@@ -6993,7 +7104,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44196.73433472222</v>
+        <v>44198.666219791667</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -57902,6 +58013,1706 @@
       </c>
       <c r="H2007" s="5" t="s">
         <v>919</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:9">
+      <c r="A2008" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B2008" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2008" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2008" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2008" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2008" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2008" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:9">
+      <c r="A2009" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B2009" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2009" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2009" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2009" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="G2009" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="H2009" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:9">
+      <c r="A2010" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B2010" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2010" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2010" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2010" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="G2010" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2010" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:9">
+      <c r="A2011" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B2011" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2011" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2011" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2011" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2011" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="H2011" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:9">
+      <c r="A2012" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B2012" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2012" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2012" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2012" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2012" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="H2012" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:9">
+      <c r="A2013" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B2013" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2013" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2013" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2013" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2013" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2013" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:9">
+      <c r="A2014" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B2014" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2014" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2014" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2014" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2014" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="H2014" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:9">
+      <c r="A2015" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B2015" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2015" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2015" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2015" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2015" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="H2015" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:9">
+      <c r="A2016" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B2016" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2016" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2016" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2016" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2016" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2016" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:8">
+      <c r="A2017" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B2017" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2017" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2017" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2017" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2017" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2017" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:8">
+      <c r="A2018" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B2018" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2018" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2018" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2018" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2018" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2018" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:8">
+      <c r="A2019" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B2019" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2019" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2019" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2019" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="G2019" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2019" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:8">
+      <c r="A2020" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B2020" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2020" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2020" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2020" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2020" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2020" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:8">
+      <c r="A2021" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B2021" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2021" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2021" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2021" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2021" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2021" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:8">
+      <c r="A2022" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B2022" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2022" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2022" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2022" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2022" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2022" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:8">
+      <c r="A2023" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B2023" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2023" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2023" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2023" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2023" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2023" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:8">
+      <c r="A2024" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B2024" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2024" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2024" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2024" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2024" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2024" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:8">
+      <c r="A2025" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B2025" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2025" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2025" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2025" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2025" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2025" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:8">
+      <c r="A2026" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B2026" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2026" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2026" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2026" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2026" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2026" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:8">
+      <c r="A2027" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B2027" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2027" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2027" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2027" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2027" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2027" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:8">
+      <c r="A2028" s="5">
+        <v>2026</v>
+      </c>
+      <c r="B2028" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2028" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2028" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2028" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2028" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2028" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:8">
+      <c r="A2029" s="5">
+        <v>2027</v>
+      </c>
+      <c r="B2029" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2029" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2029" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2029" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="G2029" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2029" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:8">
+      <c r="A2030" s="5">
+        <v>2028</v>
+      </c>
+      <c r="B2030" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2030" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2030" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2030" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2030" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2030" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:8">
+      <c r="A2031" s="5">
+        <v>2029</v>
+      </c>
+      <c r="B2031" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2031" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2031" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2031" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2031" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2031" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:8">
+      <c r="A2032" s="5">
+        <v>2030</v>
+      </c>
+      <c r="B2032" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2032" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2032" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2032" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2032" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2032" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:9">
+      <c r="A2033" s="5">
+        <v>2031</v>
+      </c>
+      <c r="B2033" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2033" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2033" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2033" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2033" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2033" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:9">
+      <c r="A2034" s="5">
+        <v>2032</v>
+      </c>
+      <c r="B2034" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2034" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2034" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2034" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2034" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2034" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:9">
+      <c r="A2035" s="5">
+        <v>2033</v>
+      </c>
+      <c r="B2035" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2035" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2035" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2035" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2035" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2035" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:9">
+      <c r="A2036" s="5">
+        <v>2034</v>
+      </c>
+      <c r="B2036" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2036" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2036" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2036" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2036" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2036" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:9">
+      <c r="A2037" s="5">
+        <v>2035</v>
+      </c>
+      <c r="B2037" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2037" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2037" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2037" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2037" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2037" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:9">
+      <c r="A2038" s="5">
+        <v>2036</v>
+      </c>
+      <c r="B2038" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2038" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2038" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2038" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2038" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2038" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:9">
+      <c r="A2039" s="5">
+        <v>2037</v>
+      </c>
+      <c r="B2039" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2039" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2039" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2039" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2039" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2039" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:9">
+      <c r="A2040" s="5">
+        <v>2038</v>
+      </c>
+      <c r="B2040" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2040" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2040" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2040" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2040" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2040" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:9">
+      <c r="A2041" s="5">
+        <v>2039</v>
+      </c>
+      <c r="B2041" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2041" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2041" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2041" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2041" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2041" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:9">
+      <c r="A2042" s="5">
+        <v>2040</v>
+      </c>
+      <c r="B2042" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2042" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2042" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2042" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2042" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2042" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:9">
+      <c r="A2043" s="5">
+        <v>2041</v>
+      </c>
+      <c r="B2043" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2043" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2043" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2043" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2043" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2043" s="38" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:9">
+      <c r="A2044" s="5">
+        <v>2042</v>
+      </c>
+      <c r="B2044" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2044" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2044" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2044" s="31"/>
+      <c r="F2044" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="G2044" s="34" t="s">
+        <v>940</v>
+      </c>
+      <c r="H2044" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2044" s="32"/>
+    </row>
+    <row r="2045" spans="1:9">
+      <c r="A2045" s="5">
+        <v>2043</v>
+      </c>
+      <c r="B2045" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2045" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2045" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2045" s="31"/>
+      <c r="F2045" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2045" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2045" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2045" s="32"/>
+    </row>
+    <row r="2046" spans="1:9">
+      <c r="A2046" s="5">
+        <v>2044</v>
+      </c>
+      <c r="B2046" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2046" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2046" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2046" s="31"/>
+      <c r="F2046" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2046" s="34" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2046" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2046" s="32"/>
+    </row>
+    <row r="2047" spans="1:9">
+      <c r="A2047" s="5">
+        <v>2045</v>
+      </c>
+      <c r="B2047" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2047" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2047" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2047" s="31"/>
+      <c r="F2047" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="G2047" s="34" t="s">
+        <v>941</v>
+      </c>
+      <c r="H2047" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2047" s="32"/>
+    </row>
+    <row r="2048" spans="1:9">
+      <c r="A2048" s="5">
+        <v>2046</v>
+      </c>
+      <c r="B2048" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2048" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2048" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2048" s="31"/>
+      <c r="F2048" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="G2048" s="34" t="s">
+        <v>940</v>
+      </c>
+      <c r="H2048" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2048" s="32"/>
+    </row>
+    <row r="2049" spans="1:9">
+      <c r="A2049" s="5">
+        <v>2047</v>
+      </c>
+      <c r="B2049" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2049" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2049" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2049" s="31"/>
+      <c r="F2049" s="34" t="s">
+        <v>938</v>
+      </c>
+      <c r="G2049" s="34" t="s">
+        <v>941</v>
+      </c>
+      <c r="H2049" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2049" s="32"/>
+    </row>
+    <row r="2050" spans="1:9">
+      <c r="A2050" s="5">
+        <v>2048</v>
+      </c>
+      <c r="B2050" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2050" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2050" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2050" s="31"/>
+      <c r="F2050" s="34" t="s">
+        <v>926</v>
+      </c>
+      <c r="G2050" s="34" t="s">
+        <v>941</v>
+      </c>
+      <c r="H2050" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2050" s="32"/>
+    </row>
+    <row r="2051" spans="1:9">
+      <c r="A2051" s="5">
+        <v>2049</v>
+      </c>
+      <c r="B2051" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2051" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2051" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2051" s="31"/>
+      <c r="F2051" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="G2051" s="34" t="s">
+        <v>942</v>
+      </c>
+      <c r="H2051" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2051" s="32"/>
+    </row>
+    <row r="2052" spans="1:9">
+      <c r="A2052" s="5">
+        <v>2050</v>
+      </c>
+      <c r="B2052" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2052" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2052" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2052" s="31"/>
+      <c r="F2052" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2052" s="34" t="s">
+        <v>941</v>
+      </c>
+      <c r="H2052" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2052" s="32"/>
+    </row>
+    <row r="2053" spans="1:9">
+      <c r="A2053" s="5">
+        <v>2051</v>
+      </c>
+      <c r="B2053" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2053" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2053" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2053" s="31"/>
+      <c r="F2053" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2053" s="34" t="s">
+        <v>941</v>
+      </c>
+      <c r="H2053" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2053" s="32"/>
+    </row>
+    <row r="2054" spans="1:9">
+      <c r="A2054" s="5">
+        <v>2052</v>
+      </c>
+      <c r="B2054" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2054" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2054" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2054" s="31"/>
+      <c r="F2054" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="G2054" s="34" t="s">
+        <v>943</v>
+      </c>
+      <c r="H2054" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2054" s="32"/>
+    </row>
+    <row r="2055" spans="1:9">
+      <c r="A2055" s="5">
+        <v>2053</v>
+      </c>
+      <c r="B2055" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2055" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2055" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2055" s="31"/>
+      <c r="F2055" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="G2055" s="34" t="s">
+        <v>944</v>
+      </c>
+      <c r="H2055" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2055" s="32"/>
+    </row>
+    <row r="2056" spans="1:9">
+      <c r="A2056" s="5">
+        <v>2054</v>
+      </c>
+      <c r="B2056" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2056" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2056" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2056" s="31"/>
+      <c r="F2056" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="G2056" s="34" t="s">
+        <v>941</v>
+      </c>
+      <c r="H2056" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2056" s="32"/>
+    </row>
+    <row r="2057" spans="1:9">
+      <c r="A2057" s="5">
+        <v>2055</v>
+      </c>
+      <c r="B2057" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2057" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2057" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2057" s="31"/>
+      <c r="F2057" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="G2057" s="34" t="s">
+        <v>941</v>
+      </c>
+      <c r="H2057" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2057" s="32"/>
+    </row>
+    <row r="2058" spans="1:9">
+      <c r="A2058" s="5">
+        <v>2056</v>
+      </c>
+      <c r="B2058" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2058" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2058" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2058" s="31"/>
+      <c r="F2058" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="G2058" s="34" t="s">
+        <v>942</v>
+      </c>
+      <c r="H2058" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2058" s="32"/>
+    </row>
+    <row r="2059" spans="1:9">
+      <c r="A2059" s="5">
+        <v>2057</v>
+      </c>
+      <c r="B2059" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2059" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2059" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2059" s="31"/>
+      <c r="F2059" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="G2059" s="34" t="s">
+        <v>942</v>
+      </c>
+      <c r="H2059" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2059" s="32"/>
+    </row>
+    <row r="2060" spans="1:9">
+      <c r="A2060" s="5">
+        <v>2058</v>
+      </c>
+      <c r="B2060" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2060" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2060" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2060" s="31"/>
+      <c r="F2060" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="G2060" s="34" t="s">
+        <v>940</v>
+      </c>
+      <c r="H2060" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2060" s="32"/>
+    </row>
+    <row r="2061" spans="1:9">
+      <c r="A2061" s="5">
+        <v>2059</v>
+      </c>
+      <c r="B2061" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2061" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2061" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2061" s="31"/>
+      <c r="F2061" s="34" t="s">
+        <v>939</v>
+      </c>
+      <c r="G2061" s="34" t="s">
+        <v>942</v>
+      </c>
+      <c r="H2061" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2061" s="32"/>
+    </row>
+    <row r="2062" spans="1:9">
+      <c r="A2062" s="5">
+        <v>2060</v>
+      </c>
+      <c r="B2062" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2062" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2062" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2062" s="31"/>
+      <c r="F2062" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="G2062" s="34" t="s">
+        <v>942</v>
+      </c>
+      <c r="H2062" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2062" s="32"/>
+    </row>
+    <row r="2063" spans="1:9">
+      <c r="A2063" s="5">
+        <v>2061</v>
+      </c>
+      <c r="B2063" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2063" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2063" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2063" s="31"/>
+      <c r="F2063" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2063" s="34" t="s">
+        <v>945</v>
+      </c>
+      <c r="H2063" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2063" s="32"/>
+    </row>
+    <row r="2064" spans="1:9">
+      <c r="A2064" s="5">
+        <v>2062</v>
+      </c>
+      <c r="B2064" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2064" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2064" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2064" s="31"/>
+      <c r="F2064" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="G2064" s="34" t="s">
+        <v>941</v>
+      </c>
+      <c r="H2064" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2064" s="32"/>
+    </row>
+    <row r="2065" spans="1:9">
+      <c r="A2065" s="5">
+        <v>2063</v>
+      </c>
+      <c r="B2065" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2065" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2065" s="6">
+        <v>44198</v>
+      </c>
+      <c r="E2065" s="31"/>
+      <c r="F2065" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="G2065" s="34" t="s">
+        <v>940</v>
+      </c>
+      <c r="H2065" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2065" s="32"/>
+    </row>
+    <row r="2066" spans="1:9">
+      <c r="A2066" s="5">
+        <v>2064</v>
+      </c>
+      <c r="B2066" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2066" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2066" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2066" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2066" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2066" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:9">
+      <c r="A2067" s="5">
+        <v>2065</v>
+      </c>
+      <c r="B2067" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2067" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2067" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2067" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2067" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2067" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:9">
+      <c r="A2068" s="5">
+        <v>2066</v>
+      </c>
+      <c r="B2068" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2068" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2068" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2068" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2068" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2068" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:9">
+      <c r="A2069" s="5">
+        <v>2067</v>
+      </c>
+      <c r="B2069" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2069" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2069" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2069" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2069" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2069" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:9">
+      <c r="A2070" s="5">
+        <v>2068</v>
+      </c>
+      <c r="B2070" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2070" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2070" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2070" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2070" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2070" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:9">
+      <c r="A2071" s="5">
+        <v>2069</v>
+      </c>
+      <c r="B2071" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2071" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2071" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2071" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2071" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2071" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:9">
+      <c r="A2072" s="5">
+        <v>2070</v>
+      </c>
+      <c r="B2072" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2072" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2072" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2072" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2072" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2072" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:9">
+      <c r="A2073" s="5">
+        <v>2071</v>
+      </c>
+      <c r="B2073" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2073" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2073" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2073" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2073" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2073" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:9">
+      <c r="A2074" s="5">
+        <v>2072</v>
+      </c>
+      <c r="B2074" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2074" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2074" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2074" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2074" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2074" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:9">
+      <c r="A2075" s="5">
+        <v>2073</v>
+      </c>
+      <c r="B2075" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2075" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2075" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2075" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2075" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2075" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:9">
+      <c r="A2076" s="5">
+        <v>2074</v>
+      </c>
+      <c r="B2076" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2076" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2076" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2076" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G2076" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2076" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:9">
+      <c r="A2077" s="5">
+        <v>2075</v>
+      </c>
+      <c r="B2077" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2077" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2077" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2077" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2077" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2077" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:9">
+      <c r="A2078" s="5">
+        <v>2076</v>
+      </c>
+      <c r="B2078" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2078" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2078" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2078" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2078" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2078" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:9">
+      <c r="A2079" s="5">
+        <v>2077</v>
+      </c>
+      <c r="B2079" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2079" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2079" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2079" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2079" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2079" s="5" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2079</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2186</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8322" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8728" uniqueCount="967">
   <si>
     <t>備考</t>
   </si>
@@ -6478,6 +6478,147 @@
     <t>80代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>県外</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広陵町</t>
+    <rPh sb="0" eb="3">
+      <t>コウリョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斑鳩町</t>
+    <rPh sb="0" eb="3">
+      <t>イカルガチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川西町</t>
+    <rPh sb="0" eb="3">
+      <t>カワニシチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三宅町</t>
+    <rPh sb="0" eb="3">
+      <t>ミヤケチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高取町</t>
+    <rPh sb="0" eb="3">
+      <t>タカトリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良市</t>
+    <rPh sb="0" eb="3">
+      <t>ナラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6492,7 +6633,7 @@
     <numFmt numFmtId="178" formatCode="#&quot;代&quot;"/>
     <numFmt numFmtId="179" formatCode="#"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6560,6 +6701,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6593,7 +6741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -6738,11 +6886,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6859,6 +7029,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7075,36 +7266,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2079"/>
+  <dimension ref="A1:J2186"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2039" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2058" sqref="H2058"/>
+      <pane ySplit="2" topLeftCell="A2178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2185" sqref="F2185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
-    <col min="4" max="5" width="12.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44198.666219791667</v>
+        <v>44202.770884490739</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -7114,7 +7305,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="26">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -55823,6 +56014,9 @@
       <c r="D1915" s="6">
         <v>44194</v>
       </c>
+      <c r="E1915" s="6">
+        <v>44191</v>
+      </c>
       <c r="F1915" s="6" t="s">
         <v>898</v>
       </c>
@@ -55846,6 +56040,9 @@
       <c r="D1916" s="6">
         <v>44194</v>
       </c>
+      <c r="E1916" s="6">
+        <v>44191</v>
+      </c>
       <c r="F1916" s="6" t="s">
         <v>164</v>
       </c>
@@ -55892,6 +56089,9 @@
       <c r="D1918" s="6">
         <v>44194</v>
       </c>
+      <c r="E1918" s="6">
+        <v>44190</v>
+      </c>
       <c r="F1918" s="6" t="s">
         <v>899</v>
       </c>
@@ -55938,6 +56138,9 @@
       <c r="D1920" s="6">
         <v>44194</v>
       </c>
+      <c r="E1920" s="6">
+        <v>44190</v>
+      </c>
       <c r="F1920" s="6" t="s">
         <v>902</v>
       </c>
@@ -55961,6 +56164,9 @@
       <c r="D1921" s="6">
         <v>44194</v>
       </c>
+      <c r="E1921" s="6">
+        <v>44193</v>
+      </c>
       <c r="F1921" s="6" t="s">
         <v>31</v>
       </c>
@@ -55984,6 +56190,9 @@
       <c r="D1922" s="6">
         <v>44194</v>
       </c>
+      <c r="E1922" s="6">
+        <v>44187</v>
+      </c>
       <c r="F1922" s="6" t="s">
         <v>31</v>
       </c>
@@ -56053,6 +56262,9 @@
       <c r="D1925" s="6">
         <v>44194</v>
       </c>
+      <c r="E1925" s="6">
+        <v>44187</v>
+      </c>
       <c r="F1925" s="6" t="s">
         <v>29</v>
       </c>
@@ -56076,6 +56288,9 @@
       <c r="D1926" s="6">
         <v>44194</v>
       </c>
+      <c r="E1926" s="6">
+        <v>44187</v>
+      </c>
       <c r="F1926" s="6" t="s">
         <v>134</v>
       </c>
@@ -56099,6 +56314,9 @@
       <c r="D1927" s="6">
         <v>44194</v>
       </c>
+      <c r="E1927" s="6">
+        <v>44188</v>
+      </c>
       <c r="F1927" s="6" t="s">
         <v>134</v>
       </c>
@@ -56122,6 +56340,9 @@
       <c r="D1928" s="6">
         <v>44194</v>
       </c>
+      <c r="E1928" s="6">
+        <v>44189</v>
+      </c>
       <c r="F1928" s="6" t="s">
         <v>31</v>
       </c>
@@ -56145,6 +56366,9 @@
       <c r="D1929" s="6">
         <v>44194</v>
       </c>
+      <c r="E1929" s="6">
+        <v>44186</v>
+      </c>
       <c r="F1929" s="6" t="s">
         <v>95</v>
       </c>
@@ -56168,6 +56392,9 @@
       <c r="D1930" s="6">
         <v>44194</v>
       </c>
+      <c r="E1930" s="6">
+        <v>44190</v>
+      </c>
       <c r="F1930" s="6" t="s">
         <v>145</v>
       </c>
@@ -56191,6 +56418,9 @@
       <c r="D1931" s="6">
         <v>44194</v>
       </c>
+      <c r="E1931" s="6">
+        <v>44192</v>
+      </c>
       <c r="F1931" s="6" t="s">
         <v>899</v>
       </c>
@@ -56214,6 +56444,9 @@
       <c r="D1932" s="6">
         <v>44194</v>
       </c>
+      <c r="E1932" s="6">
+        <v>44191</v>
+      </c>
       <c r="F1932" s="6" t="s">
         <v>89</v>
       </c>
@@ -56237,6 +56470,9 @@
       <c r="D1933" s="6">
         <v>44194</v>
       </c>
+      <c r="E1933" s="6">
+        <v>44192</v>
+      </c>
       <c r="F1933" s="6" t="s">
         <v>73</v>
       </c>
@@ -56260,6 +56496,9 @@
       <c r="D1934" s="6">
         <v>44194</v>
       </c>
+      <c r="E1934" s="6">
+        <v>44193</v>
+      </c>
       <c r="F1934" s="6" t="s">
         <v>909</v>
       </c>
@@ -56283,6 +56522,9 @@
       <c r="D1935" s="6">
         <v>44194</v>
       </c>
+      <c r="E1935" s="6">
+        <v>44187</v>
+      </c>
       <c r="F1935" s="6" t="s">
         <v>910</v>
       </c>
@@ -56306,6 +56548,9 @@
       <c r="D1936" s="6">
         <v>44194</v>
       </c>
+      <c r="E1936" s="6">
+        <v>44185</v>
+      </c>
       <c r="F1936" s="6" t="s">
         <v>910</v>
       </c>
@@ -56329,6 +56574,9 @@
       <c r="D1937" s="6">
         <v>44194</v>
       </c>
+      <c r="E1937" s="6">
+        <v>44188</v>
+      </c>
       <c r="F1937" s="6" t="s">
         <v>910</v>
       </c>
@@ -56352,6 +56600,9 @@
       <c r="D1938" s="6">
         <v>44194</v>
       </c>
+      <c r="E1938" s="6">
+        <v>44191</v>
+      </c>
       <c r="F1938" s="6" t="s">
         <v>910</v>
       </c>
@@ -56375,6 +56626,9 @@
       <c r="D1939" s="6">
         <v>44195</v>
       </c>
+      <c r="E1939" s="6">
+        <v>44193</v>
+      </c>
       <c r="F1939" s="6" t="s">
         <v>29</v>
       </c>
@@ -56444,6 +56698,9 @@
       <c r="D1942" s="6">
         <v>44195</v>
       </c>
+      <c r="E1942" s="6">
+        <v>44191</v>
+      </c>
       <c r="F1942" s="6" t="s">
         <v>95</v>
       </c>
@@ -56467,6 +56724,9 @@
       <c r="D1943" s="6">
         <v>44195</v>
       </c>
+      <c r="E1943" s="6">
+        <v>44191</v>
+      </c>
       <c r="F1943" s="6" t="s">
         <v>145</v>
       </c>
@@ -56536,6 +56796,9 @@
       <c r="D1946" s="6">
         <v>44195</v>
       </c>
+      <c r="E1946" s="6">
+        <v>44192</v>
+      </c>
       <c r="F1946" s="6" t="s">
         <v>31</v>
       </c>
@@ -56559,6 +56822,9 @@
       <c r="D1947" s="6">
         <v>44195</v>
       </c>
+      <c r="E1947" s="6">
+        <v>44192</v>
+      </c>
       <c r="F1947" s="6" t="s">
         <v>912</v>
       </c>
@@ -56582,6 +56848,9 @@
       <c r="D1948" s="6">
         <v>44195</v>
       </c>
+      <c r="E1948" s="6">
+        <v>44187</v>
+      </c>
       <c r="F1948" s="6" t="s">
         <v>73</v>
       </c>
@@ -56605,6 +56874,9 @@
       <c r="D1949" s="6">
         <v>44195</v>
       </c>
+      <c r="E1949" s="6">
+        <v>44189</v>
+      </c>
       <c r="F1949" s="6" t="s">
         <v>73</v>
       </c>
@@ -56651,6 +56923,9 @@
       <c r="D1951" s="6">
         <v>44195</v>
       </c>
+      <c r="E1951" s="6">
+        <v>44193</v>
+      </c>
       <c r="F1951" s="6" t="s">
         <v>73</v>
       </c>
@@ -56674,6 +56949,9 @@
       <c r="D1952" s="6">
         <v>44195</v>
       </c>
+      <c r="E1952" s="6">
+        <v>44191</v>
+      </c>
       <c r="F1952" s="6" t="s">
         <v>913</v>
       </c>
@@ -56697,6 +56975,9 @@
       <c r="D1953" s="6">
         <v>44195</v>
       </c>
+      <c r="E1953" s="6">
+        <v>44190</v>
+      </c>
       <c r="F1953" s="6" t="s">
         <v>89</v>
       </c>
@@ -56720,6 +57001,9 @@
       <c r="D1954" s="6">
         <v>44195</v>
       </c>
+      <c r="E1954" s="6">
+        <v>44186</v>
+      </c>
       <c r="F1954" s="6" t="s">
         <v>73</v>
       </c>
@@ -56743,6 +57027,9 @@
       <c r="D1955" s="6">
         <v>44195</v>
       </c>
+      <c r="E1955" s="6">
+        <v>44193</v>
+      </c>
       <c r="F1955" s="6" t="s">
         <v>72</v>
       </c>
@@ -56766,6 +57053,9 @@
       <c r="D1956" s="6">
         <v>44195</v>
       </c>
+      <c r="E1956" s="6">
+        <v>44192</v>
+      </c>
       <c r="F1956" s="6" t="s">
         <v>24</v>
       </c>
@@ -56812,6 +57102,9 @@
       <c r="D1958" s="6">
         <v>44195</v>
       </c>
+      <c r="E1958" s="6">
+        <v>44191</v>
+      </c>
       <c r="F1958" s="6" t="s">
         <v>24</v>
       </c>
@@ -56835,6 +57128,9 @@
       <c r="D1959" s="6">
         <v>44195</v>
       </c>
+      <c r="E1959" s="6">
+        <v>44189</v>
+      </c>
       <c r="F1959" s="6" t="s">
         <v>24</v>
       </c>
@@ -56858,6 +57154,9 @@
       <c r="D1960" s="6">
         <v>44195</v>
       </c>
+      <c r="E1960" s="6">
+        <v>44191</v>
+      </c>
       <c r="F1960" s="6" t="s">
         <v>24</v>
       </c>
@@ -56881,6 +57180,9 @@
       <c r="D1961" s="6">
         <v>44195</v>
       </c>
+      <c r="E1961" s="6">
+        <v>44192</v>
+      </c>
       <c r="F1961" s="6" t="s">
         <v>24</v>
       </c>
@@ -56904,6 +57206,9 @@
       <c r="D1962" s="6">
         <v>44195</v>
       </c>
+      <c r="E1962" s="6">
+        <v>44192</v>
+      </c>
       <c r="F1962" s="6" t="s">
         <v>24</v>
       </c>
@@ -56927,6 +57232,9 @@
       <c r="D1963" s="6">
         <v>44195</v>
       </c>
+      <c r="E1963" s="6">
+        <v>44193</v>
+      </c>
       <c r="F1963" s="6" t="s">
         <v>24</v>
       </c>
@@ -56950,6 +57258,9 @@
       <c r="D1964" s="6">
         <v>44195</v>
       </c>
+      <c r="E1964" s="6">
+        <v>44192</v>
+      </c>
       <c r="F1964" s="6" t="s">
         <v>24</v>
       </c>
@@ -56973,6 +57284,9 @@
       <c r="D1965" s="6">
         <v>44195</v>
       </c>
+      <c r="E1965" s="6">
+        <v>44192</v>
+      </c>
       <c r="F1965" s="6" t="s">
         <v>24</v>
       </c>
@@ -56996,6 +57310,9 @@
       <c r="D1966" s="6">
         <v>44195</v>
       </c>
+      <c r="E1966" s="6">
+        <v>44183</v>
+      </c>
       <c r="F1966" s="6" t="s">
         <v>24</v>
       </c>
@@ -57019,6 +57336,9 @@
       <c r="D1967" s="6">
         <v>44195</v>
       </c>
+      <c r="E1967" s="6">
+        <v>44191</v>
+      </c>
       <c r="F1967" s="6" t="s">
         <v>24</v>
       </c>
@@ -57042,6 +57362,9 @@
       <c r="D1968" s="6">
         <v>44195</v>
       </c>
+      <c r="E1968" s="6">
+        <v>44187</v>
+      </c>
       <c r="F1968" s="33" t="s">
         <v>24</v>
       </c>
@@ -57065,7 +57388,9 @@
       <c r="D1969" s="6">
         <v>44196</v>
       </c>
-      <c r="E1969" s="31"/>
+      <c r="E1969" s="31">
+        <v>44192</v>
+      </c>
       <c r="F1969" s="35" t="s">
         <v>635</v>
       </c>
@@ -57090,7 +57415,9 @@
       <c r="D1970" s="6">
         <v>44196</v>
       </c>
-      <c r="E1970" s="31"/>
+      <c r="E1970" s="31">
+        <v>44192</v>
+      </c>
       <c r="F1970" s="35" t="s">
         <v>635</v>
       </c>
@@ -57140,7 +57467,9 @@
       <c r="D1972" s="6">
         <v>44196</v>
       </c>
-      <c r="E1972" s="31"/>
+      <c r="E1972" s="31">
+        <v>44193</v>
+      </c>
       <c r="F1972" s="35" t="s">
         <v>589</v>
       </c>
@@ -57165,7 +57494,9 @@
       <c r="D1973" s="6">
         <v>44196</v>
       </c>
-      <c r="E1973" s="31"/>
+      <c r="E1973" s="31">
+        <v>44192</v>
+      </c>
       <c r="F1973" s="35" t="s">
         <v>649</v>
       </c>
@@ -57190,7 +57521,9 @@
       <c r="D1974" s="6">
         <v>44196</v>
       </c>
-      <c r="E1974" s="31"/>
+      <c r="E1974" s="31">
+        <v>44191</v>
+      </c>
       <c r="F1974" s="35" t="s">
         <v>590</v>
       </c>
@@ -57215,7 +57548,9 @@
       <c r="D1975" s="6">
         <v>44196</v>
       </c>
-      <c r="E1975" s="31"/>
+      <c r="E1975" s="31">
+        <v>44195</v>
+      </c>
       <c r="F1975" s="36" t="s">
         <v>925</v>
       </c>
@@ -57240,7 +57575,9 @@
       <c r="D1976" s="6">
         <v>44196</v>
       </c>
-      <c r="E1976" s="31"/>
+      <c r="E1976" s="31">
+        <v>44190</v>
+      </c>
       <c r="F1976" s="37" t="s">
         <v>631</v>
       </c>
@@ -57265,7 +57602,9 @@
       <c r="D1977" s="6">
         <v>44196</v>
       </c>
-      <c r="E1977" s="31"/>
+      <c r="E1977" s="31">
+        <v>44193</v>
+      </c>
       <c r="F1977" s="37" t="s">
         <v>631</v>
       </c>
@@ -57290,7 +57629,9 @@
       <c r="D1978" s="6">
         <v>44196</v>
       </c>
-      <c r="E1978" s="31"/>
+      <c r="E1978" s="31">
+        <v>44188</v>
+      </c>
       <c r="F1978" s="37" t="s">
         <v>629</v>
       </c>
@@ -57315,7 +57656,9 @@
       <c r="D1979" s="6">
         <v>44196</v>
       </c>
-      <c r="E1979" s="31"/>
+      <c r="E1979" s="31">
+        <v>44194</v>
+      </c>
       <c r="F1979" s="37" t="s">
         <v>589</v>
       </c>
@@ -57340,7 +57683,9 @@
       <c r="D1980" s="6">
         <v>44196</v>
       </c>
-      <c r="E1980" s="31"/>
+      <c r="E1980" s="31">
+        <v>44191</v>
+      </c>
       <c r="F1980" s="37" t="s">
         <v>591</v>
       </c>
@@ -57365,7 +57710,9 @@
       <c r="D1981" s="6">
         <v>44196</v>
       </c>
-      <c r="E1981" s="31"/>
+      <c r="E1981" s="31">
+        <v>44187</v>
+      </c>
       <c r="F1981" s="37" t="s">
         <v>629</v>
       </c>
@@ -57390,7 +57737,9 @@
       <c r="D1982" s="6">
         <v>44196</v>
       </c>
-      <c r="E1982" s="31"/>
+      <c r="E1982" s="31">
+        <v>44189</v>
+      </c>
       <c r="F1982" s="37" t="s">
         <v>629</v>
       </c>
@@ -57440,7 +57789,9 @@
       <c r="D1984" s="6">
         <v>44196</v>
       </c>
-      <c r="E1984" s="31"/>
+      <c r="E1984" s="31">
+        <v>44187</v>
+      </c>
       <c r="F1984" s="37" t="s">
         <v>592</v>
       </c>
@@ -57465,7 +57816,9 @@
       <c r="D1985" s="6">
         <v>44196</v>
       </c>
-      <c r="E1985" s="31"/>
+      <c r="E1985" s="31">
+        <v>44195</v>
+      </c>
       <c r="F1985" s="37" t="s">
         <v>628</v>
       </c>
@@ -57490,7 +57843,9 @@
       <c r="D1986" s="6">
         <v>44196</v>
       </c>
-      <c r="E1986" s="31"/>
+      <c r="E1986" s="31">
+        <v>44195</v>
+      </c>
       <c r="F1986" s="37" t="s">
         <v>648</v>
       </c>
@@ -57515,7 +57870,9 @@
       <c r="D1987" s="6">
         <v>44196</v>
       </c>
-      <c r="E1987" s="31"/>
+      <c r="E1987" s="31">
+        <v>44195</v>
+      </c>
       <c r="F1987" s="37" t="s">
         <v>594</v>
       </c>
@@ -57540,7 +57897,9 @@
       <c r="D1988" s="6">
         <v>44196</v>
       </c>
-      <c r="E1988" s="31"/>
+      <c r="E1988" s="31">
+        <v>44193</v>
+      </c>
       <c r="F1988" s="37" t="s">
         <v>596</v>
       </c>
@@ -57590,7 +57949,9 @@
       <c r="D1990" s="6">
         <v>44196</v>
       </c>
-      <c r="E1990" s="31"/>
+      <c r="E1990" s="31">
+        <v>44193</v>
+      </c>
       <c r="F1990" s="37" t="s">
         <v>926</v>
       </c>
@@ -57640,7 +58001,9 @@
       <c r="D1992" s="6">
         <v>44196</v>
       </c>
-      <c r="E1992" s="31"/>
+      <c r="E1992" s="31">
+        <v>44192</v>
+      </c>
       <c r="F1992" s="37" t="s">
         <v>926</v>
       </c>
@@ -57690,7 +58053,9 @@
       <c r="D1994" s="6">
         <v>44196</v>
       </c>
-      <c r="E1994" s="31"/>
+      <c r="E1994" s="31">
+        <v>44195</v>
+      </c>
       <c r="F1994" s="37" t="s">
         <v>926</v>
       </c>
@@ -57715,7 +58080,9 @@
       <c r="D1995" s="6">
         <v>44196</v>
       </c>
-      <c r="E1995" s="31"/>
+      <c r="E1995" s="31">
+        <v>44193</v>
+      </c>
       <c r="F1995" s="37" t="s">
         <v>926</v>
       </c>
@@ -57740,7 +58107,9 @@
       <c r="D1996" s="6">
         <v>44196</v>
       </c>
-      <c r="E1996" s="31"/>
+      <c r="E1996" s="31">
+        <v>44194</v>
+      </c>
       <c r="F1996" s="37" t="s">
         <v>926</v>
       </c>
@@ -57765,7 +58134,9 @@
       <c r="D1997" s="6">
         <v>44196</v>
       </c>
-      <c r="E1997" s="31"/>
+      <c r="E1997" s="31">
+        <v>44192</v>
+      </c>
       <c r="F1997" s="37" t="s">
         <v>594</v>
       </c>
@@ -57790,7 +58161,9 @@
       <c r="D1998" s="6">
         <v>44196</v>
       </c>
-      <c r="E1998" s="31"/>
+      <c r="E1998" s="31">
+        <v>44194</v>
+      </c>
       <c r="F1998" s="37" t="s">
         <v>926</v>
       </c>
@@ -57815,7 +58188,9 @@
       <c r="D1999" s="6">
         <v>44196</v>
       </c>
-      <c r="E1999" s="31"/>
+      <c r="E1999" s="31">
+        <v>44194</v>
+      </c>
       <c r="F1999" s="37" t="s">
         <v>926</v>
       </c>
@@ -57865,7 +58240,9 @@
       <c r="D2001" s="6">
         <v>44196</v>
       </c>
-      <c r="E2001" s="31"/>
+      <c r="E2001" s="31">
+        <v>44194</v>
+      </c>
       <c r="F2001" s="37" t="s">
         <v>926</v>
       </c>
@@ -57890,6 +58267,9 @@
       <c r="D2002" s="6">
         <v>44196</v>
       </c>
+      <c r="E2002" s="6">
+        <v>44191</v>
+      </c>
       <c r="F2002" s="15" t="s">
         <v>917</v>
       </c>
@@ -57913,6 +58293,9 @@
       <c r="D2003" s="6">
         <v>44196</v>
       </c>
+      <c r="E2003" s="6">
+        <v>44193</v>
+      </c>
       <c r="F2003" s="6" t="s">
         <v>917</v>
       </c>
@@ -57936,6 +58319,9 @@
       <c r="D2004" s="6">
         <v>44196</v>
       </c>
+      <c r="E2004" s="6">
+        <v>44193</v>
+      </c>
       <c r="F2004" s="6" t="s">
         <v>917</v>
       </c>
@@ -57959,6 +58345,9 @@
       <c r="D2005" s="6">
         <v>44196</v>
       </c>
+      <c r="E2005" s="6">
+        <v>44193</v>
+      </c>
       <c r="F2005" s="6" t="s">
         <v>917</v>
       </c>
@@ -58005,6 +58394,9 @@
       <c r="D2007" s="6">
         <v>44196</v>
       </c>
+      <c r="E2007" s="6">
+        <v>44193</v>
+      </c>
       <c r="F2007" s="6" t="s">
         <v>917</v>
       </c>
@@ -58051,6 +58443,9 @@
       <c r="D2009" s="6">
         <v>44197</v>
       </c>
+      <c r="E2009" s="6">
+        <v>44195</v>
+      </c>
       <c r="F2009" s="6" t="s">
         <v>929</v>
       </c>
@@ -58074,6 +58469,9 @@
       <c r="D2010" s="6">
         <v>44197</v>
       </c>
+      <c r="E2010" s="6">
+        <v>44196</v>
+      </c>
       <c r="F2010" s="6" t="s">
         <v>930</v>
       </c>
@@ -58097,6 +58495,9 @@
       <c r="D2011" s="6">
         <v>44197</v>
       </c>
+      <c r="E2011" s="6">
+        <v>44196</v>
+      </c>
       <c r="F2011" s="6" t="s">
         <v>89</v>
       </c>
@@ -58120,6 +58521,9 @@
       <c r="D2012" s="6">
         <v>44197</v>
       </c>
+      <c r="E2012" s="6">
+        <v>44194</v>
+      </c>
       <c r="F2012" s="6" t="s">
         <v>31</v>
       </c>
@@ -58166,6 +58570,9 @@
       <c r="D2014" s="6">
         <v>44197</v>
       </c>
+      <c r="E2014" s="6">
+        <v>44188</v>
+      </c>
       <c r="F2014" s="6" t="s">
         <v>73</v>
       </c>
@@ -58189,6 +58596,9 @@
       <c r="D2015" s="6">
         <v>44197</v>
       </c>
+      <c r="E2015" s="6">
+        <v>44190</v>
+      </c>
       <c r="F2015" s="6" t="s">
         <v>73</v>
       </c>
@@ -58235,6 +58645,9 @@
       <c r="D2017" s="6">
         <v>44197</v>
       </c>
+      <c r="E2017" s="6">
+        <v>44189</v>
+      </c>
       <c r="F2017" s="6" t="s">
         <v>89</v>
       </c>
@@ -58258,6 +58671,9 @@
       <c r="D2018" s="6">
         <v>44197</v>
       </c>
+      <c r="E2018" s="6">
+        <v>44186</v>
+      </c>
       <c r="F2018" s="6" t="s">
         <v>95</v>
       </c>
@@ -58281,6 +58697,9 @@
       <c r="D2019" s="6">
         <v>44197</v>
       </c>
+      <c r="E2019" s="6">
+        <v>44193</v>
+      </c>
       <c r="F2019" s="6" t="s">
         <v>931</v>
       </c>
@@ -58304,6 +58723,9 @@
       <c r="D2020" s="6">
         <v>44197</v>
       </c>
+      <c r="E2020" s="6">
+        <v>44194</v>
+      </c>
       <c r="F2020" s="6" t="s">
         <v>145</v>
       </c>
@@ -58350,6 +58772,9 @@
       <c r="D2022" s="6">
         <v>44197</v>
       </c>
+      <c r="E2022" s="6">
+        <v>44191</v>
+      </c>
       <c r="F2022" s="6" t="s">
         <v>223</v>
       </c>
@@ -58419,6 +58844,9 @@
       <c r="D2025" s="6">
         <v>44197</v>
       </c>
+      <c r="E2025" s="6">
+        <v>44192</v>
+      </c>
       <c r="F2025" s="6" t="s">
         <v>73</v>
       </c>
@@ -58465,6 +58893,9 @@
       <c r="D2027" s="6">
         <v>44197</v>
       </c>
+      <c r="E2027" s="6">
+        <v>44192</v>
+      </c>
       <c r="F2027" s="6" t="s">
         <v>73</v>
       </c>
@@ -58488,6 +58919,9 @@
       <c r="D2028" s="6">
         <v>44197</v>
       </c>
+      <c r="E2028" s="6">
+        <v>44191</v>
+      </c>
       <c r="F2028" s="6" t="s">
         <v>31</v>
       </c>
@@ -58511,6 +58945,9 @@
       <c r="D2029" s="6">
         <v>44197</v>
       </c>
+      <c r="E2029" s="6">
+        <v>44192</v>
+      </c>
       <c r="F2029" s="6" t="s">
         <v>932</v>
       </c>
@@ -58534,6 +58971,9 @@
       <c r="D2030" s="6">
         <v>44197</v>
       </c>
+      <c r="E2030" s="6">
+        <v>44195</v>
+      </c>
       <c r="F2030" s="6" t="s">
         <v>134</v>
       </c>
@@ -58557,6 +58997,9 @@
       <c r="D2031" s="6">
         <v>44197</v>
       </c>
+      <c r="E2031" s="6">
+        <v>44194</v>
+      </c>
       <c r="F2031" s="6" t="s">
         <v>89</v>
       </c>
@@ -58580,6 +59023,9 @@
       <c r="D2032" s="6">
         <v>44197</v>
       </c>
+      <c r="E2032" s="6">
+        <v>44193</v>
+      </c>
       <c r="F2032" s="6" t="s">
         <v>24</v>
       </c>
@@ -58603,6 +59049,9 @@
       <c r="D2033" s="6">
         <v>44197</v>
       </c>
+      <c r="E2033" s="6">
+        <v>44193</v>
+      </c>
       <c r="F2033" s="6" t="s">
         <v>24</v>
       </c>
@@ -58649,6 +59098,9 @@
       <c r="D2035" s="6">
         <v>44197</v>
       </c>
+      <c r="E2035" s="6">
+        <v>44189</v>
+      </c>
       <c r="F2035" s="6" t="s">
         <v>24</v>
       </c>
@@ -58695,6 +59147,9 @@
       <c r="D2037" s="6">
         <v>44197</v>
       </c>
+      <c r="E2037" s="6">
+        <v>44194</v>
+      </c>
       <c r="F2037" s="6" t="s">
         <v>24</v>
       </c>
@@ -58718,6 +59173,9 @@
       <c r="D2038" s="6">
         <v>44197</v>
       </c>
+      <c r="E2038" s="6">
+        <v>44187</v>
+      </c>
       <c r="F2038" s="6" t="s">
         <v>24</v>
       </c>
@@ -58741,6 +59199,9 @@
       <c r="D2039" s="6">
         <v>44197</v>
       </c>
+      <c r="E2039" s="6">
+        <v>44187</v>
+      </c>
       <c r="F2039" s="6" t="s">
         <v>24</v>
       </c>
@@ -58764,6 +59225,9 @@
       <c r="D2040" s="6">
         <v>44197</v>
       </c>
+      <c r="E2040" s="6">
+        <v>44188</v>
+      </c>
       <c r="F2040" s="6" t="s">
         <v>24</v>
       </c>
@@ -58833,6 +59297,9 @@
       <c r="D2043" s="6">
         <v>44197</v>
       </c>
+      <c r="E2043" s="6">
+        <v>44190</v>
+      </c>
       <c r="F2043" s="33" t="s">
         <v>24</v>
       </c>
@@ -58856,7 +59323,9 @@
       <c r="D2044" s="6">
         <v>44198</v>
       </c>
-      <c r="E2044" s="31"/>
+      <c r="E2044" s="31">
+        <v>44192</v>
+      </c>
       <c r="F2044" s="34" t="s">
         <v>592</v>
       </c>
@@ -58881,7 +59350,9 @@
       <c r="D2045" s="6">
         <v>44198</v>
       </c>
-      <c r="E2045" s="31"/>
+      <c r="E2045" s="31">
+        <v>44194</v>
+      </c>
       <c r="F2045" s="34" t="s">
         <v>595</v>
       </c>
@@ -58906,7 +59377,9 @@
       <c r="D2046" s="6">
         <v>44198</v>
       </c>
-      <c r="E2046" s="31"/>
+      <c r="E2046" s="31">
+        <v>44195</v>
+      </c>
       <c r="F2046" s="34" t="s">
         <v>595</v>
       </c>
@@ -58931,7 +59404,9 @@
       <c r="D2047" s="6">
         <v>44198</v>
       </c>
-      <c r="E2047" s="31"/>
+      <c r="E2047" s="31">
+        <v>44194</v>
+      </c>
       <c r="F2047" s="34" t="s">
         <v>632</v>
       </c>
@@ -58956,7 +59431,9 @@
       <c r="D2048" s="6">
         <v>44198</v>
       </c>
-      <c r="E2048" s="31"/>
+      <c r="E2048" s="31">
+        <v>44195</v>
+      </c>
       <c r="F2048" s="34" t="s">
         <v>597</v>
       </c>
@@ -58981,7 +59458,9 @@
       <c r="D2049" s="6">
         <v>44198</v>
       </c>
-      <c r="E2049" s="31"/>
+      <c r="E2049" s="31">
+        <v>44195</v>
+      </c>
       <c r="F2049" s="34" t="s">
         <v>938</v>
       </c>
@@ -59006,7 +59485,9 @@
       <c r="D2050" s="6">
         <v>44198</v>
       </c>
-      <c r="E2050" s="31"/>
+      <c r="E2050" s="31">
+        <v>44195</v>
+      </c>
       <c r="F2050" s="34" t="s">
         <v>926</v>
       </c>
@@ -59031,7 +59512,9 @@
       <c r="D2051" s="6">
         <v>44198</v>
       </c>
-      <c r="E2051" s="31"/>
+      <c r="E2051" s="31">
+        <v>44195</v>
+      </c>
       <c r="F2051" s="34" t="s">
         <v>594</v>
       </c>
@@ -59056,7 +59539,9 @@
       <c r="D2052" s="6">
         <v>44198</v>
       </c>
-      <c r="E2052" s="31"/>
+      <c r="E2052" s="31">
+        <v>44195</v>
+      </c>
       <c r="F2052" s="34" t="s">
         <v>595</v>
       </c>
@@ -59081,7 +59566,9 @@
       <c r="D2053" s="6">
         <v>44198</v>
       </c>
-      <c r="E2053" s="31"/>
+      <c r="E2053" s="31">
+        <v>44196</v>
+      </c>
       <c r="F2053" s="34" t="s">
         <v>628</v>
       </c>
@@ -59106,7 +59593,9 @@
       <c r="D2054" s="6">
         <v>44198</v>
       </c>
-      <c r="E2054" s="31"/>
+      <c r="E2054" s="31">
+        <v>44195</v>
+      </c>
       <c r="F2054" s="34" t="s">
         <v>630</v>
       </c>
@@ -59131,7 +59620,9 @@
       <c r="D2055" s="6">
         <v>44198</v>
       </c>
-      <c r="E2055" s="31"/>
+      <c r="E2055" s="31">
+        <v>44196</v>
+      </c>
       <c r="F2055" s="34" t="s">
         <v>593</v>
       </c>
@@ -59181,7 +59672,9 @@
       <c r="D2057" s="6">
         <v>44198</v>
       </c>
-      <c r="E2057" s="31"/>
+      <c r="E2057" s="31">
+        <v>44196</v>
+      </c>
       <c r="F2057" s="34" t="s">
         <v>632</v>
       </c>
@@ -59206,7 +59699,9 @@
       <c r="D2058" s="6">
         <v>44198</v>
       </c>
-      <c r="E2058" s="31"/>
+      <c r="E2058" s="31">
+        <v>44196</v>
+      </c>
       <c r="F2058" s="34" t="s">
         <v>590</v>
       </c>
@@ -59231,7 +59726,9 @@
       <c r="D2059" s="6">
         <v>44198</v>
       </c>
-      <c r="E2059" s="31"/>
+      <c r="E2059" s="31">
+        <v>44194</v>
+      </c>
       <c r="F2059" s="34" t="s">
         <v>632</v>
       </c>
@@ -59256,7 +59753,9 @@
       <c r="D2060" s="6">
         <v>44198</v>
       </c>
-      <c r="E2060" s="31"/>
+      <c r="E2060" s="31">
+        <v>44192</v>
+      </c>
       <c r="F2060" s="34" t="s">
         <v>597</v>
       </c>
@@ -59281,7 +59780,9 @@
       <c r="D2061" s="6">
         <v>44198</v>
       </c>
-      <c r="E2061" s="31"/>
+      <c r="E2061" s="31">
+        <v>44196</v>
+      </c>
       <c r="F2061" s="34" t="s">
         <v>939</v>
       </c>
@@ -59306,7 +59807,9 @@
       <c r="D2062" s="6">
         <v>44198</v>
       </c>
-      <c r="E2062" s="31"/>
+      <c r="E2062" s="31">
+        <v>44196</v>
+      </c>
       <c r="F2062" s="34" t="s">
         <v>590</v>
       </c>
@@ -59331,7 +59834,9 @@
       <c r="D2063" s="6">
         <v>44198</v>
       </c>
-      <c r="E2063" s="31"/>
+      <c r="E2063" s="31">
+        <v>44196</v>
+      </c>
       <c r="F2063" s="34" t="s">
         <v>595</v>
       </c>
@@ -59381,7 +59886,9 @@
       <c r="D2065" s="6">
         <v>44198</v>
       </c>
-      <c r="E2065" s="31"/>
+      <c r="E2065" s="31">
+        <v>44196</v>
+      </c>
       <c r="F2065" s="34" t="s">
         <v>593</v>
       </c>
@@ -59406,6 +59913,9 @@
       <c r="D2066" s="6">
         <v>44198</v>
       </c>
+      <c r="E2066" s="6">
+        <v>44194</v>
+      </c>
       <c r="F2066" s="15" t="s">
         <v>937</v>
       </c>
@@ -59429,6 +59939,9 @@
       <c r="D2067" s="6">
         <v>44198</v>
       </c>
+      <c r="E2067" s="6">
+        <v>44195</v>
+      </c>
       <c r="F2067" s="6" t="s">
         <v>937</v>
       </c>
@@ -59475,6 +59988,9 @@
       <c r="D2069" s="6">
         <v>44198</v>
       </c>
+      <c r="E2069" s="6">
+        <v>44191</v>
+      </c>
       <c r="F2069" s="6" t="s">
         <v>937</v>
       </c>
@@ -59498,6 +60014,9 @@
       <c r="D2070" s="6">
         <v>44198</v>
       </c>
+      <c r="E2070" s="6">
+        <v>44193</v>
+      </c>
       <c r="F2070" s="6" t="s">
         <v>937</v>
       </c>
@@ -59521,6 +60040,9 @@
       <c r="D2071" s="6">
         <v>44198</v>
       </c>
+      <c r="E2071" s="6">
+        <v>44195</v>
+      </c>
       <c r="F2071" s="6" t="s">
         <v>937</v>
       </c>
@@ -59544,6 +60066,9 @@
       <c r="D2072" s="6">
         <v>44198</v>
       </c>
+      <c r="E2072" s="6">
+        <v>44193</v>
+      </c>
       <c r="F2072" s="6" t="s">
         <v>937</v>
       </c>
@@ -59567,6 +60092,9 @@
       <c r="D2073" s="6">
         <v>44198</v>
       </c>
+      <c r="E2073" s="6">
+        <v>44194</v>
+      </c>
       <c r="F2073" s="6" t="s">
         <v>937</v>
       </c>
@@ -59590,6 +60118,9 @@
       <c r="D2074" s="6">
         <v>44198</v>
       </c>
+      <c r="E2074" s="6">
+        <v>44195</v>
+      </c>
       <c r="F2074" s="6" t="s">
         <v>937</v>
       </c>
@@ -59613,6 +60144,9 @@
       <c r="D2075" s="6">
         <v>44198</v>
       </c>
+      <c r="E2075" s="6">
+        <v>44194</v>
+      </c>
       <c r="F2075" s="6" t="s">
         <v>937</v>
       </c>
@@ -59636,6 +60170,9 @@
       <c r="D2076" s="6">
         <v>44198</v>
       </c>
+      <c r="E2076" s="6">
+        <v>44192</v>
+      </c>
       <c r="F2076" s="6" t="s">
         <v>936</v>
       </c>
@@ -59659,6 +60196,9 @@
       <c r="D2077" s="6">
         <v>44198</v>
       </c>
+      <c r="E2077" s="6">
+        <v>44196</v>
+      </c>
       <c r="F2077" s="6" t="s">
         <v>937</v>
       </c>
@@ -59682,6 +60222,9 @@
       <c r="D2078" s="6">
         <v>44198</v>
       </c>
+      <c r="E2078" s="6">
+        <v>44195</v>
+      </c>
       <c r="F2078" s="6" t="s">
         <v>937</v>
       </c>
@@ -59705,18 +60248,2782 @@
       <c r="D2079" s="6">
         <v>44198</v>
       </c>
-      <c r="F2079" s="6" t="s">
+      <c r="E2079" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2079" s="33" t="s">
         <v>937</v>
       </c>
       <c r="G2079" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="H2079" s="5" t="s">
+      <c r="H2079" s="38" t="s">
         <v>653</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:9">
+      <c r="A2080" s="5">
+        <v>2078</v>
+      </c>
+      <c r="B2080" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2080" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2080" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2080" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F2080" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="G2080" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2080" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2080" s="32"/>
+    </row>
+    <row r="2081" spans="1:9">
+      <c r="A2081" s="5">
+        <v>2079</v>
+      </c>
+      <c r="B2081" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2081" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2081" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2081" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2081" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="G2081" s="32" t="s">
+        <v>946</v>
+      </c>
+      <c r="H2081" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2081" s="32"/>
+    </row>
+    <row r="2082" spans="1:9">
+      <c r="A2082" s="5">
+        <v>2080</v>
+      </c>
+      <c r="B2082" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2082" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2082" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2082" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2082" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2082" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2082" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2082" s="32"/>
+    </row>
+    <row r="2083" spans="1:9">
+      <c r="A2083" s="5">
+        <v>2081</v>
+      </c>
+      <c r="B2083" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2083" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2083" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2083" s="6">
+        <v>44188</v>
+      </c>
+      <c r="F2083" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="G2083" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2083" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2083" s="32"/>
+    </row>
+    <row r="2084" spans="1:9">
+      <c r="A2084" s="5">
+        <v>2082</v>
+      </c>
+      <c r="B2084" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2084" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2084" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2084" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2084" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2084" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2084" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2084" s="32"/>
+    </row>
+    <row r="2085" spans="1:9">
+      <c r="A2085" s="5">
+        <v>2083</v>
+      </c>
+      <c r="B2085" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2085" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2085" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2085" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2085" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2085" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2085" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2085" s="32"/>
+    </row>
+    <row r="2086" spans="1:9">
+      <c r="A2086" s="5">
+        <v>2084</v>
+      </c>
+      <c r="B2086" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2086" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2086" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2086" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F2086" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="G2086" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2086" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2086" s="32"/>
+    </row>
+    <row r="2087" spans="1:9">
+      <c r="A2087" s="5">
+        <v>2085</v>
+      </c>
+      <c r="B2087" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2087" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2087" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2087" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F2087" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="G2087" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2087" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2087" s="32"/>
+    </row>
+    <row r="2088" spans="1:9">
+      <c r="A2088" s="5">
+        <v>2086</v>
+      </c>
+      <c r="B2088" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2088" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2088" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2088" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2088" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="G2088" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2088" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2088" s="32"/>
+    </row>
+    <row r="2089" spans="1:9">
+      <c r="A2089" s="5">
+        <v>2087</v>
+      </c>
+      <c r="B2089" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2089" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2089" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2089" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2089" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="G2089" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2089" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2089" s="32"/>
+    </row>
+    <row r="2090" spans="1:9">
+      <c r="A2090" s="5">
+        <v>2088</v>
+      </c>
+      <c r="B2090" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2090" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2090" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2090" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F2090" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="G2090" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2090" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2090" s="32"/>
+    </row>
+    <row r="2091" spans="1:9">
+      <c r="A2091" s="5">
+        <v>2089</v>
+      </c>
+      <c r="B2091" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2091" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2091" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2091" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="G2091" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2091" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2091" s="32"/>
+    </row>
+    <row r="2092" spans="1:9">
+      <c r="A2092" s="5">
+        <v>2090</v>
+      </c>
+      <c r="B2092" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2092" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2092" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2092" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F2092" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="G2092" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2092" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2092" s="32"/>
+    </row>
+    <row r="2093" spans="1:9">
+      <c r="A2093" s="5">
+        <v>2091</v>
+      </c>
+      <c r="B2093" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2093" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2093" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2093" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2093" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2093" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2093" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2093" s="32"/>
+    </row>
+    <row r="2094" spans="1:9">
+      <c r="A2094" s="5">
+        <v>2092</v>
+      </c>
+      <c r="B2094" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2094" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2094" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2094" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F2094" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="G2094" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2094" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2094" s="32"/>
+    </row>
+    <row r="2095" spans="1:9">
+      <c r="A2095" s="5">
+        <v>2093</v>
+      </c>
+      <c r="B2095" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2095" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2095" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2095" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2095" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="G2095" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2095" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2095" s="32"/>
+    </row>
+    <row r="2096" spans="1:9">
+      <c r="A2096" s="5">
+        <v>2094</v>
+      </c>
+      <c r="B2096" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2096" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2096" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2096" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F2096" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2096" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2096" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2096" s="32"/>
+    </row>
+    <row r="2097" spans="1:9">
+      <c r="A2097" s="5">
+        <v>2095</v>
+      </c>
+      <c r="B2097" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2097" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2097" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2097" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2097" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="G2097" s="32" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2097" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2097" s="32"/>
+    </row>
+    <row r="2098" spans="1:9">
+      <c r="A2098" s="5">
+        <v>2096</v>
+      </c>
+      <c r="B2098" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2098" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2098" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2098" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="G2098" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="H2098" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2098" s="32"/>
+    </row>
+    <row r="2099" spans="1:9">
+      <c r="A2099" s="5">
+        <v>2097</v>
+      </c>
+      <c r="B2099" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2099" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2099" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2099" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F2099" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2099" s="32" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2099" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2099" s="32"/>
+    </row>
+    <row r="2100" spans="1:9">
+      <c r="A2100" s="5">
+        <v>2098</v>
+      </c>
+      <c r="B2100" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2100" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2100" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2100" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2100" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="G2100" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2100" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2100" s="32"/>
+    </row>
+    <row r="2101" spans="1:9">
+      <c r="A2101" s="5">
+        <v>2099</v>
+      </c>
+      <c r="B2101" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2101" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2101" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2101" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2101" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="G2101" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2101" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2101" s="32"/>
+    </row>
+    <row r="2102" spans="1:9">
+      <c r="A2102" s="5">
+        <v>2100</v>
+      </c>
+      <c r="B2102" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2102" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2102" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2102" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2102" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2102" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2102" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2102" s="32"/>
+    </row>
+    <row r="2103" spans="1:9">
+      <c r="A2103" s="5">
+        <v>2101</v>
+      </c>
+      <c r="B2103" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2103" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2103" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2103" s="6">
+        <v>44189</v>
+      </c>
+      <c r="F2103" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2103" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2103" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2103" s="32"/>
+    </row>
+    <row r="2104" spans="1:9">
+      <c r="A2104" s="5">
+        <v>2102</v>
+      </c>
+      <c r="B2104" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2104" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2104" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2104" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2104" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2104" s="32" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2104" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2104" s="32"/>
+    </row>
+    <row r="2105" spans="1:9">
+      <c r="A2105" s="5">
+        <v>2103</v>
+      </c>
+      <c r="B2105" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2105" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2105" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2105" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F2105" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2105" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2105" s="39" t="s">
+        <v>947</v>
+      </c>
+      <c r="I2105" s="32"/>
+    </row>
+    <row r="2106" spans="1:9">
+      <c r="A2106" s="5">
+        <v>2104</v>
+      </c>
+      <c r="B2106" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2106" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2106" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2106" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2106" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2106" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2106" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2106" s="32"/>
+    </row>
+    <row r="2107" spans="1:9">
+      <c r="A2107" s="5">
+        <v>2105</v>
+      </c>
+      <c r="B2107" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2107" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2107" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2107" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2107" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2107" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2107" s="39" t="s">
+        <v>947</v>
+      </c>
+      <c r="I2107" s="32"/>
+    </row>
+    <row r="2108" spans="1:9">
+      <c r="A2108" s="5">
+        <v>2106</v>
+      </c>
+      <c r="B2108" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2108" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2108" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2108" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2108" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2108" s="32" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2108" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2108" s="32"/>
+    </row>
+    <row r="2109" spans="1:9">
+      <c r="A2109" s="5">
+        <v>2107</v>
+      </c>
+      <c r="B2109" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2109" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2109" s="6">
+        <v>44199</v>
+      </c>
+      <c r="E2109" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2109" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2109" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2109" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2109" s="32"/>
+    </row>
+    <row r="2110" spans="1:9">
+      <c r="A2110" s="5">
+        <v>2108</v>
+      </c>
+      <c r="B2110" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2110" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2110" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2110" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2110" s="44" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2110" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="I2110" s="32"/>
+    </row>
+    <row r="2111" spans="1:9">
+      <c r="A2111" s="5">
+        <v>2109</v>
+      </c>
+      <c r="B2111" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2111" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2111" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2111" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2111" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2111" s="45">
+        <v>10</v>
+      </c>
+      <c r="H2111" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:9">
+      <c r="A2112" s="5">
+        <v>2110</v>
+      </c>
+      <c r="B2112" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2112" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2112" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2112" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2112" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2112" s="45">
+        <v>40</v>
+      </c>
+      <c r="H2112" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:8">
+      <c r="A2113" s="5">
+        <v>2111</v>
+      </c>
+      <c r="B2113" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2113" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2113" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2113" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2113" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2113" s="45">
+        <v>20</v>
+      </c>
+      <c r="H2113" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:8">
+      <c r="A2114" s="5">
+        <v>2112</v>
+      </c>
+      <c r="B2114" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2114" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2114" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2114" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F2114" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2114" s="45">
+        <v>70</v>
+      </c>
+      <c r="H2114" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:8">
+      <c r="A2115" s="5">
+        <v>2113</v>
+      </c>
+      <c r="B2115" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2115" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2115" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2115" s="6">
+        <v>44192</v>
+      </c>
+      <c r="F2115" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2115" s="45">
+        <v>60</v>
+      </c>
+      <c r="H2115" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:8">
+      <c r="A2116" s="5">
+        <v>2114</v>
+      </c>
+      <c r="B2116" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2116" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2116" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2116" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2116" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2116" s="45">
+        <v>30</v>
+      </c>
+      <c r="H2116" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:8">
+      <c r="A2117" s="5">
+        <v>2115</v>
+      </c>
+      <c r="B2117" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2117" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2117" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2117" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2117" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2117" s="45">
+        <v>20</v>
+      </c>
+      <c r="H2117" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:8">
+      <c r="A2118" s="5">
+        <v>2116</v>
+      </c>
+      <c r="B2118" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2118" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2118" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2118" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2118" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2118" s="45">
+        <v>30</v>
+      </c>
+      <c r="H2118" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:8">
+      <c r="A2119" s="5">
+        <v>2117</v>
+      </c>
+      <c r="B2119" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2119" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2119" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2119" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2119" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2119" s="45">
+        <v>20</v>
+      </c>
+      <c r="H2119" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:8">
+      <c r="A2120" s="5">
+        <v>2118</v>
+      </c>
+      <c r="B2120" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2120" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2120" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2120" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2120" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2120" s="45">
+        <v>40</v>
+      </c>
+      <c r="H2120" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:8">
+      <c r="A2121" s="5">
+        <v>2119</v>
+      </c>
+      <c r="B2121" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2121" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2121" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2121" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2121" s="45">
+        <v>20</v>
+      </c>
+      <c r="H2121" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:8">
+      <c r="A2122" s="5">
+        <v>2120</v>
+      </c>
+      <c r="B2122" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2122" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2122" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2122" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2122" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2122" s="45">
+        <v>40</v>
+      </c>
+      <c r="H2122" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:8">
+      <c r="A2123" s="5">
+        <v>2121</v>
+      </c>
+      <c r="B2123" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2123" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2123" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2123" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2123" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2123" s="45">
+        <v>90</v>
+      </c>
+      <c r="H2123" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:8">
+      <c r="A2124" s="5">
+        <v>2122</v>
+      </c>
+      <c r="B2124" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2124" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2124" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2124" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2124" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2124" s="45">
+        <v>70</v>
+      </c>
+      <c r="H2124" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:8">
+      <c r="A2125" s="5">
+        <v>2123</v>
+      </c>
+      <c r="B2125" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2125" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2125" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2125" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2125" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2125" s="45">
+        <v>70</v>
+      </c>
+      <c r="H2125" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:8">
+      <c r="A2126" s="5">
+        <v>2124</v>
+      </c>
+      <c r="B2126" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2126" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2126" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2126" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F2126" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2126" s="45">
+        <v>80</v>
+      </c>
+      <c r="H2126" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:8">
+      <c r="A2127" s="5">
+        <v>2125</v>
+      </c>
+      <c r="B2127" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2127" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2127" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2127" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2127" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2127" s="45">
+        <v>20</v>
+      </c>
+      <c r="H2127" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:8">
+      <c r="A2128" s="5">
+        <v>2126</v>
+      </c>
+      <c r="B2128" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2128" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2128" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2128" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2128" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2128" s="45">
+        <v>50</v>
+      </c>
+      <c r="H2128" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:8">
+      <c r="A2129" s="5">
+        <v>2127</v>
+      </c>
+      <c r="B2129" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2129" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2129" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2129" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2129" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2129" s="45">
+        <v>40</v>
+      </c>
+      <c r="H2129" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:8">
+      <c r="A2130" s="5">
+        <v>2128</v>
+      </c>
+      <c r="B2130" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2130" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2130" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2130" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F2130" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2130" s="45">
+        <v>50</v>
+      </c>
+      <c r="H2130" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:8">
+      <c r="A2131" s="5">
+        <v>2129</v>
+      </c>
+      <c r="B2131" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2131" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2131" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2131" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2131" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2131" s="45">
+        <v>20</v>
+      </c>
+      <c r="H2131" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:8">
+      <c r="A2132" s="5">
+        <v>2130</v>
+      </c>
+      <c r="B2132" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2132" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2132" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E2132" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2132" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2132" s="45">
+        <v>20</v>
+      </c>
+      <c r="H2132" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:8">
+      <c r="A2133" s="5">
+        <v>2131</v>
+      </c>
+      <c r="B2133" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2133" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2133" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2133" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2133" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2133" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="H2133" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:8">
+      <c r="A2134" s="5">
+        <v>2132</v>
+      </c>
+      <c r="B2134" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2134" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2134" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2134" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2134" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2134" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="H2134" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:8">
+      <c r="A2135" s="5">
+        <v>2133</v>
+      </c>
+      <c r="B2135" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2135" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2135" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2135" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2135" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2135" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="H2135" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:8">
+      <c r="A2136" s="5">
+        <v>2134</v>
+      </c>
+      <c r="B2136" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2136" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2136" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2136" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2136" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2136" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2136" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:8">
+      <c r="A2137" s="5">
+        <v>2135</v>
+      </c>
+      <c r="B2137" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2137" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2137" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2137" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2137" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2137" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2137" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:8">
+      <c r="A2138" s="5">
+        <v>2136</v>
+      </c>
+      <c r="B2138" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2138" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2138" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2138" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2138" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2138" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2138" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:8">
+      <c r="A2139" s="5">
+        <v>2137</v>
+      </c>
+      <c r="B2139" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2139" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2139" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2139" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2139" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2139" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="H2139" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:8">
+      <c r="A2140" s="5">
+        <v>2138</v>
+      </c>
+      <c r="B2140" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2140" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2140" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2140" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2140" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2140" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:8">
+      <c r="A2141" s="5">
+        <v>2139</v>
+      </c>
+      <c r="B2141" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2141" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2141" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2141" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2141" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2141" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2141" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:8">
+      <c r="A2142" s="5">
+        <v>2140</v>
+      </c>
+      <c r="B2142" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2142" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2142" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2142" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2142" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2142" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2142" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:8">
+      <c r="A2143" s="5">
+        <v>2141</v>
+      </c>
+      <c r="B2143" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2143" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2143" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2143" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2143" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2143" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2143" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:8">
+      <c r="A2144" s="5">
+        <v>2142</v>
+      </c>
+      <c r="B2144" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2144" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2144" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2144" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2144" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2144" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:8">
+      <c r="A2145" s="5">
+        <v>2143</v>
+      </c>
+      <c r="B2145" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2145" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2145" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2145" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2145" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2145" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2145" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:8">
+      <c r="A2146" s="5">
+        <v>2144</v>
+      </c>
+      <c r="B2146" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2146" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2146" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2146" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2146" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2146" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:8">
+      <c r="A2147" s="5">
+        <v>2145</v>
+      </c>
+      <c r="B2147" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2147" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2147" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2147" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2147" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2147" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="H2147" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:8">
+      <c r="A2148" s="5">
+        <v>2146</v>
+      </c>
+      <c r="B2148" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2148" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2148" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2148" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2148" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2148" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="H2148" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:8">
+      <c r="A2149" s="5">
+        <v>2147</v>
+      </c>
+      <c r="B2149" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2149" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2149" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2149" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2149" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2149" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="H2149" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:8">
+      <c r="A2150" s="5">
+        <v>2148</v>
+      </c>
+      <c r="B2150" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2150" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2150" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2150" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2150" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2150" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2150" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:8">
+      <c r="A2151" s="5">
+        <v>2149</v>
+      </c>
+      <c r="B2151" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2151" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2151" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2151" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2151" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2151" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="H2151" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:8">
+      <c r="A2152" s="5">
+        <v>2150</v>
+      </c>
+      <c r="B2152" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2152" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2152" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2152" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="G2152" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2152" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:8">
+      <c r="A2153" s="5">
+        <v>2151</v>
+      </c>
+      <c r="B2153" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2153" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2153" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2153" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2153" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2153" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2153" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:8">
+      <c r="A2154" s="5">
+        <v>2152</v>
+      </c>
+      <c r="B2154" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2154" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2154" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2154" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2154" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2154" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:8">
+      <c r="A2155" s="5">
+        <v>2153</v>
+      </c>
+      <c r="B2155" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2155" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2155" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2155" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2155" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2155" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2155" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:8">
+      <c r="A2156" s="5">
+        <v>2154</v>
+      </c>
+      <c r="B2156" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2156" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2156" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2156" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2156" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2156" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2156" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:8">
+      <c r="A2157" s="5">
+        <v>2155</v>
+      </c>
+      <c r="B2157" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2157" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2157" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2157" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2157" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2157" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2157" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:8">
+      <c r="A2158" s="5">
+        <v>2156</v>
+      </c>
+      <c r="B2158" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2158" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2158" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2158" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2158" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="H2158" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:8">
+      <c r="A2159" s="5">
+        <v>2157</v>
+      </c>
+      <c r="B2159" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2159" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2159" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2159" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2159" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2159" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2159" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:8">
+      <c r="A2160" s="5">
+        <v>2158</v>
+      </c>
+      <c r="B2160" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2160" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2160" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2160" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2160" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2160" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2160" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:8">
+      <c r="A2161" s="5">
+        <v>2159</v>
+      </c>
+      <c r="B2161" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2161" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2161" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2161" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2161" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2161" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2161" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:8">
+      <c r="A2162" s="5">
+        <v>2160</v>
+      </c>
+      <c r="B2162" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2162" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2162" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2162" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2162" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2162" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="H2162" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:8">
+      <c r="A2163" s="5">
+        <v>2161</v>
+      </c>
+      <c r="B2163" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2163" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2163" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2163" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2163" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="G2163" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2163" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:8">
+      <c r="A2164" s="5">
+        <v>2162</v>
+      </c>
+      <c r="B2164" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2164" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2164" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2164" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="G2164" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H2164" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:8">
+      <c r="A2165" s="5">
+        <v>2163</v>
+      </c>
+      <c r="B2165" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2165" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2165" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2165" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2165" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2165" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:8">
+      <c r="A2166" s="5">
+        <v>2164</v>
+      </c>
+      <c r="B2166" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2166" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2166" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2166" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2166" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2166" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:8">
+      <c r="A2167" s="5">
+        <v>2165</v>
+      </c>
+      <c r="B2167" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2167" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2167" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2167" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2167" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2167" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:8">
+      <c r="A2168" s="5">
+        <v>2166</v>
+      </c>
+      <c r="B2168" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2168" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2168" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2168" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2168" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H2168" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:8">
+      <c r="A2169" s="5">
+        <v>2167</v>
+      </c>
+      <c r="B2169" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2169" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2169" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2169" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F2169" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="G2169" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2169" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:8">
+      <c r="A2170" s="5">
+        <v>2168</v>
+      </c>
+      <c r="B2170" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2170" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2170" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2170" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2170" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="G2170" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2170" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:8">
+      <c r="A2171" s="5">
+        <v>2169</v>
+      </c>
+      <c r="B2171" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2171" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2171" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2171" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2171" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="G2171" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2171" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:8">
+      <c r="A2172" s="5">
+        <v>2170</v>
+      </c>
+      <c r="B2172" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2172" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2172" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2172" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2172" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="G2172" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2172" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:8">
+      <c r="A2173" s="5">
+        <v>2171</v>
+      </c>
+      <c r="B2173" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2173" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2173" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2173" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="G2173" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2173" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:8">
+      <c r="A2174" s="5">
+        <v>2172</v>
+      </c>
+      <c r="B2174" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2174" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2174" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2174" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="G2174" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2174" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:8">
+      <c r="A2175" s="5">
+        <v>2173</v>
+      </c>
+      <c r="B2175" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2175" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2175" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2175" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2175" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="G2175" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2175" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:8">
+      <c r="A2176" s="5">
+        <v>2174</v>
+      </c>
+      <c r="B2176" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2176" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2176" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2176" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2176" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2176" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2176" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:8">
+      <c r="A2177" s="5">
+        <v>2175</v>
+      </c>
+      <c r="B2177" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2177" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2177" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2177" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2177" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="G2177" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2177" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:8">
+      <c r="A2178" s="5">
+        <v>2176</v>
+      </c>
+      <c r="B2178" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2178" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2178" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2178" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2178" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="G2178" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2178" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:8">
+      <c r="A2179" s="5">
+        <v>2177</v>
+      </c>
+      <c r="B2179" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2179" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2179" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2179" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2179" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="G2179" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2179" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:8">
+      <c r="A2180" s="5">
+        <v>2178</v>
+      </c>
+      <c r="B2180" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2180" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2180" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2180" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2180" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="G2180" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2180" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:8">
+      <c r="A2181" s="5">
+        <v>2179</v>
+      </c>
+      <c r="B2181" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2181" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2181" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2181" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="G2181" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2181" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:8">
+      <c r="A2182" s="5">
+        <v>2180</v>
+      </c>
+      <c r="B2182" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2182" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2182" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2182" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="G2182" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2182" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:8">
+      <c r="A2183" s="5">
+        <v>2181</v>
+      </c>
+      <c r="B2183" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2183" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2183" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2183" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2183" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="G2183" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2183" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:8">
+      <c r="A2184" s="5">
+        <v>2182</v>
+      </c>
+      <c r="B2184" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2184" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2184" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2184" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="G2184" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2184" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:8">
+      <c r="A2185" s="5">
+        <v>2183</v>
+      </c>
+      <c r="B2185" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2185" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2185" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2185" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2185" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="G2185" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2185" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:8">
+      <c r="A2186" s="5">
+        <v>2184</v>
+      </c>
+      <c r="B2186" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2186" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2186" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E2186" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2186" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="G2186" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2186" s="5" t="s">
+        <v>966</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2102:H2110">
+      <formula1>"男性,女性"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -15,7 +15,7 @@
     <sheet name="奈良県_01新型コロナウイルス感染者_患者リスト" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$J$1063</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2186</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2186</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8728" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8750" uniqueCount="976">
   <si>
     <t>備考</t>
   </si>
@@ -6620,6 +6620,45 @@
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7048,7 +7087,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7268,9 +7307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2186"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2185" sqref="F2185"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A2126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2126" sqref="G2126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -7295,7 +7334,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44202.770884490739</v>
+        <v>44203.495040277776</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -61108,8 +61147,8 @@
       <c r="F2111" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G2111" s="45">
-        <v>10</v>
+      <c r="G2111" s="45" t="s">
+        <v>967</v>
       </c>
       <c r="H2111" s="5" t="s">
         <v>39</v>
@@ -61134,8 +61173,8 @@
       <c r="F2112" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="G2112" s="45">
-        <v>40</v>
+      <c r="G2112" s="45" t="s">
+        <v>968</v>
       </c>
       <c r="H2112" s="5" t="s">
         <v>28</v>
@@ -61160,8 +61199,8 @@
       <c r="F2113" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G2113" s="45">
-        <v>20</v>
+      <c r="G2113" s="45" t="s">
+        <v>969</v>
       </c>
       <c r="H2113" s="5" t="s">
         <v>39</v>
@@ -61186,8 +61225,8 @@
       <c r="F2114" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G2114" s="45">
-        <v>70</v>
+      <c r="G2114" s="45" t="s">
+        <v>970</v>
       </c>
       <c r="H2114" s="5" t="s">
         <v>39</v>
@@ -61212,8 +61251,8 @@
       <c r="F2115" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G2115" s="45">
-        <v>60</v>
+      <c r="G2115" s="45" t="s">
+        <v>971</v>
       </c>
       <c r="H2115" s="5" t="s">
         <v>39</v>
@@ -61238,8 +61277,8 @@
       <c r="F2116" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G2116" s="45">
-        <v>30</v>
+      <c r="G2116" s="45" t="s">
+        <v>972</v>
       </c>
       <c r="H2116" s="5" t="s">
         <v>39</v>
@@ -61264,8 +61303,8 @@
       <c r="F2117" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G2117" s="45">
-        <v>20</v>
+      <c r="G2117" s="45" t="s">
+        <v>969</v>
       </c>
       <c r="H2117" s="5" t="s">
         <v>39</v>
@@ -61290,8 +61329,8 @@
       <c r="F2118" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="G2118" s="45">
-        <v>30</v>
+      <c r="G2118" s="45" t="s">
+        <v>972</v>
       </c>
       <c r="H2118" s="5" t="s">
         <v>39</v>
@@ -61316,8 +61355,8 @@
       <c r="F2119" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G2119" s="45">
-        <v>20</v>
+      <c r="G2119" s="45" t="s">
+        <v>969</v>
       </c>
       <c r="H2119" s="5" t="s">
         <v>28</v>
@@ -61342,8 +61381,8 @@
       <c r="F2120" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G2120" s="45">
-        <v>40</v>
+      <c r="G2120" s="45" t="s">
+        <v>968</v>
       </c>
       <c r="H2120" s="5" t="s">
         <v>39</v>
@@ -61365,8 +61404,8 @@
       <c r="F2121" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G2121" s="45">
-        <v>20</v>
+      <c r="G2121" s="45" t="s">
+        <v>969</v>
       </c>
       <c r="H2121" s="5" t="s">
         <v>28</v>
@@ -61391,8 +61430,8 @@
       <c r="F2122" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="G2122" s="45">
-        <v>40</v>
+      <c r="G2122" s="45" t="s">
+        <v>968</v>
       </c>
       <c r="H2122" s="5" t="s">
         <v>39</v>
@@ -61417,8 +61456,8 @@
       <c r="F2123" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G2123" s="45">
-        <v>90</v>
+      <c r="G2123" s="45" t="s">
+        <v>973</v>
       </c>
       <c r="H2123" s="5" t="s">
         <v>28</v>
@@ -61443,8 +61482,8 @@
       <c r="F2124" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G2124" s="45">
-        <v>70</v>
+      <c r="G2124" s="45" t="s">
+        <v>970</v>
       </c>
       <c r="H2124" s="5" t="s">
         <v>28</v>
@@ -61469,8 +61508,8 @@
       <c r="F2125" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G2125" s="45">
-        <v>70</v>
+      <c r="G2125" s="45" t="s">
+        <v>970</v>
       </c>
       <c r="H2125" s="5" t="s">
         <v>28</v>
@@ -61495,8 +61534,8 @@
       <c r="F2126" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G2126" s="45">
-        <v>80</v>
+      <c r="G2126" s="45" t="s">
+        <v>974</v>
       </c>
       <c r="H2126" s="5" t="s">
         <v>28</v>
@@ -61521,8 +61560,8 @@
       <c r="F2127" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G2127" s="45">
-        <v>20</v>
+      <c r="G2127" s="45" t="s">
+        <v>969</v>
       </c>
       <c r="H2127" s="5" t="s">
         <v>39</v>
@@ -61547,8 +61586,8 @@
       <c r="F2128" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G2128" s="45">
-        <v>50</v>
+      <c r="G2128" s="45" t="s">
+        <v>975</v>
       </c>
       <c r="H2128" s="5" t="s">
         <v>28</v>
@@ -61573,8 +61612,8 @@
       <c r="F2129" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G2129" s="45">
-        <v>40</v>
+      <c r="G2129" s="45" t="s">
+        <v>968</v>
       </c>
       <c r="H2129" s="5" t="s">
         <v>28</v>
@@ -61599,8 +61638,8 @@
       <c r="F2130" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G2130" s="45">
-        <v>50</v>
+      <c r="G2130" s="45" t="s">
+        <v>975</v>
       </c>
       <c r="H2130" s="5" t="s">
         <v>28</v>
@@ -61625,8 +61664,8 @@
       <c r="F2131" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G2131" s="45">
-        <v>20</v>
+      <c r="G2131" s="45" t="s">
+        <v>969</v>
       </c>
       <c r="H2131" s="5" t="s">
         <v>39</v>
@@ -61651,8 +61690,8 @@
       <c r="F2132" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G2132" s="45">
-        <v>20</v>
+      <c r="G2132" s="45" t="s">
+        <v>969</v>
       </c>
       <c r="H2132" s="5" t="s">
         <v>28</v>
@@ -63018,6 +63057,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:N2186"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2102:H2110">

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2186</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2186</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2315</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8750" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9258" uniqueCount="1013">
   <si>
     <t>備考</t>
   </si>
@@ -6659,13 +6659,266 @@
   </si>
   <si>
     <t>50代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="3">
+      <t>タワラモト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高取町</t>
+    <rPh sb="0" eb="2">
+      <t>タカトリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王寺町</t>
+    <rPh sb="0" eb="3">
+      <t>オウジチョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>広陵町</t>
+    <rPh sb="0" eb="3">
+      <t>コウリョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>天理市</t>
+    <rPh sb="0" eb="3">
+      <t>テンリシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>香芝市</t>
+    <rPh sb="0" eb="3">
+      <t>カシバシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>大淀町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヨドチョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="2">
+      <t>カシハラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>田原本町</t>
+    <rPh sb="0" eb="4">
+      <t>タワラモトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>生駒市</t>
+    <rPh sb="0" eb="3">
+      <t>イコマシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コオリヤマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマト</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タカダシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>御所市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴセシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>三郷町</t>
+    <rPh sb="0" eb="3">
+      <t>サンゴウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>大和郡山市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトコオリヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -6951,7 +7204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7089,6 +7342,21 @@
     </xf>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7305,11 +7573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2186"/>
+  <dimension ref="A1:J2313"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2126" sqref="G2126"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A2277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2284" sqref="E2284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -7334,7 +7602,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44203.495040277776</v>
+        <v>44205.747737847225</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -63054,6 +63322,3257 @@
       </c>
       <c r="H2186" s="5" t="s">
         <v>966</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:8">
+      <c r="A2187" s="5">
+        <v>2185</v>
+      </c>
+      <c r="B2187" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2187" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2187" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2187" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2187" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2187" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="H2187" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:8">
+      <c r="A2188" s="5">
+        <v>2186</v>
+      </c>
+      <c r="B2188" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2188" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2188" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2188" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2188" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="H2188" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:8">
+      <c r="A2189" s="5">
+        <v>2187</v>
+      </c>
+      <c r="B2189" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2189" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2189" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2189" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2189" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="G2189" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="H2189" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:8">
+      <c r="A2190" s="5">
+        <v>2188</v>
+      </c>
+      <c r="B2190" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2190" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2190" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2190" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2190" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="H2190" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:8">
+      <c r="A2191" s="5">
+        <v>2189</v>
+      </c>
+      <c r="B2191" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2191" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2191" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2191" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2191" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="G2191" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="H2191" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:8">
+      <c r="A2192" s="5">
+        <v>2190</v>
+      </c>
+      <c r="B2192" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2192" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2192" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2192" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2192" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2192" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2192" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:8">
+      <c r="A2193" s="5">
+        <v>2191</v>
+      </c>
+      <c r="B2193" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2193" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2193" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2193" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2193" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2193" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="H2193" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:8">
+      <c r="A2194" s="5">
+        <v>2192</v>
+      </c>
+      <c r="B2194" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2194" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2194" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2194" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2194" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2194" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2194" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:8">
+      <c r="A2195" s="5">
+        <v>2193</v>
+      </c>
+      <c r="B2195" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2195" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2195" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2195" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2195" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2195" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="H2195" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:8">
+      <c r="A2196" s="5">
+        <v>2194</v>
+      </c>
+      <c r="B2196" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2196" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2196" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2196" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2196" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2196" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="H2196" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:8">
+      <c r="A2197" s="5">
+        <v>2195</v>
+      </c>
+      <c r="B2197" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2197" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2197" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2197" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2197" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2197" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="H2197" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:8">
+      <c r="A2198" s="5">
+        <v>2196</v>
+      </c>
+      <c r="B2198" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2198" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2198" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2198" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2198" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2198" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="H2198" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:8">
+      <c r="A2199" s="5">
+        <v>2197</v>
+      </c>
+      <c r="B2199" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2199" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2199" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2199" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2199" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2199" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="H2199" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:8">
+      <c r="A2200" s="5">
+        <v>2198</v>
+      </c>
+      <c r="B2200" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2200" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2200" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2200" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2200" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2200" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2200" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:8">
+      <c r="A2201" s="5">
+        <v>2199</v>
+      </c>
+      <c r="B2201" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2201" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2201" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2201" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2201" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2201" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="H2201" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:8">
+      <c r="A2202" s="5">
+        <v>2200</v>
+      </c>
+      <c r="B2202" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2202" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2202" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2202" s="6">
+        <v>44193</v>
+      </c>
+      <c r="F2202" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2202" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2202" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:8">
+      <c r="A2203" s="5">
+        <v>2201</v>
+      </c>
+      <c r="B2203" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2203" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2203" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2203" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2203" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2203" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2203" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:8">
+      <c r="A2204" s="5">
+        <v>2202</v>
+      </c>
+      <c r="B2204" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2204" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2204" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2204" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2204" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2204" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2204" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:8">
+      <c r="A2205" s="5">
+        <v>2203</v>
+      </c>
+      <c r="B2205" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2205" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2205" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2205" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2205" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2205" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="H2205" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:8">
+      <c r="A2206" s="5">
+        <v>2204</v>
+      </c>
+      <c r="B2206" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2206" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2206" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2206" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2206" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2206" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="H2206" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:8">
+      <c r="A2207" s="5">
+        <v>2205</v>
+      </c>
+      <c r="B2207" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2207" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2207" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2207" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2207" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2207" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="H2207" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:8">
+      <c r="A2208" s="5">
+        <v>2206</v>
+      </c>
+      <c r="B2208" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2208" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2208" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2208" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2208" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2208" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2208" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:8">
+      <c r="A2209" s="5">
+        <v>2207</v>
+      </c>
+      <c r="B2209" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2209" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2209" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2209" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2209" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2209" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2209" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:8">
+      <c r="A2210" s="5">
+        <v>2208</v>
+      </c>
+      <c r="B2210" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2210" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2210" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2210" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2210" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2210" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="H2210" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:8">
+      <c r="A2211" s="5">
+        <v>2209</v>
+      </c>
+      <c r="B2211" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2211" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2211" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2211" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2211" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2211" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="H2211" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:8">
+      <c r="A2212" s="5">
+        <v>2210</v>
+      </c>
+      <c r="B2212" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2212" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2212" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2212" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2212" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2212" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="H2212" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:8">
+      <c r="A2213" s="5">
+        <v>2211</v>
+      </c>
+      <c r="B2213" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2213" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2213" s="6">
+        <v>44203</v>
+      </c>
+      <c r="E2213" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2213" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2213" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2213" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:8" ht="14.25">
+      <c r="A2214" s="5">
+        <v>2212</v>
+      </c>
+      <c r="B2214" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2214" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2214" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2214" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2214" s="47" t="s">
+        <v>986</v>
+      </c>
+      <c r="G2214" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H2214" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:8" ht="14.25">
+      <c r="A2215" s="5">
+        <v>2213</v>
+      </c>
+      <c r="B2215" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2215" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2215" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2215" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2215" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="G2215" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H2215" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:8" ht="14.25">
+      <c r="A2216" s="5">
+        <v>2214</v>
+      </c>
+      <c r="B2216" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2216" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2216" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2216" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2216" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="G2216" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H2216" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:8" ht="14.25">
+      <c r="A2217" s="5">
+        <v>2215</v>
+      </c>
+      <c r="B2217" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2217" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2217" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2217" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2217" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="G2217" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H2217" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:8" ht="14.25">
+      <c r="A2218" s="5">
+        <v>2216</v>
+      </c>
+      <c r="B2218" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2218" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2218" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2218" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2218" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="G2218" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H2218" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:8" ht="14.25">
+      <c r="A2219" s="5">
+        <v>2217</v>
+      </c>
+      <c r="B2219" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2219" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2219" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2219" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2219" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2219" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H2219" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:8" ht="14.25">
+      <c r="A2220" s="5">
+        <v>2218</v>
+      </c>
+      <c r="B2220" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2220" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2220" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2220" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2220" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2220" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H2220" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:8" ht="14.25">
+      <c r="A2221" s="5">
+        <v>2219</v>
+      </c>
+      <c r="B2221" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2221" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2221" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2221" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2221" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2221" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H2221" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:8" ht="14.25">
+      <c r="A2222" s="5">
+        <v>2220</v>
+      </c>
+      <c r="B2222" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2222" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2222" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2222" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2222" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2222" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H2222" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:8" ht="14.25">
+      <c r="A2223" s="5">
+        <v>2221</v>
+      </c>
+      <c r="B2223" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2223" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2223" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2223" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2223" s="47" t="s">
+        <v>990</v>
+      </c>
+      <c r="G2223" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H2223" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:8" ht="14.25">
+      <c r="A2224" s="5">
+        <v>2222</v>
+      </c>
+      <c r="B2224" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2224" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2224" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2224" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2224" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H2224" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:8" ht="14.25">
+      <c r="A2225" s="5">
+        <v>2223</v>
+      </c>
+      <c r="B2225" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2225" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2225" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2225" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2225" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="G2225" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H2225" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:8" ht="14.25">
+      <c r="A2226" s="5">
+        <v>2224</v>
+      </c>
+      <c r="B2226" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2226" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2226" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2226" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2226" s="47" t="s">
+        <v>991</v>
+      </c>
+      <c r="G2226" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H2226" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:8" ht="14.25">
+      <c r="A2227" s="5">
+        <v>2225</v>
+      </c>
+      <c r="B2227" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2227" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2227" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2227" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2227" s="47" t="s">
+        <v>992</v>
+      </c>
+      <c r="G2227" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2227" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:8" ht="14.25">
+      <c r="A2228" s="5">
+        <v>2226</v>
+      </c>
+      <c r="B2228" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2228" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2228" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2228" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2228" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2228" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H2228" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:8" ht="14.25">
+      <c r="A2229" s="5">
+        <v>2227</v>
+      </c>
+      <c r="B2229" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2229" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2229" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2229" s="47" t="s">
+        <v>990</v>
+      </c>
+      <c r="G2229" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H2229" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:8" ht="14.25">
+      <c r="A2230" s="5">
+        <v>2228</v>
+      </c>
+      <c r="B2230" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2230" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2230" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2230" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2230" s="47" t="s">
+        <v>990</v>
+      </c>
+      <c r="G2230" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H2230" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:8" ht="14.25">
+      <c r="A2231" s="5">
+        <v>2229</v>
+      </c>
+      <c r="B2231" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2231" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2231" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2231" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2231" s="48" t="s">
+        <v>993</v>
+      </c>
+      <c r="G2231" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H2231" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:8" ht="14.25">
+      <c r="A2232" s="5">
+        <v>2230</v>
+      </c>
+      <c r="B2232" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2232" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2232" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2232" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2232" s="48" t="s">
+        <v>994</v>
+      </c>
+      <c r="G2232" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2232" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:8" ht="14.25">
+      <c r="A2233" s="5">
+        <v>2231</v>
+      </c>
+      <c r="B2233" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2233" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2233" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2233" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2233" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="G2233" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H2233" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:8" ht="14.25">
+      <c r="A2234" s="5">
+        <v>2232</v>
+      </c>
+      <c r="B2234" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2234" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2234" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2234" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2234" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2234" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2234" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:8" ht="14.25">
+      <c r="A2235" s="5">
+        <v>2233</v>
+      </c>
+      <c r="B2235" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2235" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2235" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2235" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2235" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2235" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2235" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:8" ht="14.25">
+      <c r="A2236" s="5">
+        <v>2234</v>
+      </c>
+      <c r="B2236" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2236" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2236" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2236" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2236" s="47" t="s">
+        <v>995</v>
+      </c>
+      <c r="G2236" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H2236" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:8" ht="14.25">
+      <c r="A2237" s="5">
+        <v>2235</v>
+      </c>
+      <c r="B2237" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2237" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2237" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2237" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2237" s="47" t="s">
+        <v>991</v>
+      </c>
+      <c r="G2237" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H2237" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:8" ht="14.25">
+      <c r="A2238" s="5">
+        <v>2236</v>
+      </c>
+      <c r="B2238" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2238" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2238" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2238" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2238" s="47" t="s">
+        <v>996</v>
+      </c>
+      <c r="G2238" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H2238" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:8" ht="14.25">
+      <c r="A2239" s="5">
+        <v>2237</v>
+      </c>
+      <c r="B2239" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2239" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2239" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2239" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2239" s="47" t="s">
+        <v>986</v>
+      </c>
+      <c r="G2239" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H2239" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:8" ht="14.25">
+      <c r="A2240" s="5">
+        <v>2238</v>
+      </c>
+      <c r="B2240" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2240" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2240" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2240" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2240" s="47" t="s">
+        <v>992</v>
+      </c>
+      <c r="G2240" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H2240" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:8" ht="14.25">
+      <c r="A2241" s="5">
+        <v>2239</v>
+      </c>
+      <c r="B2241" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2241" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2241" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2241" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2241" s="47" t="s">
+        <v>997</v>
+      </c>
+      <c r="G2241" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H2241" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:8" ht="14.25">
+      <c r="A2242" s="5">
+        <v>2240</v>
+      </c>
+      <c r="B2242" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2242" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2242" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2242" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2242" s="47" t="s">
+        <v>992</v>
+      </c>
+      <c r="G2242" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2242" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:8" ht="14.25">
+      <c r="A2243" s="5">
+        <v>2241</v>
+      </c>
+      <c r="B2243" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2243" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2243" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2243" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2243" s="47" t="s">
+        <v>998</v>
+      </c>
+      <c r="G2243" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H2243" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:8" ht="14.25">
+      <c r="A2244" s="5">
+        <v>2242</v>
+      </c>
+      <c r="B2244" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2244" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2244" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2244" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2244" s="48" t="s">
+        <v>999</v>
+      </c>
+      <c r="G2244" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2244" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:8" ht="14.25">
+      <c r="A2245" s="5">
+        <v>2243</v>
+      </c>
+      <c r="B2245" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2245" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2245" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2245" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2245" s="48" t="s">
+        <v>988</v>
+      </c>
+      <c r="G2245" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H2245" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:8" ht="14.25">
+      <c r="A2246" s="5">
+        <v>2244</v>
+      </c>
+      <c r="B2246" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2246" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2246" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2246" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2246" s="48" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2246" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H2246" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:8" ht="14.25">
+      <c r="A2247" s="5">
+        <v>2245</v>
+      </c>
+      <c r="B2247" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2247" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2247" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2247" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2247" s="48" t="s">
+        <v>994</v>
+      </c>
+      <c r="G2247" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2247" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:8" ht="14.25">
+      <c r="A2248" s="5">
+        <v>2246</v>
+      </c>
+      <c r="B2248" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2248" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2248" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2248" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2248" s="49" t="s">
+        <v>994</v>
+      </c>
+      <c r="G2248" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H2248" s="46" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:8" ht="14.25">
+      <c r="A2249" s="5">
+        <v>2247</v>
+      </c>
+      <c r="B2249" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2249" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2249" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2249" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2249" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G2249" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H2249" s="50" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:8" ht="14.25">
+      <c r="A2250" s="5">
+        <v>2248</v>
+      </c>
+      <c r="B2250" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2250" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2250" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2250" s="6">
+        <v>44191</v>
+      </c>
+      <c r="F2250" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G2250" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2250" s="50" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:8" ht="14.25">
+      <c r="A2251" s="5">
+        <v>2249</v>
+      </c>
+      <c r="B2251" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2251" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2251" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2251" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2251" s="48" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G2251" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H2251" s="50" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:8" ht="14.25">
+      <c r="A2252" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B2252" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2252" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2252" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2252" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2252" s="48" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G2252" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H2252" s="50" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:8" ht="14.25">
+      <c r="A2253" s="5">
+        <v>2251</v>
+      </c>
+      <c r="B2253" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2253" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2253" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2253" s="48" t="s">
+        <v>997</v>
+      </c>
+      <c r="G2253" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H2253" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:8" ht="14.25">
+      <c r="A2254" s="5">
+        <v>2252</v>
+      </c>
+      <c r="B2254" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2254" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2254" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2254" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2254" s="48" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G2254" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H2254" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:8" ht="14.25">
+      <c r="A2255" s="5">
+        <v>2253</v>
+      </c>
+      <c r="B2255" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2255" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2255" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2255" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2255" s="49" t="s">
+        <v>992</v>
+      </c>
+      <c r="G2255" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H2255" s="46" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:8" ht="14.25">
+      <c r="A2256" s="5">
+        <v>2254</v>
+      </c>
+      <c r="B2256" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2256" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2256" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2256" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2256" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="G2256" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H2256" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:8" ht="14.25">
+      <c r="A2257" s="5">
+        <v>2255</v>
+      </c>
+      <c r="B2257" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2257" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2257" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2257" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2257" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2257" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:8" ht="14.25">
+      <c r="A2258" s="5">
+        <v>2256</v>
+      </c>
+      <c r="B2258" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2258" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2258" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2258" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2258" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2258" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H2258" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:8" ht="14.25">
+      <c r="A2259" s="5">
+        <v>2257</v>
+      </c>
+      <c r="B2259" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2259" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2259" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2259" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2259" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="G2259" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H2259" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:8" ht="14.25">
+      <c r="A2260" s="5">
+        <v>2258</v>
+      </c>
+      <c r="B2260" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2260" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2260" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2260" s="48" t="s">
+        <v>988</v>
+      </c>
+      <c r="G2260" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H2260" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:8" ht="14.25">
+      <c r="A2261" s="5">
+        <v>2259</v>
+      </c>
+      <c r="B2261" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2261" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2261" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2261" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2261" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2261" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H2261" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:8" ht="14.25">
+      <c r="A2262" s="5">
+        <v>2260</v>
+      </c>
+      <c r="B2262" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2262" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2262" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2262" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2262" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2262" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H2262" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:8" ht="14.25">
+      <c r="A2263" s="5">
+        <v>2261</v>
+      </c>
+      <c r="B2263" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2263" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2263" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2263" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2263" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2263" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H2263" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:8" ht="14.25">
+      <c r="A2264" s="5">
+        <v>2262</v>
+      </c>
+      <c r="B2264" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2264" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2264" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2264" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2264" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2264" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H2264" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:8" ht="14.25">
+      <c r="A2265" s="5">
+        <v>2263</v>
+      </c>
+      <c r="B2265" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2265" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2265" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2265" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2265" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2265" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H2265" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:8" ht="14.25">
+      <c r="A2266" s="5">
+        <v>2264</v>
+      </c>
+      <c r="B2266" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2266" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2266" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2266" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2266" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2266" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H2266" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:8" ht="14.25">
+      <c r="A2267" s="5">
+        <v>2265</v>
+      </c>
+      <c r="B2267" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2267" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2267" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2267" s="6">
+        <v>44195</v>
+      </c>
+      <c r="F2267" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2267" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H2267" s="46" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:8" ht="14.25">
+      <c r="A2268" s="5">
+        <v>2266</v>
+      </c>
+      <c r="B2268" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2268" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2268" s="6">
+        <v>44204</v>
+      </c>
+      <c r="E2268" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2268" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2268" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H2268" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:8">
+      <c r="A2269" s="5">
+        <v>2267</v>
+      </c>
+      <c r="B2269" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2269" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2269" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2269" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2269" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2269" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2269" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:8">
+      <c r="A2270" s="5">
+        <v>2268</v>
+      </c>
+      <c r="B2270" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2270" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2270" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2270" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2270" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2270" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2270" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:8">
+      <c r="A2271" s="5">
+        <v>2269</v>
+      </c>
+      <c r="B2271" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2271" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2271" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2271" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2271" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2271" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:8">
+      <c r="A2272" s="5">
+        <v>2270</v>
+      </c>
+      <c r="B2272" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2272" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2272" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2272" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2272" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2272" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2272" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:8">
+      <c r="A2273" s="5">
+        <v>2271</v>
+      </c>
+      <c r="B2273" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2273" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2273" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2273" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2273" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2273" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2273" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:8">
+      <c r="A2274" s="5">
+        <v>2272</v>
+      </c>
+      <c r="B2274" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2274" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2274" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2274" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2274" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2274" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2274" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:8">
+      <c r="A2275" s="5">
+        <v>2273</v>
+      </c>
+      <c r="B2275" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2275" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2275" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2275" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2275" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2275" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:8">
+      <c r="A2276" s="5">
+        <v>2274</v>
+      </c>
+      <c r="B2276" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2276" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2276" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2276" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2276" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2276" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2276" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:8">
+      <c r="A2277" s="5">
+        <v>2275</v>
+      </c>
+      <c r="B2277" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2277" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2277" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2277" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2277" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2277" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2277" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:8">
+      <c r="A2278" s="5">
+        <v>2276</v>
+      </c>
+      <c r="B2278" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2278" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2278" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2278" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2278" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2278" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2278" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:8">
+      <c r="A2279" s="5">
+        <v>2277</v>
+      </c>
+      <c r="B2279" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2279" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2279" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2279" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2279" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2279" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2279" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:8">
+      <c r="A2280" s="5">
+        <v>2278</v>
+      </c>
+      <c r="B2280" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2280" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2280" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2280" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2280" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2280" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:8">
+      <c r="A2281" s="5">
+        <v>2279</v>
+      </c>
+      <c r="B2281" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2281" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2281" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2281" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2281" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2281" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:8">
+      <c r="A2282" s="5">
+        <v>2280</v>
+      </c>
+      <c r="B2282" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2282" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2282" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2282" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2282" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2282" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2282" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:8">
+      <c r="A2283" s="5">
+        <v>2281</v>
+      </c>
+      <c r="B2283" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2283" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2283" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2283" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2283" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2283" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2283" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:8">
+      <c r="A2284" s="5">
+        <v>2282</v>
+      </c>
+      <c r="B2284" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2284" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2284" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2284" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2284" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2284" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2284" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:8">
+      <c r="A2285" s="5">
+        <v>2283</v>
+      </c>
+      <c r="B2285" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2285" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2285" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2285" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2285" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2285" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2285" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:8">
+      <c r="A2286" s="5">
+        <v>2284</v>
+      </c>
+      <c r="B2286" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2286" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2286" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2286" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2286" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2286" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2286" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:8">
+      <c r="A2287" s="5">
+        <v>2285</v>
+      </c>
+      <c r="B2287" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2287" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2287" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2287" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2287" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2287" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2287" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:8">
+      <c r="A2288" s="5">
+        <v>2286</v>
+      </c>
+      <c r="B2288" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2288" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2288" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2288" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2288" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2288" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2288" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:8">
+      <c r="A2289" s="5">
+        <v>2287</v>
+      </c>
+      <c r="B2289" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2289" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2289" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2289" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2289" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2289" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2289" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:8">
+      <c r="A2290" s="5">
+        <v>2288</v>
+      </c>
+      <c r="B2290" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2290" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2290" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2290" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2290" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2290" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2290" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:8">
+      <c r="A2291" s="5">
+        <v>2289</v>
+      </c>
+      <c r="B2291" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2291" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2291" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2291" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2291" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2291" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2291" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:8">
+      <c r="A2292" s="5">
+        <v>2290</v>
+      </c>
+      <c r="B2292" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2292" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2292" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2292" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2292" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2292" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2292" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:8">
+      <c r="A2293" s="5">
+        <v>2291</v>
+      </c>
+      <c r="B2293" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2293" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2293" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2293" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2293" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2293" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2293" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:8">
+      <c r="A2294" s="5">
+        <v>2292</v>
+      </c>
+      <c r="B2294" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2294" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2294" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2294" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2294" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2294" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:8">
+      <c r="A2295" s="5">
+        <v>2293</v>
+      </c>
+      <c r="B2295" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2295" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2295" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2295" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2295" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2295" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2295" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:8">
+      <c r="A2296" s="5">
+        <v>2294</v>
+      </c>
+      <c r="B2296" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2296" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2296" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2296" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2296" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2296" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2296" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:8">
+      <c r="A2297" s="5">
+        <v>2295</v>
+      </c>
+      <c r="B2297" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2297" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2297" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2297" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2297" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2297" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:8">
+      <c r="A2298" s="5">
+        <v>2296</v>
+      </c>
+      <c r="B2298" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2298" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2298" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2298" s="6">
+        <v>44190</v>
+      </c>
+      <c r="F2298" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2298" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2298" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:8">
+      <c r="A2299" s="5">
+        <v>2297</v>
+      </c>
+      <c r="B2299" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2299" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2299" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2299" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2299" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2299" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2299" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:8">
+      <c r="A2300" s="5">
+        <v>2298</v>
+      </c>
+      <c r="B2300" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2300" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2300" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2300" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2300" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2300" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2300" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:8">
+      <c r="A2301" s="5">
+        <v>2299</v>
+      </c>
+      <c r="B2301" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2301" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2301" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2301" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2301" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2301" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:8">
+      <c r="A2302" s="5">
+        <v>2300</v>
+      </c>
+      <c r="B2302" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2302" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2302" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2302" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2302" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2302" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2302" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:8">
+      <c r="A2303" s="5">
+        <v>2301</v>
+      </c>
+      <c r="B2303" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2303" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2303" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2303" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2303" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2303" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:8">
+      <c r="A2304" s="5">
+        <v>2302</v>
+      </c>
+      <c r="B2304" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2304" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2304" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2304" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2304" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2304" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2304" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:8">
+      <c r="A2305" s="5">
+        <v>2303</v>
+      </c>
+      <c r="B2305" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2305" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2305" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2305" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2305" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2305" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2305" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:8">
+      <c r="A2306" s="5">
+        <v>2304</v>
+      </c>
+      <c r="B2306" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2306" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2306" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2306" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2306" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2306" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2306" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:8">
+      <c r="A2307" s="5">
+        <v>2305</v>
+      </c>
+      <c r="B2307" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2307" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2307" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2307" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2307" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2307" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2307" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:8">
+      <c r="A2308" s="5">
+        <v>2306</v>
+      </c>
+      <c r="B2308" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2308" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2308" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2308" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2308" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2308" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:8">
+      <c r="A2309" s="5">
+        <v>2307</v>
+      </c>
+      <c r="B2309" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2309" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2309" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2309" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2309" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2309" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:8">
+      <c r="A2310" s="5">
+        <v>2308</v>
+      </c>
+      <c r="B2310" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2310" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2310" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2310" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2310" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2310" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2310" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:8">
+      <c r="A2311" s="5">
+        <v>2309</v>
+      </c>
+      <c r="B2311" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2311" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2311" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2311" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2311" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2311" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2311" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:8">
+      <c r="A2312" s="5">
+        <v>2310</v>
+      </c>
+      <c r="B2312" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2312" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2312" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2312" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2312" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2312" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2312" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:8">
+      <c r="A2313" s="5">
+        <v>2311</v>
+      </c>
+      <c r="B2313" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2313" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2313" s="6">
+        <v>44205</v>
+      </c>
+      <c r="E2313" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2313" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2313" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2313" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2186</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2315</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2359</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9258" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9442" uniqueCount="1025">
   <si>
     <t>備考</t>
   </si>
@@ -6911,6 +6911,90 @@
     <t>10代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上牧町</t>
+    <rPh sb="0" eb="3">
+      <t>カンマキチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛城市</t>
+    <rPh sb="0" eb="3">
+      <t>カツラギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7573,11 +7657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2313"/>
+  <dimension ref="A1:J2359"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2284" sqref="E2284"/>
+      <pane ySplit="2" topLeftCell="A2341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2359" sqref="F2359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -7602,7 +7686,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44205.747737847225</v>
+        <v>44206.727539699074</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -66573,6 +66657,1169 @@
       </c>
       <c r="H2313" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:8">
+      <c r="A2314" s="5">
+        <v>2312</v>
+      </c>
+      <c r="B2314" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2314" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2314" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2314" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2314" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G2314" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2314" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:8">
+      <c r="A2315" s="5">
+        <v>2313</v>
+      </c>
+      <c r="B2315" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2315" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2315" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2315" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2315" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G2315" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2315" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:8">
+      <c r="A2316" s="5">
+        <v>2314</v>
+      </c>
+      <c r="B2316" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2316" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2316" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2316" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2316" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="G2316" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2316" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:8">
+      <c r="A2317" s="5">
+        <v>2315</v>
+      </c>
+      <c r="B2317" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2317" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2317" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2317" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2317" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2317" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:8">
+      <c r="A2318" s="5">
+        <v>2316</v>
+      </c>
+      <c r="B2318" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2318" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2318" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2318" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G2318" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2318" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:8">
+      <c r="A2319" s="5">
+        <v>2317</v>
+      </c>
+      <c r="B2319" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2319" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2319" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2319" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2319" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="G2319" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H2319" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:8">
+      <c r="A2320" s="5">
+        <v>2318</v>
+      </c>
+      <c r="B2320" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2320" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2320" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2320" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2320" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="G2320" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2320" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:8">
+      <c r="A2321" s="5">
+        <v>2319</v>
+      </c>
+      <c r="B2321" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2321" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2321" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2321" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2321" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="G2321" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2321" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:8">
+      <c r="A2322" s="5">
+        <v>2320</v>
+      </c>
+      <c r="B2322" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2322" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2322" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2322" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2322" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2322" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2322" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:8">
+      <c r="A2323" s="5">
+        <v>2321</v>
+      </c>
+      <c r="B2323" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2323" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2323" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2323" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2323" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2323" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H2323" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:8">
+      <c r="A2324" s="5">
+        <v>2322</v>
+      </c>
+      <c r="B2324" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2324" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2324" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2324" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2324" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2324" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H2324" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:8">
+      <c r="A2325" s="5">
+        <v>2323</v>
+      </c>
+      <c r="B2325" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2325" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2325" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2325" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2325" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2325" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H2325" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:8">
+      <c r="A2326" s="5">
+        <v>2324</v>
+      </c>
+      <c r="B2326" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2326" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2326" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2326" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2326" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2326" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H2326" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:8">
+      <c r="A2327" s="5">
+        <v>2325</v>
+      </c>
+      <c r="B2327" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2327" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2327" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2327" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2327" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G2327" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2327" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:8">
+      <c r="A2328" s="5">
+        <v>2326</v>
+      </c>
+      <c r="B2328" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2328" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2328" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2328" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2328" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2328" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H2328" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:8">
+      <c r="A2329" s="5">
+        <v>2327</v>
+      </c>
+      <c r="B2329" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2329" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2329" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2329" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2329" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2329" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H2329" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:8">
+      <c r="A2330" s="5">
+        <v>2328</v>
+      </c>
+      <c r="B2330" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2330" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2330" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2330" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2330" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2330" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H2330" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:8">
+      <c r="A2331" s="5">
+        <v>2329</v>
+      </c>
+      <c r="B2331" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2331" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2331" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2331" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2331" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2331" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H2331" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:8">
+      <c r="A2332" s="5">
+        <v>2330</v>
+      </c>
+      <c r="B2332" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2332" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2332" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2332" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2332" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G2332" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H2332" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:8">
+      <c r="A2333" s="5">
+        <v>2331</v>
+      </c>
+      <c r="B2333" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2333" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2333" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2333" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2333" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2333" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:8">
+      <c r="A2334" s="5">
+        <v>2332</v>
+      </c>
+      <c r="B2334" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2334" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2334" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2334" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2334" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G2334" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H2334" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:8">
+      <c r="A2335" s="5">
+        <v>2333</v>
+      </c>
+      <c r="B2335" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2335" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2335" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2335" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G2335" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H2335" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:8">
+      <c r="A2336" s="5">
+        <v>2334</v>
+      </c>
+      <c r="B2336" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2336" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2336" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2336" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G2336" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2336" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:8">
+      <c r="A2337" s="5">
+        <v>2335</v>
+      </c>
+      <c r="B2337" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2337" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2337" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2337" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2337" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2337" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2337" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:8">
+      <c r="A2338" s="5">
+        <v>2336</v>
+      </c>
+      <c r="B2338" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2338" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2338" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2338" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2338" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2338" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2338" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:8">
+      <c r="A2339" s="5">
+        <v>2337</v>
+      </c>
+      <c r="B2339" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2339" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2339" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2339" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2339" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2339" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:8">
+      <c r="A2340" s="5">
+        <v>2338</v>
+      </c>
+      <c r="B2340" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2340" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2340" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2340" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2340" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2340" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2340" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:8">
+      <c r="A2341" s="5">
+        <v>2339</v>
+      </c>
+      <c r="B2341" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2341" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2341" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2341" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2341" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2341" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2341" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:8">
+      <c r="A2342" s="5">
+        <v>2340</v>
+      </c>
+      <c r="B2342" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2342" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2342" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2342" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2342" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2342" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:8">
+      <c r="A2343" s="5">
+        <v>2341</v>
+      </c>
+      <c r="B2343" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2343" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2343" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2343" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F2343" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G2343" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2343" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:8">
+      <c r="A2344" s="5">
+        <v>2342</v>
+      </c>
+      <c r="B2344" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2344" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2344" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2344" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2344" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G2344" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2344" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:8">
+      <c r="A2345" s="5">
+        <v>2343</v>
+      </c>
+      <c r="B2345" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2345" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2345" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2345" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="G2345" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2345" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:8">
+      <c r="A2346" s="5">
+        <v>2344</v>
+      </c>
+      <c r="B2346" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2346" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2346" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2346" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2346" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2346" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2346" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:8">
+      <c r="A2347" s="5">
+        <v>2345</v>
+      </c>
+      <c r="B2347" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2347" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2347" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2347" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2347" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2347" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:8">
+      <c r="A2348" s="5">
+        <v>2346</v>
+      </c>
+      <c r="B2348" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2348" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2348" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2348" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2348" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2348" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:8">
+      <c r="A2349" s="5">
+        <v>2347</v>
+      </c>
+      <c r="B2349" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2349" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2349" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2349" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2349" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2349" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H2349" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:8">
+      <c r="A2350" s="5">
+        <v>2348</v>
+      </c>
+      <c r="B2350" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2350" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2350" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2350" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2350" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2350" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2350" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:8">
+      <c r="A2351" s="5">
+        <v>2349</v>
+      </c>
+      <c r="B2351" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2351" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2351" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2351" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2351" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2351" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2351" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:8">
+      <c r="A2352" s="5">
+        <v>2350</v>
+      </c>
+      <c r="B2352" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2352" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2352" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2352" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2352" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2352" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2352" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:8">
+      <c r="A2353" s="5">
+        <v>2351</v>
+      </c>
+      <c r="B2353" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2353" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2353" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2353" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2353" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2353" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2353" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:8">
+      <c r="A2354" s="5">
+        <v>2352</v>
+      </c>
+      <c r="B2354" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2354" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2354" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2354" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2354" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2354" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2354" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:8">
+      <c r="A2355" s="5">
+        <v>2353</v>
+      </c>
+      <c r="B2355" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2355" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2355" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2355" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2355" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2355" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2355" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:8">
+      <c r="A2356" s="5">
+        <v>2354</v>
+      </c>
+      <c r="B2356" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2356" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2356" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2356" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2356" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2356" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:8">
+      <c r="A2357" s="5">
+        <v>2355</v>
+      </c>
+      <c r="B2357" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2357" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2357" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2357" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2357" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2357" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2357" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:8">
+      <c r="A2358" s="5">
+        <v>2356</v>
+      </c>
+      <c r="B2358" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2358" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2358" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2358" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2358" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2358" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2358" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:8">
+      <c r="A2359" s="5">
+        <v>2357</v>
+      </c>
+      <c r="B2359" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2359" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2359" s="6">
+        <v>44206</v>
+      </c>
+      <c r="E2359" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2359" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2359" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2359" s="5" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>

--- a/work/29_nara.xlsx
+++ b/work/29_nara.xlsx
@@ -15,11 +15,11 @@
     <sheet name="奈良県_01新型コロナウイルス感染者_患者リスト" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2186</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2359</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_01新型コロナウイルス感染者_患者リスト!$A$2:$N$2483</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$A$1:$I$2566</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_01新型コロナウイルス感染者_患者リスト!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9442" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10270" uniqueCount="1052">
   <si>
     <t>備考</t>
   </si>
@@ -5835,16 +5835,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10代未満</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>70代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -6068,10 +6058,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30だ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -6278,16 +6264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10代未満</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -6996,13 +6972,190 @@
     <rPh sb="0" eb="3">
       <t>サクライシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="4">
+      <t>ヤマトタカダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <rPh sb="0" eb="3">
+      <t>サクライシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河合町</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橿原市</t>
+    <rPh sb="0" eb="3">
+      <t>カシハラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和高田市</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマトタカダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -7657,11 +7810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2359"/>
+  <dimension ref="A1:J2566"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2359" sqref="F2359"/>
+      <pane ySplit="2" topLeftCell="A2525" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2567" sqref="H2567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -7686,7 +7839,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">NOW()</f>
-        <v>44206.727539699074</v>
+        <v>44212.698419560184</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -48578,7 +48731,7 @@
         <v>31</v>
       </c>
       <c r="G1604" s="23" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H1604" s="18" t="s">
         <v>814</v>
@@ -48601,7 +48754,7 @@
         <v>807</v>
       </c>
       <c r="G1605" s="29" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H1605" s="19" t="s">
         <v>814</v>
@@ -48627,7 +48780,7 @@
         <v>164</v>
       </c>
       <c r="G1606" s="24" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H1606" s="19" t="s">
         <v>814</v>
@@ -48653,7 +48806,7 @@
         <v>808</v>
       </c>
       <c r="G1607" s="24" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H1607" s="18" t="s">
         <v>814</v>
@@ -48679,7 +48832,7 @@
         <v>809</v>
       </c>
       <c r="G1608" s="24" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H1608" s="18" t="s">
         <v>815</v>
@@ -48705,7 +48858,7 @@
         <v>808</v>
       </c>
       <c r="G1609" s="24" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H1609" s="19" t="s">
         <v>814</v>
@@ -48731,7 +48884,7 @@
         <v>73</v>
       </c>
       <c r="G1610" s="24" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H1610" s="18" t="s">
         <v>815</v>
@@ -48757,7 +48910,7 @@
         <v>123</v>
       </c>
       <c r="G1611" s="24" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H1611" s="19" t="s">
         <v>815</v>
@@ -48780,7 +48933,7 @@
         <v>810</v>
       </c>
       <c r="G1612" s="25" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H1612" s="19" t="s">
         <v>814</v>
@@ -48803,7 +48956,7 @@
         <v>29</v>
       </c>
       <c r="G1613" s="24" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H1613" s="19" t="s">
         <v>815</v>
@@ -48852,7 +49005,7 @@
         <v>160</v>
       </c>
       <c r="G1615" s="24" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H1615" s="19" t="s">
         <v>814</v>
@@ -48878,7 +49031,7 @@
         <v>806</v>
       </c>
       <c r="G1616" s="25" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H1616" s="18" t="s">
         <v>814</v>
@@ -48904,7 +49057,7 @@
         <v>811</v>
       </c>
       <c r="G1617" s="25" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H1617" s="18" t="s">
         <v>814</v>
@@ -48930,7 +49083,7 @@
         <v>29</v>
       </c>
       <c r="G1618" s="24" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H1618" s="19" t="s">
         <v>814</v>
@@ -48956,7 +49109,7 @@
         <v>29</v>
       </c>
       <c r="G1619" s="26" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H1619" s="20" t="s">
         <v>814</v>
@@ -48982,7 +49135,7 @@
         <v>812</v>
       </c>
       <c r="G1620" s="25" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H1620" s="18" t="s">
         <v>815</v>
@@ -49005,7 +49158,7 @@
         <v>24</v>
       </c>
       <c r="G1621" s="24" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H1621" s="18" t="s">
         <v>815</v>
@@ -49028,7 +49181,7 @@
         <v>24</v>
       </c>
       <c r="G1622" s="24" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H1622" s="18" t="s">
         <v>815</v>
@@ -49051,7 +49204,7 @@
         <v>24</v>
       </c>
       <c r="G1623" s="26" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H1623" s="18" t="s">
         <v>814</v>
@@ -49074,7 +49227,7 @@
         <v>24</v>
       </c>
       <c r="G1624" s="25" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H1624" s="18" t="s">
         <v>814</v>
@@ -49100,7 +49253,7 @@
         <v>24</v>
       </c>
       <c r="G1625" s="24" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H1625" s="18" t="s">
         <v>814</v>
@@ -49126,7 +49279,7 @@
         <v>24</v>
       </c>
       <c r="G1626" s="27" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H1626" s="18" t="s">
         <v>815</v>
@@ -49152,7 +49305,7 @@
         <v>24</v>
       </c>
       <c r="G1627" s="28" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H1627" s="19" t="s">
         <v>814</v>
@@ -49178,7 +49331,7 @@
         <v>24</v>
       </c>
       <c r="G1628" s="24" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H1628" s="18" t="s">
         <v>815</v>
@@ -49201,7 +49354,7 @@
         <v>24</v>
       </c>
       <c r="G1629" s="24" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H1629" s="18" t="s">
         <v>814</v>
@@ -49227,7 +49380,7 @@
         <v>24</v>
       </c>
       <c r="G1630" s="30" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H1630" s="18" t="s">
         <v>815</v>
@@ -52321,7 +52474,7 @@
         <v>164</v>
       </c>
       <c r="G1752" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1752" s="5" t="s">
         <v>28</v>
@@ -52344,7 +52497,7 @@
         <v>164</v>
       </c>
       <c r="G1753" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1753" s="5" t="s">
         <v>28</v>
@@ -52367,7 +52520,7 @@
         <v>164</v>
       </c>
       <c r="G1754" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1754" s="5" t="s">
         <v>39</v>
@@ -52393,7 +52546,7 @@
         <v>164</v>
       </c>
       <c r="G1755" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1755" s="5" t="s">
         <v>28</v>
@@ -52416,7 +52569,7 @@
         <v>164</v>
       </c>
       <c r="G1756" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1756" s="5" t="s">
         <v>39</v>
@@ -52439,7 +52592,7 @@
         <v>164</v>
       </c>
       <c r="G1757" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1757" s="5" t="s">
         <v>28</v>
@@ -52488,7 +52641,7 @@
         <v>164</v>
       </c>
       <c r="G1759" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1759" s="5" t="s">
         <v>28</v>
@@ -52742,7 +52895,7 @@
         <v>851</v>
       </c>
       <c r="G1769" s="5" t="s">
-        <v>853</v>
+        <v>207</v>
       </c>
       <c r="H1769" s="5" t="s">
         <v>39</v>
@@ -52765,7 +52918,7 @@
         <v>83</v>
       </c>
       <c r="G1770" s="5" t="s">
-        <v>853</v>
+        <v>207</v>
       </c>
       <c r="H1770" s="5" t="s">
         <v>39</v>
@@ -52843,7 +52996,7 @@
         <v>27</v>
       </c>
       <c r="G1773" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1773" s="5" t="s">
         <v>28</v>
@@ -52947,7 +53100,7 @@
         <v>89</v>
       </c>
       <c r="G1777" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1777" s="5" t="s">
         <v>28</v>
@@ -52970,7 +53123,7 @@
         <v>31</v>
       </c>
       <c r="G1778" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1778" s="5" t="s">
         <v>28</v>
@@ -52996,7 +53149,7 @@
         <v>89</v>
       </c>
       <c r="G1779" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1779" s="5" t="s">
         <v>28</v>
@@ -53022,7 +53175,7 @@
         <v>177</v>
       </c>
       <c r="G1780" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1780" s="5" t="s">
         <v>28</v>
@@ -53146,7 +53299,7 @@
         <v>73</v>
       </c>
       <c r="G1785" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1785" s="5" t="s">
         <v>39</v>
@@ -53169,10 +53322,10 @@
         <v>44188</v>
       </c>
       <c r="F1786" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="G1786" s="5" t="s">
         <v>865</v>
-      </c>
-      <c r="G1786" s="5" t="s">
-        <v>866</v>
       </c>
       <c r="H1786" s="5" t="s">
         <v>39</v>
@@ -53195,7 +53348,7 @@
         <v>89</v>
       </c>
       <c r="G1787" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1787" s="5" t="s">
         <v>28</v>
@@ -53218,7 +53371,7 @@
         <v>89</v>
       </c>
       <c r="G1788" s="5" t="s">
-        <v>853</v>
+        <v>207</v>
       </c>
       <c r="H1788" s="5" t="s">
         <v>39</v>
@@ -53244,7 +53397,7 @@
         <v>72</v>
       </c>
       <c r="G1789" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1789" s="5" t="s">
         <v>39</v>
@@ -53270,7 +53423,7 @@
         <v>145</v>
       </c>
       <c r="G1790" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1790" s="5" t="s">
         <v>28</v>
@@ -53296,7 +53449,7 @@
         <v>89</v>
       </c>
       <c r="G1791" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1791" s="5" t="s">
         <v>28</v>
@@ -53322,7 +53475,7 @@
         <v>89</v>
       </c>
       <c r="G1792" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1792" s="5" t="s">
         <v>39</v>
@@ -53348,7 +53501,7 @@
         <v>89</v>
       </c>
       <c r="G1793" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1793" s="5" t="s">
         <v>28</v>
@@ -53374,7 +53527,7 @@
         <v>29</v>
       </c>
       <c r="G1794" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1794" s="5" t="s">
         <v>39</v>
@@ -53397,7 +53550,7 @@
         <v>44181</v>
       </c>
       <c r="F1795" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G1795" s="5" t="s">
         <v>90</v>
@@ -53423,7 +53576,7 @@
         <v>83</v>
       </c>
       <c r="G1796" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1796" s="5" t="s">
         <v>39</v>
@@ -53446,7 +53599,7 @@
         <v>83</v>
       </c>
       <c r="G1797" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1797" s="5" t="s">
         <v>28</v>
@@ -53469,7 +53622,7 @@
         <v>105</v>
       </c>
       <c r="G1798" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1798" s="5" t="s">
         <v>28</v>
@@ -53495,7 +53648,7 @@
         <v>31</v>
       </c>
       <c r="G1799" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1799" s="5" t="s">
         <v>39</v>
@@ -53521,7 +53674,7 @@
         <v>72</v>
       </c>
       <c r="G1800" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1800" s="5" t="s">
         <v>28</v>
@@ -53547,7 +53700,7 @@
         <v>72</v>
       </c>
       <c r="G1801" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1801" s="5" t="s">
         <v>28</v>
@@ -53573,7 +53726,7 @@
         <v>29</v>
       </c>
       <c r="G1802" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1802" s="5" t="s">
         <v>28</v>
@@ -53599,7 +53752,7 @@
         <v>134</v>
       </c>
       <c r="G1803" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1803" s="5" t="s">
         <v>39</v>
@@ -53622,10 +53775,10 @@
         <v>44186</v>
       </c>
       <c r="F1804" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G1804" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1804" s="5" t="s">
         <v>28</v>
@@ -53651,7 +53804,7 @@
         <v>290</v>
       </c>
       <c r="G1805" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1805" s="5" t="s">
         <v>39</v>
@@ -53674,7 +53827,7 @@
         <v>24</v>
       </c>
       <c r="G1806" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1806" s="5" t="s">
         <v>28</v>
@@ -53700,7 +53853,7 @@
         <v>24</v>
       </c>
       <c r="G1807" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1807" s="5" t="s">
         <v>39</v>
@@ -53726,7 +53879,7 @@
         <v>24</v>
       </c>
       <c r="G1808" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1808" s="5" t="s">
         <v>39</v>
@@ -53752,7 +53905,7 @@
         <v>24</v>
       </c>
       <c r="G1809" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1809" s="5" t="s">
         <v>28</v>
@@ -53778,7 +53931,7 @@
         <v>24</v>
       </c>
       <c r="G1810" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1810" s="5" t="s">
         <v>39</v>
@@ -53801,7 +53954,7 @@
         <v>24</v>
       </c>
       <c r="G1811" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1811" s="5" t="s">
         <v>39</v>
@@ -53827,7 +53980,7 @@
         <v>24</v>
       </c>
       <c r="G1812" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1812" s="5" t="s">
         <v>39</v>
@@ -53853,7 +54006,7 @@
         <v>24</v>
       </c>
       <c r="G1813" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1813" s="5" t="s">
         <v>28</v>
@@ -53876,7 +54029,7 @@
         <v>24</v>
       </c>
       <c r="G1814" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1814" s="5" t="s">
         <v>28</v>
@@ -53902,7 +54055,7 @@
         <v>130</v>
       </c>
       <c r="G1815" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1815" s="5" t="s">
         <v>28</v>
@@ -53925,13 +54078,13 @@
         <v>44187</v>
       </c>
       <c r="F1816" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G1816" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1816" s="5" t="s">
         <v>874</v>
-      </c>
-      <c r="H1816" s="5" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="1817" spans="1:8">
@@ -53951,10 +54104,10 @@
         <v>44188</v>
       </c>
       <c r="F1817" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G1817" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1817" s="5" t="s">
         <v>39</v>
@@ -53980,7 +54133,7 @@
         <v>145</v>
       </c>
       <c r="G1818" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1818" s="5" t="s">
         <v>28</v>
@@ -54006,10 +54159,10 @@
         <v>72</v>
       </c>
       <c r="G1819" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1819" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1820" spans="1:8">
@@ -54032,10 +54185,10 @@
         <v>72</v>
       </c>
       <c r="G1820" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="H1820" s="5" t="s">
         <v>878</v>
-      </c>
-      <c r="H1820" s="5" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="1821" spans="1:8">
@@ -54055,13 +54208,13 @@
         <v>44187</v>
       </c>
       <c r="F1821" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G1821" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1821" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1822" spans="1:8">
@@ -54084,7 +54237,7 @@
         <v>83</v>
       </c>
       <c r="G1822" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1822" s="5" t="s">
         <v>28</v>
@@ -54107,13 +54260,13 @@
         <v>44187</v>
       </c>
       <c r="F1823" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G1823" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1823" s="5" t="s">
         <v>874</v>
-      </c>
-      <c r="H1823" s="5" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="1824" spans="1:8">
@@ -54130,13 +54283,13 @@
         <v>44191</v>
       </c>
       <c r="F1824" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G1824" s="5" t="s">
-        <v>853</v>
+        <v>207</v>
       </c>
       <c r="H1824" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1825" spans="1:8">
@@ -54156,7 +54309,7 @@
         <v>31</v>
       </c>
       <c r="G1825" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1825" s="5" t="s">
         <v>39</v>
@@ -54179,7 +54332,7 @@
         <v>31</v>
       </c>
       <c r="G1826" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1826" s="5" t="s">
         <v>39</v>
@@ -54202,13 +54355,13 @@
         <v>44189</v>
       </c>
       <c r="F1827" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="G1827" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="G1827" s="5" t="s">
-        <v>873</v>
-      </c>
       <c r="H1827" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1828" spans="1:8">
@@ -54228,10 +54381,10 @@
         <v>89</v>
       </c>
       <c r="G1828" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1828" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1829" spans="1:8">
@@ -54254,10 +54407,10 @@
         <v>89</v>
       </c>
       <c r="G1829" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1829" s="5" t="s">
         <v>874</v>
-      </c>
-      <c r="H1829" s="5" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="1830" spans="1:8">
@@ -54280,7 +54433,7 @@
         <v>414</v>
       </c>
       <c r="G1830" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1830" s="5" t="s">
         <v>39</v>
@@ -54306,10 +54459,10 @@
         <v>72</v>
       </c>
       <c r="G1831" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1831" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1832" spans="1:8">
@@ -54332,10 +54485,10 @@
         <v>89</v>
       </c>
       <c r="G1832" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1832" s="5" t="s">
         <v>874</v>
-      </c>
-      <c r="H1832" s="5" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="1833" spans="1:8">
@@ -54355,10 +54508,10 @@
         <v>89</v>
       </c>
       <c r="G1833" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1833" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1834" spans="1:8">
@@ -54381,10 +54534,10 @@
         <v>29</v>
       </c>
       <c r="G1834" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1834" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1835" spans="1:8">
@@ -54407,10 +54560,10 @@
         <v>132</v>
       </c>
       <c r="G1835" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1835" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1836" spans="1:8">
@@ -54433,10 +54586,10 @@
         <v>95</v>
       </c>
       <c r="G1836" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1836" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1837" spans="1:8">
@@ -54456,10 +54609,10 @@
         <v>89</v>
       </c>
       <c r="G1837" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1837" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1838" spans="1:8">
@@ -54482,10 +54635,10 @@
         <v>73</v>
       </c>
       <c r="G1838" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1838" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1839" spans="1:8">
@@ -54508,10 +54661,10 @@
         <v>89</v>
       </c>
       <c r="G1839" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1839" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1840" spans="1:8">
@@ -54534,10 +54687,10 @@
         <v>105</v>
       </c>
       <c r="G1840" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="H1840" s="5" t="s">
         <v>878</v>
-      </c>
-      <c r="H1840" s="5" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="1841" spans="1:8">
@@ -54560,7 +54713,7 @@
         <v>24</v>
       </c>
       <c r="G1841" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1841" s="5" t="s">
         <v>39</v>
@@ -54586,7 +54739,7 @@
         <v>24</v>
       </c>
       <c r="G1842" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1842" s="5" t="s">
         <v>28</v>
@@ -54609,7 +54762,7 @@
         <v>24</v>
       </c>
       <c r="G1843" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1843" s="5" t="s">
         <v>28</v>
@@ -54632,10 +54785,10 @@
         <v>24</v>
       </c>
       <c r="G1844" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1844" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1845" spans="1:8">
@@ -54788,7 +54941,7 @@
         <v>223</v>
       </c>
       <c r="G1850" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1850" s="5" t="s">
         <v>39</v>
@@ -54915,7 +55068,7 @@
         <v>89</v>
       </c>
       <c r="G1855" s="5" t="s">
-        <v>885</v>
+        <v>90</v>
       </c>
       <c r="H1855" s="5" t="s">
         <v>28</v>
@@ -54967,7 +55120,7 @@
         <v>73</v>
       </c>
       <c r="G1857" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1857" s="5" t="s">
         <v>39</v>
@@ -55016,7 +55169,7 @@
         <v>89</v>
       </c>
       <c r="G1859" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1859" s="5" t="s">
         <v>28</v>
@@ -55039,7 +55192,7 @@
         <v>73</v>
       </c>
       <c r="G1860" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H1860" s="5" t="s">
         <v>39</v>
@@ -55117,7 +55270,7 @@
         <v>29</v>
       </c>
       <c r="G1863" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H1863" s="5" t="s">
         <v>28</v>
@@ -55140,7 +55293,7 @@
         <v>89</v>
       </c>
       <c r="G1864" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1864" s="5" t="s">
         <v>39</v>
@@ -55166,7 +55319,7 @@
         <v>89</v>
       </c>
       <c r="G1865" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H1865" s="5" t="s">
         <v>28</v>
@@ -55189,7 +55342,7 @@
         <v>44188</v>
       </c>
       <c r="F1866" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G1866" s="5" t="s">
         <v>78</v>
@@ -55215,7 +55368,7 @@
         <v>44185</v>
       </c>
       <c r="F1867" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G1867" s="5" t="s">
         <v>70</v>
@@ -55319,10 +55472,10 @@
         <v>44189</v>
       </c>
       <c r="F1871" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G1871" s="5" t="s">
-        <v>853</v>
+        <v>207</v>
       </c>
       <c r="H1871" s="5" t="s">
         <v>39</v>
@@ -55345,7 +55498,7 @@
         <v>44188</v>
       </c>
       <c r="F1872" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G1872" s="5" t="s">
         <v>70</v>
@@ -55423,7 +55576,7 @@
         <v>73</v>
       </c>
       <c r="G1875" s="5" t="s">
-        <v>853</v>
+        <v>207</v>
       </c>
       <c r="H1875" s="5" t="s">
         <v>39</v>
@@ -55648,7 +55801,7 @@
         <v>24</v>
       </c>
       <c r="G1884" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H1884" s="5" t="s">
         <v>39</v>
@@ -55671,7 +55824,7 @@
         <v>44188</v>
       </c>
       <c r="F1885" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G1885" s="5" t="s">
         <v>41</v>
@@ -55798,7 +55951,7 @@
         <v>44184</v>
       </c>
       <c r="F1890" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G1890" s="5" t="s">
         <v>41</v>
@@ -55821,7 +55974,7 @@
         <v>44193</v>
       </c>
       <c r="F1891" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G1891" s="5" t="s">
         <v>102</v>
@@ -55844,7 +55997,7 @@
         <v>44193</v>
       </c>
       <c r="F1892" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G1892" s="5" t="s">
         <v>79</v>
@@ -55922,7 +56075,7 @@
         <v>105</v>
       </c>
       <c r="G1895" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H1895" s="5" t="s">
         <v>28</v>
@@ -56000,7 +56153,7 @@
         <v>31</v>
       </c>
       <c r="G1898" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H1898" s="5" t="s">
         <v>39</v>
@@ -56150,7 +56303,7 @@
         <v>31</v>
       </c>
       <c r="G1904" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H1904" s="5" t="s">
         <v>28</v>
@@ -56176,7 +56329,7 @@
         <v>31</v>
       </c>
       <c r="G1905" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H1905" s="5" t="s">
         <v>39</v>
@@ -56271,7 +56424,7 @@
         <v>24</v>
       </c>
       <c r="G1909" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H1909" s="5" t="s">
         <v>39</v>
@@ -56363,7 +56516,7 @@
         <v>24</v>
       </c>
       <c r="G1913" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H1913" s="5" t="s">
         <v>39</v>
@@ -56409,7 +56562,7 @@
         <v>44191</v>
       </c>
       <c r="F1915" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G1915" s="5" t="s">
         <v>41</v>
@@ -56458,10 +56611,10 @@
         <v>44194</v>
       </c>
       <c r="F1917" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G1917" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H1917" s="5" t="s">
         <v>28</v>
@@ -56484,10 +56637,10 @@
         <v>44190</v>
       </c>
       <c r="F1918" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G1918" s="5" t="s">
         <v>899</v>
-      </c>
-      <c r="G1918" s="5" t="s">
-        <v>901</v>
       </c>
       <c r="H1918" s="5" t="s">
         <v>39</v>
@@ -56533,13 +56686,13 @@
         <v>44190</v>
       </c>
       <c r="F1920" s="6" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G1920" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="H1920" s="5" t="s">
         <v>901</v>
-      </c>
-      <c r="H1920" s="5" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="1921" spans="1:8">
@@ -56562,7 +56715,7 @@
         <v>31</v>
       </c>
       <c r="G1921" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H1921" s="5" t="s">
         <v>39</v>
@@ -56631,7 +56784,7 @@
         <v>44194</v>
       </c>
       <c r="F1924" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G1924" s="5" t="s">
         <v>79</v>
@@ -56712,10 +56865,10 @@
         <v>134</v>
       </c>
       <c r="G1927" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H1927" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1928" spans="1:8">
@@ -56738,7 +56891,7 @@
         <v>31</v>
       </c>
       <c r="G1928" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H1928" s="5" t="s">
         <v>28</v>
@@ -56764,7 +56917,7 @@
         <v>95</v>
       </c>
       <c r="G1929" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H1929" s="5" t="s">
         <v>28</v>
@@ -56813,10 +56966,10 @@
         <v>44192</v>
       </c>
       <c r="F1931" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G1931" s="5" t="s">
         <v>899</v>
-      </c>
-      <c r="G1931" s="5" t="s">
-        <v>901</v>
       </c>
       <c r="H1931" s="5" t="s">
         <v>39</v>
@@ -56842,10 +56995,10 @@
         <v>89</v>
       </c>
       <c r="G1932" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H1932" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1933" spans="1:8">
@@ -56868,10 +57021,10 @@
         <v>73</v>
       </c>
       <c r="G1933" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H1933" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1934" spans="1:8">
@@ -56891,7 +57044,7 @@
         <v>44193</v>
       </c>
       <c r="F1934" s="6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G1934" s="5" t="s">
         <v>79</v>
@@ -56917,10 +57070,10 @@
         <v>44187</v>
       </c>
       <c r="F1935" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G1935" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H1935" s="5" t="s">
         <v>39</v>
@@ -56943,13 +57096,13 @@
         <v>44185</v>
       </c>
       <c r="F1936" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G1936" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H1936" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1937" spans="1:8">
@@ -56969,7 +57122,7 @@
         <v>44188</v>
       </c>
       <c r="F1937" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G1937" s="5" t="s">
         <v>38</v>
@@ -56995,7 +57148,7 @@
         <v>44191</v>
       </c>
       <c r="F1938" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G1938" s="5" t="s">
         <v>70</v>
@@ -57142,7 +57295,7 @@
         <v>44195</v>
       </c>
       <c r="F1944" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G1944" s="5" t="s">
         <v>240</v>
@@ -57165,7 +57318,7 @@
         <v>44195</v>
       </c>
       <c r="F1945" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G1945" s="5" t="s">
         <v>102</v>
@@ -57217,10 +57370,10 @@
         <v>44192</v>
       </c>
       <c r="F1947" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1947" s="5" t="s">
         <v>912</v>
-      </c>
-      <c r="G1947" s="5" t="s">
-        <v>914</v>
       </c>
       <c r="H1947" s="5" t="s">
         <v>39</v>
@@ -57246,7 +57399,7 @@
         <v>73</v>
       </c>
       <c r="G1948" s="5" t="s">
-        <v>915</v>
+        <v>207</v>
       </c>
       <c r="H1948" s="5" t="s">
         <v>39</v>
@@ -57272,7 +57425,7 @@
         <v>73</v>
       </c>
       <c r="G1949" s="5" t="s">
-        <v>915</v>
+        <v>207</v>
       </c>
       <c r="H1949" s="5" t="s">
         <v>39</v>
@@ -57295,7 +57448,7 @@
         <v>73</v>
       </c>
       <c r="G1950" s="5" t="s">
-        <v>915</v>
+        <v>207</v>
       </c>
       <c r="H1950" s="5" t="s">
         <v>28</v>
@@ -57321,7 +57474,7 @@
         <v>73</v>
       </c>
       <c r="G1951" s="5" t="s">
-        <v>915</v>
+        <v>207</v>
       </c>
       <c r="H1951" s="5" t="s">
         <v>28</v>
@@ -57344,7 +57497,7 @@
         <v>44191</v>
       </c>
       <c r="F1952" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G1952" s="5" t="s">
         <v>38</v>
@@ -57399,7 +57552,7 @@
         <v>73</v>
       </c>
       <c r="G1954" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H1954" s="5" t="s">
         <v>28</v>
@@ -57425,7 +57578,7 @@
         <v>72</v>
       </c>
       <c r="G1955" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H1955" s="5" t="s">
         <v>28</v>
@@ -57451,7 +57604,7 @@
         <v>24</v>
       </c>
       <c r="G1956" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="H1956" s="5" t="s">
         <v>39</v>
@@ -57786,7 +57939,7 @@
         <v>635</v>
       </c>
       <c r="G1969" s="35" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H1969" s="34" t="s">
         <v>651</v>
@@ -57813,7 +57966,7 @@
         <v>635</v>
       </c>
       <c r="G1970" s="35" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="H1970" s="34" t="s">
         <v>653</v>
@@ -57838,7 +57991,7 @@
         <v>635</v>
       </c>
       <c r="G1971" s="35" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="H1971" s="34" t="s">
         <v>651</v>
@@ -57865,7 +58018,7 @@
         <v>589</v>
       </c>
       <c r="G1972" s="35" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H1972" s="34" t="s">
         <v>653</v>
@@ -57892,7 +58045,7 @@
         <v>649</v>
       </c>
       <c r="G1973" s="35" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H1973" s="34" t="s">
         <v>653</v>
@@ -57919,7 +58072,7 @@
         <v>590</v>
       </c>
       <c r="G1974" s="35" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H1974" s="34" t="s">
         <v>653</v>
@@ -57943,10 +58096,10 @@
         <v>44195</v>
       </c>
       <c r="F1975" s="36" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G1975" s="35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H1975" s="34" t="s">
         <v>653</v>
@@ -57973,7 +58126,7 @@
         <v>631</v>
       </c>
       <c r="G1976" s="35" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H1976" s="34" t="s">
         <v>653</v>
@@ -58000,7 +58153,7 @@
         <v>631</v>
       </c>
       <c r="G1977" s="35" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H1977" s="34" t="s">
         <v>651</v>
@@ -58027,7 +58180,7 @@
         <v>629</v>
       </c>
       <c r="G1978" s="35" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H1978" s="34" t="s">
         <v>651</v>
@@ -58054,7 +58207,7 @@
         <v>589</v>
       </c>
       <c r="G1979" s="35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H1979" s="34" t="s">
         <v>651</v>
@@ -58081,7 +58234,7 @@
         <v>591</v>
       </c>
       <c r="G1980" s="35" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H1980" s="34" t="s">
         <v>651</v>
@@ -58108,7 +58261,7 @@
         <v>629</v>
       </c>
       <c r="G1981" s="35" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="H1981" s="34" t="s">
         <v>653</v>
@@ -58135,7 +58288,7 @@
         <v>629</v>
       </c>
       <c r="G1982" s="35" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H1982" s="34" t="s">
         <v>653</v>
@@ -58160,7 +58313,7 @@
         <v>591</v>
       </c>
       <c r="G1983" s="35" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="H1983" s="34" t="s">
         <v>653</v>
@@ -58187,7 +58340,7 @@
         <v>592</v>
       </c>
       <c r="G1984" s="35" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H1984" s="34" t="s">
         <v>653</v>
@@ -58214,7 +58367,7 @@
         <v>628</v>
       </c>
       <c r="G1985" s="35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H1985" s="34" t="s">
         <v>653</v>
@@ -58241,7 +58394,7 @@
         <v>648</v>
       </c>
       <c r="G1986" s="35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H1986" s="34" t="s">
         <v>653</v>
@@ -58268,7 +58421,7 @@
         <v>594</v>
       </c>
       <c r="G1987" s="35" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="H1987" s="34" t="s">
         <v>651</v>
@@ -58295,7 +58448,7 @@
         <v>596</v>
       </c>
       <c r="G1988" s="35" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H1988" s="34" t="s">
         <v>653</v>
@@ -58317,7 +58470,7 @@
       </c>
       <c r="E1989" s="31"/>
       <c r="F1989" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1989" s="35" t="s">
         <v>656</v>
@@ -58344,10 +58497,10 @@
         <v>44193</v>
       </c>
       <c r="F1990" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1990" s="35" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H1990" s="34" t="s">
         <v>653</v>
@@ -58369,10 +58522,10 @@
       </c>
       <c r="E1991" s="31"/>
       <c r="F1991" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1991" s="35" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H1991" s="34" t="s">
         <v>653</v>
@@ -58396,10 +58549,10 @@
         <v>44192</v>
       </c>
       <c r="F1992" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1992" s="35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H1992" s="34" t="s">
         <v>653</v>
@@ -58421,10 +58574,10 @@
       </c>
       <c r="E1993" s="31"/>
       <c r="F1993" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1993" s="35" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H1993" s="34" t="s">
         <v>653</v>
@@ -58448,10 +58601,10 @@
         <v>44195</v>
       </c>
       <c r="F1994" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1994" s="35" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H1994" s="34" t="s">
         <v>653</v>
@@ -58475,10 +58628,10 @@
         <v>44193</v>
       </c>
       <c r="F1995" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1995" s="35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H1995" s="34" t="s">
         <v>653</v>
@@ -58502,10 +58655,10 @@
         <v>44194</v>
       </c>
       <c r="F1996" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1996" s="35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H1996" s="34" t="s">
         <v>653</v>
@@ -58532,7 +58685,7 @@
         <v>594</v>
       </c>
       <c r="G1997" s="35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H1997" s="34" t="s">
         <v>653</v>
@@ -58556,10 +58709,10 @@
         <v>44194</v>
       </c>
       <c r="F1998" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1998" s="35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H1998" s="34" t="s">
         <v>653</v>
@@ -58583,10 +58736,10 @@
         <v>44194</v>
       </c>
       <c r="F1999" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1999" s="35" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H1999" s="34" t="s">
         <v>653</v>
@@ -58608,10 +58761,10 @@
       </c>
       <c r="E2000" s="31"/>
       <c r="F2000" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G2000" s="35" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H2000" s="34" t="s">
         <v>653</v>
@@ -58635,10 +58788,10 @@
         <v>44194</v>
       </c>
       <c r="F2001" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G2001" s="35" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H2001" s="34" t="s">
         <v>653</v>
@@ -58662,13 +58815,13 @@
         <v>44191</v>
       </c>
       <c r="F2002" s="15" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G2002" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="H2002" s="14" t="s">
         <v>918</v>
-      </c>
-      <c r="H2002" s="14" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="2003" spans="1:9">
@@ -58688,13 +58841,13 @@
         <v>44193</v>
       </c>
       <c r="F2003" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2003" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="G2003" s="5" t="s">
-        <v>920</v>
-      </c>
       <c r="H2003" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2004" spans="1:9">
@@ -58714,13 +58867,13 @@
         <v>44193</v>
       </c>
       <c r="F2004" s="6" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G2004" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H2004" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2005" spans="1:9">
@@ -58740,13 +58893,13 @@
         <v>44193</v>
       </c>
       <c r="F2005" s="6" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G2005" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H2005" s="5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="2006" spans="1:9">
@@ -58763,13 +58916,13 @@
         <v>44196</v>
       </c>
       <c r="F2006" s="6" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G2006" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H2006" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2007" spans="1:9">
@@ -58789,13 +58942,13 @@
         <v>44193</v>
       </c>
       <c r="F2007" s="6" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G2007" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H2007" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2008" spans="1:9">
@@ -58838,10 +58991,10 @@
         <v>44195</v>
       </c>
       <c r="F2009" s="6" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G2009" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H2009" s="5" t="s">
         <v>39</v>
@@ -58864,7 +59017,7 @@
         <v>44196</v>
       </c>
       <c r="F2010" s="6" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G2010" s="5" t="s">
         <v>78</v>
@@ -58893,7 +59046,7 @@
         <v>89</v>
       </c>
       <c r="G2011" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H2011" s="5" t="s">
         <v>39</v>
@@ -58919,7 +59072,7 @@
         <v>31</v>
       </c>
       <c r="G2012" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H2012" s="5" t="s">
         <v>28</v>
@@ -58968,7 +59121,7 @@
         <v>73</v>
       </c>
       <c r="G2014" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H2014" s="5" t="s">
         <v>39</v>
@@ -58994,7 +59147,7 @@
         <v>73</v>
       </c>
       <c r="G2015" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H2015" s="5" t="s">
         <v>28</v>
@@ -59092,7 +59245,7 @@
         <v>44193</v>
       </c>
       <c r="F2019" s="6" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G2019" s="5" t="s">
         <v>90</v>
@@ -59340,7 +59493,7 @@
         <v>44192</v>
       </c>
       <c r="F2029" s="6" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G2029" s="5" t="s">
         <v>38</v>
@@ -59698,7 +59851,7 @@
         <v>90</v>
       </c>
       <c r="H2043" s="38" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2044" spans="1:9">
@@ -59721,7 +59874,7 @@
         <v>592</v>
       </c>
       <c r="G2044" s="34" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H2044" s="34" t="s">
         <v>653</v>
@@ -59802,7 +59955,7 @@
         <v>632</v>
       </c>
       <c r="G2047" s="34" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H2047" s="34" t="s">
         <v>651</v>
@@ -59829,7 +59982,7 @@
         <v>597</v>
       </c>
       <c r="G2048" s="34" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H2048" s="34" t="s">
         <v>653</v>
@@ -59853,10 +60006,10 @@
         <v>44195</v>
       </c>
       <c r="F2049" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="G2049" s="34" t="s">
         <v>938</v>
-      </c>
-      <c r="G2049" s="34" t="s">
-        <v>941</v>
       </c>
       <c r="H2049" s="34" t="s">
         <v>653</v>
@@ -59880,10 +60033,10 @@
         <v>44195</v>
       </c>
       <c r="F2050" s="34" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G2050" s="34" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H2050" s="34" t="s">
         <v>651</v>
@@ -59910,7 +60063,7 @@
         <v>594</v>
       </c>
       <c r="G2051" s="34" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H2051" s="34" t="s">
         <v>651</v>
@@ -59937,7 +60090,7 @@
         <v>595</v>
       </c>
       <c r="G2052" s="34" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H2052" s="34" t="s">
         <v>651</v>
@@ -59964,7 +60117,7 @@
         <v>628</v>
       </c>
       <c r="G2053" s="34" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H2053" s="34" t="s">
         <v>651</v>
@@ -59991,7 +60144,7 @@
         <v>630</v>
       </c>
       <c r="G2054" s="34" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H2054" s="34" t="s">
         <v>651</v>
@@ -60018,7 +60171,7 @@
         <v>593</v>
       </c>
       <c r="G2055" s="34" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H2055" s="34" t="s">
         <v>653</v>
@@ -60043,7 +60196,7 @@
         <v>593</v>
       </c>
       <c r="G2056" s="34" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H2056" s="34" t="s">
         <v>651</v>
@@ -60070,7 +60223,7 @@
         <v>632</v>
       </c>
       <c r="G2057" s="34" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H2057" s="34" t="s">
         <v>651</v>
@@ -60097,7 +60250,7 @@
         <v>590</v>
       </c>
       <c r="G2058" s="34" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H2058" s="34" t="s">
         <v>653</v>
@@ -60124,7 +60277,7 @@
         <v>632</v>
       </c>
       <c r="G2059" s="34" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H2059" s="34" t="s">
         <v>653</v>
@@ -60151,7 +60304,7 @@
         <v>597</v>
       </c>
       <c r="G2060" s="34" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H2060" s="34" t="s">
         <v>653</v>
@@ -60175,10 +60328,10 @@
         <v>44196</v>
       </c>
       <c r="F2061" s="34" t="s">
+        <v>936</v>
+      </c>
+      <c r="G2061" s="34" t="s">
         <v>939</v>
-      </c>
-      <c r="G2061" s="34" t="s">
-        <v>942</v>
       </c>
       <c r="H2061" s="34" t="s">
         <v>651</v>
@@ -60205,7 +60358,7 @@
         <v>590</v>
       </c>
       <c r="G2062" s="34" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H2062" s="34" t="s">
         <v>653</v>
@@ -60232,7 +60385,7 @@
         <v>595</v>
       </c>
       <c r="G2063" s="34" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H2063" s="34" t="s">
         <v>653</v>
@@ -60257,7 +60410,7 @@
         <v>632</v>
       </c>
       <c r="G2064" s="34" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H2064" s="34" t="s">
         <v>653</v>
@@ -60284,7 +60437,7 @@
         <v>593</v>
       </c>
       <c r="G2065" s="34" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H2065" s="34" t="s">
         <v>653</v>
@@ -60308,7 +60461,7 @@
         <v>44194</v>
       </c>
       <c r="F2066" s="15" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2066" s="14" t="s">
         <v>656</v>
@@ -60334,7 +60487,7 @@
         <v>44195</v>
       </c>
       <c r="F2067" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2067" s="5" t="s">
         <v>657</v>
@@ -60357,7 +60510,7 @@
         <v>44198</v>
       </c>
       <c r="F2068" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2068" s="5" t="s">
         <v>658</v>
@@ -60383,7 +60536,7 @@
         <v>44191</v>
       </c>
       <c r="F2069" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2069" s="5" t="s">
         <v>657</v>
@@ -60409,7 +60562,7 @@
         <v>44193</v>
       </c>
       <c r="F2070" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2070" s="5" t="s">
         <v>650</v>
@@ -60435,7 +60588,7 @@
         <v>44195</v>
       </c>
       <c r="F2071" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2071" s="5" t="s">
         <v>658</v>
@@ -60461,7 +60614,7 @@
         <v>44193</v>
       </c>
       <c r="F2072" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2072" s="5" t="s">
         <v>655</v>
@@ -60487,7 +60640,7 @@
         <v>44194</v>
       </c>
       <c r="F2073" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2073" s="5" t="s">
         <v>655</v>
@@ -60513,7 +60666,7 @@
         <v>44195</v>
       </c>
       <c r="F2074" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2074" s="5" t="s">
         <v>658</v>
@@ -60539,7 +60692,7 @@
         <v>44194</v>
       </c>
       <c r="F2075" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2075" s="5" t="s">
         <v>654</v>
@@ -60565,7 +60718,7 @@
         <v>44192</v>
       </c>
       <c r="F2076" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G2076" s="5" t="s">
         <v>652</v>
@@ -60591,7 +60744,7 @@
         <v>44196</v>
       </c>
       <c r="F2077" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2077" s="5" t="s">
         <v>656</v>
@@ -60617,7 +60770,7 @@
         <v>44195</v>
       </c>
       <c r="F2078" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2078" s="5" t="s">
         <v>655</v>
@@ -60643,7 +60796,7 @@
         <v>44194</v>
       </c>
       <c r="F2079" s="33" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G2079" s="5" t="s">
         <v>657</v>
@@ -60699,7 +60852,7 @@
         <v>589</v>
       </c>
       <c r="G2081" s="32" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="H2081" s="40" t="s">
         <v>651</v>
@@ -61152,7 +61305,7 @@
         <v>630</v>
       </c>
       <c r="G2098" s="32" t="s">
-        <v>853</v>
+        <v>207</v>
       </c>
       <c r="H2098" s="40" t="s">
         <v>653</v>
@@ -61257,7 +61410,7 @@
         <v>44195</v>
       </c>
       <c r="F2102" s="43" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2102" s="32" t="s">
         <v>650</v>
@@ -61284,7 +61437,7 @@
         <v>44189</v>
       </c>
       <c r="F2103" s="43" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2103" s="32" t="s">
         <v>655</v>
@@ -61311,7 +61464,7 @@
         <v>44195</v>
       </c>
       <c r="F2104" s="43" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2104" s="32" t="s">
         <v>654</v>
@@ -61338,13 +61491,13 @@
         <v>44191</v>
       </c>
       <c r="F2105" s="43" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2105" s="32" t="s">
         <v>657</v>
       </c>
       <c r="H2105" s="39" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="I2105" s="32"/>
     </row>
@@ -61365,7 +61518,7 @@
         <v>44196</v>
       </c>
       <c r="F2106" s="43" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2106" s="32" t="s">
         <v>655</v>
@@ -61392,13 +61545,13 @@
         <v>44194</v>
       </c>
       <c r="F2107" s="43" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2107" s="41" t="s">
         <v>656</v>
       </c>
       <c r="H2107" s="39" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="I2107" s="32"/>
     </row>
@@ -61419,7 +61572,7 @@
         <v>44196</v>
       </c>
       <c r="F2108" s="43" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2108" s="32" t="s">
         <v>654</v>
@@ -61446,7 +61599,7 @@
         <v>44196</v>
       </c>
       <c r="F2109" s="43" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2109" s="32" t="s">
         <v>657</v>
@@ -61470,7 +61623,7 @@
         <v>44199</v>
       </c>
       <c r="F2110" s="43" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2110" s="44" t="s">
         <v>655</v>
@@ -61500,7 +61653,7 @@
         <v>109</v>
       </c>
       <c r="G2111" s="45" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="H2111" s="5" t="s">
         <v>39</v>
@@ -61526,7 +61679,7 @@
         <v>223</v>
       </c>
       <c r="G2112" s="45" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="H2112" s="5" t="s">
         <v>28</v>
@@ -61552,7 +61705,7 @@
         <v>105</v>
       </c>
       <c r="G2113" s="45" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H2113" s="5" t="s">
         <v>39</v>
@@ -61578,7 +61731,7 @@
         <v>105</v>
       </c>
       <c r="G2114" s="45" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H2114" s="5" t="s">
         <v>39</v>
@@ -61604,7 +61757,7 @@
         <v>29</v>
       </c>
       <c r="G2115" s="45" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="H2115" s="5" t="s">
         <v>39</v>
@@ -61630,7 +61783,7 @@
         <v>27</v>
       </c>
       <c r="G2116" s="45" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="H2116" s="5" t="s">
         <v>39</v>
@@ -61656,7 +61809,7 @@
         <v>72</v>
       </c>
       <c r="G2117" s="45" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H2117" s="5" t="s">
         <v>39</v>
@@ -61682,7 +61835,7 @@
         <v>145</v>
       </c>
       <c r="G2118" s="45" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="H2118" s="5" t="s">
         <v>39</v>
@@ -61708,7 +61861,7 @@
         <v>73</v>
       </c>
       <c r="G2119" s="45" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H2119" s="5" t="s">
         <v>28</v>
@@ -61734,7 +61887,7 @@
         <v>72</v>
       </c>
       <c r="G2120" s="45" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="H2120" s="5" t="s">
         <v>39</v>
@@ -61757,7 +61910,7 @@
         <v>73</v>
       </c>
       <c r="G2121" s="45" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H2121" s="5" t="s">
         <v>28</v>
@@ -61783,7 +61936,7 @@
         <v>160</v>
       </c>
       <c r="G2122" s="45" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="H2122" s="5" t="s">
         <v>39</v>
@@ -61809,7 +61962,7 @@
         <v>31</v>
       </c>
       <c r="G2123" s="45" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="H2123" s="5" t="s">
         <v>28</v>
@@ -61835,7 +61988,7 @@
         <v>83</v>
       </c>
       <c r="G2124" s="45" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H2124" s="5" t="s">
         <v>28</v>
@@ -61861,7 +62014,7 @@
         <v>89</v>
       </c>
       <c r="G2125" s="45" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H2125" s="5" t="s">
         <v>28</v>
@@ -61887,7 +62040,7 @@
         <v>89</v>
       </c>
       <c r="G2126" s="45" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="H2126" s="5" t="s">
         <v>28</v>
@@ -61913,7 +62066,7 @@
         <v>89</v>
       </c>
       <c r="G2127" s="45" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H2127" s="5" t="s">
         <v>39</v>
@@ -61939,7 +62092,7 @@
         <v>24</v>
       </c>
       <c r="G2128" s="45" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H2128" s="5" t="s">
         <v>28</v>
@@ -61965,7 +62118,7 @@
         <v>24</v>
       </c>
       <c r="G2129" s="45" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="H2129" s="5" t="s">
         <v>28</v>
@@ -61991,7 +62144,7 @@
         <v>24</v>
       </c>
       <c r="G2130" s="45" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H2130" s="5" t="s">
         <v>28</v>
@@ -62017,7 +62170,7 @@
         <v>24</v>
       </c>
       <c r="G2131" s="45" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H2131" s="5" t="s">
         <v>39</v>
@@ -62043,7 +62196,7 @@
         <v>24</v>
       </c>
       <c r="G2132" s="45" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H2132" s="5" t="s">
         <v>28</v>
@@ -62069,7 +62222,7 @@
         <v>27</v>
       </c>
       <c r="G2133" s="14" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H2133" s="5" t="s">
         <v>39</v>
@@ -62095,7 +62248,7 @@
         <v>160</v>
       </c>
       <c r="G2134" s="14" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="H2134" s="5" t="s">
         <v>39</v>
@@ -62121,7 +62274,7 @@
         <v>134</v>
       </c>
       <c r="G2135" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="H2135" s="5" t="s">
         <v>39</v>
@@ -62225,7 +62378,7 @@
         <v>105</v>
       </c>
       <c r="G2139" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H2139" s="5" t="s">
         <v>28</v>
@@ -62427,7 +62580,7 @@
         <v>95</v>
       </c>
       <c r="G2147" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H2147" s="5" t="s">
         <v>28</v>
@@ -62453,7 +62606,7 @@
         <v>89</v>
       </c>
       <c r="G2148" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H2148" s="5" t="s">
         <v>28</v>
@@ -62479,7 +62632,7 @@
         <v>29</v>
       </c>
       <c r="G2149" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H2149" s="5" t="s">
         <v>28</v>
@@ -62531,7 +62684,7 @@
         <v>29</v>
       </c>
       <c r="G2151" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H2151" s="5" t="s">
         <v>28</v>
@@ -62551,7 +62704,7 @@
         <v>44201</v>
       </c>
       <c r="F2152" s="6" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G2152" s="5" t="s">
         <v>38</v>
@@ -62704,7 +62857,7 @@
         <v>24</v>
       </c>
       <c r="G2158" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H2158" s="5" t="s">
         <v>28</v>
@@ -62808,7 +62961,7 @@
         <v>24</v>
       </c>
       <c r="G2162" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H2162" s="5" t="s">
         <v>39</v>
@@ -62831,13 +62984,13 @@
         <v>44200</v>
       </c>
       <c r="F2163" s="6" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G2163" s="5" t="s">
         <v>731</v>
       </c>
       <c r="H2163" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2164" spans="1:8">
@@ -62854,7 +63007,7 @@
         <v>44202</v>
       </c>
       <c r="F2164" s="6" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="G2164" s="5" t="s">
         <v>729</v>
@@ -62906,7 +63059,7 @@
         <v>650</v>
       </c>
       <c r="H2166" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2167" spans="1:8">
@@ -62972,13 +63125,13 @@
         <v>44193</v>
       </c>
       <c r="F2169" s="6" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G2169" s="5" t="s">
         <v>654</v>
       </c>
       <c r="H2169" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2170" spans="1:8">
@@ -62998,7 +63151,7 @@
         <v>44199</v>
       </c>
       <c r="F2170" s="6" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G2170" s="5" t="s">
         <v>655</v>
@@ -63024,7 +63177,7 @@
         <v>44199</v>
       </c>
       <c r="F2171" s="6" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G2171" s="5" t="s">
         <v>654</v>
@@ -63050,7 +63203,7 @@
         <v>44199</v>
       </c>
       <c r="F2172" s="6" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G2172" s="5" t="s">
         <v>656</v>
@@ -63073,13 +63226,13 @@
         <v>44202</v>
       </c>
       <c r="F2173" s="6" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G2173" s="5" t="s">
         <v>656</v>
       </c>
       <c r="H2173" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2174" spans="1:8">
@@ -63096,13 +63249,13 @@
         <v>44202</v>
       </c>
       <c r="F2174" s="6" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G2174" s="5" t="s">
         <v>656</v>
       </c>
       <c r="H2174" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2175" spans="1:8">
@@ -63122,13 +63275,13 @@
         <v>44201</v>
       </c>
       <c r="F2175" s="6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G2175" s="5" t="s">
         <v>657</v>
       </c>
       <c r="H2175" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2176" spans="1:8">
@@ -63154,7 +63307,7 @@
         <v>654</v>
       </c>
       <c r="H2176" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2177" spans="1:8">
@@ -63174,7 +63327,7 @@
         <v>44196</v>
       </c>
       <c r="F2177" s="6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G2177" s="5" t="s">
         <v>656</v>
@@ -63200,7 +63353,7 @@
         <v>44199</v>
       </c>
       <c r="F2178" s="6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G2178" s="5" t="s">
         <v>652</v>
@@ -63226,13 +63379,13 @@
         <v>44197</v>
       </c>
       <c r="F2179" s="6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G2179" s="5" t="s">
         <v>656</v>
       </c>
       <c r="H2179" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2180" spans="1:8">
@@ -63252,7 +63405,7 @@
         <v>44198</v>
       </c>
       <c r="F2180" s="6" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G2180" s="5" t="s">
         <v>654</v>
@@ -63275,13 +63428,13 @@
         <v>44202</v>
       </c>
       <c r="F2181" s="6" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="G2181" s="5" t="s">
         <v>656</v>
       </c>
       <c r="H2181" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2182" spans="1:8">
@@ -63298,7 +63451,7 @@
         <v>44202</v>
       </c>
       <c r="F2182" s="6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G2182" s="5" t="s">
         <v>656</v>
@@ -63324,7 +63477,7 @@
         <v>44197</v>
       </c>
       <c r="F2183" s="6" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G2183" s="5" t="s">
         <v>654</v>
@@ -63347,7 +63500,7 @@
         <v>44202</v>
       </c>
       <c r="F2184" s="6" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G2184" s="5" t="s">
         <v>656</v>
@@ -63373,7 +63526,7 @@
         <v>44195</v>
       </c>
       <c r="F2185" s="6" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G2185" s="5" t="s">
         <v>657</v>
@@ -63399,13 +63552,13 @@
         <v>44195</v>
       </c>
       <c r="F2186" s="6" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G2186" s="5" t="s">
         <v>658</v>
       </c>
       <c r="H2186" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2187" spans="1:8">
@@ -63428,7 +63581,7 @@
         <v>89</v>
       </c>
       <c r="G2187" s="5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H2187" s="5" t="s">
         <v>653</v>
@@ -63451,7 +63604,7 @@
         <v>89</v>
       </c>
       <c r="G2188" s="5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="H2188" s="5" t="s">
         <v>28</v>
@@ -63474,10 +63627,10 @@
         <v>44201</v>
       </c>
       <c r="F2189" s="6" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G2189" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H2189" s="5" t="s">
         <v>28</v>
@@ -63500,7 +63653,7 @@
         <v>89</v>
       </c>
       <c r="G2190" s="5" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H2190" s="5" t="s">
         <v>28</v>
@@ -63523,10 +63676,10 @@
         <v>44200</v>
       </c>
       <c r="F2191" s="6" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="G2191" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H2191" s="5" t="s">
         <v>653</v>
@@ -63552,7 +63705,7 @@
         <v>73</v>
       </c>
       <c r="G2192" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H2192" s="5" t="s">
         <v>653</v>
@@ -63578,7 +63731,7 @@
         <v>89</v>
       </c>
       <c r="G2193" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H2193" s="5" t="s">
         <v>28</v>
@@ -63604,7 +63757,7 @@
         <v>73</v>
       </c>
       <c r="G2194" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H2194" s="5" t="s">
         <v>653</v>
@@ -63630,7 +63783,7 @@
         <v>83</v>
       </c>
       <c r="G2195" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H2195" s="5" t="s">
         <v>28</v>
@@ -63656,7 +63809,7 @@
         <v>73</v>
       </c>
       <c r="G2196" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H2196" s="5" t="s">
         <v>28</v>
@@ -63682,7 +63835,7 @@
         <v>418</v>
       </c>
       <c r="G2197" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H2197" s="5" t="s">
         <v>28</v>
@@ -63708,7 +63861,7 @@
         <v>83</v>
       </c>
       <c r="G2198" s="5" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H2198" s="5" t="s">
         <v>39</v>
@@ -63734,7 +63887,7 @@
         <v>160</v>
       </c>
       <c r="G2199" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H2199" s="5" t="s">
         <v>39</v>
@@ -63760,7 +63913,7 @@
         <v>126</v>
       </c>
       <c r="G2200" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H2200" s="5" t="s">
         <v>39</v>
@@ -63786,7 +63939,7 @@
         <v>27</v>
       </c>
       <c r="G2201" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H2201" s="5" t="s">
         <v>28</v>
@@ -63812,7 +63965,7 @@
         <v>414</v>
       </c>
       <c r="G2202" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H2202" s="5" t="s">
         <v>39</v>
@@ -63838,7 +63991,7 @@
         <v>105</v>
       </c>
       <c r="G2203" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H2203" s="5" t="s">
         <v>39</v>
@@ -63864,7 +64017,7 @@
         <v>29</v>
       </c>
       <c r="G2204" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H2204" s="5" t="s">
         <v>39</v>
@@ -63890,7 +64043,7 @@
         <v>29</v>
       </c>
       <c r="G2205" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H2205" s="5" t="s">
         <v>28</v>
@@ -63916,7 +64069,7 @@
         <v>105</v>
       </c>
       <c r="G2206" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H2206" s="5" t="s">
         <v>39</v>
@@ -63942,7 +64095,7 @@
         <v>27</v>
       </c>
       <c r="G2207" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H2207" s="5" t="s">
         <v>39</v>
@@ -63968,7 +64121,7 @@
         <v>145</v>
       </c>
       <c r="G2208" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H2208" s="5" t="s">
         <v>39</v>
@@ -63994,7 +64147,7 @@
         <v>145</v>
       </c>
       <c r="G2209" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H2209" s="5" t="s">
         <v>28</v>
@@ -64020,7 +64173,7 @@
         <v>73</v>
       </c>
       <c r="G2210" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H2210" s="5" t="s">
         <v>28</v>
@@ -64046,7 +64199,7 @@
         <v>24</v>
       </c>
       <c r="G2211" s="5" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H2211" s="5" t="s">
         <v>653</v>
@@ -64072,7 +64225,7 @@
         <v>24</v>
       </c>
       <c r="G2212" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H2212" s="5" t="s">
         <v>653</v>
@@ -64098,7 +64251,7 @@
         <v>24</v>
       </c>
       <c r="G2213" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H2213" s="5" t="s">
         <v>653</v>
@@ -64121,10 +64274,10 @@
         <v>44195</v>
       </c>
       <c r="F2214" s="47" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G2214" s="5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="H2214" s="18" t="s">
         <v>814</v>
@@ -64147,10 +64300,10 @@
         <v>44197</v>
       </c>
       <c r="F2215" s="47" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G2215" s="5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H2215" s="18" t="s">
         <v>814</v>
@@ -64173,7 +64326,7 @@
         <v>44198</v>
       </c>
       <c r="F2216" s="47" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G2216" s="5" t="s">
         <v>790</v>
@@ -64199,10 +64352,10 @@
         <v>44202</v>
       </c>
       <c r="F2217" s="47" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G2217" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H2217" s="18" t="s">
         <v>814</v>
@@ -64225,7 +64378,7 @@
         <v>44202</v>
       </c>
       <c r="F2218" s="47" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G2218" s="5" t="s">
         <v>790</v>
@@ -64251,7 +64404,7 @@
         <v>44201</v>
       </c>
       <c r="F2219" s="47" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2219" s="5" t="s">
         <v>790</v>
@@ -64277,7 +64430,7 @@
         <v>44199</v>
       </c>
       <c r="F2220" s="47" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2220" s="5" t="s">
         <v>790</v>
@@ -64303,7 +64456,7 @@
         <v>44201</v>
       </c>
       <c r="F2221" s="47" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2221" s="5" t="s">
         <v>729</v>
@@ -64329,7 +64482,7 @@
         <v>44201</v>
       </c>
       <c r="F2222" s="47" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2222" s="5" t="s">
         <v>729</v>
@@ -64355,10 +64508,10 @@
         <v>44203</v>
       </c>
       <c r="F2223" s="47" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G2223" s="5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="H2223" s="18" t="s">
         <v>815</v>
@@ -64378,7 +64531,7 @@
         <v>44204</v>
       </c>
       <c r="F2224" s="47" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2224" s="5" t="s">
         <v>729</v>
@@ -64404,7 +64557,7 @@
         <v>44197</v>
       </c>
       <c r="F2225" s="47" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G2225" s="5" t="s">
         <v>790</v>
@@ -64430,10 +64583,10 @@
         <v>44202</v>
       </c>
       <c r="F2226" s="47" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G2226" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H2226" s="18" t="s">
         <v>815</v>
@@ -64456,10 +64609,10 @@
         <v>44202</v>
       </c>
       <c r="F2227" s="47" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G2227" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H2227" s="18" t="s">
         <v>814</v>
@@ -64482,10 +64635,10 @@
         <v>44199</v>
       </c>
       <c r="F2228" s="47" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2228" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H2228" s="18" t="s">
         <v>815</v>
@@ -64505,10 +64658,10 @@
         <v>44204</v>
       </c>
       <c r="F2229" s="47" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G2229" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H2229" s="18" t="s">
         <v>814</v>
@@ -64531,10 +64684,10 @@
         <v>44200</v>
       </c>
       <c r="F2230" s="47" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G2230" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H2230" s="18" t="s">
         <v>815</v>
@@ -64557,10 +64710,10 @@
         <v>44202</v>
       </c>
       <c r="F2231" s="48" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G2231" s="5" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="H2231" s="18" t="s">
         <v>814</v>
@@ -64583,10 +64736,10 @@
         <v>44197</v>
       </c>
       <c r="F2232" s="48" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G2232" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H2232" s="18" t="s">
         <v>815</v>
@@ -64609,10 +64762,10 @@
         <v>44202</v>
       </c>
       <c r="F2233" s="47" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G2233" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H2233" s="18" t="s">
         <v>815</v>
@@ -64635,10 +64788,10 @@
         <v>44202</v>
       </c>
       <c r="F2234" s="47" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2234" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H2234" s="18" t="s">
         <v>814</v>
@@ -64661,10 +64814,10 @@
         <v>44202</v>
       </c>
       <c r="F2235" s="47" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2235" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H2235" s="18" t="s">
         <v>815</v>
@@ -64687,10 +64840,10 @@
         <v>44202</v>
       </c>
       <c r="F2236" s="47" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="G2236" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H2236" s="18" t="s">
         <v>815</v>
@@ -64713,10 +64866,10 @@
         <v>44199</v>
       </c>
       <c r="F2237" s="47" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G2237" s="5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="H2237" s="18" t="s">
         <v>815</v>
@@ -64739,10 +64892,10 @@
         <v>44198</v>
       </c>
       <c r="F2238" s="47" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G2238" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H2238" s="19" t="s">
         <v>814</v>
@@ -64765,10 +64918,10 @@
         <v>44197</v>
       </c>
       <c r="F2239" s="47" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G2239" s="5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="H2239" s="19" t="s">
         <v>814</v>
@@ -64791,10 +64944,10 @@
         <v>44201</v>
       </c>
       <c r="F2240" s="47" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G2240" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H2240" s="18" t="s">
         <v>815</v>
@@ -64817,10 +64970,10 @@
         <v>44199</v>
       </c>
       <c r="F2241" s="47" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G2241" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H2241" s="19" t="s">
         <v>814</v>
@@ -64843,10 +64996,10 @@
         <v>44200</v>
       </c>
       <c r="F2242" s="47" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G2242" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H2242" s="19" t="s">
         <v>814</v>
@@ -64869,10 +65022,10 @@
         <v>44203</v>
       </c>
       <c r="F2243" s="47" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G2243" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H2243" s="18" t="s">
         <v>815</v>
@@ -64895,10 +65048,10 @@
         <v>44194</v>
       </c>
       <c r="F2244" s="48" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G2244" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H2244" s="18" t="s">
         <v>815</v>
@@ -64921,10 +65074,10 @@
         <v>44197</v>
       </c>
       <c r="F2245" s="48" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G2245" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H2245" s="19" t="s">
         <v>815</v>
@@ -64947,10 +65100,10 @@
         <v>44199</v>
       </c>
       <c r="F2246" s="48" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2246" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H2246" s="19" t="s">
         <v>814</v>
@@ -64973,10 +65126,10 @@
         <v>44198</v>
       </c>
       <c r="F2247" s="48" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G2247" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H2247" s="18" t="s">
         <v>814</v>
@@ -64999,10 +65152,10 @@
         <v>44199</v>
       </c>
       <c r="F2248" s="49" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G2248" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H2248" s="46" t="s">
         <v>815</v>
@@ -65025,10 +65178,10 @@
         <v>44198</v>
       </c>
       <c r="F2249" s="47" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G2249" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H2249" s="50" t="s">
         <v>815</v>
@@ -65051,10 +65204,10 @@
         <v>44191</v>
       </c>
       <c r="F2250" s="47" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G2250" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H2250" s="50" t="s">
         <v>814</v>
@@ -65077,10 +65230,10 @@
         <v>44200</v>
       </c>
       <c r="F2251" s="48" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G2251" s="5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="H2251" s="50" t="s">
         <v>815</v>
@@ -65103,10 +65256,10 @@
         <v>44200</v>
       </c>
       <c r="F2252" s="48" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G2252" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H2252" s="50" t="s">
         <v>814</v>
@@ -65126,10 +65279,10 @@
         <v>44204</v>
       </c>
       <c r="F2253" s="48" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G2253" s="5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="H2253" s="19" t="s">
         <v>814</v>
@@ -65152,10 +65305,10 @@
         <v>44201</v>
       </c>
       <c r="F2254" s="48" t="s">
+        <v>999</v>
+      </c>
+      <c r="G2254" s="5" t="s">
         <v>1002</v>
-      </c>
-      <c r="G2254" s="5" t="s">
-        <v>1005</v>
       </c>
       <c r="H2254" s="18" t="s">
         <v>815</v>
@@ -65178,10 +65331,10 @@
         <v>44199</v>
       </c>
       <c r="F2255" s="49" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G2255" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H2255" s="46" t="s">
         <v>815</v>
@@ -65204,10 +65357,10 @@
         <v>44198</v>
       </c>
       <c r="F2256" s="47" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G2256" s="5" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="H2256" s="18" t="s">
         <v>815</v>
@@ -65227,10 +65380,10 @@
         <v>44204</v>
       </c>
       <c r="F2257" s="47" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2257" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H2257" s="18" t="s">
         <v>815</v>
@@ -65253,10 +65406,10 @@
         <v>44199</v>
       </c>
       <c r="F2258" s="47" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2258" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H2258" s="18" t="s">
         <v>815</v>
@@ -65279,7 +65432,7 @@
         <v>44202</v>
       </c>
       <c r="F2259" s="47" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G2259" s="5" t="s">
         <v>729</v>
@@ -65302,10 +65455,10 @@
         <v>44204</v>
       </c>
       <c r="F2260" s="48" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G2260" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H2260" s="18" t="s">
         <v>815</v>
@@ -65328,10 +65481,10 @@
         <v>44198</v>
       </c>
       <c r="F2261" s="48" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2261" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H2261" s="19" t="s">
         <v>814</v>
@@ -65354,10 +65507,10 @@
         <v>44200</v>
       </c>
       <c r="F2262" s="48" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2262" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H2262" s="19" t="s">
         <v>815</v>
@@ -65380,10 +65533,10 @@
         <v>44200</v>
       </c>
       <c r="F2263" s="48" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2263" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H2263" s="19" t="s">
         <v>814</v>
@@ -65406,10 +65559,10 @@
         <v>44197</v>
       </c>
       <c r="F2264" s="48" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2264" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H2264" s="19" t="s">
         <v>815</v>
@@ -65432,10 +65585,10 @@
         <v>44200</v>
       </c>
       <c r="F2265" s="48" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2265" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H2265" s="19" t="s">
         <v>814</v>
@@ -65458,10 +65611,10 @@
         <v>44200</v>
       </c>
       <c r="F2266" s="48" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2266" s="5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="H2266" s="18" t="s">
         <v>814</v>
@@ -65484,10 +65637,10 @@
         <v>44195</v>
       </c>
       <c r="F2267" s="48" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2267" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H2267" s="46" t="s">
         <v>814</v>
@@ -65510,10 +65663,10 @@
         <v>44201</v>
       </c>
       <c r="F2268" s="48" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G2268" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H2268" s="18" t="s">
         <v>814</v>
@@ -66676,7 +66829,7 @@
         <v>44199</v>
       </c>
       <c r="F2314" s="6" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="G2314" s="5" t="s">
         <v>79</v>
@@ -66702,7 +66855,7 @@
         <v>44203</v>
       </c>
       <c r="F2315" s="6" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="G2315" s="5" t="s">
         <v>78</v>
@@ -66728,7 +66881,7 @@
         <v>44202</v>
       </c>
       <c r="F2316" s="6" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G2316" s="5" t="s">
         <v>41</v>
@@ -66774,7 +66927,7 @@
         <v>44206</v>
       </c>
       <c r="F2318" s="6" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="G2318" s="5" t="s">
         <v>90</v>
@@ -66800,10 +66953,10 @@
         <v>44203</v>
       </c>
       <c r="F2319" s="6" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G2319" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="H2319" s="5" t="s">
         <v>814</v>
@@ -66826,7 +66979,7 @@
         <v>44202</v>
       </c>
       <c r="F2320" s="6" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G2320" s="5" t="s">
         <v>70</v>
@@ -66852,7 +67005,7 @@
         <v>44200</v>
       </c>
       <c r="F2321" s="6" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G2321" s="5" t="s">
         <v>38</v>
@@ -66907,7 +67060,7 @@
         <v>223</v>
       </c>
       <c r="G2323" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="H2323" s="5" t="s">
         <v>814</v>
@@ -66933,7 +67086,7 @@
         <v>223</v>
       </c>
       <c r="G2324" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="H2324" s="5" t="s">
         <v>815</v>
@@ -66959,7 +67112,7 @@
         <v>223</v>
       </c>
       <c r="G2325" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="H2325" s="5" t="s">
         <v>814</v>
@@ -66985,7 +67138,7 @@
         <v>223</v>
       </c>
       <c r="G2326" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="H2326" s="5" t="s">
         <v>815</v>
@@ -67008,7 +67161,7 @@
         <v>44203</v>
       </c>
       <c r="F2327" s="6" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="G2327" s="5" t="s">
         <v>38</v>
@@ -67037,7 +67190,7 @@
         <v>83</v>
       </c>
       <c r="G2328" s="5" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="H2328" s="5" t="s">
         <v>814</v>
@@ -67063,7 +67216,7 @@
         <v>72</v>
       </c>
       <c r="G2329" s="5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="H2329" s="5" t="s">
         <v>815</v>
@@ -67086,10 +67239,10 @@
         <v>44203</v>
       </c>
       <c r="F2330" s="6" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2330" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="H2330" s="5" t="s">
         <v>814</v>
@@ -67115,7 +67268,7 @@
         <v>31</v>
       </c>
       <c r="G2331" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="H2331" s="5" t="s">
         <v>814</v>
@@ -67138,10 +67291,10 @@
         <v>44201</v>
       </c>
       <c r="F2332" s="6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G2332" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="H2332" s="5" t="s">
         <v>814</v>
@@ -67187,10 +67340,10 @@
         <v>44202</v>
       </c>
       <c r="F2334" s="6" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="G2334" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="H2334" s="5" t="s">
         <v>815</v>
@@ -67210,10 +67363,10 @@
         <v>44206</v>
       </c>
       <c r="F2335" s="6" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G2335" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="H2335" s="5" t="s">
         <v>815</v>
@@ -67233,7 +67386,7 @@
         <v>44206</v>
       </c>
       <c r="F2336" s="6" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G2336" s="5" t="s">
         <v>78</v>
@@ -67259,7 +67412,7 @@
         <v>44204</v>
       </c>
       <c r="F2337" s="6" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2337" s="5" t="s">
         <v>78</v>
@@ -67285,7 +67438,7 @@
         <v>44200</v>
       </c>
       <c r="F2338" s="6" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2338" s="5" t="s">
         <v>90</v>
@@ -67308,7 +67461,7 @@
         <v>44206</v>
       </c>
       <c r="F2339" s="6" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2339" s="5" t="s">
         <v>207</v>
@@ -67334,7 +67487,7 @@
         <v>44204</v>
       </c>
       <c r="F2340" s="6" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2340" s="5" t="s">
         <v>90</v>
@@ -67383,7 +67536,7 @@
         <v>44206</v>
       </c>
       <c r="F2342" s="6" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G2342" s="5" t="s">
         <v>70</v>
@@ -67409,7 +67562,7 @@
         <v>44197</v>
       </c>
       <c r="F2343" s="6" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G2343" s="5" t="s">
         <v>38</v>
@@ -67435,7 +67588,7 @@
         <v>44203</v>
       </c>
       <c r="F2344" s="6" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G2344" s="5" t="s">
         <v>41</v>
@@ -67458,7 +67611,7 @@
         <v>44206</v>
       </c>
       <c r="F2345" s="6" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G2345" s="5" t="s">
         <v>90</v>
@@ -67559,7 +67712,7 @@
         <v>24</v>
       </c>
       <c r="G2349" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="H2349" s="5" t="s">
         <v>815</v>
@@ -67822,8 +67975,5282 @@
         <v>815</v>
       </c>
     </row>
+    <row r="2360" spans="1:8">
+      <c r="A2360" s="5">
+        <v>2358</v>
+      </c>
+      <c r="B2360" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2360" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2360" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2360" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2360" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2360" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:8">
+      <c r="A2361" s="5">
+        <v>2359</v>
+      </c>
+      <c r="B2361" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2361" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2361" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2361" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2361" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2361" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2361" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:8">
+      <c r="A2362" s="5">
+        <v>2360</v>
+      </c>
+      <c r="B2362" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2362" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2362" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2362" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2362" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2362" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2362" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:8">
+      <c r="A2363" s="5">
+        <v>2361</v>
+      </c>
+      <c r="B2363" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2363" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2363" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2363" s="6">
+        <v>44196</v>
+      </c>
+      <c r="F2363" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2363" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2363" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:8">
+      <c r="A2364" s="5">
+        <v>2362</v>
+      </c>
+      <c r="B2364" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2364" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2364" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2364" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2364" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2364" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2364" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:8">
+      <c r="A2365" s="5">
+        <v>2363</v>
+      </c>
+      <c r="B2365" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2365" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2365" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2365" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2365" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G2365" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2365" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:8">
+      <c r="A2366" s="5">
+        <v>2364</v>
+      </c>
+      <c r="B2366" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2366" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2366" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2366" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2366" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2366" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2366" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:8">
+      <c r="A2367" s="5">
+        <v>2365</v>
+      </c>
+      <c r="B2367" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2367" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2367" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2367" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2367" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2367" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2367" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:8">
+      <c r="A2368" s="5">
+        <v>2366</v>
+      </c>
+      <c r="B2368" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2368" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2368" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2368" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2368" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2368" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2368" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:8">
+      <c r="A2369" s="5">
+        <v>2367</v>
+      </c>
+      <c r="B2369" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2369" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2369" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2369" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2369" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2369" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2369" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:8">
+      <c r="A2370" s="5">
+        <v>2368</v>
+      </c>
+      <c r="B2370" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2370" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2370" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2370" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2370" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2370" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2370" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:8">
+      <c r="A2371" s="5">
+        <v>2369</v>
+      </c>
+      <c r="B2371" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2371" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2371" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2371" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2371" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2371" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2371" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:8">
+      <c r="A2372" s="5">
+        <v>2370</v>
+      </c>
+      <c r="B2372" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2372" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2372" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2372" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2372" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2372" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2372" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:8">
+      <c r="A2373" s="5">
+        <v>2371</v>
+      </c>
+      <c r="B2373" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2373" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2373" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2373" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2373" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2373" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2373" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:8">
+      <c r="A2374" s="5">
+        <v>2372</v>
+      </c>
+      <c r="B2374" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2374" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2374" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2374" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2374" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2374" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2374" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:8">
+      <c r="A2375" s="5">
+        <v>2373</v>
+      </c>
+      <c r="B2375" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2375" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2375" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2375" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2375" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2375" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2375" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:8">
+      <c r="A2376" s="5">
+        <v>2374</v>
+      </c>
+      <c r="B2376" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2376" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2376" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2376" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2376" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2376" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2376" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:8">
+      <c r="A2377" s="5">
+        <v>2375</v>
+      </c>
+      <c r="B2377" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2377" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2377" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2377" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2377" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2377" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2377" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:8">
+      <c r="A2378" s="5">
+        <v>2376</v>
+      </c>
+      <c r="B2378" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2378" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2378" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2378" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2378" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2378" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:8">
+      <c r="A2379" s="5">
+        <v>2377</v>
+      </c>
+      <c r="B2379" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2379" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2379" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2379" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2379" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2379" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2379" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:8">
+      <c r="A2380" s="5">
+        <v>2378</v>
+      </c>
+      <c r="B2380" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2380" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2380" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2380" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2380" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2380" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2380" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:8">
+      <c r="A2381" s="5">
+        <v>2379</v>
+      </c>
+      <c r="B2381" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2381" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2381" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2381" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2381" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2381" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2381" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:8">
+      <c r="A2382" s="5">
+        <v>2380</v>
+      </c>
+      <c r="B2382" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2382" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2382" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2382" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2382" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2382" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2382" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:8">
+      <c r="A2383" s="5">
+        <v>2381</v>
+      </c>
+      <c r="B2383" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2383" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2383" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2383" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2383" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2383" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:8">
+      <c r="A2384" s="5">
+        <v>2382</v>
+      </c>
+      <c r="B2384" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2384" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2384" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2384" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2384" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G2384" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2384" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:8">
+      <c r="A2385" s="5">
+        <v>2383</v>
+      </c>
+      <c r="B2385" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2385" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2385" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2385" s="6">
+        <v>44194</v>
+      </c>
+      <c r="F2385" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2385" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2385" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:8">
+      <c r="A2386" s="5">
+        <v>2384</v>
+      </c>
+      <c r="B2386" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2386" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2386" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2386" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2386" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2386" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2386" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:8">
+      <c r="A2387" s="5">
+        <v>2385</v>
+      </c>
+      <c r="B2387" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2387" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2387" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2387" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2387" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2387" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2387" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:8">
+      <c r="A2388" s="5">
+        <v>2386</v>
+      </c>
+      <c r="B2388" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2388" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2388" s="6">
+        <v>44207</v>
+      </c>
+      <c r="E2388" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2388" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2388" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2388" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:8">
+      <c r="A2389" s="5">
+        <v>2387</v>
+      </c>
+      <c r="B2389" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2389" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2389" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2389" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2389" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H2389" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:8">
+      <c r="A2390" s="5">
+        <v>2388</v>
+      </c>
+      <c r="B2390" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2390" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2390" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2390" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2390" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H2390" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:8">
+      <c r="A2391" s="5">
+        <v>2389</v>
+      </c>
+      <c r="B2391" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2391" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2391" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2391" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2391" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2391" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2391" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:8">
+      <c r="A2392" s="5">
+        <v>2390</v>
+      </c>
+      <c r="B2392" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2392" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2392" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2392" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2392" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2392" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2392" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:8">
+      <c r="A2393" s="5">
+        <v>2391</v>
+      </c>
+      <c r="B2393" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2393" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2393" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2393" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2393" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2393" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2393" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:8">
+      <c r="A2394" s="5">
+        <v>2392</v>
+      </c>
+      <c r="B2394" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2394" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2394" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2394" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2394" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2394" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2394" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:8">
+      <c r="A2395" s="5">
+        <v>2393</v>
+      </c>
+      <c r="B2395" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2395" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2395" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2395" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2395" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2395" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2395" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:8">
+      <c r="A2396" s="5">
+        <v>2394</v>
+      </c>
+      <c r="B2396" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2396" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2396" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2396" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2396" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2396" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2396" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:8">
+      <c r="A2397" s="5">
+        <v>2395</v>
+      </c>
+      <c r="B2397" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2397" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2397" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2397" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2397" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2397" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2397" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:8">
+      <c r="A2398" s="5">
+        <v>2396</v>
+      </c>
+      <c r="B2398" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2398" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2398" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2398" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2398" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2398" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2398" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:8">
+      <c r="A2399" s="5">
+        <v>2397</v>
+      </c>
+      <c r="B2399" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2399" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2399" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2399" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2399" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2399" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:8">
+      <c r="A2400" s="5">
+        <v>2398</v>
+      </c>
+      <c r="B2400" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2400" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2400" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2400" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2400" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2400" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2400" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:8">
+      <c r="A2401" s="5">
+        <v>2399</v>
+      </c>
+      <c r="B2401" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2401" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2401" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2401" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2401" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2401" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2401" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:8">
+      <c r="A2402" s="5">
+        <v>2400</v>
+      </c>
+      <c r="B2402" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2402" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2402" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2402" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2402" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2402" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2402" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:8">
+      <c r="A2403" s="5">
+        <v>2401</v>
+      </c>
+      <c r="B2403" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2403" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2403" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2403" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2403" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2403" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2403" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:8">
+      <c r="A2404" s="5">
+        <v>2402</v>
+      </c>
+      <c r="B2404" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2404" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2404" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2404" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2404" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2404" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2404" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:8">
+      <c r="A2405" s="5">
+        <v>2403</v>
+      </c>
+      <c r="B2405" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2405" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2405" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2405" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2405" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2405" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2405" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:8">
+      <c r="A2406" s="5">
+        <v>2404</v>
+      </c>
+      <c r="B2406" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2406" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2406" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2406" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2406" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2406" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2406" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:8">
+      <c r="A2407" s="5">
+        <v>2405</v>
+      </c>
+      <c r="B2407" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2407" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2407" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2407" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2407" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2407" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2407" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:8">
+      <c r="A2408" s="5">
+        <v>2406</v>
+      </c>
+      <c r="B2408" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2408" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2408" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2408" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2408" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2408" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2408" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:8">
+      <c r="A2409" s="5">
+        <v>2407</v>
+      </c>
+      <c r="B2409" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2409" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2409" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2409" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2409" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2409" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2409" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:8">
+      <c r="A2410" s="5">
+        <v>2408</v>
+      </c>
+      <c r="B2410" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2410" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2410" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2410" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2410" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2410" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2410" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:8">
+      <c r="A2411" s="5">
+        <v>2409</v>
+      </c>
+      <c r="B2411" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2411" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2411" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2411" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2411" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2411" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2411" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:8">
+      <c r="A2412" s="5">
+        <v>2410</v>
+      </c>
+      <c r="B2412" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2412" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2412" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2412" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2412" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2412" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2412" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:8">
+      <c r="A2413" s="5">
+        <v>2411</v>
+      </c>
+      <c r="B2413" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2413" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2413" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2413" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2413" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2413" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H2413" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:8">
+      <c r="A2414" s="5">
+        <v>2412</v>
+      </c>
+      <c r="B2414" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2414" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2414" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2414" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2414" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2414" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:8">
+      <c r="A2415" s="5">
+        <v>2413</v>
+      </c>
+      <c r="B2415" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2415" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2415" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2415" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2415" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2415" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2415" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:8">
+      <c r="A2416" s="5">
+        <v>2414</v>
+      </c>
+      <c r="B2416" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2416" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2416" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2416" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2416" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2416" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2416" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:8">
+      <c r="A2417" s="5">
+        <v>2415</v>
+      </c>
+      <c r="B2417" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2417" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2417" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2417" s="6">
+        <v>44198</v>
+      </c>
+      <c r="F2417" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2417" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2417" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:8">
+      <c r="A2418" s="5">
+        <v>2416</v>
+      </c>
+      <c r="B2418" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2418" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2418" s="6">
+        <v>44208</v>
+      </c>
+      <c r="E2418" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2418" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2418" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2418" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:8">
+      <c r="A2419" s="5">
+        <v>2417</v>
+      </c>
+      <c r="B2419" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2419" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2419" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2419" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2419" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2419" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:8">
+      <c r="A2420" s="5">
+        <v>2418</v>
+      </c>
+      <c r="B2420" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2420" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2420" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2420" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2420" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2420" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2420" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:8">
+      <c r="A2421" s="5">
+        <v>2419</v>
+      </c>
+      <c r="B2421" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2421" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2421" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2421" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2421" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2421" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2421" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:8">
+      <c r="A2422" s="5">
+        <v>2420</v>
+      </c>
+      <c r="B2422" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2422" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2422" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2422" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2422" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2422" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:8">
+      <c r="A2423" s="5">
+        <v>2421</v>
+      </c>
+      <c r="B2423" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2423" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2423" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2423" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2423" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2423" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2423" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:8">
+      <c r="A2424" s="5">
+        <v>2422</v>
+      </c>
+      <c r="B2424" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2424" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2424" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2424" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2424" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2424" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2424" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:8">
+      <c r="A2425" s="5">
+        <v>2423</v>
+      </c>
+      <c r="B2425" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2425" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2425" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2425" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2425" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2425" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2425" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:8">
+      <c r="A2426" s="5">
+        <v>2424</v>
+      </c>
+      <c r="B2426" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2426" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2426" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2426" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2426" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2426" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2426" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:8">
+      <c r="A2427" s="5">
+        <v>2425</v>
+      </c>
+      <c r="B2427" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2427" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2427" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2427" s="6">
+        <v>44200</v>
+      </c>
+      <c r="F2427" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2427" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2427" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:8">
+      <c r="A2428" s="5">
+        <v>2426</v>
+      </c>
+      <c r="B2428" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2428" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2428" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2428" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2428" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2428" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2428" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:8">
+      <c r="A2429" s="5">
+        <v>2427</v>
+      </c>
+      <c r="B2429" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2429" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2429" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2429" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2429" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2429" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2429" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:8">
+      <c r="A2430" s="5">
+        <v>2428</v>
+      </c>
+      <c r="B2430" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2430" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2430" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2430" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2430" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2430" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2430" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:8">
+      <c r="A2431" s="5">
+        <v>2429</v>
+      </c>
+      <c r="B2431" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2431" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2431" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2431" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2431" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H2431" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:8">
+      <c r="A2432" s="5">
+        <v>2430</v>
+      </c>
+      <c r="B2432" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2432" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2432" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2432" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2432" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2432" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:8">
+      <c r="A2433" s="5">
+        <v>2431</v>
+      </c>
+      <c r="B2433" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2433" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2433" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2433" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2433" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2433" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2433" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:8">
+      <c r="A2434" s="5">
+        <v>2432</v>
+      </c>
+      <c r="B2434" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2434" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2434" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2434" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2434" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2434" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2434" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:8">
+      <c r="A2435" s="5">
+        <v>2433</v>
+      </c>
+      <c r="B2435" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2435" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2435" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2435" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2435" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2435" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:8">
+      <c r="A2436" s="5">
+        <v>2434</v>
+      </c>
+      <c r="B2436" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2436" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2436" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2436" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2436" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2436" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2436" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:8">
+      <c r="A2437" s="5">
+        <v>2435</v>
+      </c>
+      <c r="B2437" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2437" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2437" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2437" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2437" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2437" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2437" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:8">
+      <c r="A2438" s="5">
+        <v>2436</v>
+      </c>
+      <c r="B2438" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2438" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2438" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2438" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2438" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2438" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2438" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:8">
+      <c r="A2439" s="5">
+        <v>2437</v>
+      </c>
+      <c r="B2439" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2439" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2439" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2439" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2439" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2439" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2439" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:8">
+      <c r="A2440" s="5">
+        <v>2438</v>
+      </c>
+      <c r="B2440" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2440" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2440" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2440" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2440" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2440" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:8">
+      <c r="A2441" s="5">
+        <v>2439</v>
+      </c>
+      <c r="B2441" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2441" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2441" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2441" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2441" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2441" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2441" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:8">
+      <c r="A2442" s="5">
+        <v>2440</v>
+      </c>
+      <c r="B2442" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2442" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2442" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2442" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2442" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2442" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:8">
+      <c r="A2443" s="5">
+        <v>2441</v>
+      </c>
+      <c r="B2443" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2443" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2443" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2443" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2443" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2443" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2443" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:8">
+      <c r="A2444" s="5">
+        <v>2442</v>
+      </c>
+      <c r="B2444" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2444" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2444" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2444" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2444" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2444" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2444" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:8">
+      <c r="A2445" s="5">
+        <v>2443</v>
+      </c>
+      <c r="B2445" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2445" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2445" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2445" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2445" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2445" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2445" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:8">
+      <c r="A2446" s="5">
+        <v>2444</v>
+      </c>
+      <c r="B2446" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2446" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2446" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2446" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2446" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G2446" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2446" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:8">
+      <c r="A2447" s="5">
+        <v>2445</v>
+      </c>
+      <c r="B2447" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2447" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2447" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2447" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2447" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2447" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2447" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:8">
+      <c r="A2448" s="5">
+        <v>2446</v>
+      </c>
+      <c r="B2448" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2448" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2448" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2448" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2448" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2448" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:8">
+      <c r="A2449" s="5">
+        <v>2447</v>
+      </c>
+      <c r="B2449" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2449" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2449" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2449" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2449" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2449" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2449" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:8">
+      <c r="A2450" s="5">
+        <v>2448</v>
+      </c>
+      <c r="B2450" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2450" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2450" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2450" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2450" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2450" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2450" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:8">
+      <c r="A2451" s="5">
+        <v>2449</v>
+      </c>
+      <c r="B2451" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2451" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2451" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2451" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2451" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2451" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:8">
+      <c r="A2452" s="5">
+        <v>2450</v>
+      </c>
+      <c r="B2452" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2452" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2452" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2452" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2452" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2452" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2452" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:8">
+      <c r="A2453" s="5">
+        <v>2451</v>
+      </c>
+      <c r="B2453" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2453" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2453" s="6">
+        <v>44209</v>
+      </c>
+      <c r="E2453" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2453" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2453" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2453" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:8">
+      <c r="A2454" s="5">
+        <v>2452</v>
+      </c>
+      <c r="B2454" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2454" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2454" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2454" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2454" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2454" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H2454" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:8">
+      <c r="A2455" s="5">
+        <v>2453</v>
+      </c>
+      <c r="B2455" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2455" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2455" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2455" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2455" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2455" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H2455" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:8">
+      <c r="A2456" s="5">
+        <v>2454</v>
+      </c>
+      <c r="B2456" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2456" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2456" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2456" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2456" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2456" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H2456" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:8">
+      <c r="A2457" s="5">
+        <v>2455</v>
+      </c>
+      <c r="B2457" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2457" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2457" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2457" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2457" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2457" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H2457" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:8">
+      <c r="A2458" s="5">
+        <v>2456</v>
+      </c>
+      <c r="B2458" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2458" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2458" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2458" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2458" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2458" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H2458" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:8">
+      <c r="A2459" s="5">
+        <v>2457</v>
+      </c>
+      <c r="B2459" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2459" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2459" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2459" s="6">
+        <v>44199</v>
+      </c>
+      <c r="F2459" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2459" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H2459" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:8">
+      <c r="A2460" s="5">
+        <v>2458</v>
+      </c>
+      <c r="B2460" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2460" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2460" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2460" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2460" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2460" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H2460" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:8">
+      <c r="A2461" s="5">
+        <v>2459</v>
+      </c>
+      <c r="B2461" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2461" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2461" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2461" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2461" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2461" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2461" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:8">
+      <c r="A2462" s="5">
+        <v>2460</v>
+      </c>
+      <c r="B2462" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2462" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2462" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2462" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2462" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2462" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H2462" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:8">
+      <c r="A2463" s="5">
+        <v>2461</v>
+      </c>
+      <c r="B2463" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2463" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2463" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2463" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2463" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2463" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H2463" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:8">
+      <c r="A2464" s="5">
+        <v>2462</v>
+      </c>
+      <c r="B2464" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2464" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2464" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2464" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2464" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2464" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2464" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:8">
+      <c r="A2465" s="5">
+        <v>2463</v>
+      </c>
+      <c r="B2465" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2465" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2465" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2465" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2465" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2465" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H2465" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:8">
+      <c r="A2466" s="5">
+        <v>2464</v>
+      </c>
+      <c r="B2466" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2466" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2466" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2466" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2466" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2466" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H2466" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:8">
+      <c r="A2467" s="5">
+        <v>2465</v>
+      </c>
+      <c r="B2467" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2467" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2467" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2467" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2467" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2467" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H2467" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:8">
+      <c r="A2468" s="5">
+        <v>2466</v>
+      </c>
+      <c r="B2468" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2468" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2468" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2468" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2468" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2468" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H2468" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:8">
+      <c r="A2469" s="5">
+        <v>2467</v>
+      </c>
+      <c r="B2469" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2469" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2469" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2469" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2469" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2469" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H2469" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:8">
+      <c r="A2470" s="5">
+        <v>2468</v>
+      </c>
+      <c r="B2470" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2470" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2470" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2470" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2470" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2470" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2470" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:8">
+      <c r="A2471" s="5">
+        <v>2469</v>
+      </c>
+      <c r="B2471" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2471" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2471" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2471" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2471" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2471" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2471" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:8">
+      <c r="A2472" s="5">
+        <v>2470</v>
+      </c>
+      <c r="B2472" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2472" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2472" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2472" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2472" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2472" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2472" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:8">
+      <c r="A2473" s="5">
+        <v>2471</v>
+      </c>
+      <c r="B2473" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2473" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2473" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2473" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2473" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2473" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2473" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:8">
+      <c r="A2474" s="5">
+        <v>2472</v>
+      </c>
+      <c r="B2474" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2474" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2474" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2474" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2474" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2474" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H2474" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:8">
+      <c r="A2475" s="5">
+        <v>2473</v>
+      </c>
+      <c r="B2475" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2475" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2475" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2475" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2475" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2475" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H2475" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:8">
+      <c r="A2476" s="5">
+        <v>2474</v>
+      </c>
+      <c r="B2476" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2476" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2476" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2476" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2476" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2476" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2476" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:8">
+      <c r="A2477" s="5">
+        <v>2475</v>
+      </c>
+      <c r="B2477" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2477" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2477" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2477" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2477" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2477" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H2477" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:8">
+      <c r="A2478" s="5">
+        <v>2476</v>
+      </c>
+      <c r="B2478" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2478" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2478" s="6">
+        <v>44210</v>
+      </c>
+      <c r="F2478" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2478" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2478" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:8">
+      <c r="A2479" s="5">
+        <v>2477</v>
+      </c>
+      <c r="B2479" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2479" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2479" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2479" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2479" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2479" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2479" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:8">
+      <c r="A2480" s="5">
+        <v>2478</v>
+      </c>
+      <c r="B2480" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2480" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2480" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2480" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2480" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2480" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H2480" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:8">
+      <c r="A2481" s="5">
+        <v>2479</v>
+      </c>
+      <c r="B2481" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2481" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2481" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2481" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2481" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2481" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2481" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:8">
+      <c r="A2482" s="5">
+        <v>2480</v>
+      </c>
+      <c r="B2482" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2482" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2482" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2482" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2482" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2482" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H2482" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:8">
+      <c r="A2483" s="5">
+        <v>2481</v>
+      </c>
+      <c r="B2483" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2483" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2483" s="6">
+        <v>44210</v>
+      </c>
+      <c r="E2483" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2483" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2483" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H2483" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:8">
+      <c r="A2484" s="5">
+        <v>2482</v>
+      </c>
+      <c r="B2484" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2484" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2484" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2484" s="6">
+        <v>44210</v>
+      </c>
+      <c r="F2484" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2484" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2484" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:8">
+      <c r="A2485" s="5">
+        <v>2483</v>
+      </c>
+      <c r="B2485" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2485" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2485" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2485" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2485" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2485" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2485" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:8">
+      <c r="A2486" s="5">
+        <v>2484</v>
+      </c>
+      <c r="B2486" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2486" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2486" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2486" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2486" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2486" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2486" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:8">
+      <c r="A2487" s="5">
+        <v>2485</v>
+      </c>
+      <c r="B2487" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2487" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2487" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2487" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2487" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2487" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="H2487" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:8">
+      <c r="A2488" s="5">
+        <v>2486</v>
+      </c>
+      <c r="B2488" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2488" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2488" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2488" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2488" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2488" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2488" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:8">
+      <c r="A2489" s="5">
+        <v>2487</v>
+      </c>
+      <c r="B2489" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2489" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2489" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2489" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2489" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2489" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2489" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:8">
+      <c r="A2490" s="5">
+        <v>2488</v>
+      </c>
+      <c r="B2490" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2490" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2490" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2490" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2490" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2490" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:8">
+      <c r="A2491" s="5">
+        <v>2489</v>
+      </c>
+      <c r="B2491" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2491" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2491" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2491" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2491" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2491" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2491" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:8">
+      <c r="A2492" s="5">
+        <v>2490</v>
+      </c>
+      <c r="B2492" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2492" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2492" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2492" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2492" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2492" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2492" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:8">
+      <c r="A2493" s="5">
+        <v>2491</v>
+      </c>
+      <c r="B2493" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2493" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2493" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2493" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2493" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2493" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:8">
+      <c r="A2494" s="5">
+        <v>2492</v>
+      </c>
+      <c r="B2494" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2494" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2494" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2494" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2494" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2494" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:8">
+      <c r="A2495" s="5">
+        <v>2493</v>
+      </c>
+      <c r="B2495" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2495" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2495" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2495" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2495" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2495" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2495" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:8">
+      <c r="A2496" s="5">
+        <v>2494</v>
+      </c>
+      <c r="B2496" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2496" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2496" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2496" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2496" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2496" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:8">
+      <c r="A2497" s="5">
+        <v>2495</v>
+      </c>
+      <c r="B2497" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2497" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2497" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2497" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2497" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2497" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2497" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:8">
+      <c r="A2498" s="5">
+        <v>2496</v>
+      </c>
+      <c r="B2498" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2498" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2498" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2498" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2498" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2498" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2498" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:8">
+      <c r="A2499" s="5">
+        <v>2497</v>
+      </c>
+      <c r="B2499" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2499" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2499" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2499" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2499" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2499" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2499" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:8">
+      <c r="A2500" s="5">
+        <v>2498</v>
+      </c>
+      <c r="B2500" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2500" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2500" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2500" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2500" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2500" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2500" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:8">
+      <c r="A2501" s="5">
+        <v>2499</v>
+      </c>
+      <c r="B2501" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2501" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2501" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2501" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2501" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2501" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:8">
+      <c r="A2502" s="5">
+        <v>2500</v>
+      </c>
+      <c r="B2502" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2502" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2502" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2502" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2502" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2502" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:8">
+      <c r="A2503" s="5">
+        <v>2501</v>
+      </c>
+      <c r="B2503" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2503" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2503" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2503" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2503" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2503" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:8">
+      <c r="A2504" s="5">
+        <v>2502</v>
+      </c>
+      <c r="B2504" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2504" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2504" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2504" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2504" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2504" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2504" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:8">
+      <c r="A2505" s="5">
+        <v>2503</v>
+      </c>
+      <c r="B2505" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2505" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2505" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2505" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2505" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2505" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:8">
+      <c r="A2506" s="5">
+        <v>2504</v>
+      </c>
+      <c r="B2506" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2506" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2506" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2506" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2506" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2506" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2506" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:8">
+      <c r="A2507" s="5">
+        <v>2505</v>
+      </c>
+      <c r="B2507" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2507" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2507" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2507" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2507" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2507" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2507" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:8">
+      <c r="A2508" s="5">
+        <v>2506</v>
+      </c>
+      <c r="B2508" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2508" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2508" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2508" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2508" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2508" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:8">
+      <c r="A2509" s="5">
+        <v>2507</v>
+      </c>
+      <c r="B2509" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2509" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2509" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2509" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2509" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2509" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2509" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:8">
+      <c r="A2510" s="5">
+        <v>2508</v>
+      </c>
+      <c r="B2510" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2510" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2510" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2510" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2510" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2510" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2510" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:8">
+      <c r="A2511" s="5">
+        <v>2509</v>
+      </c>
+      <c r="B2511" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2511" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2511" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2511" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2511" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2511" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2511" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:8">
+      <c r="A2512" s="5">
+        <v>2510</v>
+      </c>
+      <c r="B2512" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2512" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2512" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2512" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2512" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2512" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2512" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:8">
+      <c r="A2513" s="5">
+        <v>2511</v>
+      </c>
+      <c r="B2513" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2513" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2513" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2513" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2513" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2513" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2513" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:8">
+      <c r="A2514" s="5">
+        <v>2512</v>
+      </c>
+      <c r="B2514" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2514" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2514" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2514" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2514" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2514" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2514" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:8">
+      <c r="A2515" s="5">
+        <v>2513</v>
+      </c>
+      <c r="B2515" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2515" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2515" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2515" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2515" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2515" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2515" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:8">
+      <c r="A2516" s="5">
+        <v>2514</v>
+      </c>
+      <c r="B2516" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2516" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2516" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2516" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2516" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2516" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2516" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:8">
+      <c r="A2517" s="5">
+        <v>2515</v>
+      </c>
+      <c r="B2517" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2517" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2517" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2517" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2517" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2517" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2517" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:8">
+      <c r="A2518" s="5">
+        <v>2516</v>
+      </c>
+      <c r="B2518" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2518" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2518" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2518" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2518" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2518" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:8">
+      <c r="A2519" s="5">
+        <v>2517</v>
+      </c>
+      <c r="B2519" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2519" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2519" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2519" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2519" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2519" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2519" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:8">
+      <c r="A2520" s="5">
+        <v>2518</v>
+      </c>
+      <c r="B2520" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2520" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2520" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2520" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2520" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2520" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2520" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:8">
+      <c r="A2521" s="5">
+        <v>2519</v>
+      </c>
+      <c r="B2521" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2521" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2521" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2521" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2521" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2521" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2521" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:8">
+      <c r="A2522" s="5">
+        <v>2520</v>
+      </c>
+      <c r="B2522" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2522" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2522" s="6">
+        <v>44211</v>
+      </c>
+      <c r="F2522" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2522" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2522" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:8">
+      <c r="A2523" s="5">
+        <v>2521</v>
+      </c>
+      <c r="B2523" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2523" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2523" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2523" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2523" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2523" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2523" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:8">
+      <c r="A2524" s="5">
+        <v>2522</v>
+      </c>
+      <c r="B2524" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2524" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2524" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2524" s="6">
+        <v>44202</v>
+      </c>
+      <c r="F2524" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2524" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2524" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:8">
+      <c r="A2525" s="5">
+        <v>2523</v>
+      </c>
+      <c r="B2525" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2525" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2525" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2525" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2525" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2525" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2525" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:8">
+      <c r="A2526" s="5">
+        <v>2524</v>
+      </c>
+      <c r="B2526" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2526" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2526" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2526" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2526" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2526" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2526" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:8">
+      <c r="A2527" s="5">
+        <v>2525</v>
+      </c>
+      <c r="B2527" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2527" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2527" s="6">
+        <v>44211</v>
+      </c>
+      <c r="E2527" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2527" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2527" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2527" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:8">
+      <c r="A2528" s="5">
+        <v>2526</v>
+      </c>
+      <c r="B2528" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2528" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2528" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2528" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2528" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G2528" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H2528" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:8">
+      <c r="A2529" s="5">
+        <v>2527</v>
+      </c>
+      <c r="B2529" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2529" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2529" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2529" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2529" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G2529" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H2529" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:8">
+      <c r="A2530" s="5">
+        <v>2528</v>
+      </c>
+      <c r="B2530" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2530" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2530" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2530" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2530" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G2530" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H2530" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:8">
+      <c r="A2531" s="5">
+        <v>2529</v>
+      </c>
+      <c r="B2531" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2531" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2531" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2531" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2531" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2531" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H2531" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:8">
+      <c r="A2532" s="5">
+        <v>2530</v>
+      </c>
+      <c r="B2532" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2532" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2532" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2532" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2532" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G2532" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H2532" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:8">
+      <c r="A2533" s="5">
+        <v>2531</v>
+      </c>
+      <c r="B2533" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2533" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2533" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2533" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2533" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2533" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H2533" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:8">
+      <c r="A2534" s="5">
+        <v>2532</v>
+      </c>
+      <c r="B2534" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2534" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2534" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2534" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2534" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G2534" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H2534" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:8">
+      <c r="A2535" s="5">
+        <v>2533</v>
+      </c>
+      <c r="B2535" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2535" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2535" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2535" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2535" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2535" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H2535" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:8">
+      <c r="A2536" s="5">
+        <v>2534</v>
+      </c>
+      <c r="B2536" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2536" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2536" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2536" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2536" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2536" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H2536" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:8">
+      <c r="A2537" s="5">
+        <v>2535</v>
+      </c>
+      <c r="B2537" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2537" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2537" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2537" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2537" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2537" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H2537" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:8">
+      <c r="A2538" s="5">
+        <v>2536</v>
+      </c>
+      <c r="B2538" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2538" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2538" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2538" s="6">
+        <v>44206</v>
+      </c>
+      <c r="F2538" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2538" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H2538" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:8">
+      <c r="A2539" s="5">
+        <v>2537</v>
+      </c>
+      <c r="B2539" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2539" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2539" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2539" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2539" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2539" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H2539" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:8">
+      <c r="A2540" s="5">
+        <v>2538</v>
+      </c>
+      <c r="B2540" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2540" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2540" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2540" s="6">
+        <v>44201</v>
+      </c>
+      <c r="F2540" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G2540" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H2540" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:8">
+      <c r="A2541" s="5">
+        <v>2539</v>
+      </c>
+      <c r="B2541" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2541" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2541" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2541" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2541" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2541" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H2541" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:8">
+      <c r="A2542" s="5">
+        <v>2540</v>
+      </c>
+      <c r="B2542" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2542" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2542" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2542" s="6">
+        <v>44205</v>
+      </c>
+      <c r="F2542" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G2542" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H2542" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:8">
+      <c r="A2543" s="5">
+        <v>2541</v>
+      </c>
+      <c r="B2543" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2543" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2543" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2543" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2543" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G2543" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H2543" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:8">
+      <c r="A2544" s="5">
+        <v>2542</v>
+      </c>
+      <c r="B2544" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2544" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2544" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2544" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2544" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G2544" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H2544" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:8">
+      <c r="A2545" s="5">
+        <v>2543</v>
+      </c>
+      <c r="B2545" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2545" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2545" s="6">
+        <v>44212</v>
+      </c>
+      <c r="F2545" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2545" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H2545" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:8">
+      <c r="A2546" s="5">
+        <v>2544</v>
+      </c>
+      <c r="B2546" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2546" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2546" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2546" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2546" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G2546" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H2546" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:8">
+      <c r="A2547" s="5">
+        <v>2545</v>
+      </c>
+      <c r="B2547" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2547" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2547" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2547" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2547" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2547" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H2547" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:8">
+      <c r="A2548" s="5">
+        <v>2546</v>
+      </c>
+      <c r="B2548" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2548" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2548" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2548" s="6">
+        <v>44210</v>
+      </c>
+      <c r="F2548" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2548" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H2548" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:8">
+      <c r="A2549" s="5">
+        <v>2547</v>
+      </c>
+      <c r="B2549" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2549" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2549" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2549" s="6">
+        <v>44203</v>
+      </c>
+      <c r="F2549" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2549" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H2549" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:8">
+      <c r="A2550" s="5">
+        <v>2548</v>
+      </c>
+      <c r="B2550" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2550" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2550" s="6">
+        <v>44212</v>
+      </c>
+      <c r="F2550" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2550" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H2550" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:8">
+      <c r="A2551" s="5">
+        <v>2549</v>
+      </c>
+      <c r="B2551" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2551" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2551" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2551" s="6">
+        <v>44207</v>
+      </c>
+      <c r="F2551" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G2551" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H2551" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:8">
+      <c r="A2552" s="5">
+        <v>2550</v>
+      </c>
+      <c r="B2552" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2552" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2552" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2552" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2552" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G2552" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H2552" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:8">
+      <c r="A2553" s="5">
+        <v>2551</v>
+      </c>
+      <c r="B2553" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2553" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2553" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2553" s="6">
+        <v>44210</v>
+      </c>
+      <c r="F2553" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G2553" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H2553" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:8">
+      <c r="A2554" s="5">
+        <v>2552</v>
+      </c>
+      <c r="B2554" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2554" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2554" s="6">
+        <v>44212</v>
+      </c>
+      <c r="F2554" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2554" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H2554" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:8">
+      <c r="A2555" s="5">
+        <v>2553</v>
+      </c>
+      <c r="B2555" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2555" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2555" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2555" s="6">
+        <v>44210</v>
+      </c>
+      <c r="F2555" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G2555" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H2555" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:8">
+      <c r="A2556" s="5">
+        <v>2554</v>
+      </c>
+      <c r="B2556" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2556" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2556" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2556" s="6">
+        <v>44210</v>
+      </c>
+      <c r="F2556" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G2556" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H2556" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:8">
+      <c r="A2557" s="5">
+        <v>2555</v>
+      </c>
+      <c r="B2557" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2557" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2557" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2557" s="6">
+        <v>44208</v>
+      </c>
+      <c r="F2557" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2557" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H2557" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:8">
+      <c r="A2558" s="5">
+        <v>2556</v>
+      </c>
+      <c r="B2558" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2558" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2558" s="6">
+        <v>44212</v>
+      </c>
+      <c r="F2558" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2558" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H2558" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:8">
+      <c r="A2559" s="5">
+        <v>2557</v>
+      </c>
+      <c r="B2559" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2559" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2559" s="6">
+        <v>44212</v>
+      </c>
+      <c r="F2559" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2559" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H2559" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:8">
+      <c r="A2560" s="5">
+        <v>2558</v>
+      </c>
+      <c r="B2560" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2560" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2560" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2560" s="6">
+        <v>44204</v>
+      </c>
+      <c r="F2560" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2560" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H2560" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:8">
+      <c r="A2561" s="5">
+        <v>2559</v>
+      </c>
+      <c r="B2561" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2561" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2561" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2561" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2561" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2561" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H2561" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:8">
+      <c r="A2562" s="5">
+        <v>2560</v>
+      </c>
+      <c r="B2562" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2562" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2562" s="6">
+        <v>44212</v>
+      </c>
+      <c r="F2562" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2562" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H2562" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:8">
+      <c r="A2563" s="5">
+        <v>2561</v>
+      </c>
+      <c r="B2563" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2563" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2563" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2563" s="6">
+        <v>44209</v>
+      </c>
+      <c r="F2563" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2563" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H2563" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:8">
+      <c r="A2564" s="5">
+        <v>2562</v>
+      </c>
+      <c r="B2564" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2564" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2564" s="6">
+        <v>44212</v>
+      </c>
+      <c r="E2564" s="6">
+        <v>44210</v>
+      </c>
+      <c r="F2564" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2564" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H2564" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:8">
+      <c r="A2565" s="5">
+        <v>2563</v>
+      </c>
+      <c r="B2565" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2565" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2565" s="6">
+        <v>44212</v>
+      </c>
+      <c r="F2565" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2565" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H2565" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:8">
+      <c r="A2566" s="5">
+        <v>2564</v>
+      </c>
+      <c r="B2566" s="5">
+        <v>290009</v>
+      </c>
+      <c r="C2566" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2566" s="6">
+        <v>44212</v>
+      </c>
+      <c r="F2566" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2566" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H2566" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:N2186"/>
+  <autoFilter ref="A2:N2483"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2102:H2110">
